--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\DSA_SHEER_BY_APNACOLLEGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\Apna College DSA\apna_college_dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7C2AF-865E-4D4D-B06F-993DA3846EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -24,10 +23,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{0E431290-4785-4511-9786-B81085FD917A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{0E431290-4785-4511-9786-B81085FD917A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2157,8 +2156,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2347,8 +2346,14 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2403,6 +2408,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2416,7 +2427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2518,6 +2529,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2527,12 +2550,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2748,18 +2765,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="88.21875" customWidth="1"/>
@@ -2768,12 +2785,12 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2798,12 +2815,12 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2827,10 +2844,10 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2857,10 +2874,10 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2885,7 +2902,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +2932,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2947,14 +2964,14 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -2981,14 +2998,14 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3013,7 +3030,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -3041,7 +3058,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3069,7 +3086,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3099,7 @@
       <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="39" t="s">
         <v>699</v>
       </c>
       <c r="F11" s="2"/>
@@ -3107,11 +3124,11 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3143,18 +3160,18 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="40" t="s">
         <v>700</v>
       </c>
       <c r="F13" s="2"/>
@@ -3179,11 +3196,11 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -3192,7 +3209,7 @@
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="40" t="s">
         <v>700</v>
       </c>
       <c r="F14" s="2"/>
@@ -3217,18 +3234,18 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="40" t="s">
         <v>700</v>
       </c>
       <c r="F15" s="2"/>
@@ -3253,18 +3270,18 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="40" t="s">
         <v>700</v>
       </c>
       <c r="F16" s="2"/>
@@ -3289,11 +3306,11 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -3323,8 +3340,8 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -3357,11 +3374,11 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3391,11 +3408,11 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="42" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -3425,11 +3442,11 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="42" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3459,7 +3476,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
@@ -3495,7 +3512,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3546,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
@@ -3563,7 +3580,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -3597,7 +3614,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -3631,7 +3648,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
@@ -3665,7 +3682,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" ht="15.6">
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
@@ -3701,7 +3718,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" ht="15.6">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
@@ -3735,7 +3752,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" ht="15.6">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -3769,7 +3786,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" ht="15.6">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -3803,7 +3820,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" ht="15.6">
       <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
@@ -3837,7 +3854,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" ht="15.6">
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
@@ -3871,7 +3888,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" ht="15.6">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -3905,7 +3922,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" ht="15.6">
       <c r="A35" s="9" t="s">
         <v>14</v>
       </c>
@@ -3939,7 +3956,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" ht="15.6">
       <c r="A36" s="9" t="s">
         <v>14</v>
       </c>
@@ -3973,7 +3990,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" ht="15.6">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -4007,7 +4024,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="15">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -4035,7 +4052,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" ht="15">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
@@ -4063,7 +4080,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" ht="15.6">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -4097,7 +4114,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" ht="15.6">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
@@ -4131,7 +4148,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" ht="15.6">
       <c r="A42" s="5" t="s">
         <v>63</v>
       </c>
@@ -4167,7 +4184,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" ht="15.6">
       <c r="A43" s="5" t="s">
         <v>63</v>
       </c>
@@ -4201,7 +4218,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" ht="15.6">
       <c r="A44" s="5" t="s">
         <v>63</v>
       </c>
@@ -4235,7 +4252,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" ht="15.6">
       <c r="A45" s="5" t="s">
         <v>63</v>
       </c>
@@ -4269,7 +4286,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" ht="15.6">
       <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
@@ -4303,7 +4320,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" ht="15.6">
       <c r="A47" s="8" t="s">
         <v>63</v>
       </c>
@@ -4337,7 +4354,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" ht="15.6">
       <c r="A48" s="8" t="s">
         <v>63</v>
       </c>
@@ -4371,7 +4388,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" ht="15.6">
       <c r="A49" s="8" t="s">
         <v>63</v>
       </c>
@@ -4405,7 +4422,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" ht="15.6">
       <c r="A50" s="8" t="s">
         <v>63</v>
       </c>
@@ -4439,7 +4456,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" ht="15.6">
       <c r="A51" s="8" t="s">
         <v>63</v>
       </c>
@@ -4473,7 +4490,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" ht="15.6">
       <c r="A52" s="8" t="s">
         <v>63</v>
       </c>
@@ -4507,7 +4524,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" ht="15.6">
       <c r="A53" s="8" t="s">
         <v>63</v>
       </c>
@@ -4541,7 +4558,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" ht="15.6">
       <c r="A54" s="8" t="s">
         <v>63</v>
       </c>
@@ -4575,7 +4592,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" ht="15.6">
       <c r="A55" s="8" t="s">
         <v>63</v>
       </c>
@@ -4609,7 +4626,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" ht="15.6">
       <c r="A56" s="8" t="s">
         <v>63</v>
       </c>
@@ -4643,7 +4660,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" ht="15.6">
       <c r="A57" s="8" t="s">
         <v>63</v>
       </c>
@@ -4677,7 +4694,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" ht="15.6">
       <c r="A58" s="8" t="s">
         <v>63</v>
       </c>
@@ -4711,7 +4728,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" ht="15.6">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -4745,7 +4762,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" ht="15.6">
       <c r="A60" s="9" t="s">
         <v>63</v>
       </c>
@@ -4779,7 +4796,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" ht="15.6">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -4815,7 +4832,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
@@ -4843,7 +4860,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
@@ -4871,7 +4888,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" ht="15.6">
       <c r="A64" s="8" t="s">
         <v>107</v>
       </c>
@@ -4905,7 +4922,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" ht="15.6">
       <c r="A65" s="8" t="s">
         <v>107</v>
       </c>
@@ -4939,7 +4956,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" ht="15.6">
       <c r="A66" s="8" t="s">
         <v>107</v>
       </c>
@@ -4973,7 +4990,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" ht="15.6">
       <c r="A67" s="8" t="s">
         <v>107</v>
       </c>
@@ -5007,7 +5024,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" ht="15.6">
       <c r="A68" s="8" t="s">
         <v>107</v>
       </c>
@@ -5041,7 +5058,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" ht="15.6">
       <c r="A69" s="8" t="s">
         <v>107</v>
       </c>
@@ -5077,7 +5094,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" ht="15.6">
       <c r="A70" s="8" t="s">
         <v>107</v>
       </c>
@@ -5111,7 +5128,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" ht="15.6">
       <c r="A71" s="8" t="s">
         <v>107</v>
       </c>
@@ -5145,7 +5162,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" ht="15.6">
       <c r="A72" s="8" t="s">
         <v>107</v>
       </c>
@@ -5179,7 +5196,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" ht="15.6">
       <c r="A73" s="9" t="s">
         <v>107</v>
       </c>
@@ -5213,7 +5230,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" ht="15.6">
       <c r="A74" s="19"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
@@ -5241,7 +5258,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" ht="15.6">
       <c r="A75" s="19"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
@@ -5269,7 +5286,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" ht="15.6">
       <c r="A76" s="20" t="s">
         <v>128</v>
       </c>
@@ -5303,7 +5320,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" ht="15.6">
       <c r="A77" s="20" t="s">
         <v>128</v>
       </c>
@@ -5337,7 +5354,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" ht="15.6">
       <c r="A78" s="20" t="s">
         <v>128</v>
       </c>
@@ -5371,7 +5388,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" ht="15.6">
       <c r="A79" s="20" t="s">
         <v>128</v>
       </c>
@@ -5405,7 +5422,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" ht="15.6">
       <c r="A80" s="20" t="s">
         <v>128</v>
       </c>
@@ -5439,7 +5456,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26" ht="15.6">
       <c r="A81" s="20" t="s">
         <v>128</v>
       </c>
@@ -5473,7 +5490,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26" ht="15.6">
       <c r="A82" s="22" t="s">
         <v>128</v>
       </c>
@@ -5507,7 +5524,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" ht="15.6">
       <c r="A83" s="22" t="s">
         <v>128</v>
       </c>
@@ -5541,7 +5558,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:26" ht="15.6">
       <c r="A84" s="22" t="s">
         <v>128</v>
       </c>
@@ -5574,7 +5591,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26" ht="15.6">
       <c r="A85" s="22" t="s">
         <v>128</v>
       </c>
@@ -5607,7 +5624,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26" ht="15.6">
       <c r="A86" s="22" t="s">
         <v>128</v>
       </c>
@@ -5641,7 +5658,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:26" ht="15.6">
       <c r="A87" s="22" t="s">
         <v>128</v>
       </c>
@@ -5675,7 +5692,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26" ht="15.6">
       <c r="A88" s="22" t="s">
         <v>128</v>
       </c>
@@ -5709,7 +5726,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26" ht="15.6">
       <c r="A89" s="22" t="s">
         <v>128</v>
       </c>
@@ -5743,7 +5760,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" ht="15.6">
       <c r="A90" s="22" t="s">
         <v>128</v>
       </c>
@@ -5777,7 +5794,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26" ht="15.6">
       <c r="A91" s="22" t="s">
         <v>128</v>
       </c>
@@ -5811,7 +5828,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26" ht="15.6">
       <c r="A92" s="24" t="s">
         <v>128</v>
       </c>
@@ -5845,7 +5862,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26" ht="15.6">
       <c r="A93" s="24" t="s">
         <v>128</v>
       </c>
@@ -5879,7 +5896,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26" ht="15.6">
       <c r="A94" s="24" t="s">
         <v>128</v>
       </c>
@@ -5913,7 +5930,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26" ht="15.6">
       <c r="A95" s="24" t="s">
         <v>128</v>
       </c>
@@ -5947,7 +5964,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" ht="15.6">
       <c r="A96" s="24" t="s">
         <v>128</v>
       </c>
@@ -5981,7 +5998,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:26" ht="15.6">
       <c r="A97" s="24" t="s">
         <v>128</v>
       </c>
@@ -6015,7 +6032,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26" ht="15.6">
       <c r="A98" s="24" t="s">
         <v>128</v>
       </c>
@@ -6049,7 +6066,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:26" ht="15">
       <c r="A99" s="19"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
@@ -6077,7 +6094,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:26" ht="15">
       <c r="A100" s="19"/>
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
@@ -6105,7 +6122,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:26" ht="15.6">
       <c r="A101" s="8" t="s">
         <v>171</v>
       </c>
@@ -6139,7 +6156,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:26" ht="15.6">
       <c r="A102" s="8" t="s">
         <v>171</v>
       </c>
@@ -6173,7 +6190,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:26" ht="15.6">
       <c r="A103" s="8" t="s">
         <v>171</v>
       </c>
@@ -6207,7 +6224,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:26" ht="15.6">
       <c r="A104" s="8" t="s">
         <v>171</v>
       </c>
@@ -6241,7 +6258,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:26" ht="15.6">
       <c r="A105" s="8" t="s">
         <v>171</v>
       </c>
@@ -6275,7 +6292,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:26" ht="15.6">
       <c r="A106" s="8" t="s">
         <v>171</v>
       </c>
@@ -6309,7 +6326,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:26" ht="15.6">
       <c r="A107" s="8" t="s">
         <v>171</v>
       </c>
@@ -6343,7 +6360,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:26" ht="15.6">
       <c r="A108" s="8" t="s">
         <v>171</v>
       </c>
@@ -6377,7 +6394,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:26" ht="15.6">
       <c r="A109" s="9" t="s">
         <v>171</v>
       </c>
@@ -6410,7 +6427,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:26" ht="15.6">
       <c r="A110" s="9" t="s">
         <v>171</v>
       </c>
@@ -6443,7 +6460,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:26" ht="15.6">
       <c r="A111" s="9" t="s">
         <v>171</v>
       </c>
@@ -6476,7 +6493,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:26" ht="15.6">
       <c r="A112" s="9" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6524,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:26" ht="15.6">
       <c r="A113" s="9" t="s">
         <v>171</v>
       </c>
@@ -6540,7 +6557,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:26" ht="15.6">
       <c r="A114" s="9" t="s">
         <v>171</v>
       </c>
@@ -6573,7 +6590,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:26" ht="15.6">
       <c r="A115" s="9" t="s">
         <v>171</v>
       </c>
@@ -6607,7 +6624,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:26" ht="15.6">
       <c r="A116" s="9" t="s">
         <v>171</v>
       </c>
@@ -6641,7 +6658,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:26" ht="15.6">
       <c r="A117" s="9" t="s">
         <v>171</v>
       </c>
@@ -6675,7 +6692,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:26" ht="15.6">
       <c r="A118" s="9" t="s">
         <v>171</v>
       </c>
@@ -6709,7 +6726,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:26" ht="15.6">
       <c r="A119" s="9" t="s">
         <v>171</v>
       </c>
@@ -6741,7 +6758,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:26" ht="15.6">
       <c r="A120" s="9" t="s">
         <v>171</v>
       </c>
@@ -6773,7 +6790,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:26" ht="15.6">
       <c r="A121" s="9" t="s">
         <v>171</v>
       </c>
@@ -6805,7 +6822,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:26" ht="15">
       <c r="A122" s="19"/>
       <c r="B122" s="17"/>
       <c r="C122" s="18"/>
@@ -6831,7 +6848,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:26" ht="15">
       <c r="A123" s="19"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
@@ -6857,7 +6874,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:26" ht="15.6">
       <c r="A124" s="5" t="s">
         <v>205</v>
       </c>
@@ -6890,7 +6907,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:26" ht="15.6">
       <c r="A125" s="5" t="s">
         <v>205</v>
       </c>
@@ -6923,7 +6940,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:26" ht="15.6">
       <c r="A126" s="5" t="s">
         <v>205</v>
       </c>
@@ -6956,7 +6973,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:26" ht="15.6">
       <c r="A127" s="5" t="s">
         <v>205</v>
       </c>
@@ -6989,7 +7006,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:26" ht="15.6">
       <c r="A128" s="5" t="s">
         <v>205</v>
       </c>
@@ -7022,7 +7039,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:26" ht="15.6">
       <c r="A129" s="5" t="s">
         <v>205</v>
       </c>
@@ -7055,7 +7072,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:26" ht="15.6">
       <c r="A130" s="5" t="s">
         <v>205</v>
       </c>
@@ -7088,7 +7105,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:26" ht="15.6">
       <c r="A131" s="8" t="s">
         <v>205</v>
       </c>
@@ -7121,7 +7138,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:26" ht="15.6">
       <c r="A132" s="8" t="s">
         <v>205</v>
       </c>
@@ -7154,7 +7171,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:26" ht="15.6">
       <c r="A133" s="8" t="s">
         <v>205</v>
       </c>
@@ -7187,7 +7204,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:26" ht="15.6">
       <c r="A134" s="8" t="s">
         <v>205</v>
       </c>
@@ -7220,7 +7237,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:26" ht="15.6">
       <c r="A135" s="8" t="s">
         <v>205</v>
       </c>
@@ -7254,7 +7271,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:26" ht="15.6">
       <c r="A136" s="8" t="s">
         <v>205</v>
       </c>
@@ -7288,7 +7305,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:26" ht="15.6">
       <c r="A137" s="8" t="s">
         <v>205</v>
       </c>
@@ -7322,7 +7339,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:26" ht="15.6">
       <c r="A138" s="8" t="s">
         <v>205</v>
       </c>
@@ -7356,7 +7373,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:26" ht="15.6">
       <c r="A139" s="8" t="s">
         <v>205</v>
       </c>
@@ -7390,7 +7407,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:26" ht="15.6">
       <c r="A140" s="8" t="s">
         <v>205</v>
       </c>
@@ -7424,7 +7441,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:26" ht="15.6">
       <c r="A141" s="8" t="s">
         <v>205</v>
       </c>
@@ -7458,7 +7475,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:26" ht="15.6">
       <c r="A142" s="8" t="s">
         <v>205</v>
       </c>
@@ -7492,7 +7509,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:26" ht="15.6">
       <c r="A143" s="9" t="s">
         <v>205</v>
       </c>
@@ -7526,7 +7543,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:26" ht="15.6">
       <c r="A144" s="9" t="s">
         <v>205</v>
       </c>
@@ -7562,7 +7579,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:26" ht="15.6">
       <c r="A145" s="9" t="s">
         <v>205</v>
       </c>
@@ -7598,7 +7615,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:26" ht="15.6">
       <c r="A146" s="9" t="s">
         <v>205</v>
       </c>
@@ -7632,7 +7649,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:26" ht="15.6">
       <c r="A147" s="9" t="s">
         <v>205</v>
       </c>
@@ -7666,7 +7683,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:26" ht="15.6">
       <c r="A148" s="9" t="s">
         <v>205</v>
       </c>
@@ -7700,7 +7717,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:26" ht="15.6">
       <c r="A149" s="9" t="s">
         <v>205</v>
       </c>
@@ -7734,7 +7751,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:26" ht="15">
       <c r="A150" s="19"/>
       <c r="B150" s="17"/>
       <c r="C150" s="18"/>
@@ -7762,7 +7779,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:26" ht="15">
       <c r="A151" s="19"/>
       <c r="B151" s="17" t="s">
         <v>254</v>
@@ -7792,7 +7809,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:26" ht="15.6">
       <c r="A152" s="5" t="s">
         <v>255</v>
       </c>
@@ -7826,7 +7843,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:26" ht="15.6">
       <c r="A153" s="5" t="s">
         <v>255</v>
       </c>
@@ -7860,7 +7877,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:26" ht="15.6">
       <c r="A154" s="5" t="s">
         <v>255</v>
       </c>
@@ -7894,7 +7911,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:26" ht="15.6">
       <c r="A155" s="5" t="s">
         <v>255</v>
       </c>
@@ -7928,7 +7945,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:26" ht="15.6">
       <c r="A156" s="5" t="s">
         <v>255</v>
       </c>
@@ -7962,7 +7979,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:26" ht="15.6">
       <c r="A157" s="5" t="s">
         <v>255</v>
       </c>
@@ -7996,7 +8013,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:26" ht="15.6">
       <c r="A158" s="8" t="s">
         <v>255</v>
       </c>
@@ -8030,7 +8047,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:26" ht="15.6">
       <c r="A159" s="8" t="s">
         <v>255</v>
       </c>
@@ -8064,7 +8081,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:26" ht="15.6">
       <c r="A160" s="8" t="s">
         <v>255</v>
       </c>
@@ -8098,7 +8115,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:26" ht="15.6">
       <c r="A161" s="8" t="s">
         <v>255</v>
       </c>
@@ -8130,7 +8147,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:26" ht="15.6">
       <c r="A162" s="8" t="s">
         <v>255</v>
       </c>
@@ -8162,7 +8179,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:26" ht="15.6">
       <c r="A163" s="8" t="s">
         <v>255</v>
       </c>
@@ -8194,7 +8211,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:26" ht="15.6">
       <c r="A164" s="8" t="s">
         <v>255</v>
       </c>
@@ -8226,7 +8243,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:26" ht="15.6">
       <c r="A165" s="8" t="s">
         <v>255</v>
       </c>
@@ -8258,7 +8275,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:26" ht="15.6">
       <c r="A166" s="8" t="s">
         <v>255</v>
       </c>
@@ -8290,7 +8307,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:26" ht="15.6">
       <c r="A167" s="8" t="s">
         <v>255</v>
       </c>
@@ -8322,7 +8339,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:26" ht="15.6">
       <c r="A168" s="8" t="s">
         <v>255</v>
       </c>
@@ -8354,7 +8371,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:26" ht="15.6">
       <c r="A169" s="8" t="s">
         <v>255</v>
       </c>
@@ -8386,7 +8403,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:26" ht="15.6">
       <c r="A170" s="8" t="s">
         <v>255</v>
       </c>
@@ -8418,7 +8435,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:26" ht="15.6">
       <c r="A171" s="8" t="s">
         <v>255</v>
       </c>
@@ -8450,7 +8467,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:26" ht="15.6">
       <c r="A172" s="8" t="s">
         <v>255</v>
       </c>
@@ -8482,7 +8499,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:26" ht="15.6">
       <c r="A173" s="9" t="s">
         <v>255</v>
       </c>
@@ -8514,7 +8531,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:26" ht="15.6">
       <c r="A174" s="9" t="s">
         <v>255</v>
       </c>
@@ -8546,7 +8563,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:26" ht="15.6">
       <c r="A175" s="9" t="s">
         <v>255</v>
       </c>
@@ -8578,7 +8595,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:26" ht="15.6">
       <c r="A176" s="9" t="s">
         <v>255</v>
       </c>
@@ -8610,7 +8627,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:26" ht="15.6">
       <c r="A177" s="9" t="s">
         <v>255</v>
       </c>
@@ -8644,7 +8661,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:26" ht="15.6">
       <c r="A178" s="9" t="s">
         <v>255</v>
       </c>
@@ -8678,7 +8695,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:26" ht="15">
       <c r="C179" s="18"/>
       <c r="D179" s="32"/>
       <c r="E179" s="2"/>
@@ -8704,7 +8721,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:26" ht="15">
       <c r="A180" s="19"/>
       <c r="B180" s="17"/>
       <c r="C180" s="18"/>
@@ -8732,7 +8749,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:26" ht="15.6">
       <c r="A181" s="5" t="s">
         <v>303</v>
       </c>
@@ -8766,7 +8783,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:26" ht="15.6">
       <c r="A182" s="5" t="s">
         <v>303</v>
       </c>
@@ -8800,7 +8817,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:26" ht="15.6">
       <c r="A183" s="5" t="s">
         <v>303</v>
       </c>
@@ -8834,7 +8851,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:26" ht="15.6">
       <c r="A184" s="5" t="s">
         <v>303</v>
       </c>
@@ -8868,7 +8885,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:26" ht="15.6">
       <c r="A185" s="5" t="s">
         <v>303</v>
       </c>
@@ -8902,7 +8919,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:26" ht="15.6">
       <c r="A186" s="5" t="s">
         <v>303</v>
       </c>
@@ -8932,7 +8949,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:26" ht="15.6">
       <c r="A187" s="5" t="s">
         <v>303</v>
       </c>
@@ -8964,7 +8981,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:26" ht="15.6">
       <c r="A188" s="8" t="s">
         <v>303</v>
       </c>
@@ -8996,7 +9013,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:26" ht="15.6">
       <c r="A189" s="8" t="s">
         <v>303</v>
       </c>
@@ -9026,7 +9043,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:26" ht="15.6">
       <c r="A190" s="8" t="s">
         <v>303</v>
       </c>
@@ -9058,7 +9075,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:26" ht="15.6">
       <c r="A191" s="8" t="s">
         <v>303</v>
       </c>
@@ -9090,7 +9107,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:26" ht="15.6">
       <c r="A192" s="8" t="s">
         <v>303</v>
       </c>
@@ -9122,7 +9139,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:26" ht="15.6">
       <c r="A193" s="8" t="s">
         <v>303</v>
       </c>
@@ -9154,7 +9171,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:26" ht="15.6">
       <c r="A194" s="8" t="s">
         <v>303</v>
       </c>
@@ -9186,7 +9203,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:26" ht="15.6">
       <c r="A195" s="8" t="s">
         <v>303</v>
       </c>
@@ -9218,7 +9235,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:26" ht="15.6">
       <c r="A196" s="8" t="s">
         <v>303</v>
       </c>
@@ -9250,7 +9267,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:26" ht="15.6">
       <c r="A197" s="9" t="s">
         <v>303</v>
       </c>
@@ -9280,7 +9297,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:26" ht="15.6">
       <c r="A198" s="9" t="s">
         <v>303</v>
       </c>
@@ -9312,7 +9329,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:26" ht="15.6">
       <c r="A199" s="9" t="s">
         <v>303</v>
       </c>
@@ -9344,7 +9361,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:26" ht="15.6">
       <c r="A200" s="9" t="s">
         <v>303</v>
       </c>
@@ -9374,7 +9391,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:26" ht="15.6">
       <c r="A201" s="9" t="s">
         <v>303</v>
       </c>
@@ -9404,7 +9421,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:26" ht="15.6">
       <c r="A202" s="9" t="s">
         <v>303</v>
       </c>
@@ -9436,7 +9453,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:26" ht="15">
       <c r="A203" s="19"/>
       <c r="B203" s="17"/>
       <c r="C203" s="18"/>
@@ -9464,7 +9481,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:26" ht="15">
       <c r="A204" s="19"/>
       <c r="B204" s="17"/>
       <c r="C204" s="18"/>
@@ -9492,7 +9509,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:26" ht="15.6">
       <c r="A205" s="5" t="s">
         <v>336</v>
       </c>
@@ -9526,7 +9543,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:26" ht="15.6">
       <c r="A206" s="5" t="s">
         <v>336</v>
       </c>
@@ -9560,7 +9577,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:26" ht="15.6">
       <c r="A207" s="5" t="s">
         <v>336</v>
       </c>
@@ -9594,7 +9611,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:26" ht="15.6">
       <c r="A208" s="5" t="s">
         <v>336</v>
       </c>
@@ -9628,7 +9645,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:26" ht="15.6">
       <c r="A209" s="5" t="s">
         <v>336</v>
       </c>
@@ -9662,7 +9679,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:26" ht="15.6">
       <c r="A210" s="5" t="s">
         <v>336</v>
       </c>
@@ -9696,7 +9713,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:26" ht="15.6">
       <c r="A211" s="5" t="s">
         <v>336</v>
       </c>
@@ -9729,7 +9746,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:26" ht="15.6">
       <c r="A212" s="5" t="s">
         <v>336</v>
       </c>
@@ -9762,7 +9779,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:26" ht="15.6">
       <c r="A213" s="5" t="s">
         <v>336</v>
       </c>
@@ -9795,7 +9812,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:26" ht="15.6">
       <c r="A214" s="5" t="s">
         <v>336</v>
       </c>
@@ -9828,7 +9845,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:26" ht="15.6">
       <c r="A215" s="5" t="s">
         <v>336</v>
       </c>
@@ -9861,7 +9878,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:26" ht="15.6">
       <c r="A216" s="5" t="s">
         <v>336</v>
       </c>
@@ -9894,7 +9911,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:26" ht="15.6">
       <c r="A217" s="5" t="s">
         <v>336</v>
       </c>
@@ -9927,7 +9944,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:26" ht="15.6">
       <c r="A218" s="5" t="s">
         <v>336</v>
       </c>
@@ -9960,7 +9977,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:26" ht="15.6">
       <c r="A219" s="8" t="s">
         <v>336</v>
       </c>
@@ -9994,7 +10011,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:26" ht="15.6">
       <c r="A220" s="8" t="s">
         <v>336</v>
       </c>
@@ -10028,7 +10045,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:26" ht="15.6">
       <c r="A221" s="8" t="s">
         <v>336</v>
       </c>
@@ -10062,7 +10079,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:26" ht="15.6">
       <c r="A222" s="8" t="s">
         <v>336</v>
       </c>
@@ -10096,7 +10113,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:26" ht="15.6">
       <c r="A223" s="8" t="s">
         <v>336</v>
       </c>
@@ -10130,7 +10147,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:26" ht="15.6">
       <c r="A224" s="8" t="s">
         <v>336</v>
       </c>
@@ -10164,7 +10181,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:26" ht="15.6">
       <c r="A225" s="8" t="s">
         <v>336</v>
       </c>
@@ -10198,7 +10215,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:26" ht="15.6">
       <c r="A226" s="8" t="s">
         <v>336</v>
       </c>
@@ -10232,7 +10249,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:26" ht="15.6">
       <c r="A227" s="8" t="s">
         <v>336</v>
       </c>
@@ -10266,7 +10283,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:26" ht="15.6">
       <c r="A228" s="8" t="s">
         <v>336</v>
       </c>
@@ -10300,7 +10317,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:26" ht="15.6">
       <c r="A229" s="8" t="s">
         <v>336</v>
       </c>
@@ -10334,7 +10351,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:26" ht="15.6">
       <c r="A230" s="8" t="s">
         <v>336</v>
       </c>
@@ -10368,7 +10385,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:26" ht="15.6">
       <c r="A231" s="8" t="s">
         <v>336</v>
       </c>
@@ -10402,7 +10419,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:26" ht="15.6">
       <c r="A232" s="8" t="s">
         <v>336</v>
       </c>
@@ -10436,7 +10453,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:26" ht="15.6">
       <c r="A233" s="8" t="s">
         <v>336</v>
       </c>
@@ -10470,7 +10487,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:26" ht="15.6">
       <c r="A234" s="9" t="s">
         <v>336</v>
       </c>
@@ -10504,7 +10521,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:26" ht="15.6">
       <c r="A235" s="9" t="s">
         <v>336</v>
       </c>
@@ -10538,7 +10555,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:26" ht="15.6">
       <c r="A236" s="9" t="s">
         <v>336</v>
       </c>
@@ -10572,7 +10589,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:26" ht="15.6">
       <c r="A237" s="9" t="s">
         <v>336</v>
       </c>
@@ -10606,7 +10623,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:26" ht="15">
       <c r="A238" s="19"/>
       <c r="B238" s="17"/>
       <c r="C238" s="18"/>
@@ -10634,7 +10651,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:26" ht="15">
       <c r="A239" s="19"/>
       <c r="B239" s="17"/>
       <c r="C239" s="18"/>
@@ -10662,7 +10679,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:26" ht="15.6">
       <c r="A240" s="5" t="s">
         <v>396</v>
       </c>
@@ -10696,7 +10713,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:26" ht="15.6">
       <c r="A241" s="5" t="s">
         <v>396</v>
       </c>
@@ -10730,7 +10747,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:26" ht="15.6">
       <c r="A242" s="5" t="s">
         <v>396</v>
       </c>
@@ -10764,7 +10781,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:26" ht="15.6">
       <c r="A243" s="5" t="s">
         <v>396</v>
       </c>
@@ -10797,7 +10814,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:26" ht="15.6">
       <c r="A244" s="5" t="s">
         <v>396</v>
       </c>
@@ -10830,7 +10847,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:26" ht="15.6">
       <c r="A245" s="5" t="s">
         <v>396</v>
       </c>
@@ -10863,7 +10880,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:26" ht="15.6">
       <c r="A246" s="5" t="s">
         <v>396</v>
       </c>
@@ -10896,7 +10913,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:26" ht="15.6">
       <c r="A247" s="8" t="s">
         <v>396</v>
       </c>
@@ -10929,7 +10946,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:26" ht="15.6">
       <c r="A248" s="8" t="s">
         <v>396</v>
       </c>
@@ -10962,7 +10979,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:26" ht="15.6">
       <c r="A249" s="8" t="s">
         <v>396</v>
       </c>
@@ -10995,7 +11012,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:26" ht="15.6">
       <c r="A250" s="8" t="s">
         <v>396</v>
       </c>
@@ -11028,7 +11045,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:26" ht="15.6">
       <c r="A251" s="8" t="s">
         <v>396</v>
       </c>
@@ -11061,7 +11078,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:26" ht="15.6">
       <c r="A252" s="8" t="s">
         <v>396</v>
       </c>
@@ -11094,7 +11111,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:26" ht="15.6">
       <c r="A253" s="8" t="s">
         <v>396</v>
       </c>
@@ -11127,7 +11144,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:26" ht="15.6">
       <c r="A254" s="8" t="s">
         <v>396</v>
       </c>
@@ -11160,7 +11177,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:26" ht="15.6">
       <c r="A255" s="8" t="s">
         <v>396</v>
       </c>
@@ -11193,7 +11210,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:26" ht="15.6">
       <c r="A256" s="9" t="s">
         <v>396</v>
       </c>
@@ -11226,7 +11243,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:26" ht="15.6">
       <c r="A257" s="9" t="s">
         <v>396</v>
       </c>
@@ -11259,7 +11276,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:26" ht="15.6">
       <c r="A258" s="9" t="s">
         <v>396</v>
       </c>
@@ -11292,7 +11309,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:26" ht="15.6">
       <c r="A259" s="9" t="s">
         <v>396</v>
       </c>
@@ -11326,7 +11343,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:26" ht="15.6">
       <c r="A260" s="9" t="s">
         <v>396</v>
       </c>
@@ -11362,7 +11379,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:26" ht="15">
       <c r="A261" s="19"/>
       <c r="B261" s="17"/>
       <c r="C261" s="18"/>
@@ -11390,7 +11407,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:26" ht="15">
       <c r="A262" s="19"/>
       <c r="B262" s="17"/>
       <c r="C262" s="18"/>
@@ -11418,7 +11435,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:26" ht="15.6">
       <c r="A263" s="8" t="s">
         <v>431</v>
       </c>
@@ -11450,7 +11467,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:26" ht="15.6">
       <c r="A264" s="8" t="s">
         <v>431</v>
       </c>
@@ -11484,7 +11501,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:26" ht="15.6">
       <c r="A265" s="8" t="s">
         <v>431</v>
       </c>
@@ -11518,7 +11535,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:26" ht="15.6">
       <c r="A266" s="8" t="s">
         <v>431</v>
       </c>
@@ -11552,7 +11569,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:26" ht="15.6">
       <c r="A267" s="8" t="s">
         <v>431</v>
       </c>
@@ -11586,7 +11603,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:26" ht="15.6">
       <c r="A268" s="8" t="s">
         <v>431</v>
       </c>
@@ -11620,7 +11637,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:26" ht="15.6">
       <c r="A269" s="8" t="s">
         <v>431</v>
       </c>
@@ -11654,7 +11671,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:26" ht="15.6">
       <c r="A270" s="8" t="s">
         <v>431</v>
       </c>
@@ -11688,7 +11705,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:26" ht="15.6">
       <c r="A271" s="8" t="s">
         <v>431</v>
       </c>
@@ -11722,7 +11739,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:26" ht="15.6">
       <c r="A272" s="8" t="s">
         <v>431</v>
       </c>
@@ -11756,7 +11773,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:26" ht="15.6">
       <c r="A273" s="8" t="s">
         <v>431</v>
       </c>
@@ -11790,7 +11807,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:26" ht="15.6">
       <c r="A274" s="8" t="s">
         <v>431</v>
       </c>
@@ -11824,7 +11841,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:26" ht="15.6">
       <c r="A275" s="8" t="s">
         <v>431</v>
       </c>
@@ -11858,7 +11875,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:26" ht="15.6">
       <c r="A276" s="8" t="s">
         <v>431</v>
       </c>
@@ -11892,7 +11909,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:26" ht="15.6">
       <c r="A277" s="8" t="s">
         <v>431</v>
       </c>
@@ -11926,7 +11943,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:26" ht="15.6">
       <c r="A278" s="8" t="s">
         <v>431</v>
       </c>
@@ -11960,7 +11977,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:26" ht="15.6">
       <c r="A279" s="9" t="s">
         <v>431</v>
       </c>
@@ -11994,7 +12011,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:26" ht="15.6">
       <c r="A280" s="9" t="s">
         <v>431</v>
       </c>
@@ -12028,7 +12045,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:26" ht="15.6">
       <c r="A281" s="9" t="s">
         <v>431</v>
       </c>
@@ -12061,7 +12078,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:26" ht="15.6">
       <c r="A282" s="9" t="s">
         <v>431</v>
       </c>
@@ -12094,7 +12111,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:26" ht="15.6">
       <c r="A283" s="9" t="s">
         <v>431</v>
       </c>
@@ -12127,7 +12144,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:26" ht="15.6">
       <c r="A284" s="9" t="s">
         <v>431</v>
       </c>
@@ -12160,7 +12177,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:26" ht="15.6">
       <c r="A285" s="9" t="s">
         <v>431</v>
       </c>
@@ -12193,7 +12210,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:26" ht="15.6">
       <c r="A286" s="9" t="s">
         <v>431</v>
       </c>
@@ -12226,7 +12243,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:26" ht="15.6">
       <c r="A287" s="9" t="s">
         <v>431</v>
       </c>
@@ -12259,7 +12276,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:26" ht="15.6">
       <c r="A288" s="9" t="s">
         <v>431</v>
       </c>
@@ -12292,7 +12309,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:26" ht="15.6">
       <c r="A289" s="9" t="s">
         <v>431</v>
       </c>
@@ -12325,7 +12342,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:26" ht="15.6">
       <c r="A290" s="9" t="s">
         <v>431</v>
       </c>
@@ -12358,7 +12375,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:26" ht="15">
       <c r="A291" s="19"/>
       <c r="B291" s="17"/>
       <c r="C291" s="18"/>
@@ -12385,7 +12402,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:26" ht="15">
       <c r="A292" s="19"/>
       <c r="B292" s="17"/>
       <c r="C292" s="18"/>
@@ -12413,7 +12430,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:26" ht="15.6">
       <c r="A293" s="5" t="s">
         <v>476</v>
       </c>
@@ -12447,7 +12464,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:26" ht="15.6">
       <c r="A294" s="5" t="s">
         <v>476</v>
       </c>
@@ -12481,7 +12498,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:26" ht="15.6">
       <c r="A295" s="5" t="s">
         <v>476</v>
       </c>
@@ -12515,7 +12532,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:26" ht="15.6">
       <c r="A296" s="5" t="s">
         <v>476</v>
       </c>
@@ -12549,7 +12566,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:26" ht="15.6">
       <c r="A297" s="8" t="s">
         <v>476</v>
       </c>
@@ -12583,7 +12600,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:26" ht="15.6">
       <c r="A298" s="8" t="s">
         <v>476</v>
       </c>
@@ -12617,7 +12634,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:26" ht="15.6">
       <c r="A299" s="8" t="s">
         <v>476</v>
       </c>
@@ -12651,7 +12668,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:26" ht="15.6">
       <c r="A300" s="8" t="s">
         <v>476</v>
       </c>
@@ -12685,7 +12702,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:26" ht="15.6">
       <c r="A301" s="8" t="s">
         <v>476</v>
       </c>
@@ -12719,7 +12736,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:26" ht="15.6">
       <c r="A302" s="8" t="s">
         <v>476</v>
       </c>
@@ -12753,7 +12770,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:26" ht="15.6">
       <c r="A303" s="8" t="s">
         <v>476</v>
       </c>
@@ -12787,7 +12804,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:26" ht="15.6">
       <c r="A304" s="8" t="s">
         <v>476</v>
       </c>
@@ -12821,7 +12838,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:26" ht="15.6">
       <c r="A305" s="8" t="s">
         <v>476</v>
       </c>
@@ -12855,7 +12872,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:26" ht="15.6">
       <c r="A306" s="8" t="s">
         <v>476</v>
       </c>
@@ -12889,7 +12906,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:26" ht="15.6">
       <c r="A307" s="8" t="s">
         <v>476</v>
       </c>
@@ -12923,7 +12940,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:26" ht="15.6">
       <c r="A308" s="8" t="s">
         <v>476</v>
       </c>
@@ -12957,7 +12974,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:26" ht="15.6">
       <c r="A309" s="8" t="s">
         <v>476</v>
       </c>
@@ -12991,7 +13008,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:26" ht="15.6">
       <c r="A310" s="8" t="s">
         <v>476</v>
       </c>
@@ -13025,7 +13042,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:26" ht="15.6">
       <c r="A311" s="8" t="s">
         <v>476</v>
       </c>
@@ -13059,7 +13076,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:26" ht="15.6">
       <c r="A312" s="8" t="s">
         <v>476</v>
       </c>
@@ -13093,7 +13110,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:26" ht="15.6">
       <c r="A313" s="8" t="s">
         <v>476</v>
       </c>
@@ -13127,7 +13144,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:26" ht="15.6">
       <c r="A314" s="8" t="s">
         <v>476</v>
       </c>
@@ -13161,7 +13178,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:26" ht="15.6">
       <c r="A315" s="8" t="s">
         <v>476</v>
       </c>
@@ -13195,7 +13212,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:26" ht="15.6">
       <c r="A316" s="8" t="s">
         <v>476</v>
       </c>
@@ -13229,7 +13246,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:26" ht="15.6">
       <c r="A317" s="8" t="s">
         <v>476</v>
       </c>
@@ -13263,7 +13280,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:26" ht="15.6">
       <c r="A318" s="8" t="s">
         <v>476</v>
       </c>
@@ -13297,7 +13314,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:26" ht="15.6">
       <c r="A319" s="8" t="s">
         <v>476</v>
       </c>
@@ -13331,7 +13348,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:26" ht="15.6">
       <c r="A320" s="8" t="s">
         <v>476</v>
       </c>
@@ -13365,7 +13382,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:26" ht="15.6">
       <c r="A321" s="8" t="s">
         <v>476</v>
       </c>
@@ -13399,7 +13416,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:26" ht="15.6">
       <c r="A322" s="9" t="s">
         <v>476</v>
       </c>
@@ -13433,7 +13450,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:26" ht="15.6">
       <c r="A323" s="9" t="s">
         <v>476</v>
       </c>
@@ -13467,7 +13484,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:26" ht="15.6">
       <c r="A324" s="9" t="s">
         <v>476</v>
       </c>
@@ -13503,7 +13520,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:26" ht="15.6">
       <c r="A325" s="9" t="s">
         <v>476</v>
       </c>
@@ -13537,7 +13554,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:26" ht="15.6">
       <c r="A326" s="9" t="s">
         <v>476</v>
       </c>
@@ -13573,7 +13590,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:26" ht="15.6">
       <c r="A327" s="9" t="s">
         <v>476</v>
       </c>
@@ -13607,7 +13624,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:26" ht="15.6">
       <c r="A328" s="9" t="s">
         <v>476</v>
       </c>
@@ -13641,7 +13658,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:26" ht="15.6">
       <c r="A329" s="9" t="s">
         <v>476</v>
       </c>
@@ -13675,7 +13692,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:26" ht="15.6">
       <c r="A330" s="9" t="s">
         <v>476</v>
       </c>
@@ -13709,7 +13726,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:26" ht="15.6">
       <c r="A331" s="9" t="s">
         <v>476</v>
       </c>
@@ -13743,7 +13760,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:26" ht="15.6">
       <c r="A332" s="9" t="s">
         <v>476</v>
       </c>
@@ -13777,7 +13794,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:26" ht="15">
       <c r="A333" s="19"/>
       <c r="B333" s="17"/>
       <c r="C333" s="18"/>
@@ -13805,7 +13822,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:26" ht="15">
       <c r="A334" s="19"/>
       <c r="B334" s="17"/>
       <c r="C334" s="18"/>
@@ -13833,7 +13850,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:26" ht="15.6">
       <c r="A335" s="8" t="s">
         <v>540</v>
       </c>
@@ -13867,7 +13884,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:26" ht="15.6">
       <c r="A336" s="8" t="s">
         <v>540</v>
       </c>
@@ -13901,7 +13918,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:26" ht="15.6">
       <c r="A337" s="8" t="s">
         <v>540</v>
       </c>
@@ -13935,7 +13952,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:26" ht="15.6">
       <c r="A338" s="8" t="s">
         <v>540</v>
       </c>
@@ -13969,7 +13986,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:26" ht="15.6">
       <c r="A339" s="9" t="s">
         <v>540</v>
       </c>
@@ -14003,7 +14020,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:26" ht="15.6">
       <c r="A340" s="9" t="s">
         <v>540</v>
       </c>
@@ -14037,7 +14054,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:26" ht="15">
       <c r="A341" s="19"/>
       <c r="B341" s="17"/>
       <c r="C341" s="18"/>
@@ -14065,7 +14082,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:26" ht="15">
       <c r="A342" s="19"/>
       <c r="B342" s="17"/>
       <c r="C342" s="18"/>
@@ -14093,7 +14110,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:26" ht="15.6">
       <c r="A343" s="5" t="s">
         <v>553</v>
       </c>
@@ -14127,7 +14144,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:26" ht="15.6">
       <c r="A344" s="5" t="s">
         <v>553</v>
       </c>
@@ -14161,7 +14178,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:26" ht="15.6">
       <c r="A345" s="5" t="s">
         <v>553</v>
       </c>
@@ -14195,7 +14212,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:26" ht="15.6">
       <c r="A346" s="5" t="s">
         <v>553</v>
       </c>
@@ -14229,7 +14246,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:26" ht="15.6">
       <c r="A347" s="5" t="s">
         <v>553</v>
       </c>
@@ -14263,7 +14280,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:26" ht="15.6">
       <c r="A348" s="5" t="s">
         <v>553</v>
       </c>
@@ -14297,7 +14314,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:26" ht="15.6">
       <c r="A349" s="5" t="s">
         <v>553</v>
       </c>
@@ -14331,7 +14348,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:26" ht="15.6">
       <c r="A350" s="5" t="s">
         <v>553</v>
       </c>
@@ -14365,7 +14382,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:26" ht="15.6">
       <c r="A351" s="5" t="s">
         <v>553</v>
       </c>
@@ -14399,7 +14416,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:26" ht="15.6">
       <c r="A352" s="8" t="s">
         <v>553</v>
       </c>
@@ -14433,7 +14450,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:26" ht="15.6">
       <c r="A353" s="8" t="s">
         <v>553</v>
       </c>
@@ -14467,7 +14484,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:26" ht="15.6">
       <c r="A354" s="8" t="s">
         <v>553</v>
       </c>
@@ -14501,7 +14518,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:26" ht="15.6">
       <c r="A355" s="8" t="s">
         <v>553</v>
       </c>
@@ -14535,7 +14552,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:26" ht="15.6">
       <c r="A356" s="8" t="s">
         <v>553</v>
       </c>
@@ -14569,7 +14586,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:26" ht="15.6">
       <c r="A357" s="8" t="s">
         <v>553</v>
       </c>
@@ -14603,7 +14620,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:26" ht="15.6">
       <c r="A358" s="8" t="s">
         <v>553</v>
       </c>
@@ -14637,7 +14654,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:26" ht="15.6">
       <c r="A359" s="8" t="s">
         <v>553</v>
       </c>
@@ -14671,7 +14688,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:26" ht="15.6">
       <c r="A360" s="8" t="s">
         <v>553</v>
       </c>
@@ -14705,7 +14722,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:26" ht="15.6">
       <c r="A361" s="8" t="s">
         <v>553</v>
       </c>
@@ -14739,7 +14756,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:26" ht="15.6">
       <c r="A362" s="8" t="s">
         <v>553</v>
       </c>
@@ -14773,7 +14790,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:26" ht="15.6">
       <c r="A363" s="8" t="s">
         <v>553</v>
       </c>
@@ -14807,7 +14824,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:26" ht="15.6">
       <c r="A364" s="8" t="s">
         <v>553</v>
       </c>
@@ -14841,7 +14858,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:26" ht="15.6">
       <c r="A365" s="8" t="s">
         <v>553</v>
       </c>
@@ -14875,7 +14892,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:26" ht="15.6">
       <c r="A366" s="8" t="s">
         <v>553</v>
       </c>
@@ -14909,7 +14926,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:26" ht="15.6">
       <c r="A367" s="8" t="s">
         <v>553</v>
       </c>
@@ -14943,7 +14960,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:26" ht="15.6">
       <c r="A368" s="8" t="s">
         <v>553</v>
       </c>
@@ -14977,7 +14994,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:26" ht="15.6">
       <c r="A369" s="8" t="s">
         <v>553</v>
       </c>
@@ -15011,7 +15028,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:26" ht="15.6">
       <c r="A370" s="8" t="s">
         <v>553</v>
       </c>
@@ -15045,7 +15062,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:26" ht="15.6">
       <c r="A371" s="8" t="s">
         <v>553</v>
       </c>
@@ -15079,7 +15096,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:26" ht="15.6">
       <c r="A372" s="8" t="s">
         <v>553</v>
       </c>
@@ -15113,7 +15130,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:26" ht="15.6">
       <c r="A373" s="8" t="s">
         <v>553</v>
       </c>
@@ -15147,7 +15164,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:26" ht="15.6">
       <c r="A374" s="8" t="s">
         <v>553</v>
       </c>
@@ -15181,7 +15198,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:26" ht="15.6">
       <c r="A375" s="8" t="s">
         <v>553</v>
       </c>
@@ -15215,7 +15232,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:26" ht="15.6">
       <c r="A376" s="8" t="s">
         <v>553</v>
       </c>
@@ -15249,7 +15266,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:26" ht="15.6">
       <c r="A377" s="8" t="s">
         <v>553</v>
       </c>
@@ -15283,7 +15300,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:26" ht="15.6">
       <c r="A378" s="8" t="s">
         <v>553</v>
       </c>
@@ -15317,7 +15334,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:26" ht="15.6">
       <c r="A379" s="8" t="s">
         <v>553</v>
       </c>
@@ -15351,7 +15368,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:26" ht="15.6">
       <c r="A380" s="8" t="s">
         <v>553</v>
       </c>
@@ -15385,7 +15402,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:26" ht="15.6">
       <c r="A381" s="8" t="s">
         <v>553</v>
       </c>
@@ -15419,7 +15436,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:26" ht="15.6">
       <c r="A382" s="8" t="s">
         <v>553</v>
       </c>
@@ -15453,7 +15470,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:26" ht="15.6">
       <c r="A383" s="8" t="s">
         <v>553</v>
       </c>
@@ -15487,7 +15504,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:26" ht="15.6">
       <c r="A384" s="8" t="s">
         <v>553</v>
       </c>
@@ -15521,7 +15538,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:26" ht="15.6">
       <c r="A385" s="8" t="s">
         <v>553</v>
       </c>
@@ -15555,7 +15572,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:26" ht="15.6">
       <c r="A386" s="8" t="s">
         <v>553</v>
       </c>
@@ -15589,7 +15606,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:26" ht="15.6">
       <c r="A387" s="8" t="s">
         <v>553</v>
       </c>
@@ -15623,7 +15640,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:26" ht="15.6">
       <c r="A388" s="8" t="s">
         <v>553</v>
       </c>
@@ -15657,7 +15674,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:26" ht="15.6">
       <c r="A389" s="8" t="s">
         <v>553</v>
       </c>
@@ -15691,7 +15708,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:26" ht="15.6">
       <c r="A390" s="8" t="s">
         <v>553</v>
       </c>
@@ -15725,7 +15742,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:26" ht="15.6">
       <c r="A391" s="8" t="s">
         <v>553</v>
       </c>
@@ -15759,7 +15776,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:26" ht="15.6">
       <c r="A392" s="9" t="s">
         <v>553</v>
       </c>
@@ -15793,7 +15810,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:26" ht="15.6">
       <c r="A393" s="9" t="s">
         <v>553</v>
       </c>
@@ -15827,7 +15844,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:26" ht="15.6">
       <c r="A394" s="9" t="s">
         <v>553</v>
       </c>
@@ -15861,7 +15878,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:26" ht="15.6">
       <c r="A395" s="9" t="s">
         <v>553</v>
       </c>
@@ -15895,7 +15912,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:26" ht="15.6">
       <c r="A396" s="9" t="s">
         <v>553</v>
       </c>
@@ -15929,7 +15946,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:26" ht="15">
       <c r="C397" s="18"/>
       <c r="D397" s="2"/>
       <c r="E397" s="32"/>
@@ -15955,7 +15972,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:26" ht="15">
       <c r="A398" s="19"/>
       <c r="B398" s="17"/>
       <c r="C398" s="18"/>
@@ -15983,7 +16000,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:26" ht="15.6">
       <c r="A399" s="5" t="s">
         <v>633</v>
       </c>
@@ -16015,7 +16032,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:26" ht="15.6">
       <c r="A400" s="5" t="s">
         <v>633</v>
       </c>
@@ -16047,7 +16064,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:26" ht="15.6">
       <c r="A401" s="5" t="s">
         <v>633</v>
       </c>
@@ -16079,7 +16096,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:26" ht="15.6">
       <c r="A402" s="5" t="s">
         <v>633</v>
       </c>
@@ -16111,7 +16128,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:26" ht="15.6">
       <c r="A403" s="5" t="s">
         <v>633</v>
       </c>
@@ -16143,7 +16160,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:26" ht="15.6">
       <c r="A404" s="8" t="s">
         <v>633</v>
       </c>
@@ -16175,7 +16192,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:26" ht="15.6">
       <c r="A405" s="8" t="s">
         <v>633</v>
       </c>
@@ -16207,7 +16224,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:26" ht="15.6">
       <c r="A406" s="8" t="s">
         <v>633</v>
       </c>
@@ -16239,7 +16256,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:26" ht="15.6">
       <c r="A407" s="8" t="s">
         <v>633</v>
       </c>
@@ -16271,7 +16288,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:26" ht="15.6">
       <c r="A408" s="8" t="s">
         <v>633</v>
       </c>
@@ -16303,7 +16320,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:26" ht="15">
       <c r="A409" s="19"/>
       <c r="B409" s="17"/>
       <c r="C409" s="18"/>
@@ -16329,7 +16346,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:26" ht="15">
       <c r="A410" s="19"/>
       <c r="B410" s="17"/>
       <c r="C410" s="18"/>
@@ -16355,7 +16372,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:26" ht="15.6">
       <c r="A411" s="8" t="s">
         <v>648</v>
       </c>
@@ -16385,7 +16402,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:26" ht="15.6">
       <c r="A412" s="8" t="s">
         <v>648</v>
       </c>
@@ -16417,7 +16434,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:26" ht="15.6">
       <c r="A413" s="8" t="s">
         <v>648</v>
       </c>
@@ -16449,7 +16466,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:26" ht="15.6">
       <c r="A414" s="9" t="s">
         <v>648</v>
       </c>
@@ -16481,7 +16498,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:26" ht="15.6">
       <c r="A415" s="9" t="s">
         <v>648</v>
       </c>
@@ -16515,7 +16532,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:26" ht="15.6">
       <c r="A416" s="9" t="s">
         <v>648</v>
       </c>
@@ -16549,7 +16566,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:26" ht="15">
       <c r="A417" s="16"/>
       <c r="B417" s="17"/>
       <c r="C417" s="18"/>
@@ -16577,7 +16594,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:26" ht="15">
       <c r="A418" s="16"/>
       <c r="B418" s="17"/>
       <c r="C418" s="36"/>
@@ -16605,7 +16622,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:26" ht="15">
       <c r="A419" s="16"/>
       <c r="B419" s="17"/>
       <c r="C419" s="36"/>
@@ -16633,7 +16650,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:26" ht="15">
       <c r="A420" s="16"/>
       <c r="B420" s="17"/>
       <c r="C420" s="36"/>
@@ -16661,7 +16678,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:26" ht="15">
       <c r="A421" s="16"/>
       <c r="B421" s="17"/>
       <c r="C421" s="36"/>
@@ -16689,7 +16706,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:26" ht="15">
       <c r="A422" s="16"/>
       <c r="B422" s="17"/>
       <c r="C422" s="36"/>
@@ -16717,7 +16734,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:26" ht="15">
       <c r="A423" s="16"/>
       <c r="B423" s="17"/>
       <c r="C423" s="36"/>
@@ -16745,7 +16762,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:26" ht="15">
       <c r="A424" s="16"/>
       <c r="B424" s="17"/>
       <c r="C424" s="36"/>
@@ -16773,7 +16790,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:26" ht="15">
       <c r="A425" s="16"/>
       <c r="B425" s="17"/>
       <c r="C425" s="36"/>
@@ -16801,7 +16818,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:26" ht="15">
       <c r="A426" s="16"/>
       <c r="B426" s="17"/>
       <c r="C426" s="36"/>
@@ -16829,7 +16846,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:26" ht="15">
       <c r="A427" s="16"/>
       <c r="B427" s="17"/>
       <c r="C427" s="36"/>
@@ -16857,7 +16874,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:26" ht="15">
       <c r="A428" s="16"/>
       <c r="B428" s="17"/>
       <c r="C428" s="36"/>
@@ -16885,7 +16902,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:26" ht="15">
       <c r="A429" s="16"/>
       <c r="B429" s="17"/>
       <c r="C429" s="36"/>
@@ -16913,7 +16930,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:26" ht="15">
       <c r="A430" s="16"/>
       <c r="B430" s="17"/>
       <c r="C430" s="36"/>
@@ -16941,7 +16958,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:26" ht="15">
       <c r="A431" s="16"/>
       <c r="B431" s="17"/>
       <c r="C431" s="36"/>
@@ -16969,7 +16986,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:26" ht="15">
       <c r="A432" s="16"/>
       <c r="B432" s="17"/>
       <c r="C432" s="36"/>
@@ -16997,7 +17014,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:26" ht="15">
       <c r="A433" s="16"/>
       <c r="B433" s="17"/>
       <c r="C433" s="36"/>
@@ -17025,7 +17042,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:26" ht="15">
       <c r="A434" s="16"/>
       <c r="B434" s="17"/>
       <c r="C434" s="36"/>
@@ -17053,7 +17070,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:26" ht="15">
       <c r="A435" s="16"/>
       <c r="B435" s="17"/>
       <c r="C435" s="36"/>
@@ -17081,7 +17098,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:26" ht="15">
       <c r="A436" s="16"/>
       <c r="B436" s="17"/>
       <c r="C436" s="36"/>
@@ -17109,7 +17126,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:26" ht="15">
       <c r="A437" s="16"/>
       <c r="B437" s="17"/>
       <c r="C437" s="36"/>
@@ -17137,7 +17154,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:26" ht="15">
       <c r="A438" s="16"/>
       <c r="B438" s="17"/>
       <c r="C438" s="36"/>
@@ -17165,7 +17182,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:26" ht="15">
       <c r="A439" s="16"/>
       <c r="B439" s="17"/>
       <c r="C439" s="36"/>
@@ -17193,7 +17210,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:26" ht="15">
       <c r="A440" s="16"/>
       <c r="B440" s="17"/>
       <c r="C440" s="36"/>
@@ -17221,7 +17238,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:26" ht="15">
       <c r="A441" s="16"/>
       <c r="B441" s="17"/>
       <c r="C441" s="36"/>
@@ -17249,7 +17266,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:26" ht="15">
       <c r="A442" s="16"/>
       <c r="B442" s="17"/>
       <c r="C442" s="36"/>
@@ -17277,7 +17294,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:26" ht="15">
       <c r="A443" s="16"/>
       <c r="B443" s="17"/>
       <c r="C443" s="36"/>
@@ -17305,7 +17322,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:26" ht="15">
       <c r="A444" s="16"/>
       <c r="B444" s="17"/>
       <c r="C444" s="36"/>
@@ -17333,7 +17350,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:26" ht="15">
       <c r="A445" s="16"/>
       <c r="B445" s="17"/>
       <c r="C445" s="36"/>
@@ -17361,7 +17378,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:26" ht="15">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
       <c r="C446" s="36"/>
@@ -17389,7 +17406,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:26" ht="15">
       <c r="A447" s="16"/>
       <c r="B447" s="17"/>
       <c r="C447" s="36"/>
@@ -17417,7 +17434,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:26" ht="15">
       <c r="A448" s="16"/>
       <c r="B448" s="17"/>
       <c r="C448" s="36"/>
@@ -17445,7 +17462,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:26" ht="15">
       <c r="A449" s="16"/>
       <c r="B449" s="17"/>
       <c r="C449" s="36"/>
@@ -17473,7 +17490,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:26" ht="15">
       <c r="A450" s="16"/>
       <c r="B450" s="17"/>
       <c r="C450" s="36"/>
@@ -17501,7 +17518,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:26" ht="15">
       <c r="A451" s="16"/>
       <c r="B451" s="17"/>
       <c r="C451" s="36"/>
@@ -17529,7 +17546,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:26" ht="15">
       <c r="A452" s="16"/>
       <c r="B452" s="17"/>
       <c r="C452" s="36"/>
@@ -17557,7 +17574,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:26" ht="15">
       <c r="A453" s="16"/>
       <c r="B453" s="17"/>
       <c r="C453" s="36"/>
@@ -17585,7 +17602,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:26" ht="15">
       <c r="A454" s="16"/>
       <c r="B454" s="17"/>
       <c r="C454" s="36"/>
@@ -17613,7 +17630,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:26" ht="15">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
       <c r="C455" s="36"/>
@@ -17641,7 +17658,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:26" ht="15">
       <c r="A456" s="16"/>
       <c r="B456" s="17"/>
       <c r="C456" s="36"/>
@@ -17669,7 +17686,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:26" ht="15">
       <c r="A457" s="16"/>
       <c r="B457" s="17"/>
       <c r="C457" s="36"/>
@@ -17697,7 +17714,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:26" ht="15">
       <c r="A458" s="16"/>
       <c r="B458" s="17"/>
       <c r="C458" s="36"/>
@@ -17725,7 +17742,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:26" ht="15">
       <c r="A459" s="16"/>
       <c r="B459" s="17"/>
       <c r="C459" s="36"/>
@@ -17753,7 +17770,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:26" ht="15">
       <c r="A460" s="16"/>
       <c r="B460" s="17"/>
       <c r="C460" s="36"/>
@@ -17781,7 +17798,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:26" ht="15">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
       <c r="C461" s="36"/>
@@ -17809,7 +17826,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:26" ht="15">
       <c r="A462" s="16"/>
       <c r="B462" s="17"/>
       <c r="C462" s="36"/>
@@ -17837,7 +17854,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:26" ht="15">
       <c r="A463" s="16"/>
       <c r="B463" s="17"/>
       <c r="C463" s="36"/>
@@ -17865,7 +17882,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:26" ht="15">
       <c r="A464" s="16"/>
       <c r="B464" s="17"/>
       <c r="C464" s="36"/>
@@ -17893,7 +17910,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:26" ht="15">
       <c r="A465" s="16"/>
       <c r="B465" s="17"/>
       <c r="C465" s="36"/>
@@ -17921,7 +17938,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:26" ht="15">
       <c r="A466" s="16"/>
       <c r="B466" s="17"/>
       <c r="C466" s="36"/>
@@ -17949,7 +17966,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:26" ht="15">
       <c r="A467" s="16"/>
       <c r="B467" s="17"/>
       <c r="C467" s="36"/>
@@ -17977,7 +17994,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:26" ht="15">
       <c r="A468" s="16"/>
       <c r="B468" s="17"/>
       <c r="C468" s="36"/>
@@ -18005,7 +18022,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:26" ht="15">
       <c r="A469" s="16"/>
       <c r="B469" s="17"/>
       <c r="C469" s="36"/>
@@ -18033,7 +18050,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:26" ht="15">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
       <c r="C470" s="36"/>
@@ -18061,7 +18078,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:26" ht="15">
       <c r="A471" s="16"/>
       <c r="B471" s="17"/>
       <c r="C471" s="36"/>
@@ -18089,7 +18106,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:26" ht="15">
       <c r="A472" s="16"/>
       <c r="B472" s="17"/>
       <c r="C472" s="36"/>
@@ -18117,7 +18134,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:26" ht="15">
       <c r="A473" s="16"/>
       <c r="B473" s="17"/>
       <c r="C473" s="36"/>
@@ -18145,7 +18162,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:26" ht="15">
       <c r="A474" s="16"/>
       <c r="B474" s="17"/>
       <c r="C474" s="36"/>
@@ -18173,7 +18190,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:26" ht="15">
       <c r="A475" s="16"/>
       <c r="B475" s="17"/>
       <c r="C475" s="36"/>
@@ -18201,7 +18218,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:26" ht="15">
       <c r="A476" s="16"/>
       <c r="B476" s="17"/>
       <c r="C476" s="36"/>
@@ -18229,7 +18246,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:26" ht="15">
       <c r="A477" s="16"/>
       <c r="B477" s="17"/>
       <c r="C477" s="36"/>
@@ -18257,7 +18274,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:26" ht="15">
       <c r="A478" s="16"/>
       <c r="B478" s="17"/>
       <c r="C478" s="36"/>
@@ -18285,7 +18302,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:26" ht="15">
       <c r="A479" s="16"/>
       <c r="B479" s="17"/>
       <c r="C479" s="36"/>
@@ -18313,7 +18330,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:26" ht="15">
       <c r="A480" s="16"/>
       <c r="B480" s="17"/>
       <c r="C480" s="36"/>
@@ -18341,7 +18358,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:26" ht="15">
       <c r="A481" s="16"/>
       <c r="B481" s="17"/>
       <c r="C481" s="36"/>
@@ -18369,7 +18386,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:26" ht="15">
       <c r="A482" s="16"/>
       <c r="B482" s="17"/>
       <c r="C482" s="36"/>
@@ -18397,7 +18414,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:26" ht="15">
       <c r="A483" s="16"/>
       <c r="B483" s="17"/>
       <c r="C483" s="36"/>
@@ -18425,7 +18442,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:26" ht="15">
       <c r="A484" s="16"/>
       <c r="B484" s="17"/>
       <c r="C484" s="36"/>
@@ -18453,7 +18470,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:26" ht="15">
       <c r="A485" s="16"/>
       <c r="B485" s="17"/>
       <c r="C485" s="36"/>
@@ -18481,7 +18498,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:26" ht="15">
       <c r="A486" s="16"/>
       <c r="B486" s="17"/>
       <c r="C486" s="36"/>
@@ -18509,7 +18526,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:26" ht="15">
       <c r="A487" s="16"/>
       <c r="B487" s="17"/>
       <c r="C487" s="36"/>
@@ -18537,7 +18554,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:26" ht="15">
       <c r="A488" s="16"/>
       <c r="B488" s="17"/>
       <c r="C488" s="36"/>
@@ -18565,7 +18582,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:26" ht="15">
       <c r="A489" s="16"/>
       <c r="B489" s="17"/>
       <c r="C489" s="36"/>
@@ -18593,7 +18610,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:26" ht="15">
       <c r="A490" s="16"/>
       <c r="B490" s="17"/>
       <c r="C490" s="36"/>
@@ -18621,7 +18638,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:26" ht="15">
       <c r="A491" s="16"/>
       <c r="B491" s="17"/>
       <c r="C491" s="36"/>
@@ -18649,7 +18666,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:26" ht="15">
       <c r="A492" s="16"/>
       <c r="B492" s="17"/>
       <c r="C492" s="36"/>
@@ -18677,7 +18694,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:26" ht="15">
       <c r="A493" s="16"/>
       <c r="B493" s="17"/>
       <c r="C493" s="36"/>
@@ -18705,7 +18722,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:26" ht="15">
       <c r="A494" s="16"/>
       <c r="B494" s="17"/>
       <c r="C494" s="36"/>
@@ -18733,7 +18750,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:26" ht="15">
       <c r="A495" s="16"/>
       <c r="B495" s="17"/>
       <c r="C495" s="36"/>
@@ -18761,7 +18778,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:26" ht="15">
       <c r="A496" s="16"/>
       <c r="B496" s="17"/>
       <c r="C496" s="36"/>
@@ -18789,7 +18806,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:26" ht="15">
       <c r="A497" s="16"/>
       <c r="B497" s="17"/>
       <c r="C497" s="36"/>
@@ -18817,7 +18834,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:26" ht="15">
       <c r="A498" s="16"/>
       <c r="B498" s="17"/>
       <c r="C498" s="36"/>
@@ -18845,7 +18862,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:26" ht="15">
       <c r="A499" s="16"/>
       <c r="B499" s="17"/>
       <c r="C499" s="36"/>
@@ -18873,7 +18890,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:26" ht="15">
       <c r="A500" s="16"/>
       <c r="B500" s="17"/>
       <c r="C500" s="36"/>
@@ -18901,7 +18918,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:26" ht="15">
       <c r="A501" s="16"/>
       <c r="B501" s="17"/>
       <c r="C501" s="36"/>
@@ -18929,7 +18946,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:26" ht="15">
       <c r="A502" s="16"/>
       <c r="B502" s="17"/>
       <c r="C502" s="36"/>
@@ -18957,7 +18974,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:26" ht="15">
       <c r="A503" s="16"/>
       <c r="B503" s="17"/>
       <c r="C503" s="36"/>
@@ -18985,7 +19002,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:26" ht="15">
       <c r="A504" s="16"/>
       <c r="B504" s="17"/>
       <c r="C504" s="36"/>
@@ -19013,7 +19030,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:26" ht="15">
       <c r="A505" s="16"/>
       <c r="B505" s="17"/>
       <c r="C505" s="36"/>
@@ -19041,7 +19058,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:26" ht="15">
       <c r="A506" s="16"/>
       <c r="B506" s="17"/>
       <c r="C506" s="36"/>
@@ -19069,7 +19086,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:26" ht="15">
       <c r="A507" s="16"/>
       <c r="B507" s="17"/>
       <c r="C507" s="36"/>
@@ -19097,7 +19114,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:26" ht="15">
       <c r="A508" s="16"/>
       <c r="B508" s="17"/>
       <c r="C508" s="36"/>
@@ -19125,7 +19142,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:26" ht="15">
       <c r="A509" s="16"/>
       <c r="B509" s="17"/>
       <c r="C509" s="36"/>
@@ -19153,7 +19170,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:26" ht="15">
       <c r="A510" s="16"/>
       <c r="B510" s="17"/>
       <c r="C510" s="36"/>
@@ -19181,7 +19198,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:26" ht="15">
       <c r="A511" s="16"/>
       <c r="B511" s="17"/>
       <c r="C511" s="36"/>
@@ -19209,7 +19226,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:26" ht="15">
       <c r="A512" s="16"/>
       <c r="B512" s="17"/>
       <c r="C512" s="36"/>
@@ -19237,7 +19254,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:26" ht="15">
       <c r="A513" s="16"/>
       <c r="B513" s="17"/>
       <c r="C513" s="36"/>
@@ -19265,7 +19282,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:26" ht="15">
       <c r="A514" s="16"/>
       <c r="B514" s="17"/>
       <c r="C514" s="36"/>
@@ -19293,7 +19310,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:26" ht="15">
       <c r="A515" s="16"/>
       <c r="B515" s="17"/>
       <c r="C515" s="36"/>
@@ -19321,7 +19338,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:26" ht="15">
       <c r="A516" s="16"/>
       <c r="B516" s="17"/>
       <c r="C516" s="36"/>
@@ -19349,7 +19366,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:26" ht="15">
       <c r="A517" s="16"/>
       <c r="B517" s="17"/>
       <c r="C517" s="36"/>
@@ -19377,7 +19394,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:26" ht="15">
       <c r="A518" s="16"/>
       <c r="B518" s="17"/>
       <c r="C518" s="36"/>
@@ -19405,7 +19422,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:26" ht="15">
       <c r="A519" s="16"/>
       <c r="B519" s="17"/>
       <c r="C519" s="36"/>
@@ -19433,7 +19450,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:26" ht="15">
       <c r="A520" s="16"/>
       <c r="B520" s="17"/>
       <c r="C520" s="36"/>
@@ -19461,7 +19478,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:26" ht="15">
       <c r="A521" s="16"/>
       <c r="B521" s="17"/>
       <c r="C521" s="36"/>
@@ -19489,7 +19506,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:26" ht="15">
       <c r="A522" s="16"/>
       <c r="B522" s="17"/>
       <c r="C522" s="36"/>
@@ -19517,7 +19534,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:26" ht="15">
       <c r="A523" s="16"/>
       <c r="B523" s="17"/>
       <c r="C523" s="36"/>
@@ -19545,7 +19562,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:26" ht="15">
       <c r="A524" s="16"/>
       <c r="B524" s="17"/>
       <c r="C524" s="36"/>
@@ -19573,7 +19590,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:26" ht="15">
       <c r="A525" s="16"/>
       <c r="B525" s="17"/>
       <c r="C525" s="36"/>
@@ -19601,7 +19618,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:26" ht="15">
       <c r="A526" s="16"/>
       <c r="B526" s="17"/>
       <c r="C526" s="36"/>
@@ -19629,7 +19646,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:26" ht="15">
       <c r="A527" s="16"/>
       <c r="B527" s="17"/>
       <c r="C527" s="36"/>
@@ -19657,7 +19674,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:26" ht="15">
       <c r="A528" s="16"/>
       <c r="B528" s="17"/>
       <c r="C528" s="36"/>
@@ -19685,7 +19702,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:26" ht="15">
       <c r="A529" s="16"/>
       <c r="B529" s="17"/>
       <c r="C529" s="36"/>
@@ -19713,7 +19730,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:26" ht="15">
       <c r="A530" s="16"/>
       <c r="B530" s="17"/>
       <c r="C530" s="36"/>
@@ -19741,7 +19758,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:26" ht="15">
       <c r="A531" s="16"/>
       <c r="B531" s="17"/>
       <c r="C531" s="36"/>
@@ -19769,7 +19786,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:26" ht="15">
       <c r="A532" s="16"/>
       <c r="B532" s="17"/>
       <c r="C532" s="36"/>
@@ -19797,7 +19814,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:26" ht="15">
       <c r="A533" s="16"/>
       <c r="B533" s="17"/>
       <c r="C533" s="36"/>
@@ -19825,7 +19842,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:26" ht="15">
       <c r="A534" s="16"/>
       <c r="B534" s="17"/>
       <c r="C534" s="36"/>
@@ -19853,7 +19870,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:26" ht="15">
       <c r="A535" s="16"/>
       <c r="B535" s="17"/>
       <c r="C535" s="36"/>
@@ -19881,7 +19898,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:26" ht="15">
       <c r="A536" s="16"/>
       <c r="B536" s="17"/>
       <c r="C536" s="36"/>
@@ -19909,7 +19926,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:26" ht="15">
       <c r="A537" s="16"/>
       <c r="B537" s="17"/>
       <c r="C537" s="36"/>
@@ -19937,7 +19954,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:26" ht="15">
       <c r="A538" s="16"/>
       <c r="B538" s="17"/>
       <c r="C538" s="36"/>
@@ -19965,7 +19982,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:26" ht="15">
       <c r="A539" s="16"/>
       <c r="B539" s="17"/>
       <c r="C539" s="36"/>
@@ -19993,7 +20010,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:26" ht="15">
       <c r="A540" s="16"/>
       <c r="B540" s="17"/>
       <c r="C540" s="36"/>
@@ -20021,7 +20038,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:26" ht="15">
       <c r="A541" s="16"/>
       <c r="B541" s="17"/>
       <c r="C541" s="36"/>
@@ -20049,7 +20066,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:26" ht="15">
       <c r="A542" s="16"/>
       <c r="B542" s="17"/>
       <c r="C542" s="36"/>
@@ -20077,7 +20094,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:26" ht="15">
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="36"/>
@@ -20105,7 +20122,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:26" ht="15">
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="36"/>
@@ -20133,7 +20150,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:26" ht="15">
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="36"/>
@@ -20161,7 +20178,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:26" ht="15">
       <c r="A546" s="16"/>
       <c r="B546" s="17"/>
       <c r="C546" s="36"/>
@@ -20189,7 +20206,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:26" ht="15">
       <c r="A547" s="16"/>
       <c r="B547" s="17"/>
       <c r="C547" s="36"/>
@@ -20217,7 +20234,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:26" ht="15">
       <c r="A548" s="16"/>
       <c r="B548" s="17"/>
       <c r="C548" s="36"/>
@@ -20245,7 +20262,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:26" ht="15">
       <c r="A549" s="16"/>
       <c r="B549" s="17"/>
       <c r="C549" s="36"/>
@@ -20273,7 +20290,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:26" ht="15">
       <c r="A550" s="16"/>
       <c r="B550" s="17"/>
       <c r="C550" s="36"/>
@@ -20301,7 +20318,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:26" ht="15">
       <c r="A551" s="16"/>
       <c r="B551" s="17"/>
       <c r="C551" s="36"/>
@@ -20329,7 +20346,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:26" ht="15">
       <c r="A552" s="16"/>
       <c r="B552" s="17"/>
       <c r="C552" s="36"/>
@@ -20357,7 +20374,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:26" ht="15">
       <c r="A553" s="16"/>
       <c r="B553" s="17"/>
       <c r="C553" s="36"/>
@@ -20385,7 +20402,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:26" ht="15">
       <c r="A554" s="16"/>
       <c r="B554" s="17"/>
       <c r="C554" s="36"/>
@@ -20413,7 +20430,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:26" ht="15">
       <c r="A555" s="16"/>
       <c r="B555" s="17"/>
       <c r="C555" s="36"/>
@@ -20441,7 +20458,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:26" ht="15">
       <c r="A556" s="16"/>
       <c r="B556" s="17"/>
       <c r="C556" s="36"/>
@@ -20469,7 +20486,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:26" ht="15">
       <c r="A557" s="16"/>
       <c r="B557" s="17"/>
       <c r="C557" s="36"/>
@@ -20497,7 +20514,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:26" ht="15">
       <c r="A558" s="16"/>
       <c r="B558" s="17"/>
       <c r="C558" s="36"/>
@@ -20525,7 +20542,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:26" ht="15">
       <c r="A559" s="16"/>
       <c r="B559" s="17"/>
       <c r="C559" s="36"/>
@@ -20553,7 +20570,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:26" ht="15">
       <c r="A560" s="16"/>
       <c r="B560" s="17"/>
       <c r="C560" s="36"/>
@@ -20581,7 +20598,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:26" ht="15">
       <c r="A561" s="16"/>
       <c r="B561" s="17"/>
       <c r="C561" s="36"/>
@@ -20609,7 +20626,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:26" ht="15">
       <c r="A562" s="16"/>
       <c r="B562" s="17"/>
       <c r="C562" s="36"/>
@@ -20637,7 +20654,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:26" ht="15">
       <c r="A563" s="16"/>
       <c r="B563" s="17"/>
       <c r="C563" s="36"/>
@@ -20665,7 +20682,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:26" ht="15">
       <c r="A564" s="16"/>
       <c r="B564" s="17"/>
       <c r="C564" s="36"/>
@@ -20693,7 +20710,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:26" ht="15">
       <c r="A565" s="16"/>
       <c r="B565" s="17"/>
       <c r="C565" s="36"/>
@@ -20721,7 +20738,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:26" ht="15">
       <c r="A566" s="16"/>
       <c r="B566" s="17"/>
       <c r="C566" s="36"/>
@@ -20749,7 +20766,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:26" ht="15">
       <c r="A567" s="16"/>
       <c r="B567" s="17"/>
       <c r="C567" s="36"/>
@@ -20777,7 +20794,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:26" ht="15">
       <c r="A568" s="16"/>
       <c r="B568" s="17"/>
       <c r="C568" s="36"/>
@@ -20805,7 +20822,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:26" ht="15">
       <c r="A569" s="16"/>
       <c r="B569" s="17"/>
       <c r="C569" s="36"/>
@@ -20833,7 +20850,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:26" ht="15">
       <c r="A570" s="16"/>
       <c r="B570" s="17"/>
       <c r="C570" s="36"/>
@@ -20861,7 +20878,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:26" ht="15">
       <c r="A571" s="16"/>
       <c r="B571" s="17"/>
       <c r="C571" s="36"/>
@@ -20889,7 +20906,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:26" ht="15">
       <c r="A572" s="16"/>
       <c r="B572" s="17"/>
       <c r="C572" s="36"/>
@@ -20917,7 +20934,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:26" ht="15">
       <c r="A573" s="16"/>
       <c r="B573" s="17"/>
       <c r="C573" s="36"/>
@@ -20945,7 +20962,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:26" ht="15">
       <c r="A574" s="16"/>
       <c r="B574" s="17"/>
       <c r="C574" s="36"/>
@@ -20973,7 +20990,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:26" ht="15">
       <c r="A575" s="16"/>
       <c r="B575" s="17"/>
       <c r="C575" s="36"/>
@@ -21001,7 +21018,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:26" ht="15">
       <c r="A576" s="16"/>
       <c r="B576" s="17"/>
       <c r="C576" s="36"/>
@@ -21029,7 +21046,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:26" ht="15">
       <c r="A577" s="16"/>
       <c r="B577" s="17"/>
       <c r="C577" s="36"/>
@@ -21057,7 +21074,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:26" ht="15">
       <c r="A578" s="16"/>
       <c r="B578" s="17"/>
       <c r="C578" s="36"/>
@@ -21085,7 +21102,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:26" ht="15">
       <c r="A579" s="16"/>
       <c r="B579" s="17"/>
       <c r="C579" s="36"/>
@@ -21113,7 +21130,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:26" ht="15">
       <c r="A580" s="16"/>
       <c r="B580" s="17"/>
       <c r="C580" s="36"/>
@@ -21141,7 +21158,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:26" ht="15">
       <c r="A581" s="16"/>
       <c r="B581" s="17"/>
       <c r="C581" s="36"/>
@@ -21169,7 +21186,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:26" ht="15">
       <c r="A582" s="16"/>
       <c r="B582" s="17"/>
       <c r="C582" s="36"/>
@@ -21197,7 +21214,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:26" ht="15">
       <c r="A583" s="16"/>
       <c r="B583" s="17"/>
       <c r="C583" s="36"/>
@@ -21225,7 +21242,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:26" ht="15">
       <c r="A584" s="16"/>
       <c r="B584" s="17"/>
       <c r="C584" s="36"/>
@@ -21253,7 +21270,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:26" ht="15">
       <c r="A585" s="16"/>
       <c r="B585" s="17"/>
       <c r="C585" s="36"/>
@@ -21281,7 +21298,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:26" ht="15">
       <c r="A586" s="16"/>
       <c r="B586" s="17"/>
       <c r="C586" s="36"/>
@@ -21309,7 +21326,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:26" ht="15">
       <c r="A587" s="16"/>
       <c r="B587" s="17"/>
       <c r="C587" s="36"/>
@@ -21337,7 +21354,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:26" ht="15">
       <c r="A588" s="16"/>
       <c r="B588" s="17"/>
       <c r="C588" s="36"/>
@@ -21365,7 +21382,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:26" ht="15">
       <c r="A589" s="16"/>
       <c r="B589" s="17"/>
       <c r="C589" s="36"/>
@@ -21393,7 +21410,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:26" ht="15">
       <c r="A590" s="16"/>
       <c r="B590" s="17"/>
       <c r="C590" s="36"/>
@@ -21421,7 +21438,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:26" ht="15">
       <c r="A591" s="16"/>
       <c r="B591" s="17"/>
       <c r="C591" s="36"/>
@@ -21449,7 +21466,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:26" ht="15">
       <c r="A592" s="16"/>
       <c r="B592" s="17"/>
       <c r="C592" s="36"/>
@@ -21477,7 +21494,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:26" ht="15">
       <c r="A593" s="16"/>
       <c r="B593" s="17"/>
       <c r="C593" s="36"/>
@@ -21505,7 +21522,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:26" ht="15">
       <c r="A594" s="16"/>
       <c r="B594" s="17"/>
       <c r="C594" s="36"/>
@@ -21533,7 +21550,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:26" ht="15">
       <c r="A595" s="16"/>
       <c r="B595" s="17"/>
       <c r="C595" s="36"/>
@@ -21561,7 +21578,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:26" ht="15">
       <c r="A596" s="16"/>
       <c r="B596" s="17"/>
       <c r="C596" s="36"/>
@@ -21589,7 +21606,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:26" ht="15">
       <c r="A597" s="16"/>
       <c r="B597" s="17"/>
       <c r="C597" s="36"/>
@@ -21617,7 +21634,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:26" ht="15">
       <c r="A598" s="16"/>
       <c r="B598" s="17"/>
       <c r="C598" s="36"/>
@@ -21645,7 +21662,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:26" ht="15">
       <c r="A599" s="16"/>
       <c r="B599" s="17"/>
       <c r="C599" s="36"/>
@@ -21673,7 +21690,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:26" ht="15">
       <c r="A600" s="16"/>
       <c r="B600" s="17"/>
       <c r="C600" s="36"/>
@@ -21701,7 +21718,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:26" ht="15">
       <c r="A601" s="16"/>
       <c r="B601" s="17"/>
       <c r="C601" s="36"/>
@@ -21729,7 +21746,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:26" ht="15">
       <c r="A602" s="16"/>
       <c r="B602" s="17"/>
       <c r="C602" s="36"/>
@@ -21757,7 +21774,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:26" ht="15">
       <c r="A603" s="16"/>
       <c r="B603" s="17"/>
       <c r="C603" s="36"/>
@@ -21785,7 +21802,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:26" ht="15">
       <c r="A604" s="16"/>
       <c r="B604" s="17"/>
       <c r="C604" s="36"/>
@@ -21813,7 +21830,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:26" ht="15">
       <c r="A605" s="16"/>
       <c r="B605" s="17"/>
       <c r="C605" s="36"/>
@@ -21841,7 +21858,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:26" ht="15">
       <c r="A606" s="16"/>
       <c r="B606" s="17"/>
       <c r="C606" s="36"/>
@@ -21869,7 +21886,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:26" ht="15">
       <c r="A607" s="16"/>
       <c r="B607" s="17"/>
       <c r="C607" s="36"/>
@@ -21897,7 +21914,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:26" ht="15">
       <c r="A608" s="16"/>
       <c r="B608" s="17"/>
       <c r="C608" s="36"/>
@@ -21925,7 +21942,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:26" ht="15">
       <c r="A609" s="16"/>
       <c r="B609" s="17"/>
       <c r="C609" s="36"/>
@@ -21953,7 +21970,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:26" ht="15">
       <c r="A610" s="16"/>
       <c r="B610" s="17"/>
       <c r="C610" s="36"/>
@@ -21981,7 +21998,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:26" ht="15">
       <c r="A611" s="16"/>
       <c r="B611" s="17"/>
       <c r="C611" s="36"/>
@@ -22009,7 +22026,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:26" ht="15">
       <c r="A612" s="16"/>
       <c r="B612" s="17"/>
       <c r="C612" s="36"/>
@@ -22037,7 +22054,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:26" ht="15">
       <c r="A613" s="16"/>
       <c r="B613" s="17"/>
       <c r="C613" s="36"/>
@@ -22065,7 +22082,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:26" ht="15">
       <c r="A614" s="16"/>
       <c r="B614" s="17"/>
       <c r="C614" s="36"/>
@@ -22093,7 +22110,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:26" ht="15">
       <c r="A615" s="16"/>
       <c r="B615" s="17"/>
       <c r="C615" s="36"/>
@@ -22121,7 +22138,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:26" ht="15">
       <c r="A616" s="16"/>
       <c r="B616" s="17"/>
       <c r="C616" s="36"/>
@@ -22149,7 +22166,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:26" ht="15">
       <c r="A617" s="16"/>
       <c r="B617" s="17"/>
       <c r="C617" s="36"/>
@@ -22177,7 +22194,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:26" ht="15">
       <c r="A618" s="16"/>
       <c r="B618" s="17"/>
       <c r="C618" s="36"/>
@@ -22205,7 +22222,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:26" ht="15">
       <c r="A619" s="16"/>
       <c r="B619" s="17"/>
       <c r="C619" s="36"/>
@@ -22233,7 +22250,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:26" ht="15">
       <c r="A620" s="16"/>
       <c r="B620" s="17"/>
       <c r="C620" s="36"/>
@@ -22261,7 +22278,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:26" ht="15">
       <c r="A621" s="16"/>
       <c r="B621" s="17"/>
       <c r="C621" s="36"/>
@@ -22289,7 +22306,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:26" ht="15">
       <c r="A622" s="16"/>
       <c r="B622" s="17"/>
       <c r="C622" s="36"/>
@@ -22317,7 +22334,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:26" ht="15">
       <c r="A623" s="16"/>
       <c r="B623" s="17"/>
       <c r="C623" s="36"/>
@@ -22345,7 +22362,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:26" ht="15">
       <c r="A624" s="16"/>
       <c r="B624" s="17"/>
       <c r="C624" s="36"/>
@@ -22373,7 +22390,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:26" ht="15">
       <c r="A625" s="16"/>
       <c r="B625" s="17"/>
       <c r="C625" s="36"/>
@@ -22401,7 +22418,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:26" ht="15">
       <c r="A626" s="16"/>
       <c r="B626" s="17"/>
       <c r="C626" s="36"/>
@@ -22429,7 +22446,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:26" ht="15">
       <c r="A627" s="16"/>
       <c r="B627" s="17"/>
       <c r="C627" s="36"/>
@@ -22457,7 +22474,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:26" ht="15">
       <c r="A628" s="16"/>
       <c r="B628" s="17"/>
       <c r="C628" s="36"/>
@@ -22485,7 +22502,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:26" ht="15">
       <c r="A629" s="16"/>
       <c r="B629" s="17"/>
       <c r="C629" s="36"/>
@@ -22513,7 +22530,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:26" ht="15">
       <c r="A630" s="16"/>
       <c r="B630" s="17"/>
       <c r="C630" s="36"/>
@@ -22541,7 +22558,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:26" ht="15">
       <c r="A631" s="16"/>
       <c r="B631" s="17"/>
       <c r="C631" s="36"/>
@@ -22569,7 +22586,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:26" ht="15">
       <c r="A632" s="16"/>
       <c r="B632" s="17"/>
       <c r="C632" s="36"/>
@@ -22597,7 +22614,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:26" ht="15">
       <c r="A633" s="16"/>
       <c r="B633" s="17"/>
       <c r="C633" s="36"/>
@@ -22625,7 +22642,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:26" ht="15">
       <c r="A634" s="16"/>
       <c r="B634" s="17"/>
       <c r="C634" s="36"/>
@@ -22653,7 +22670,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:26" ht="15">
       <c r="A635" s="16"/>
       <c r="B635" s="17"/>
       <c r="C635" s="36"/>
@@ -22681,7 +22698,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:26" ht="15">
       <c r="A636" s="16"/>
       <c r="B636" s="17"/>
       <c r="C636" s="36"/>
@@ -22709,7 +22726,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:26" ht="15">
       <c r="A637" s="16"/>
       <c r="B637" s="17"/>
       <c r="C637" s="36"/>
@@ -22737,7 +22754,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:26" ht="15">
       <c r="A638" s="16"/>
       <c r="B638" s="17"/>
       <c r="C638" s="36"/>
@@ -22765,7 +22782,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:26" ht="15">
       <c r="A639" s="16"/>
       <c r="B639" s="17"/>
       <c r="C639" s="36"/>
@@ -22793,7 +22810,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:26" ht="15">
       <c r="A640" s="16"/>
       <c r="B640" s="17"/>
       <c r="C640" s="36"/>
@@ -22821,7 +22838,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:26" ht="15">
       <c r="A641" s="16"/>
       <c r="B641" s="17"/>
       <c r="C641" s="36"/>
@@ -22849,7 +22866,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:26" ht="15">
       <c r="A642" s="16"/>
       <c r="B642" s="17"/>
       <c r="C642" s="36"/>
@@ -22877,7 +22894,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:26" ht="15">
       <c r="A643" s="16"/>
       <c r="B643" s="17"/>
       <c r="C643" s="36"/>
@@ -22905,7 +22922,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:26" ht="15">
       <c r="A644" s="16"/>
       <c r="B644" s="17"/>
       <c r="C644" s="36"/>
@@ -22933,7 +22950,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:26" ht="15">
       <c r="A645" s="16"/>
       <c r="B645" s="17"/>
       <c r="C645" s="36"/>
@@ -22961,7 +22978,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:26" ht="15">
       <c r="A646" s="16"/>
       <c r="B646" s="17"/>
       <c r="C646" s="36"/>
@@ -22989,7 +23006,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:26" ht="15">
       <c r="A647" s="16"/>
       <c r="B647" s="17"/>
       <c r="C647" s="36"/>
@@ -23017,7 +23034,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:26" ht="15">
       <c r="A648" s="16"/>
       <c r="B648" s="17"/>
       <c r="C648" s="36"/>
@@ -23045,7 +23062,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:26" ht="15">
       <c r="A649" s="16"/>
       <c r="B649" s="17"/>
       <c r="C649" s="36"/>
@@ -23073,7 +23090,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:26" ht="15">
       <c r="A650" s="16"/>
       <c r="B650" s="17"/>
       <c r="C650" s="36"/>
@@ -23101,7 +23118,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:26" ht="15">
       <c r="A651" s="16"/>
       <c r="B651" s="17"/>
       <c r="C651" s="36"/>
@@ -23129,7 +23146,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:26" ht="15">
       <c r="A652" s="16"/>
       <c r="B652" s="17"/>
       <c r="C652" s="36"/>
@@ -23157,7 +23174,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:26" ht="15">
       <c r="A653" s="16"/>
       <c r="B653" s="17"/>
       <c r="C653" s="36"/>
@@ -23185,7 +23202,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:26" ht="15">
       <c r="A654" s="16"/>
       <c r="B654" s="17"/>
       <c r="C654" s="36"/>
@@ -23213,7 +23230,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:26" ht="15">
       <c r="A655" s="16"/>
       <c r="B655" s="17"/>
       <c r="C655" s="36"/>
@@ -23241,7 +23258,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:26" ht="15">
       <c r="A656" s="16"/>
       <c r="B656" s="17"/>
       <c r="C656" s="36"/>
@@ -23269,7 +23286,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:26" ht="15">
       <c r="A657" s="16"/>
       <c r="B657" s="17"/>
       <c r="C657" s="36"/>
@@ -23297,7 +23314,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:26" ht="15">
       <c r="A658" s="16"/>
       <c r="B658" s="17"/>
       <c r="C658" s="36"/>
@@ -23325,7 +23342,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:26" ht="15">
       <c r="A659" s="16"/>
       <c r="B659" s="17"/>
       <c r="C659" s="36"/>
@@ -23353,7 +23370,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:26" ht="15">
       <c r="A660" s="16"/>
       <c r="B660" s="17"/>
       <c r="C660" s="36"/>
@@ -23381,7 +23398,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:26" ht="15">
       <c r="A661" s="16"/>
       <c r="B661" s="17"/>
       <c r="C661" s="36"/>
@@ -23409,7 +23426,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:26" ht="15">
       <c r="A662" s="16"/>
       <c r="B662" s="17"/>
       <c r="C662" s="36"/>
@@ -23437,7 +23454,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:26" ht="15">
       <c r="A663" s="16"/>
       <c r="B663" s="17"/>
       <c r="C663" s="36"/>
@@ -23465,7 +23482,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:26" ht="15">
       <c r="A664" s="16"/>
       <c r="B664" s="17"/>
       <c r="C664" s="36"/>
@@ -23493,7 +23510,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:26" ht="15">
       <c r="A665" s="16"/>
       <c r="B665" s="17"/>
       <c r="C665" s="36"/>
@@ -23521,7 +23538,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:26" ht="15">
       <c r="A666" s="16"/>
       <c r="B666" s="17"/>
       <c r="C666" s="36"/>
@@ -23549,7 +23566,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:26" ht="15">
       <c r="A667" s="16"/>
       <c r="B667" s="17"/>
       <c r="C667" s="36"/>
@@ -23577,7 +23594,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:26" ht="15">
       <c r="A668" s="16"/>
       <c r="B668" s="17"/>
       <c r="C668" s="36"/>
@@ -23605,7 +23622,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:26" ht="15">
       <c r="A669" s="16"/>
       <c r="B669" s="17"/>
       <c r="C669" s="36"/>
@@ -23633,7 +23650,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:26" ht="15">
       <c r="A670" s="16"/>
       <c r="B670" s="17"/>
       <c r="C670" s="36"/>
@@ -23661,7 +23678,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:26" ht="15">
       <c r="A671" s="16"/>
       <c r="B671" s="17"/>
       <c r="C671" s="36"/>
@@ -23689,7 +23706,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:26" ht="15">
       <c r="A672" s="16"/>
       <c r="B672" s="17"/>
       <c r="C672" s="36"/>
@@ -23717,7 +23734,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:26" ht="15">
       <c r="A673" s="16"/>
       <c r="B673" s="17"/>
       <c r="C673" s="36"/>
@@ -23745,7 +23762,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:26" ht="15">
       <c r="A674" s="16"/>
       <c r="B674" s="17"/>
       <c r="C674" s="36"/>
@@ -23773,7 +23790,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:26" ht="15">
       <c r="A675" s="16"/>
       <c r="B675" s="17"/>
       <c r="C675" s="36"/>
@@ -23801,7 +23818,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:26" ht="15">
       <c r="A676" s="16"/>
       <c r="B676" s="17"/>
       <c r="C676" s="36"/>
@@ -23829,7 +23846,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:26" ht="15">
       <c r="A677" s="16"/>
       <c r="B677" s="17"/>
       <c r="C677" s="36"/>
@@ -23857,7 +23874,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:26" ht="15">
       <c r="A678" s="16"/>
       <c r="B678" s="17"/>
       <c r="C678" s="36"/>
@@ -23885,7 +23902,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:26" ht="15">
       <c r="A679" s="16"/>
       <c r="B679" s="17"/>
       <c r="C679" s="36"/>
@@ -23913,7 +23930,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:26" ht="15">
       <c r="A680" s="16"/>
       <c r="B680" s="17"/>
       <c r="C680" s="36"/>
@@ -23941,7 +23958,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:26" ht="15">
       <c r="A681" s="16"/>
       <c r="B681" s="17"/>
       <c r="C681" s="36"/>
@@ -23969,7 +23986,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:26" ht="15">
       <c r="A682" s="16"/>
       <c r="B682" s="17"/>
       <c r="C682" s="36"/>
@@ -23997,7 +24014,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:26" ht="15">
       <c r="A683" s="16"/>
       <c r="B683" s="17"/>
       <c r="C683" s="36"/>
@@ -24025,7 +24042,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:26" ht="15">
       <c r="A684" s="16"/>
       <c r="B684" s="17"/>
       <c r="C684" s="36"/>
@@ -24053,7 +24070,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:26" ht="15">
       <c r="A685" s="16"/>
       <c r="B685" s="17"/>
       <c r="C685" s="36"/>
@@ -24081,7 +24098,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:26" ht="15">
       <c r="A686" s="16"/>
       <c r="B686" s="17"/>
       <c r="C686" s="36"/>
@@ -24109,7 +24126,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:26" ht="15">
       <c r="A687" s="16"/>
       <c r="B687" s="17"/>
       <c r="C687" s="36"/>
@@ -24137,7 +24154,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:26" ht="15">
       <c r="A688" s="16"/>
       <c r="B688" s="17"/>
       <c r="C688" s="36"/>
@@ -24165,7 +24182,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:26" ht="15">
       <c r="A689" s="16"/>
       <c r="B689" s="17"/>
       <c r="C689" s="36"/>
@@ -24193,7 +24210,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:26" ht="15">
       <c r="A690" s="16"/>
       <c r="B690" s="17"/>
       <c r="C690" s="36"/>
@@ -24221,7 +24238,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:26" ht="15">
       <c r="A691" s="16"/>
       <c r="B691" s="17"/>
       <c r="C691" s="36"/>
@@ -24249,7 +24266,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:26" ht="15">
       <c r="A692" s="16"/>
       <c r="B692" s="17"/>
       <c r="C692" s="36"/>
@@ -24277,7 +24294,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:26" ht="15">
       <c r="A693" s="16"/>
       <c r="B693" s="17"/>
       <c r="C693" s="36"/>
@@ -24305,7 +24322,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:26" ht="15">
       <c r="A694" s="16"/>
       <c r="B694" s="17"/>
       <c r="C694" s="36"/>
@@ -24333,7 +24350,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:26" ht="15">
       <c r="A695" s="16"/>
       <c r="B695" s="17"/>
       <c r="C695" s="36"/>
@@ -24361,7 +24378,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:26" ht="15">
       <c r="A696" s="16"/>
       <c r="B696" s="17"/>
       <c r="C696" s="36"/>
@@ -24389,7 +24406,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:26" ht="15">
       <c r="A697" s="16"/>
       <c r="B697" s="17"/>
       <c r="C697" s="36"/>
@@ -24417,7 +24434,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:26" ht="15">
       <c r="A698" s="16"/>
       <c r="B698" s="17"/>
       <c r="C698" s="36"/>
@@ -24445,7 +24462,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:26" ht="15">
       <c r="A699" s="16"/>
       <c r="B699" s="17"/>
       <c r="C699" s="36"/>
@@ -24473,7 +24490,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:26" ht="15">
       <c r="A700" s="16"/>
       <c r="B700" s="17"/>
       <c r="C700" s="36"/>
@@ -24501,7 +24518,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:26" ht="15">
       <c r="A701" s="16"/>
       <c r="B701" s="17"/>
       <c r="C701" s="36"/>
@@ -24529,7 +24546,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:26" ht="15">
       <c r="A702" s="16"/>
       <c r="B702" s="17"/>
       <c r="C702" s="36"/>
@@ -24557,7 +24574,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:26" ht="15">
       <c r="A703" s="16"/>
       <c r="B703" s="17"/>
       <c r="C703" s="36"/>
@@ -24585,7 +24602,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:26" ht="15">
       <c r="A704" s="16"/>
       <c r="B704" s="17"/>
       <c r="C704" s="36"/>
@@ -24613,7 +24630,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:26" ht="15">
       <c r="A705" s="16"/>
       <c r="B705" s="17"/>
       <c r="C705" s="36"/>
@@ -24641,7 +24658,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:26" ht="15">
       <c r="A706" s="16"/>
       <c r="B706" s="17"/>
       <c r="C706" s="36"/>
@@ -24669,7 +24686,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:26" ht="15">
       <c r="A707" s="16"/>
       <c r="B707" s="17"/>
       <c r="C707" s="36"/>
@@ -24697,7 +24714,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:26" ht="15">
       <c r="A708" s="16"/>
       <c r="B708" s="17"/>
       <c r="C708" s="36"/>
@@ -24725,7 +24742,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:26" ht="15">
       <c r="A709" s="16"/>
       <c r="B709" s="17"/>
       <c r="C709" s="36"/>
@@ -24753,7 +24770,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:26" ht="15">
       <c r="A710" s="16"/>
       <c r="B710" s="17"/>
       <c r="C710" s="36"/>
@@ -24781,7 +24798,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:26" ht="15">
       <c r="A711" s="16"/>
       <c r="B711" s="17"/>
       <c r="C711" s="36"/>
@@ -24809,7 +24826,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:26" ht="15">
       <c r="A712" s="16"/>
       <c r="B712" s="17"/>
       <c r="C712" s="36"/>
@@ -24837,7 +24854,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:26" ht="15">
       <c r="A713" s="16"/>
       <c r="B713" s="17"/>
       <c r="C713" s="36"/>
@@ -24865,7 +24882,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:26" ht="15">
       <c r="A714" s="16"/>
       <c r="B714" s="17"/>
       <c r="C714" s="36"/>
@@ -24893,7 +24910,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:26" ht="15">
       <c r="A715" s="16"/>
       <c r="B715" s="17"/>
       <c r="C715" s="36"/>
@@ -24921,7 +24938,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:26" ht="15">
       <c r="A716" s="16"/>
       <c r="B716" s="17"/>
       <c r="C716" s="36"/>
@@ -24949,7 +24966,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:26" ht="15">
       <c r="A717" s="16"/>
       <c r="B717" s="17"/>
       <c r="C717" s="36"/>
@@ -24977,7 +24994,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:26" ht="15">
       <c r="A718" s="16"/>
       <c r="B718" s="17"/>
       <c r="C718" s="36"/>
@@ -25005,7 +25022,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:26" ht="15">
       <c r="A719" s="16"/>
       <c r="B719" s="17"/>
       <c r="C719" s="36"/>
@@ -25033,7 +25050,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:26" ht="15">
       <c r="A720" s="16"/>
       <c r="B720" s="17"/>
       <c r="C720" s="36"/>
@@ -25061,7 +25078,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:26" ht="15">
       <c r="A721" s="16"/>
       <c r="B721" s="17"/>
       <c r="C721" s="36"/>
@@ -25089,7 +25106,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:26" ht="15">
       <c r="A722" s="16"/>
       <c r="B722" s="17"/>
       <c r="C722" s="36"/>
@@ -25117,7 +25134,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:26" ht="15">
       <c r="A723" s="16"/>
       <c r="B723" s="17"/>
       <c r="C723" s="36"/>
@@ -25145,7 +25162,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:26" ht="15">
       <c r="A724" s="16"/>
       <c r="B724" s="17"/>
       <c r="C724" s="36"/>
@@ -25173,7 +25190,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:26" ht="15">
       <c r="A725" s="16"/>
       <c r="B725" s="17"/>
       <c r="C725" s="36"/>
@@ -25201,7 +25218,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:26" ht="15">
       <c r="A726" s="16"/>
       <c r="B726" s="17"/>
       <c r="C726" s="36"/>
@@ -25229,7 +25246,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:26" ht="15">
       <c r="A727" s="16"/>
       <c r="B727" s="17"/>
       <c r="C727" s="36"/>
@@ -25257,7 +25274,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:26" ht="15">
       <c r="A728" s="16"/>
       <c r="B728" s="17"/>
       <c r="C728" s="36"/>
@@ -25285,7 +25302,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:26" ht="15">
       <c r="A729" s="16"/>
       <c r="B729" s="17"/>
       <c r="C729" s="36"/>
@@ -25313,7 +25330,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:26" ht="15">
       <c r="A730" s="16"/>
       <c r="B730" s="17"/>
       <c r="C730" s="36"/>
@@ -25341,7 +25358,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:26" ht="15">
       <c r="A731" s="16"/>
       <c r="B731" s="17"/>
       <c r="C731" s="36"/>
@@ -25369,7 +25386,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:26" ht="15">
       <c r="A732" s="16"/>
       <c r="B732" s="17"/>
       <c r="C732" s="36"/>
@@ -25397,7 +25414,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:26" ht="15">
       <c r="A733" s="16"/>
       <c r="B733" s="17"/>
       <c r="C733" s="36"/>
@@ -25425,7 +25442,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:26" ht="15">
       <c r="A734" s="16"/>
       <c r="B734" s="17"/>
       <c r="C734" s="36"/>
@@ -25453,7 +25470,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:26" ht="15">
       <c r="A735" s="16"/>
       <c r="B735" s="17"/>
       <c r="C735" s="36"/>
@@ -25481,7 +25498,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:26" ht="15">
       <c r="A736" s="16"/>
       <c r="B736" s="17"/>
       <c r="C736" s="36"/>
@@ -25509,7 +25526,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:26" ht="15">
       <c r="A737" s="16"/>
       <c r="B737" s="17"/>
       <c r="C737" s="36"/>
@@ -25537,7 +25554,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:26" ht="15">
       <c r="A738" s="16"/>
       <c r="B738" s="17"/>
       <c r="C738" s="36"/>
@@ -25565,7 +25582,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:26" ht="15">
       <c r="A739" s="16"/>
       <c r="B739" s="17"/>
       <c r="C739" s="36"/>
@@ -25593,7 +25610,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:26" ht="15">
       <c r="A740" s="16"/>
       <c r="B740" s="17"/>
       <c r="C740" s="36"/>
@@ -25621,7 +25638,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:26" ht="15">
       <c r="A741" s="16"/>
       <c r="B741" s="17"/>
       <c r="C741" s="36"/>
@@ -25649,7 +25666,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:26" ht="15">
       <c r="A742" s="16"/>
       <c r="B742" s="17"/>
       <c r="C742" s="36"/>
@@ -25677,7 +25694,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:26" ht="15">
       <c r="A743" s="16"/>
       <c r="B743" s="17"/>
       <c r="C743" s="36"/>
@@ -25705,7 +25722,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:26" ht="15">
       <c r="A744" s="16"/>
       <c r="B744" s="17"/>
       <c r="C744" s="36"/>
@@ -25733,7 +25750,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:26" ht="15">
       <c r="A745" s="16"/>
       <c r="B745" s="17"/>
       <c r="C745" s="36"/>
@@ -25761,7 +25778,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:26" ht="15">
       <c r="A746" s="16"/>
       <c r="B746" s="17"/>
       <c r="C746" s="36"/>
@@ -25789,7 +25806,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:26" ht="15">
       <c r="A747" s="16"/>
       <c r="B747" s="17"/>
       <c r="C747" s="36"/>
@@ -25817,7 +25834,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:26" ht="15">
       <c r="A748" s="16"/>
       <c r="B748" s="17"/>
       <c r="C748" s="36"/>
@@ -25845,7 +25862,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:26" ht="15">
       <c r="A749" s="16"/>
       <c r="B749" s="17"/>
       <c r="C749" s="36"/>
@@ -25873,7 +25890,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:26" ht="15">
       <c r="A750" s="16"/>
       <c r="B750" s="17"/>
       <c r="C750" s="36"/>
@@ -25901,7 +25918,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:26" ht="15">
       <c r="A751" s="16"/>
       <c r="B751" s="17"/>
       <c r="C751" s="36"/>
@@ -25929,7 +25946,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:26" ht="15">
       <c r="A752" s="16"/>
       <c r="B752" s="17"/>
       <c r="C752" s="36"/>
@@ -25957,7 +25974,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:26" ht="15">
       <c r="A753" s="16"/>
       <c r="B753" s="17"/>
       <c r="C753" s="36"/>
@@ -25985,7 +26002,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:26" ht="15">
       <c r="A754" s="16"/>
       <c r="B754" s="17"/>
       <c r="C754" s="36"/>
@@ -26013,7 +26030,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:26" ht="15">
       <c r="A755" s="16"/>
       <c r="B755" s="17"/>
       <c r="C755" s="36"/>
@@ -26041,7 +26058,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:26" ht="15">
       <c r="A756" s="16"/>
       <c r="B756" s="17"/>
       <c r="C756" s="36"/>
@@ -26069,7 +26086,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:26" ht="15">
       <c r="A757" s="16"/>
       <c r="B757" s="17"/>
       <c r="C757" s="36"/>
@@ -26097,7 +26114,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:26" ht="15">
       <c r="A758" s="16"/>
       <c r="B758" s="17"/>
       <c r="C758" s="36"/>
@@ -26125,7 +26142,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:26" ht="15">
       <c r="A759" s="16"/>
       <c r="B759" s="17"/>
       <c r="C759" s="36"/>
@@ -26153,7 +26170,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:26" ht="15">
       <c r="A760" s="16"/>
       <c r="B760" s="17"/>
       <c r="C760" s="36"/>
@@ -26181,7 +26198,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:26" ht="15">
       <c r="A761" s="16"/>
       <c r="B761" s="17"/>
       <c r="C761" s="36"/>
@@ -26209,7 +26226,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:26" ht="15">
       <c r="A762" s="16"/>
       <c r="B762" s="17"/>
       <c r="C762" s="36"/>
@@ -26237,7 +26254,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:26" ht="15">
       <c r="A763" s="16"/>
       <c r="B763" s="17"/>
       <c r="C763" s="36"/>
@@ -26265,7 +26282,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:26" ht="15">
       <c r="A764" s="16"/>
       <c r="B764" s="17"/>
       <c r="C764" s="36"/>
@@ -26293,7 +26310,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:26" ht="15">
       <c r="A765" s="16"/>
       <c r="B765" s="17"/>
       <c r="C765" s="36"/>
@@ -26321,7 +26338,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:26" ht="15">
       <c r="A766" s="16"/>
       <c r="B766" s="17"/>
       <c r="C766" s="36"/>
@@ -26349,7 +26366,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:26" ht="15">
       <c r="A767" s="16"/>
       <c r="B767" s="17"/>
       <c r="C767" s="36"/>
@@ -26377,7 +26394,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:26" ht="15">
       <c r="A768" s="16"/>
       <c r="B768" s="17"/>
       <c r="C768" s="36"/>
@@ -26405,7 +26422,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:26" ht="15">
       <c r="A769" s="16"/>
       <c r="B769" s="17"/>
       <c r="C769" s="36"/>
@@ -26433,7 +26450,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:26" ht="15">
       <c r="A770" s="16"/>
       <c r="B770" s="17"/>
       <c r="C770" s="36"/>
@@ -26461,7 +26478,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:26" ht="15">
       <c r="A771" s="16"/>
       <c r="B771" s="17"/>
       <c r="C771" s="36"/>
@@ -26489,7 +26506,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:26" ht="15">
       <c r="A772" s="16"/>
       <c r="B772" s="17"/>
       <c r="C772" s="36"/>
@@ -26517,7 +26534,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:26" ht="15">
       <c r="A773" s="16"/>
       <c r="B773" s="17"/>
       <c r="C773" s="36"/>
@@ -26545,7 +26562,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:26" ht="15">
       <c r="A774" s="16"/>
       <c r="B774" s="17"/>
       <c r="C774" s="36"/>
@@ -26573,7 +26590,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:26" ht="15">
       <c r="A775" s="16"/>
       <c r="B775" s="17"/>
       <c r="C775" s="36"/>
@@ -26601,7 +26618,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:26" ht="15">
       <c r="A776" s="16"/>
       <c r="B776" s="17"/>
       <c r="C776" s="36"/>
@@ -26629,7 +26646,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:26" ht="15">
       <c r="A777" s="16"/>
       <c r="B777" s="17"/>
       <c r="C777" s="36"/>
@@ -26657,7 +26674,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:26" ht="15">
       <c r="A778" s="16"/>
       <c r="B778" s="17"/>
       <c r="C778" s="36"/>
@@ -26685,7 +26702,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:26" ht="15">
       <c r="A779" s="16"/>
       <c r="B779" s="17"/>
       <c r="C779" s="36"/>
@@ -26713,7 +26730,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:26" ht="15">
       <c r="A780" s="16"/>
       <c r="B780" s="17"/>
       <c r="C780" s="36"/>
@@ -26741,7 +26758,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:26" ht="15">
       <c r="A781" s="16"/>
       <c r="B781" s="17"/>
       <c r="C781" s="36"/>
@@ -26769,7 +26786,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:26" ht="15">
       <c r="A782" s="16"/>
       <c r="B782" s="17"/>
       <c r="C782" s="36"/>
@@ -26797,7 +26814,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:26" ht="15">
       <c r="A783" s="16"/>
       <c r="B783" s="17"/>
       <c r="C783" s="36"/>
@@ -26825,7 +26842,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:26" ht="15">
       <c r="A784" s="16"/>
       <c r="B784" s="17"/>
       <c r="C784" s="36"/>
@@ -26853,7 +26870,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:26" ht="15">
       <c r="A785" s="16"/>
       <c r="B785" s="17"/>
       <c r="C785" s="36"/>
@@ -26881,7 +26898,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:26" ht="15">
       <c r="A786" s="16"/>
       <c r="B786" s="17"/>
       <c r="C786" s="36"/>
@@ -26909,7 +26926,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:26" ht="15">
       <c r="A787" s="16"/>
       <c r="B787" s="17"/>
       <c r="C787" s="36"/>
@@ -26937,7 +26954,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:26" ht="15">
       <c r="A788" s="16"/>
       <c r="B788" s="17"/>
       <c r="C788" s="36"/>
@@ -26965,7 +26982,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:26" ht="15">
       <c r="A789" s="16"/>
       <c r="B789" s="17"/>
       <c r="C789" s="36"/>
@@ -26993,7 +27010,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:26" ht="15">
       <c r="A790" s="16"/>
       <c r="B790" s="17"/>
       <c r="C790" s="36"/>
@@ -27021,7 +27038,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:26" ht="15">
       <c r="A791" s="16"/>
       <c r="B791" s="17"/>
       <c r="C791" s="36"/>
@@ -27049,7 +27066,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:26" ht="15">
       <c r="A792" s="16"/>
       <c r="B792" s="17"/>
       <c r="C792" s="36"/>
@@ -27077,7 +27094,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:26" ht="15">
       <c r="A793" s="16"/>
       <c r="B793" s="17"/>
       <c r="C793" s="36"/>
@@ -27105,7 +27122,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:26" ht="15">
       <c r="A794" s="16"/>
       <c r="B794" s="17"/>
       <c r="C794" s="36"/>
@@ -27133,7 +27150,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:26" ht="15">
       <c r="A795" s="16"/>
       <c r="B795" s="17"/>
       <c r="C795" s="36"/>
@@ -27161,7 +27178,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:26" ht="15">
       <c r="A796" s="16"/>
       <c r="B796" s="17"/>
       <c r="C796" s="36"/>
@@ -27189,7 +27206,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:26" ht="15">
       <c r="A797" s="16"/>
       <c r="B797" s="17"/>
       <c r="C797" s="36"/>
@@ -27217,7 +27234,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:26" ht="15">
       <c r="A798" s="16"/>
       <c r="B798" s="17"/>
       <c r="C798" s="36"/>
@@ -27245,7 +27262,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:26" ht="15">
       <c r="A799" s="16"/>
       <c r="B799" s="17"/>
       <c r="C799" s="36"/>
@@ -27273,7 +27290,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:26" ht="15">
       <c r="A800" s="16"/>
       <c r="B800" s="17"/>
       <c r="C800" s="36"/>
@@ -27301,7 +27318,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:26" ht="15">
       <c r="A801" s="16"/>
       <c r="B801" s="17"/>
       <c r="C801" s="36"/>
@@ -27329,7 +27346,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:26" ht="15">
       <c r="A802" s="16"/>
       <c r="B802" s="17"/>
       <c r="C802" s="36"/>
@@ -27357,7 +27374,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:26" ht="15">
       <c r="A803" s="16"/>
       <c r="B803" s="17"/>
       <c r="C803" s="36"/>
@@ -27385,7 +27402,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:26" ht="15">
       <c r="A804" s="16"/>
       <c r="B804" s="17"/>
       <c r="C804" s="36"/>
@@ -27413,7 +27430,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:26" ht="15">
       <c r="A805" s="16"/>
       <c r="B805" s="17"/>
       <c r="C805" s="36"/>
@@ -27441,7 +27458,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:26" ht="15">
       <c r="A806" s="16"/>
       <c r="B806" s="17"/>
       <c r="C806" s="36"/>
@@ -27469,7 +27486,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:26" ht="15">
       <c r="A807" s="16"/>
       <c r="B807" s="17"/>
       <c r="C807" s="36"/>
@@ -27497,7 +27514,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:26" ht="15">
       <c r="A808" s="16"/>
       <c r="B808" s="17"/>
       <c r="C808" s="36"/>
@@ -27525,7 +27542,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:26" ht="15">
       <c r="A809" s="16"/>
       <c r="B809" s="17"/>
       <c r="C809" s="36"/>
@@ -27553,7 +27570,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:26" ht="15">
       <c r="A810" s="16"/>
       <c r="B810" s="17"/>
       <c r="C810" s="36"/>
@@ -27581,7 +27598,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:26" ht="15">
       <c r="A811" s="16"/>
       <c r="B811" s="17"/>
       <c r="C811" s="36"/>
@@ -27609,7 +27626,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:26" ht="15">
       <c r="A812" s="16"/>
       <c r="B812" s="17"/>
       <c r="C812" s="36"/>
@@ -27637,7 +27654,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:26" ht="15">
       <c r="A813" s="16"/>
       <c r="B813" s="17"/>
       <c r="C813" s="36"/>
@@ -27665,7 +27682,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:26" ht="15">
       <c r="A814" s="16"/>
       <c r="B814" s="17"/>
       <c r="C814" s="36"/>
@@ -27693,7 +27710,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:26" ht="15">
       <c r="A815" s="16"/>
       <c r="B815" s="17"/>
       <c r="C815" s="36"/>
@@ -27721,7 +27738,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:26" ht="15">
       <c r="A816" s="16"/>
       <c r="B816" s="17"/>
       <c r="C816" s="36"/>
@@ -27749,7 +27766,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:26" ht="15">
       <c r="A817" s="16"/>
       <c r="B817" s="17"/>
       <c r="C817" s="36"/>
@@ -27777,7 +27794,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:26" ht="15">
       <c r="A818" s="16"/>
       <c r="B818" s="17"/>
       <c r="C818" s="36"/>
@@ -27805,7 +27822,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:26" ht="15">
       <c r="A819" s="16"/>
       <c r="B819" s="17"/>
       <c r="C819" s="36"/>
@@ -27833,7 +27850,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:26" ht="15">
       <c r="A820" s="16"/>
       <c r="B820" s="17"/>
       <c r="C820" s="36"/>
@@ -27861,7 +27878,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:26" ht="15">
       <c r="A821" s="16"/>
       <c r="B821" s="17"/>
       <c r="C821" s="36"/>
@@ -27889,7 +27906,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:26" ht="15">
       <c r="A822" s="16"/>
       <c r="B822" s="17"/>
       <c r="C822" s="36"/>
@@ -27917,7 +27934,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:26" ht="15">
       <c r="A823" s="16"/>
       <c r="B823" s="17"/>
       <c r="C823" s="36"/>
@@ -27945,7 +27962,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:26" ht="15">
       <c r="A824" s="16"/>
       <c r="B824" s="17"/>
       <c r="C824" s="36"/>
@@ -27973,7 +27990,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:26" ht="15">
       <c r="A825" s="16"/>
       <c r="B825" s="17"/>
       <c r="C825" s="36"/>
@@ -28001,7 +28018,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:26" ht="15">
       <c r="A826" s="16"/>
       <c r="B826" s="17"/>
       <c r="C826" s="36"/>
@@ -28029,7 +28046,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:26" ht="15">
       <c r="A827" s="16"/>
       <c r="B827" s="17"/>
       <c r="C827" s="36"/>
@@ -28057,7 +28074,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:26" ht="15">
       <c r="A828" s="16"/>
       <c r="B828" s="17"/>
       <c r="C828" s="36"/>
@@ -28085,7 +28102,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:26" ht="15">
       <c r="A829" s="16"/>
       <c r="B829" s="17"/>
       <c r="C829" s="36"/>
@@ -28113,7 +28130,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:26" ht="15">
       <c r="A830" s="16"/>
       <c r="B830" s="17"/>
       <c r="C830" s="36"/>
@@ -28141,7 +28158,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:26" ht="15">
       <c r="A831" s="16"/>
       <c r="B831" s="17"/>
       <c r="C831" s="36"/>
@@ -28169,7 +28186,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:26" ht="15">
       <c r="A832" s="16"/>
       <c r="B832" s="17"/>
       <c r="C832" s="36"/>
@@ -28197,7 +28214,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:26" ht="15">
       <c r="A833" s="16"/>
       <c r="B833" s="17"/>
       <c r="C833" s="36"/>
@@ -28225,7 +28242,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:26" ht="15">
       <c r="A834" s="16"/>
       <c r="B834" s="17"/>
       <c r="C834" s="36"/>
@@ -28253,7 +28270,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:26" ht="15">
       <c r="A835" s="16"/>
       <c r="B835" s="17"/>
       <c r="C835" s="36"/>
@@ -28281,7 +28298,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:26" ht="15">
       <c r="A836" s="16"/>
       <c r="B836" s="17"/>
       <c r="C836" s="36"/>
@@ -28309,7 +28326,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:26" ht="15">
       <c r="A837" s="16"/>
       <c r="B837" s="17"/>
       <c r="C837" s="36"/>
@@ -28337,7 +28354,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:26" ht="15">
       <c r="A838" s="16"/>
       <c r="B838" s="17"/>
       <c r="C838" s="36"/>
@@ -28365,7 +28382,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:26" ht="15">
       <c r="A839" s="16"/>
       <c r="B839" s="17"/>
       <c r="C839" s="36"/>
@@ -28393,7 +28410,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:26" ht="15">
       <c r="A840" s="16"/>
       <c r="B840" s="17"/>
       <c r="C840" s="36"/>
@@ -28421,7 +28438,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:26" ht="15">
       <c r="A841" s="16"/>
       <c r="B841" s="17"/>
       <c r="C841" s="36"/>
@@ -28449,7 +28466,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:26" ht="15">
       <c r="A842" s="16"/>
       <c r="B842" s="17"/>
       <c r="C842" s="36"/>
@@ -28477,7 +28494,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:26" ht="15">
       <c r="A843" s="16"/>
       <c r="B843" s="17"/>
       <c r="C843" s="36"/>
@@ -28505,7 +28522,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:26" ht="15">
       <c r="A844" s="16"/>
       <c r="B844" s="17"/>
       <c r="C844" s="36"/>
@@ -28533,7 +28550,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:26" ht="15">
       <c r="A845" s="16"/>
       <c r="B845" s="17"/>
       <c r="C845" s="36"/>
@@ -28561,7 +28578,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:26" ht="15">
       <c r="A846" s="16"/>
       <c r="B846" s="17"/>
       <c r="C846" s="36"/>
@@ -28589,7 +28606,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:26" ht="15">
       <c r="A847" s="16"/>
       <c r="B847" s="17"/>
       <c r="C847" s="36"/>
@@ -28617,7 +28634,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:26" ht="15">
       <c r="A848" s="16"/>
       <c r="B848" s="17"/>
       <c r="C848" s="36"/>
@@ -28645,7 +28662,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:26" ht="15">
       <c r="A849" s="16"/>
       <c r="B849" s="17"/>
       <c r="C849" s="36"/>
@@ -28673,7 +28690,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:26" ht="15">
       <c r="A850" s="16"/>
       <c r="B850" s="17"/>
       <c r="C850" s="36"/>
@@ -28701,7 +28718,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:26" ht="15">
       <c r="A851" s="16"/>
       <c r="B851" s="17"/>
       <c r="C851" s="36"/>
@@ -28729,7 +28746,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:26" ht="15">
       <c r="A852" s="16"/>
       <c r="B852" s="17"/>
       <c r="C852" s="36"/>
@@ -28757,7 +28774,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:26" ht="15">
       <c r="A853" s="16"/>
       <c r="B853" s="17"/>
       <c r="C853" s="36"/>
@@ -28785,7 +28802,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:26" ht="15">
       <c r="A854" s="16"/>
       <c r="B854" s="17"/>
       <c r="C854" s="36"/>
@@ -28813,7 +28830,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:26" ht="15">
       <c r="A855" s="16"/>
       <c r="B855" s="17"/>
       <c r="C855" s="36"/>
@@ -28841,7 +28858,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:26" ht="15">
       <c r="A856" s="16"/>
       <c r="B856" s="17"/>
       <c r="C856" s="36"/>
@@ -28869,7 +28886,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:26" ht="15">
       <c r="A857" s="16"/>
       <c r="B857" s="17"/>
       <c r="C857" s="36"/>
@@ -28897,7 +28914,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:26" ht="15">
       <c r="A858" s="16"/>
       <c r="B858" s="17"/>
       <c r="C858" s="36"/>
@@ -28925,7 +28942,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:26" ht="15">
       <c r="A859" s="16"/>
       <c r="B859" s="17"/>
       <c r="C859" s="36"/>
@@ -28953,7 +28970,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:26" ht="15">
       <c r="A860" s="16"/>
       <c r="B860" s="17"/>
       <c r="C860" s="36"/>
@@ -28981,7 +28998,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:26" ht="15">
       <c r="A861" s="16"/>
       <c r="B861" s="17"/>
       <c r="C861" s="36"/>
@@ -29009,7 +29026,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:26" ht="15">
       <c r="A862" s="16"/>
       <c r="B862" s="17"/>
       <c r="C862" s="36"/>
@@ -29037,7 +29054,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:26" ht="15">
       <c r="A863" s="16"/>
       <c r="B863" s="17"/>
       <c r="C863" s="36"/>
@@ -29065,7 +29082,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:26" ht="15">
       <c r="A864" s="16"/>
       <c r="B864" s="17"/>
       <c r="C864" s="36"/>
@@ -29093,7 +29110,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:26" ht="15">
       <c r="A865" s="16"/>
       <c r="B865" s="17"/>
       <c r="C865" s="36"/>
@@ -29121,7 +29138,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:26" ht="15">
       <c r="A866" s="16"/>
       <c r="B866" s="17"/>
       <c r="C866" s="36"/>
@@ -29149,7 +29166,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:26" ht="15">
       <c r="A867" s="16"/>
       <c r="B867" s="17"/>
       <c r="C867" s="36"/>
@@ -29177,7 +29194,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:26" ht="15">
       <c r="A868" s="16"/>
       <c r="B868" s="17"/>
       <c r="C868" s="36"/>
@@ -29205,7 +29222,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:26" ht="15">
       <c r="A869" s="16"/>
       <c r="B869" s="17"/>
       <c r="C869" s="36"/>
@@ -29233,7 +29250,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:26" ht="15">
       <c r="A870" s="16"/>
       <c r="B870" s="17"/>
       <c r="C870" s="36"/>
@@ -29261,7 +29278,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:26" ht="15">
       <c r="A871" s="16"/>
       <c r="B871" s="17"/>
       <c r="C871" s="36"/>
@@ -29289,7 +29306,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:26" ht="15">
       <c r="A872" s="16"/>
       <c r="B872" s="17"/>
       <c r="C872" s="36"/>
@@ -29317,7 +29334,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:26" ht="15">
       <c r="A873" s="16"/>
       <c r="B873" s="17"/>
       <c r="C873" s="36"/>
@@ -29345,7 +29362,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:26" ht="15">
       <c r="A874" s="16"/>
       <c r="B874" s="17"/>
       <c r="C874" s="36"/>
@@ -29373,7 +29390,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:26" ht="15">
       <c r="A875" s="16"/>
       <c r="B875" s="17"/>
       <c r="C875" s="36"/>
@@ -29401,7 +29418,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:26" ht="15">
       <c r="A876" s="16"/>
       <c r="B876" s="17"/>
       <c r="C876" s="36"/>
@@ -29429,7 +29446,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:26" ht="15">
       <c r="A877" s="16"/>
       <c r="B877" s="17"/>
       <c r="C877" s="36"/>
@@ -29457,7 +29474,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:26" ht="15">
       <c r="A878" s="16"/>
       <c r="B878" s="17"/>
       <c r="C878" s="36"/>
@@ -29485,7 +29502,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:26" ht="15">
       <c r="A879" s="16"/>
       <c r="B879" s="17"/>
       <c r="C879" s="36"/>
@@ -29513,7 +29530,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:26" ht="15">
       <c r="A880" s="16"/>
       <c r="B880" s="17"/>
       <c r="C880" s="36"/>
@@ -29541,7 +29558,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:26" ht="15">
       <c r="A881" s="16"/>
       <c r="B881" s="17"/>
       <c r="C881" s="36"/>
@@ -29569,7 +29586,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:26" ht="15">
       <c r="A882" s="16"/>
       <c r="B882" s="17"/>
       <c r="C882" s="36"/>
@@ -29597,7 +29614,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:26" ht="15">
       <c r="A883" s="16"/>
       <c r="B883" s="17"/>
       <c r="C883" s="36"/>
@@ -29625,7 +29642,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:26" ht="15">
       <c r="A884" s="16"/>
       <c r="B884" s="17"/>
       <c r="C884" s="36"/>
@@ -29653,7 +29670,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:26" ht="15">
       <c r="A885" s="16"/>
       <c r="B885" s="17"/>
       <c r="C885" s="36"/>
@@ -29681,7 +29698,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:26" ht="15">
       <c r="A886" s="16"/>
       <c r="B886" s="17"/>
       <c r="C886" s="36"/>
@@ -29709,7 +29726,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:26" ht="15">
       <c r="A887" s="16"/>
       <c r="B887" s="17"/>
       <c r="C887" s="36"/>
@@ -29737,7 +29754,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:26" ht="15">
       <c r="A888" s="16"/>
       <c r="B888" s="17"/>
       <c r="C888" s="36"/>
@@ -29765,7 +29782,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:26" ht="15">
       <c r="A889" s="16"/>
       <c r="B889" s="17"/>
       <c r="C889" s="36"/>
@@ -29793,7 +29810,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:26" ht="15">
       <c r="A890" s="16"/>
       <c r="B890" s="17"/>
       <c r="C890" s="36"/>
@@ -29821,7 +29838,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:26" ht="15">
       <c r="A891" s="16"/>
       <c r="B891" s="17"/>
       <c r="C891" s="36"/>
@@ -29849,7 +29866,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:26" ht="15">
       <c r="A892" s="16"/>
       <c r="B892" s="17"/>
       <c r="C892" s="36"/>
@@ -29877,7 +29894,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:26" ht="15">
       <c r="A893" s="16"/>
       <c r="B893" s="17"/>
       <c r="C893" s="36"/>
@@ -29905,7 +29922,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:26" ht="15">
       <c r="A894" s="16"/>
       <c r="B894" s="17"/>
       <c r="C894" s="36"/>
@@ -29933,7 +29950,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:26" ht="15">
       <c r="A895" s="16"/>
       <c r="B895" s="17"/>
       <c r="C895" s="36"/>
@@ -29961,7 +29978,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:26" ht="15">
       <c r="A896" s="16"/>
       <c r="B896" s="17"/>
       <c r="C896" s="36"/>
@@ -29989,7 +30006,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:26" ht="15">
       <c r="A897" s="16"/>
       <c r="B897" s="17"/>
       <c r="C897" s="36"/>
@@ -30017,7 +30034,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:26" ht="15">
       <c r="A898" s="16"/>
       <c r="B898" s="17"/>
       <c r="C898" s="36"/>
@@ -30045,7 +30062,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:26" ht="15">
       <c r="A899" s="16"/>
       <c r="B899" s="17"/>
       <c r="C899" s="36"/>
@@ -30073,7 +30090,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:26" ht="15">
       <c r="A900" s="16"/>
       <c r="B900" s="17"/>
       <c r="C900" s="36"/>
@@ -30101,7 +30118,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:26" ht="15">
       <c r="A901" s="16"/>
       <c r="B901" s="17"/>
       <c r="C901" s="36"/>
@@ -30129,7 +30146,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:26" ht="15">
       <c r="A902" s="16"/>
       <c r="B902" s="17"/>
       <c r="C902" s="36"/>
@@ -30157,7 +30174,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:26" ht="15">
       <c r="A903" s="16"/>
       <c r="B903" s="17"/>
       <c r="C903" s="36"/>
@@ -30185,7 +30202,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:26" ht="15">
       <c r="A904" s="16"/>
       <c r="B904" s="17"/>
       <c r="C904" s="36"/>
@@ -30213,7 +30230,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:26" ht="15">
       <c r="A905" s="16"/>
       <c r="B905" s="17"/>
       <c r="C905" s="36"/>
@@ -30241,7 +30258,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:26" ht="15">
       <c r="A906" s="16"/>
       <c r="B906" s="17"/>
       <c r="C906" s="36"/>
@@ -30269,7 +30286,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:26" ht="15">
       <c r="A907" s="16"/>
       <c r="B907" s="17"/>
       <c r="C907" s="36"/>
@@ -30297,7 +30314,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:26" ht="15">
       <c r="A908" s="16"/>
       <c r="B908" s="17"/>
       <c r="C908" s="36"/>
@@ -30325,7 +30342,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:26" ht="15">
       <c r="A909" s="16"/>
       <c r="B909" s="17"/>
       <c r="C909" s="36"/>
@@ -30353,7 +30370,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:26" ht="15">
       <c r="A910" s="16"/>
       <c r="B910" s="17"/>
       <c r="C910" s="36"/>
@@ -30381,7 +30398,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:26" ht="15">
       <c r="A911" s="16"/>
       <c r="B911" s="17"/>
       <c r="C911" s="36"/>
@@ -30409,7 +30426,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:26" ht="15">
       <c r="A912" s="16"/>
       <c r="B912" s="17"/>
       <c r="C912" s="36"/>
@@ -30437,7 +30454,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:26" ht="15">
       <c r="A913" s="16"/>
       <c r="B913" s="17"/>
       <c r="C913" s="36"/>
@@ -30465,7 +30482,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:26" ht="15">
       <c r="A914" s="16"/>
       <c r="B914" s="17"/>
       <c r="C914" s="36"/>
@@ -30493,7 +30510,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:26" ht="15">
       <c r="A915" s="16"/>
       <c r="B915" s="17"/>
       <c r="C915" s="36"/>
@@ -30521,7 +30538,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:26" ht="15">
       <c r="A916" s="16"/>
       <c r="B916" s="17"/>
       <c r="C916" s="36"/>
@@ -30549,7 +30566,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:26" ht="15">
       <c r="A917" s="16"/>
       <c r="B917" s="17"/>
       <c r="C917" s="36"/>
@@ -30577,7 +30594,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:26" ht="15">
       <c r="A918" s="16"/>
       <c r="B918" s="17"/>
       <c r="C918" s="36"/>
@@ -30605,7 +30622,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:26" ht="15">
       <c r="A919" s="16"/>
       <c r="B919" s="17"/>
       <c r="C919" s="36"/>
@@ -30635,21 +30652,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0E431290-4785-4511-9786-B81085FD917A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{E2BFD788-2D07-48F3-A817-E9AAE1FC69F0}"/>
+      <autoFilter ref="A293:C332"/>
+    </customSheetView>
+    <customSheetView guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37"/>
     </customSheetView>
     <customSheetView guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{E45AC64F-76CC-4751-B19B-BBF1671CB80F}"/>
+      <autoFilter ref="A11:D37"/>
     </customSheetView>
-    <customSheetView guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0E431290-4785-4511-9786-B81085FD917A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F9998370-9CB1-4299-A93A-DBB7CF7E4BAD}"/>
-    </customSheetView>
-    <customSheetView guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{F636EDCE-1D5B-444F-8A9C-12CA5174A3C3}"/>
+      <autoFilter ref="A11:C37"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -30658,383 +30675,383 @@
     <mergeCell ref="C7:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B53" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B64" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B65" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B66" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B69" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B70" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B71" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B73" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B76" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B77" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B78" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B79" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B80" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B81" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B82" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B83" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B84" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B85" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B86" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B87" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B88" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B89" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B90" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B91" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B92" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B93" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B95" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B96" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B97" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B98" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B101" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B102" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B103" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B104" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B105" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B106" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B107" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B108" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B109" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B110" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B111" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B112" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B113" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B114" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B115" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B116" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B117" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B118" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B119" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B120" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B121" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B124" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B125" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B126" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B127" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B128" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B129" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B130" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B131" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B132" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B133" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B134" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B135" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B136" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B137" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B138" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B139" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B140" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B141" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B142" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B143" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B145" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B146" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B147" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B148" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B149" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B152" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B153" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B154" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B155" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B156" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B157" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B158" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B159" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B160" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B161" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B162" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B163" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B164" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B165" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B166" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B167" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B168" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B169" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B170" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B171" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B172" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B173" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B174" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B175" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B176" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B177" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B178" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B181" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B182" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B183" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B184" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B185" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B186" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B187" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B188" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B189" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B190" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B191" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B192" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B193" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B194" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B195" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B196" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B197" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B198" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B199" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B200" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B201" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B202" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B205" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B206" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B207" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B208" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B209" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B210" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B211" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B212" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B213" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B214" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B215" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B216" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B217" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B218" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B219" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B220" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B221" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B222" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B223" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B224" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B225" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B226" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B227" r:id="rId202" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B228" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B229" r:id="rId204" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B230" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B231" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B232" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B233" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B234" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B235" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B236" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B237" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B240" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B241" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B242" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B243" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B244" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B245" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B246" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B247" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B248" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B249" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B250" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B251" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B252" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B253" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B254" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B255" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B256" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B257" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B258" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B259" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B260" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B263" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B264" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B265" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B266" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B267" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B268" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B269" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B270" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B271" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B273" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B274" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B275" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B276" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B277" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B278" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B279" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B280" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B281" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B282" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B283" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B284" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B285" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B286" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B287" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B288" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B289" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B290" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B293" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B294" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B295" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B296" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B297" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B298" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B299" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B300" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B301" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B302" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B303" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B304" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B306" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B307" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B308" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B309" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B310" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B311" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B312" r:id="rId281" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B313" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B314" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B315" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B316" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B317" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B318" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B319" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B320" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B321" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B322" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B323" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B324" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B325" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B326" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B327" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B328" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B329" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B330" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B331" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B332" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B335" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B336" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B337" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B338" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B339" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B340" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B343" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B344" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B345" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B346" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B347" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B348" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B349" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B350" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B351" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B352" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B353" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B354" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B355" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B356" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B357" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B358" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B359" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B360" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B361" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B362" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B363" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B364" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B365" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B366" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B367" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B368" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B369" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B370" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B371" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B372" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B373" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B374" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B375" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B376" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B377" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B378" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B379" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B380" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B381" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B382" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B383" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B384" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B385" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B386" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B387" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B388" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B389" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B390" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B391" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B392" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B393" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B394" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B395" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B396" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B399" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B400" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B401" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B402" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B403" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B404" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B405" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B406" r:id="rId369" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B407" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B408" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B411" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B412" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B413" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B414" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B415" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B416" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B18" r:id="rId9"/>
+    <hyperlink ref="B19" r:id="rId10"/>
+    <hyperlink ref="B20" r:id="rId11"/>
+    <hyperlink ref="B21" r:id="rId12"/>
+    <hyperlink ref="B22" r:id="rId13"/>
+    <hyperlink ref="B23" r:id="rId14"/>
+    <hyperlink ref="B24" r:id="rId15"/>
+    <hyperlink ref="B25" r:id="rId16"/>
+    <hyperlink ref="B26" r:id="rId17"/>
+    <hyperlink ref="B27" r:id="rId18"/>
+    <hyperlink ref="B28" r:id="rId19"/>
+    <hyperlink ref="B29" r:id="rId20"/>
+    <hyperlink ref="B30" r:id="rId21"/>
+    <hyperlink ref="B31" r:id="rId22"/>
+    <hyperlink ref="B32" r:id="rId23"/>
+    <hyperlink ref="B33" r:id="rId24"/>
+    <hyperlink ref="B34" r:id="rId25"/>
+    <hyperlink ref="B35" r:id="rId26"/>
+    <hyperlink ref="B36" r:id="rId27"/>
+    <hyperlink ref="B37" r:id="rId28"/>
+    <hyperlink ref="B40" r:id="rId29"/>
+    <hyperlink ref="B41" r:id="rId30"/>
+    <hyperlink ref="B42" r:id="rId31"/>
+    <hyperlink ref="B43" r:id="rId32"/>
+    <hyperlink ref="B44" r:id="rId33"/>
+    <hyperlink ref="B45" r:id="rId34"/>
+    <hyperlink ref="B46" r:id="rId35"/>
+    <hyperlink ref="B47" r:id="rId36"/>
+    <hyperlink ref="B48" r:id="rId37"/>
+    <hyperlink ref="B49" r:id="rId38"/>
+    <hyperlink ref="B50" r:id="rId39"/>
+    <hyperlink ref="B51" r:id="rId40"/>
+    <hyperlink ref="B52" r:id="rId41"/>
+    <hyperlink ref="B53" r:id="rId42"/>
+    <hyperlink ref="B54" r:id="rId43"/>
+    <hyperlink ref="B55" r:id="rId44"/>
+    <hyperlink ref="B56" r:id="rId45"/>
+    <hyperlink ref="B57" r:id="rId46"/>
+    <hyperlink ref="B58" r:id="rId47"/>
+    <hyperlink ref="B59" r:id="rId48"/>
+    <hyperlink ref="B60" r:id="rId49"/>
+    <hyperlink ref="B61" r:id="rId50"/>
+    <hyperlink ref="B64" r:id="rId51"/>
+    <hyperlink ref="B65" r:id="rId52"/>
+    <hyperlink ref="B66" r:id="rId53"/>
+    <hyperlink ref="B67" r:id="rId54"/>
+    <hyperlink ref="B68" r:id="rId55"/>
+    <hyperlink ref="B69" r:id="rId56"/>
+    <hyperlink ref="B70" r:id="rId57"/>
+    <hyperlink ref="B71" r:id="rId58"/>
+    <hyperlink ref="B72" r:id="rId59"/>
+    <hyperlink ref="B73" r:id="rId60"/>
+    <hyperlink ref="B76" r:id="rId61"/>
+    <hyperlink ref="B77" r:id="rId62"/>
+    <hyperlink ref="B78" r:id="rId63"/>
+    <hyperlink ref="B79" r:id="rId64"/>
+    <hyperlink ref="B80" r:id="rId65"/>
+    <hyperlink ref="B81" r:id="rId66"/>
+    <hyperlink ref="B82" r:id="rId67"/>
+    <hyperlink ref="B83" r:id="rId68"/>
+    <hyperlink ref="B84" r:id="rId69"/>
+    <hyperlink ref="B85" r:id="rId70"/>
+    <hyperlink ref="B86" r:id="rId71"/>
+    <hyperlink ref="B87" r:id="rId72"/>
+    <hyperlink ref="B88" r:id="rId73"/>
+    <hyperlink ref="B89" r:id="rId74"/>
+    <hyperlink ref="B90" r:id="rId75"/>
+    <hyperlink ref="B91" r:id="rId76"/>
+    <hyperlink ref="B92" r:id="rId77"/>
+    <hyperlink ref="B93" r:id="rId78"/>
+    <hyperlink ref="B94" r:id="rId79"/>
+    <hyperlink ref="B95" r:id="rId80"/>
+    <hyperlink ref="B96" r:id="rId81"/>
+    <hyperlink ref="B97" r:id="rId82"/>
+    <hyperlink ref="B98" r:id="rId83"/>
+    <hyperlink ref="B101" r:id="rId84"/>
+    <hyperlink ref="B102" r:id="rId85"/>
+    <hyperlink ref="B103" r:id="rId86"/>
+    <hyperlink ref="B104" r:id="rId87"/>
+    <hyperlink ref="B105" r:id="rId88"/>
+    <hyperlink ref="B106" r:id="rId89"/>
+    <hyperlink ref="B107" r:id="rId90"/>
+    <hyperlink ref="B108" r:id="rId91"/>
+    <hyperlink ref="B109" r:id="rId92"/>
+    <hyperlink ref="B110" r:id="rId93"/>
+    <hyperlink ref="B111" r:id="rId94"/>
+    <hyperlink ref="B112" r:id="rId95"/>
+    <hyperlink ref="B113" r:id="rId96"/>
+    <hyperlink ref="B114" r:id="rId97"/>
+    <hyperlink ref="B115" r:id="rId98"/>
+    <hyperlink ref="B116" r:id="rId99"/>
+    <hyperlink ref="B117" r:id="rId100"/>
+    <hyperlink ref="B118" r:id="rId101"/>
+    <hyperlink ref="B119" r:id="rId102"/>
+    <hyperlink ref="B120" r:id="rId103"/>
+    <hyperlink ref="B121" r:id="rId104"/>
+    <hyperlink ref="B124" r:id="rId105"/>
+    <hyperlink ref="B125" r:id="rId106"/>
+    <hyperlink ref="B126" r:id="rId107"/>
+    <hyperlink ref="B127" r:id="rId108"/>
+    <hyperlink ref="B128" r:id="rId109"/>
+    <hyperlink ref="B129" r:id="rId110"/>
+    <hyperlink ref="B130" r:id="rId111"/>
+    <hyperlink ref="B131" r:id="rId112"/>
+    <hyperlink ref="B132" r:id="rId113"/>
+    <hyperlink ref="B133" r:id="rId114"/>
+    <hyperlink ref="B134" r:id="rId115"/>
+    <hyperlink ref="B135" r:id="rId116"/>
+    <hyperlink ref="B136" r:id="rId117"/>
+    <hyperlink ref="B137" r:id="rId118"/>
+    <hyperlink ref="B138" r:id="rId119"/>
+    <hyperlink ref="B139" r:id="rId120"/>
+    <hyperlink ref="B140" r:id="rId121"/>
+    <hyperlink ref="B141" r:id="rId122"/>
+    <hyperlink ref="B142" r:id="rId123"/>
+    <hyperlink ref="B143" r:id="rId124"/>
+    <hyperlink ref="B144" r:id="rId125"/>
+    <hyperlink ref="B145" r:id="rId126"/>
+    <hyperlink ref="B146" r:id="rId127"/>
+    <hyperlink ref="B147" r:id="rId128"/>
+    <hyperlink ref="B148" r:id="rId129"/>
+    <hyperlink ref="B149" r:id="rId130"/>
+    <hyperlink ref="B152" r:id="rId131"/>
+    <hyperlink ref="B153" r:id="rId132"/>
+    <hyperlink ref="B154" r:id="rId133"/>
+    <hyperlink ref="B155" r:id="rId134"/>
+    <hyperlink ref="B156" r:id="rId135"/>
+    <hyperlink ref="B157" r:id="rId136"/>
+    <hyperlink ref="B158" r:id="rId137"/>
+    <hyperlink ref="B159" r:id="rId138"/>
+    <hyperlink ref="B160" r:id="rId139"/>
+    <hyperlink ref="B161" r:id="rId140"/>
+    <hyperlink ref="B162" r:id="rId141"/>
+    <hyperlink ref="B163" r:id="rId142"/>
+    <hyperlink ref="B164" r:id="rId143"/>
+    <hyperlink ref="B165" r:id="rId144"/>
+    <hyperlink ref="B166" r:id="rId145"/>
+    <hyperlink ref="B167" r:id="rId146"/>
+    <hyperlink ref="B168" r:id="rId147"/>
+    <hyperlink ref="B169" r:id="rId148"/>
+    <hyperlink ref="B170" r:id="rId149"/>
+    <hyperlink ref="B171" r:id="rId150"/>
+    <hyperlink ref="B172" r:id="rId151"/>
+    <hyperlink ref="B173" r:id="rId152"/>
+    <hyperlink ref="B174" r:id="rId153"/>
+    <hyperlink ref="B175" r:id="rId154"/>
+    <hyperlink ref="B176" r:id="rId155"/>
+    <hyperlink ref="B177" r:id="rId156"/>
+    <hyperlink ref="B178" r:id="rId157"/>
+    <hyperlink ref="B181" r:id="rId158"/>
+    <hyperlink ref="B182" r:id="rId159"/>
+    <hyperlink ref="B183" r:id="rId160"/>
+    <hyperlink ref="B184" r:id="rId161"/>
+    <hyperlink ref="B185" r:id="rId162"/>
+    <hyperlink ref="B186" r:id="rId163"/>
+    <hyperlink ref="B187" r:id="rId164"/>
+    <hyperlink ref="B188" r:id="rId165"/>
+    <hyperlink ref="B189" r:id="rId166"/>
+    <hyperlink ref="B190" r:id="rId167"/>
+    <hyperlink ref="B191" r:id="rId168"/>
+    <hyperlink ref="B192" r:id="rId169"/>
+    <hyperlink ref="B193" r:id="rId170"/>
+    <hyperlink ref="B194" r:id="rId171"/>
+    <hyperlink ref="B195" r:id="rId172"/>
+    <hyperlink ref="B196" r:id="rId173"/>
+    <hyperlink ref="B197" r:id="rId174"/>
+    <hyperlink ref="B198" r:id="rId175"/>
+    <hyperlink ref="B199" r:id="rId176"/>
+    <hyperlink ref="B200" r:id="rId177"/>
+    <hyperlink ref="B201" r:id="rId178"/>
+    <hyperlink ref="B202" r:id="rId179"/>
+    <hyperlink ref="B205" r:id="rId180"/>
+    <hyperlink ref="B206" r:id="rId181"/>
+    <hyperlink ref="B207" r:id="rId182"/>
+    <hyperlink ref="B208" r:id="rId183"/>
+    <hyperlink ref="B209" r:id="rId184"/>
+    <hyperlink ref="B210" r:id="rId185"/>
+    <hyperlink ref="B211" r:id="rId186"/>
+    <hyperlink ref="B212" r:id="rId187"/>
+    <hyperlink ref="B213" r:id="rId188"/>
+    <hyperlink ref="B214" r:id="rId189"/>
+    <hyperlink ref="B215" r:id="rId190"/>
+    <hyperlink ref="B216" r:id="rId191"/>
+    <hyperlink ref="B217" r:id="rId192"/>
+    <hyperlink ref="B218" r:id="rId193"/>
+    <hyperlink ref="B219" r:id="rId194"/>
+    <hyperlink ref="B220" r:id="rId195"/>
+    <hyperlink ref="B221" r:id="rId196"/>
+    <hyperlink ref="B222" r:id="rId197"/>
+    <hyperlink ref="B223" r:id="rId198"/>
+    <hyperlink ref="B224" r:id="rId199"/>
+    <hyperlink ref="B225" r:id="rId200"/>
+    <hyperlink ref="B226" r:id="rId201"/>
+    <hyperlink ref="B227" r:id="rId202" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B228" r:id="rId203"/>
+    <hyperlink ref="B229" r:id="rId204" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B230" r:id="rId205"/>
+    <hyperlink ref="B231" r:id="rId206"/>
+    <hyperlink ref="B232" r:id="rId207"/>
+    <hyperlink ref="B233" r:id="rId208"/>
+    <hyperlink ref="B234" r:id="rId209"/>
+    <hyperlink ref="B235" r:id="rId210"/>
+    <hyperlink ref="B236" r:id="rId211"/>
+    <hyperlink ref="B237" r:id="rId212"/>
+    <hyperlink ref="B240" r:id="rId213"/>
+    <hyperlink ref="B241" r:id="rId214"/>
+    <hyperlink ref="B242" r:id="rId215"/>
+    <hyperlink ref="B243" r:id="rId216"/>
+    <hyperlink ref="B244" r:id="rId217"/>
+    <hyperlink ref="B245" r:id="rId218"/>
+    <hyperlink ref="B246" r:id="rId219"/>
+    <hyperlink ref="B247" r:id="rId220"/>
+    <hyperlink ref="B248" r:id="rId221"/>
+    <hyperlink ref="B249" r:id="rId222"/>
+    <hyperlink ref="B250" r:id="rId223"/>
+    <hyperlink ref="B251" r:id="rId224"/>
+    <hyperlink ref="B252" r:id="rId225"/>
+    <hyperlink ref="B253" r:id="rId226"/>
+    <hyperlink ref="B254" r:id="rId227"/>
+    <hyperlink ref="B255" r:id="rId228"/>
+    <hyperlink ref="B256" r:id="rId229"/>
+    <hyperlink ref="B257" r:id="rId230"/>
+    <hyperlink ref="B258" r:id="rId231"/>
+    <hyperlink ref="B259" r:id="rId232"/>
+    <hyperlink ref="B260" r:id="rId233"/>
+    <hyperlink ref="B263" r:id="rId234"/>
+    <hyperlink ref="B264" r:id="rId235"/>
+    <hyperlink ref="B265" r:id="rId236"/>
+    <hyperlink ref="B266" r:id="rId237"/>
+    <hyperlink ref="B267" r:id="rId238"/>
+    <hyperlink ref="B268" r:id="rId239"/>
+    <hyperlink ref="B269" r:id="rId240"/>
+    <hyperlink ref="B270" r:id="rId241"/>
+    <hyperlink ref="B271" r:id="rId242"/>
+    <hyperlink ref="B272" r:id="rId243"/>
+    <hyperlink ref="B273" r:id="rId244"/>
+    <hyperlink ref="B274" r:id="rId245"/>
+    <hyperlink ref="B275" r:id="rId246"/>
+    <hyperlink ref="B276" r:id="rId247"/>
+    <hyperlink ref="B277" r:id="rId248"/>
+    <hyperlink ref="B278" r:id="rId249"/>
+    <hyperlink ref="B279" r:id="rId250"/>
+    <hyperlink ref="B280" r:id="rId251"/>
+    <hyperlink ref="B281" r:id="rId252"/>
+    <hyperlink ref="B282" r:id="rId253"/>
+    <hyperlink ref="B283" r:id="rId254"/>
+    <hyperlink ref="B284" r:id="rId255"/>
+    <hyperlink ref="B285" r:id="rId256"/>
+    <hyperlink ref="B286" r:id="rId257"/>
+    <hyperlink ref="B287" r:id="rId258"/>
+    <hyperlink ref="B288" r:id="rId259"/>
+    <hyperlink ref="B289" r:id="rId260"/>
+    <hyperlink ref="B290" r:id="rId261"/>
+    <hyperlink ref="B293" r:id="rId262"/>
+    <hyperlink ref="B294" r:id="rId263"/>
+    <hyperlink ref="B295" r:id="rId264"/>
+    <hyperlink ref="B296" r:id="rId265"/>
+    <hyperlink ref="B297" r:id="rId266"/>
+    <hyperlink ref="B298" r:id="rId267"/>
+    <hyperlink ref="B299" r:id="rId268"/>
+    <hyperlink ref="B300" r:id="rId269"/>
+    <hyperlink ref="B301" r:id="rId270"/>
+    <hyperlink ref="B302" r:id="rId271"/>
+    <hyperlink ref="B303" r:id="rId272"/>
+    <hyperlink ref="B304" r:id="rId273"/>
+    <hyperlink ref="B305" r:id="rId274"/>
+    <hyperlink ref="B306" r:id="rId275"/>
+    <hyperlink ref="B307" r:id="rId276"/>
+    <hyperlink ref="B308" r:id="rId277"/>
+    <hyperlink ref="B309" r:id="rId278"/>
+    <hyperlink ref="B310" r:id="rId279"/>
+    <hyperlink ref="B311" r:id="rId280"/>
+    <hyperlink ref="B312" r:id="rId281" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B313" r:id="rId282"/>
+    <hyperlink ref="B314" r:id="rId283"/>
+    <hyperlink ref="B315" r:id="rId284"/>
+    <hyperlink ref="B316" r:id="rId285"/>
+    <hyperlink ref="B317" r:id="rId286"/>
+    <hyperlink ref="B318" r:id="rId287"/>
+    <hyperlink ref="B319" r:id="rId288"/>
+    <hyperlink ref="B320" r:id="rId289"/>
+    <hyperlink ref="B321" r:id="rId290"/>
+    <hyperlink ref="B322" r:id="rId291"/>
+    <hyperlink ref="B323" r:id="rId292"/>
+    <hyperlink ref="B324" r:id="rId293"/>
+    <hyperlink ref="B325" r:id="rId294"/>
+    <hyperlink ref="B326" r:id="rId295"/>
+    <hyperlink ref="B327" r:id="rId296"/>
+    <hyperlink ref="B328" r:id="rId297"/>
+    <hyperlink ref="B329" r:id="rId298"/>
+    <hyperlink ref="B330" r:id="rId299"/>
+    <hyperlink ref="B331" r:id="rId300"/>
+    <hyperlink ref="B332" r:id="rId301"/>
+    <hyperlink ref="B335" r:id="rId302"/>
+    <hyperlink ref="B336" r:id="rId303"/>
+    <hyperlink ref="B337" r:id="rId304"/>
+    <hyperlink ref="B338" r:id="rId305"/>
+    <hyperlink ref="B339" r:id="rId306"/>
+    <hyperlink ref="B340" r:id="rId307"/>
+    <hyperlink ref="B343" r:id="rId308"/>
+    <hyperlink ref="B344" r:id="rId309"/>
+    <hyperlink ref="B345" r:id="rId310"/>
+    <hyperlink ref="B346" r:id="rId311"/>
+    <hyperlink ref="B347" r:id="rId312"/>
+    <hyperlink ref="B348" r:id="rId313"/>
+    <hyperlink ref="B349" r:id="rId314"/>
+    <hyperlink ref="B350" r:id="rId315"/>
+    <hyperlink ref="B351" r:id="rId316"/>
+    <hyperlink ref="B352" r:id="rId317"/>
+    <hyperlink ref="B353" r:id="rId318"/>
+    <hyperlink ref="B354" r:id="rId319"/>
+    <hyperlink ref="B355" r:id="rId320"/>
+    <hyperlink ref="B356" r:id="rId321"/>
+    <hyperlink ref="B357" r:id="rId322"/>
+    <hyperlink ref="B358" r:id="rId323"/>
+    <hyperlink ref="B359" r:id="rId324"/>
+    <hyperlink ref="B360" r:id="rId325"/>
+    <hyperlink ref="B361" r:id="rId326"/>
+    <hyperlink ref="B362" r:id="rId327"/>
+    <hyperlink ref="B363" r:id="rId328"/>
+    <hyperlink ref="B364" r:id="rId329"/>
+    <hyperlink ref="B365" r:id="rId330"/>
+    <hyperlink ref="B366" r:id="rId331"/>
+    <hyperlink ref="B367" r:id="rId332"/>
+    <hyperlink ref="B368" r:id="rId333"/>
+    <hyperlink ref="B369" r:id="rId334"/>
+    <hyperlink ref="B370" r:id="rId335"/>
+    <hyperlink ref="B371" r:id="rId336"/>
+    <hyperlink ref="B372" r:id="rId337"/>
+    <hyperlink ref="B373" r:id="rId338"/>
+    <hyperlink ref="B374" r:id="rId339"/>
+    <hyperlink ref="B375" r:id="rId340"/>
+    <hyperlink ref="B376" r:id="rId341"/>
+    <hyperlink ref="B377" r:id="rId342"/>
+    <hyperlink ref="B378" r:id="rId343"/>
+    <hyperlink ref="B379" r:id="rId344"/>
+    <hyperlink ref="B380" r:id="rId345"/>
+    <hyperlink ref="B381" r:id="rId346"/>
+    <hyperlink ref="B382" r:id="rId347"/>
+    <hyperlink ref="B383" r:id="rId348"/>
+    <hyperlink ref="B384" r:id="rId349"/>
+    <hyperlink ref="B385" r:id="rId350"/>
+    <hyperlink ref="B386" r:id="rId351"/>
+    <hyperlink ref="B387" r:id="rId352"/>
+    <hyperlink ref="B388" r:id="rId353"/>
+    <hyperlink ref="B389" r:id="rId354"/>
+    <hyperlink ref="B390" r:id="rId355"/>
+    <hyperlink ref="B391" r:id="rId356"/>
+    <hyperlink ref="B392" r:id="rId357"/>
+    <hyperlink ref="B393" r:id="rId358"/>
+    <hyperlink ref="B394" r:id="rId359"/>
+    <hyperlink ref="B395" r:id="rId360"/>
+    <hyperlink ref="B396" r:id="rId361"/>
+    <hyperlink ref="B399" r:id="rId362"/>
+    <hyperlink ref="B400" r:id="rId363"/>
+    <hyperlink ref="B401" r:id="rId364"/>
+    <hyperlink ref="B402" r:id="rId365"/>
+    <hyperlink ref="B403" r:id="rId366"/>
+    <hyperlink ref="B404" r:id="rId367"/>
+    <hyperlink ref="B405" r:id="rId368"/>
+    <hyperlink ref="B406" r:id="rId369" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B407" r:id="rId370"/>
+    <hyperlink ref="B408" r:id="rId371"/>
+    <hyperlink ref="B411" r:id="rId372"/>
+    <hyperlink ref="B412" r:id="rId373"/>
+    <hyperlink ref="B413" r:id="rId374"/>
+    <hyperlink ref="B414" r:id="rId375"/>
+    <hyperlink ref="B415" r:id="rId376"/>
+    <hyperlink ref="B416" r:id="rId377"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -31043,7 +31060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31051,43 +31068,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="63.44140625" customWidth="1"/>
     <col min="3" max="3" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:3" ht="24.6">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="2" spans="1:3" ht="13.2">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -31096,7 +31113,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -31105,7 +31122,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -31114,12 +31131,12 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="37" t="s">
         <v>10</v>
       </c>
@@ -31130,7 +31147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -31141,7 +31158,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6">
       <c r="A15" s="22" t="s">
         <v>128</v>
       </c>
@@ -31149,7 +31166,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6">
       <c r="A16" s="22" t="s">
         <v>128</v>
       </c>
@@ -31157,7 +31174,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="22" t="s">
         <v>128</v>
       </c>
@@ -31165,7 +31182,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="22" t="s">
         <v>128</v>
       </c>
@@ -31173,7 +31190,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="24" t="s">
         <v>128</v>
       </c>
@@ -31181,7 +31198,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.6">
       <c r="A20" s="24" t="s">
         <v>128</v>
       </c>
@@ -31189,7 +31206,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.6">
       <c r="A21" s="24" t="s">
         <v>128</v>
       </c>
@@ -31197,7 +31214,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>171</v>
       </c>
@@ -31205,7 +31222,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>171</v>
       </c>
@@ -31213,15 +31230,15 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="38"/>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="15.6">
       <c r="A28" s="8" t="s">
         <v>205</v>
       </c>
@@ -31229,7 +31246,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="15.6">
       <c r="A29" s="8" t="s">
         <v>205</v>
       </c>
@@ -31237,7 +31254,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="15.6">
       <c r="A30" s="9" t="s">
         <v>205</v>
       </c>
@@ -31245,7 +31262,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="15.6">
       <c r="A31" s="9" t="s">
         <v>205</v>
       </c>
@@ -31253,7 +31270,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="15.6">
       <c r="A32" s="9" t="s">
         <v>205</v>
       </c>
@@ -31261,15 +31278,15 @@
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="15.6">
       <c r="A33" s="38"/>
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="15.6">
       <c r="A34" s="38"/>
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15.6">
       <c r="A35" s="8" t="s">
         <v>255</v>
       </c>
@@ -31277,7 +31294,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="15.6">
       <c r="A36" s="9" t="s">
         <v>255</v>
       </c>
@@ -31285,7 +31302,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15.6">
       <c r="A37" s="9" t="s">
         <v>255</v>
       </c>
@@ -31293,7 +31310,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="15.6">
       <c r="A38" s="9" t="s">
         <v>255</v>
       </c>
@@ -31301,7 +31318,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="15.6">
       <c r="A41" s="5" t="s">
         <v>303</v>
       </c>
@@ -31309,7 +31326,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="15.6">
       <c r="A42" s="5" t="s">
         <v>303</v>
       </c>
@@ -31317,11 +31334,11 @@
         <v>680</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="15.6">
       <c r="A44" s="38"/>
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.6">
       <c r="A45" s="8" t="s">
         <v>336</v>
       </c>
@@ -31329,7 +31346,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="15.6">
       <c r="A46" s="9" t="s">
         <v>336</v>
       </c>
@@ -31337,15 +31354,15 @@
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="15.6">
       <c r="A47" s="38"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="15.6">
       <c r="A48" s="38"/>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="15.6">
       <c r="A49" s="5" t="s">
         <v>396</v>
       </c>
@@ -31353,15 +31370,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.6">
       <c r="A50" s="38"/>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="15.6">
       <c r="A51" s="38"/>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="15.6">
       <c r="A52" s="8" t="s">
         <v>431</v>
       </c>
@@ -31369,7 +31386,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" ht="15.6">
       <c r="A53" s="8" t="s">
         <v>431</v>
       </c>
@@ -31377,7 +31394,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15.6">
       <c r="A54" s="9" t="s">
         <v>431</v>
       </c>
@@ -31385,7 +31402,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="15.6">
       <c r="A55" s="9" t="s">
         <v>431</v>
       </c>
@@ -31393,7 +31410,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="15.6">
       <c r="A56" s="9" t="s">
         <v>431</v>
       </c>
@@ -31401,15 +31418,15 @@
         <v>688</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" ht="15.6">
       <c r="A57" s="38"/>
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.6">
       <c r="A58" s="38"/>
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="15.6">
       <c r="A59" s="9" t="s">
         <v>476</v>
       </c>
@@ -31417,7 +31434,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" ht="15.6">
       <c r="A60" s="9" t="s">
         <v>476</v>
       </c>
@@ -31425,7 +31442,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" ht="15.6">
       <c r="A61" s="9" t="s">
         <v>476</v>
       </c>
@@ -31433,15 +31450,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" ht="15.6">
       <c r="A62" s="38"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15.6">
       <c r="A63" s="38"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="15.6">
       <c r="A64" s="8" t="s">
         <v>553</v>
       </c>
@@ -31449,7 +31466,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" ht="15.6">
       <c r="A65" s="8" t="s">
         <v>553</v>
       </c>
@@ -31457,7 +31474,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" ht="15.6">
       <c r="A66" s="8" t="s">
         <v>553</v>
       </c>
@@ -31465,7 +31482,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15.6">
       <c r="A67" s="8" t="s">
         <v>553</v>
       </c>
@@ -31473,7 +31490,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="15.6">
       <c r="A68" s="8" t="s">
         <v>553</v>
       </c>
@@ -31481,7 +31498,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" ht="15.6">
       <c r="A69" s="9" t="s">
         <v>553</v>
       </c>
@@ -31489,7 +31506,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" ht="15.6">
       <c r="A70" s="9" t="s">
         <v>553</v>
       </c>
@@ -31497,7 +31514,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" ht="15.6">
       <c r="A71" s="9" t="s">
         <v>553</v>
       </c>
@@ -31511,47 +31528,47 @@
     <mergeCell ref="A2:C4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B17" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B19" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B21" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B24" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B25" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B28" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B29" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B30" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B31" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B32" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B35" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B36" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B37" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B38" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B41" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B42" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B45" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B46" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B49" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B52" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B53" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B54" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B55" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B56" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B59" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B60" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B61" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B64" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B65" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B66" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B67" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B68" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B69" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B70" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B71" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B16" r:id="rId4"/>
+    <hyperlink ref="B17" r:id="rId5"/>
+    <hyperlink ref="B18" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B20" r:id="rId8"/>
+    <hyperlink ref="B21" r:id="rId9"/>
+    <hyperlink ref="B24" r:id="rId10"/>
+    <hyperlink ref="B25" r:id="rId11"/>
+    <hyperlink ref="B28" r:id="rId12"/>
+    <hyperlink ref="B29" r:id="rId13"/>
+    <hyperlink ref="B30" r:id="rId14"/>
+    <hyperlink ref="B31" r:id="rId15"/>
+    <hyperlink ref="B32" r:id="rId16"/>
+    <hyperlink ref="B35" r:id="rId17"/>
+    <hyperlink ref="B36" r:id="rId18"/>
+    <hyperlink ref="B37" r:id="rId19"/>
+    <hyperlink ref="B38" r:id="rId20"/>
+    <hyperlink ref="B41" r:id="rId21"/>
+    <hyperlink ref="B42" r:id="rId22"/>
+    <hyperlink ref="B45" r:id="rId23"/>
+    <hyperlink ref="B46" r:id="rId24"/>
+    <hyperlink ref="B49" r:id="rId25"/>
+    <hyperlink ref="B52" r:id="rId26"/>
+    <hyperlink ref="B53" r:id="rId27"/>
+    <hyperlink ref="B54" r:id="rId28"/>
+    <hyperlink ref="B55" r:id="rId29"/>
+    <hyperlink ref="B56" r:id="rId30"/>
+    <hyperlink ref="B59" r:id="rId31"/>
+    <hyperlink ref="B60" r:id="rId32"/>
+    <hyperlink ref="B61" r:id="rId33"/>
+    <hyperlink ref="B64" r:id="rId34"/>
+    <hyperlink ref="B65" r:id="rId35"/>
+    <hyperlink ref="B66" r:id="rId36"/>
+    <hyperlink ref="B67" r:id="rId37"/>
+    <hyperlink ref="B68" r:id="rId38"/>
+    <hyperlink ref="B69" r:id="rId39"/>
+    <hyperlink ref="B70" r:id="rId40"/>
+    <hyperlink ref="B71" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -2772,8 +2772,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3480,7 +3480,7 @@
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -3516,7 +3516,7 @@
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -3550,7 +3550,7 @@
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="42" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3584,7 +3584,7 @@
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13" t="s">

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -2157,7 +2157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2233,12 +2233,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF1155CC"/>
       <name val="Open Sans"/>
     </font>
     <font>
@@ -2467,78 +2461,75 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2550,6 +2541,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2772,8 +2766,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2786,11 +2780,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2816,11 +2810,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2845,9 +2839,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2875,9 +2869,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2971,7 +2965,7 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -3005,7 +2999,7 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3099,7 +3093,7 @@
       <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>699</v>
       </c>
       <c r="F11" s="2"/>
@@ -3128,7 +3122,7 @@
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3164,14 +3158,14 @@
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>700</v>
       </c>
       <c r="F13" s="2"/>
@@ -3200,7 +3194,7 @@
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -3209,7 +3203,7 @@
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>700</v>
       </c>
       <c r="F14" s="2"/>
@@ -3238,14 +3232,14 @@
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>700</v>
       </c>
       <c r="F15" s="2"/>
@@ -3274,14 +3268,14 @@
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>700</v>
       </c>
       <c r="F16" s="2"/>
@@ -3310,7 +3304,7 @@
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -3341,7 +3335,7 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -3378,7 +3372,7 @@
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3412,7 +3406,7 @@
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -3446,7 +3440,7 @@
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3480,7 +3474,7 @@
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -3516,7 +3510,7 @@
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -3550,7 +3544,7 @@
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3584,7 +3578,7 @@
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -3618,7 +3612,7 @@
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -4025,9 +4019,9 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4053,9 +4047,9 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4833,9 +4827,9 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -4861,9 +4855,9 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -5231,9 +5225,9 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="15.6">
-      <c r="A74" s="19"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -5259,9 +5253,9 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" ht="15.6">
-      <c r="A75" s="19"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -5287,10 +5281,10 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="15.6">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C76" s="13" t="s">
@@ -5321,10 +5315,10 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" ht="15.6">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C77" s="13" t="s">
@@ -5355,10 +5349,10 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" ht="15.6">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C78" s="13" t="s">
@@ -5389,10 +5383,10 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" ht="15.6">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C79" s="13" t="s">
@@ -5423,10 +5417,10 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80" spans="1:26" ht="15.6">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C80" s="13" t="s">
@@ -5457,10 +5451,10 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81" spans="1:26" ht="15.6">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C81" s="13" t="s">
@@ -5491,10 +5485,10 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" ht="15.6">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C82" s="13" t="s">
@@ -5525,10 +5519,10 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" ht="15.6">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="22" t="s">
         <v>142</v>
       </c>
       <c r="C83" s="13" t="s">
@@ -5559,10 +5553,10 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26" ht="15.6">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C84" s="13" t="s">
@@ -5592,10 +5586,10 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:26" ht="15.6">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>146</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -5625,10 +5619,10 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" ht="15.6">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C86" s="13" t="s">
@@ -5659,10 +5653,10 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26" ht="15.6">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C87" s="13" t="s">
@@ -5693,10 +5687,10 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26" ht="15.6">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C88" s="13" t="s">
@@ -5727,10 +5721,10 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="1:26" ht="15.6">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="22" t="s">
         <v>154</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -5761,10 +5755,10 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90" spans="1:26" ht="15.6">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="22" t="s">
         <v>156</v>
       </c>
       <c r="C90" s="13" t="s">
@@ -5795,10 +5789,10 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91" spans="1:26" ht="15.6">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -5829,10 +5823,10 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92" spans="1:26" ht="15.6">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="20" t="s">
         <v>158</v>
       </c>
       <c r="C92" s="13" t="s">
@@ -5863,10 +5857,10 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26" ht="15.6">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>160</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -5897,10 +5891,10 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" spans="1:26" ht="15.6">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>162</v>
       </c>
       <c r="C94" s="13" t="s">
@@ -5931,10 +5925,10 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" ht="15.6">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C95" s="13" t="s">
@@ -5965,10 +5959,10 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="15.6">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C96" s="13" t="s">
@@ -5999,10 +5993,10 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" spans="1:26" ht="15.6">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C97" s="13" t="s">
@@ -6033,10 +6027,10 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" ht="15.6">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C98" s="13" t="s">
@@ -6067,9 +6061,9 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99" spans="1:26" ht="15">
-      <c r="A99" s="19"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -6095,9 +6089,9 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" spans="1:26" ht="15">
-      <c r="A100" s="19"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -6126,7 +6120,7 @@
       <c r="A101" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="24" t="s">
         <v>172</v>
       </c>
       <c r="C101" s="13" t="s">
@@ -6160,7 +6154,7 @@
       <c r="A102" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="24" t="s">
         <v>174</v>
       </c>
       <c r="C102" s="13" t="s">
@@ -6194,7 +6188,7 @@
       <c r="A103" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="24" t="s">
         <v>176</v>
       </c>
       <c r="C103" s="13" t="s">
@@ -6228,7 +6222,7 @@
       <c r="A104" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B104" s="25" t="s">
+      <c r="B104" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C104" s="13" t="s">
@@ -6262,7 +6256,7 @@
       <c r="A105" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="24" t="s">
         <v>178</v>
       </c>
       <c r="C105" s="13" t="s">
@@ -6296,7 +6290,7 @@
       <c r="A106" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="25" t="s">
+      <c r="B106" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C106" s="13" t="s">
@@ -6330,7 +6324,7 @@
       <c r="A107" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B107" s="25" t="s">
+      <c r="B107" s="24" t="s">
         <v>182</v>
       </c>
       <c r="C107" s="13" t="s">
@@ -6364,7 +6358,7 @@
       <c r="A108" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="B108" s="24" t="s">
         <v>184</v>
       </c>
       <c r="C108" s="13" t="s">
@@ -6398,7 +6392,7 @@
       <c r="A109" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B109" s="25" t="s">
+      <c r="B109" s="24" t="s">
         <v>185</v>
       </c>
       <c r="C109" s="13" t="s">
@@ -6431,7 +6425,7 @@
       <c r="A110" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="24" t="s">
         <v>187</v>
       </c>
       <c r="C110" s="13" t="s">
@@ -6464,7 +6458,7 @@
       <c r="A111" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="24" t="s">
         <v>188</v>
       </c>
       <c r="C111" s="13" t="s">
@@ -6497,7 +6491,7 @@
       <c r="A112" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="25" t="s">
+      <c r="B112" s="24" t="s">
         <v>190</v>
       </c>
       <c r="C112" s="13"/>
@@ -6528,7 +6522,7 @@
       <c r="A113" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C113" s="13" t="s">
@@ -6561,7 +6555,7 @@
       <c r="A114" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
       <c r="C114" s="13" t="s">
@@ -6594,7 +6588,7 @@
       <c r="A115" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B115" s="25" t="s">
+      <c r="B115" s="24" t="s">
         <v>194</v>
       </c>
       <c r="C115" s="13" t="s">
@@ -6628,10 +6622,10 @@
       <c r="A116" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B116" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D116" s="2"/>
@@ -6662,7 +6656,7 @@
       <c r="A117" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="24" t="s">
         <v>196</v>
       </c>
       <c r="C117" s="13" t="s">
@@ -6696,7 +6690,7 @@
       <c r="A118" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="24" t="s">
         <v>198</v>
       </c>
       <c r="C118" s="13" t="s">
@@ -6730,7 +6724,7 @@
       <c r="A119" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="24" t="s">
         <v>199</v>
       </c>
       <c r="C119" s="13" t="s">
@@ -6762,7 +6756,7 @@
       <c r="A120" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="26" t="s">
         <v>201</v>
       </c>
       <c r="C120" s="13" t="s">
@@ -6794,7 +6788,7 @@
       <c r="A121" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="24" t="s">
         <v>203</v>
       </c>
       <c r="C121" s="13" t="s">
@@ -6823,9 +6817,9 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" spans="1:26" ht="15">
-      <c r="A122" s="19"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="18"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="17"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -6849,9 +6843,9 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" spans="1:26" ht="15">
-      <c r="A123" s="19"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="18"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="17"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -7013,7 +7007,7 @@
       <c r="B128" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="27" t="s">
         <v>215</v>
       </c>
       <c r="D128" s="13"/>
@@ -7043,10 +7037,10 @@
       <c r="A129" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B129" s="25" t="s">
+      <c r="B129" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C129" s="28" t="s">
         <v>217</v>
       </c>
       <c r="D129" s="13"/>
@@ -7316,7 +7310,7 @@
         <v>230</v>
       </c>
       <c r="D137" s="2"/>
-      <c r="E137" s="30"/>
+      <c r="E137" s="29"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -7343,14 +7337,14 @@
       <c r="A138" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="24" t="s">
         <v>231</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="30"/>
+      <c r="E138" s="29"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -7377,7 +7371,7 @@
       <c r="A139" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="24" t="s">
         <v>232</v>
       </c>
       <c r="C139" s="13" t="s">
@@ -7445,7 +7439,7 @@
       <c r="A141" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B141" s="25" t="s">
+      <c r="B141" s="24" t="s">
         <v>235</v>
       </c>
       <c r="C141" s="13" t="s">
@@ -7486,7 +7480,7 @@
         <v>238</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="30"/>
+      <c r="E142" s="29"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -7520,7 +7514,7 @@
         <v>240</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="30"/>
+      <c r="E143" s="29"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -7553,10 +7547,10 @@
       <c r="C144" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="E144" s="30"/>
+      <c r="E144" s="29"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -7589,7 +7583,7 @@
       <c r="C145" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="30" t="s">
         <v>243</v>
       </c>
       <c r="E145" s="2"/>
@@ -7619,14 +7613,14 @@
       <c r="A146" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B146" s="25" t="s">
+      <c r="B146" s="24" t="s">
         <v>246</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>247</v>
       </c>
       <c r="D146" s="2"/>
-      <c r="E146" s="30"/>
+      <c r="E146" s="29"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -7653,14 +7647,14 @@
       <c r="A147" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B147" s="25" t="s">
+      <c r="B147" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="27" t="s">
         <v>249</v>
       </c>
       <c r="D147" s="2"/>
-      <c r="E147" s="30"/>
+      <c r="E147" s="29"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
@@ -7687,14 +7681,14 @@
       <c r="A148" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B148" s="25" t="s">
+      <c r="B148" s="24" t="s">
         <v>250</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>251</v>
       </c>
       <c r="D148" s="2"/>
-      <c r="E148" s="30"/>
+      <c r="E148" s="29"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -7721,14 +7715,14 @@
       <c r="A149" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B149" s="25" t="s">
+      <c r="B149" s="24" t="s">
         <v>252</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>253</v>
       </c>
       <c r="D149" s="2"/>
-      <c r="E149" s="30"/>
+      <c r="E149" s="29"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -7752,11 +7746,11 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150" spans="1:26" ht="15">
-      <c r="A150" s="19"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="18"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="17"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="30"/>
+      <c r="E150" s="29"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -7780,11 +7774,11 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151" spans="1:26" ht="15">
-      <c r="A151" s="19"/>
-      <c r="B151" s="17" t="s">
+      <c r="A151" s="18"/>
+      <c r="B151" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C151" s="18"/>
+      <c r="C151" s="17"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -7853,7 +7847,7 @@
       <c r="C153" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D153" s="30"/>
+      <c r="D153" s="29"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -7887,7 +7881,7 @@
       <c r="C154" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="D154" s="30"/>
+      <c r="D154" s="29"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -7921,7 +7915,7 @@
       <c r="C155" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D155" s="30"/>
+      <c r="D155" s="29"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -7955,7 +7949,7 @@
       <c r="C156" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D156" s="30"/>
+      <c r="D156" s="29"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -7989,7 +7983,7 @@
       <c r="C157" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D157" s="30"/>
+      <c r="D157" s="29"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -8023,7 +8017,7 @@
       <c r="C158" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D158" s="30"/>
+      <c r="D158" s="29"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -8057,7 +8051,7 @@
       <c r="C159" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="D159" s="30"/>
+      <c r="D159" s="29"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -8091,7 +8085,7 @@
       <c r="C160" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D160" s="30"/>
+      <c r="D160" s="29"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -8151,7 +8145,7 @@
       <c r="A162" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B162" s="25" t="s">
+      <c r="B162" s="24" t="s">
         <v>276</v>
       </c>
       <c r="C162" s="13" t="s">
@@ -8407,7 +8401,7 @@
       <c r="A170" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B170" s="25" t="s">
+      <c r="B170" s="24" t="s">
         <v>290</v>
       </c>
       <c r="C170" s="13" t="s">
@@ -8439,7 +8433,7 @@
       <c r="A171" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B171" s="25" t="s">
+      <c r="B171" s="24" t="s">
         <v>291</v>
       </c>
       <c r="C171" s="13" t="s">
@@ -8471,7 +8465,7 @@
       <c r="A172" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B172" s="24" t="s">
         <v>293</v>
       </c>
       <c r="C172" s="13" t="s">
@@ -8631,13 +8625,13 @@
       <c r="A177" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B177" s="25" t="s">
+      <c r="B177" s="24" t="s">
         <v>300</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D177" s="32"/>
+      <c r="D177" s="31"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -8671,7 +8665,7 @@
       <c r="C178" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D178" s="32"/>
+      <c r="D178" s="31"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -8696,8 +8690,8 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179" spans="1:26" ht="15">
-      <c r="C179" s="18"/>
-      <c r="D179" s="32"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="31"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -8722,9 +8716,9 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180" spans="1:26" ht="15">
-      <c r="A180" s="19"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="18"/>
+      <c r="A180" s="18"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="17"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -8756,7 +8750,7 @@
       <c r="B181" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C181" s="33" t="s">
+      <c r="C181" s="32" t="s">
         <v>305</v>
       </c>
       <c r="D181" s="2"/>
@@ -8790,7 +8784,7 @@
       <c r="B182" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C182" s="33" t="s">
+      <c r="C182" s="32" t="s">
         <v>307</v>
       </c>
       <c r="D182" s="2"/>
@@ -8824,7 +8818,7 @@
       <c r="B183" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C183" s="33" t="s">
+      <c r="C183" s="32" t="s">
         <v>122</v>
       </c>
       <c r="D183" s="2"/>
@@ -8858,7 +8852,7 @@
       <c r="B184" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C184" s="33" t="s">
+      <c r="C184" s="32" t="s">
         <v>109</v>
       </c>
       <c r="D184" s="2"/>
@@ -8892,7 +8886,7 @@
       <c r="B185" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C185" s="33" t="s">
+      <c r="C185" s="32" t="s">
         <v>311</v>
       </c>
       <c r="D185" s="2"/>
@@ -8926,7 +8920,7 @@
       <c r="B186" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C186" s="33"/>
+      <c r="C186" s="32"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
@@ -8956,7 +8950,7 @@
       <c r="B187" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C187" s="33" t="s">
+      <c r="C187" s="32" t="s">
         <v>314</v>
       </c>
       <c r="F187" s="2"/>
@@ -8988,7 +8982,7 @@
       <c r="B188" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C188" s="33" t="s">
+      <c r="C188" s="32" t="s">
         <v>316</v>
       </c>
       <c r="F188" s="2"/>
@@ -9020,7 +9014,7 @@
       <c r="B189" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C189" s="33"/>
+      <c r="C189" s="32"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
@@ -9050,7 +9044,7 @@
       <c r="B190" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C190" s="33" t="s">
+      <c r="C190" s="32" t="s">
         <v>98</v>
       </c>
       <c r="F190" s="2"/>
@@ -9082,7 +9076,7 @@
       <c r="B191" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C191" s="33" t="s">
+      <c r="C191" s="32" t="s">
         <v>320</v>
       </c>
       <c r="F191" s="2"/>
@@ -9114,7 +9108,7 @@
       <c r="B192" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C192" s="33" t="s">
+      <c r="C192" s="32" t="s">
         <v>322</v>
       </c>
       <c r="F192" s="2"/>
@@ -9146,7 +9140,7 @@
       <c r="B193" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C193" s="33" t="s">
+      <c r="C193" s="32" t="s">
         <v>324</v>
       </c>
       <c r="F193" s="2"/>
@@ -9210,7 +9204,7 @@
       <c r="B195" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C195" s="33" t="s">
+      <c r="C195" s="32" t="s">
         <v>54</v>
       </c>
       <c r="F195" s="2"/>
@@ -9454,9 +9448,9 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203" spans="1:26" ht="15">
-      <c r="A203" s="19"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="18"/>
+      <c r="A203" s="18"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="17"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -9482,9 +9476,9 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204" spans="1:26" ht="15">
-      <c r="A204" s="19"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="18"/>
+      <c r="A204" s="18"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="17"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -9521,7 +9515,7 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="32"/>
+      <c r="F205" s="31"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -9555,7 +9549,7 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
-      <c r="F206" s="32"/>
+      <c r="F206" s="31"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
@@ -9589,7 +9583,7 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
-      <c r="F207" s="32"/>
+      <c r="F207" s="31"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -9623,7 +9617,7 @@
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
-      <c r="F208" s="32"/>
+      <c r="F208" s="31"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -9657,7 +9651,7 @@
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
-      <c r="F209" s="32"/>
+      <c r="F209" s="31"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -9691,7 +9685,7 @@
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
-      <c r="F210" s="32"/>
+      <c r="F210" s="31"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -9724,7 +9718,7 @@
         <v>104</v>
       </c>
       <c r="E211" s="2"/>
-      <c r="F211" s="32"/>
+      <c r="F211" s="31"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -9757,7 +9751,7 @@
         <v>351</v>
       </c>
       <c r="E212" s="2"/>
-      <c r="F212" s="32"/>
+      <c r="F212" s="31"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -9790,7 +9784,7 @@
         <v>353</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="F213" s="32"/>
+      <c r="F213" s="31"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -9823,7 +9817,7 @@
         <v>109</v>
       </c>
       <c r="E214" s="2"/>
-      <c r="F214" s="32"/>
+      <c r="F214" s="31"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -9856,7 +9850,7 @@
         <v>356</v>
       </c>
       <c r="E215" s="2"/>
-      <c r="F215" s="32"/>
+      <c r="F215" s="31"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -9889,7 +9883,7 @@
         <v>358</v>
       </c>
       <c r="E216" s="2"/>
-      <c r="F216" s="32"/>
+      <c r="F216" s="31"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -9922,7 +9916,7 @@
         <v>320</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="F217" s="32"/>
+      <c r="F217" s="31"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -9955,7 +9949,7 @@
         <v>299</v>
       </c>
       <c r="E218" s="2"/>
-      <c r="F218" s="32"/>
+      <c r="F218" s="31"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -9989,7 +9983,7 @@
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
-      <c r="F219" s="32"/>
+      <c r="F219" s="31"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -10023,7 +10017,7 @@
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
-      <c r="F220" s="32"/>
+      <c r="F220" s="31"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -10057,7 +10051,7 @@
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
-      <c r="F221" s="32"/>
+      <c r="F221" s="31"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
@@ -10091,7 +10085,7 @@
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
-      <c r="F222" s="32"/>
+      <c r="F222" s="31"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
@@ -10125,7 +10119,7 @@
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-      <c r="F223" s="32"/>
+      <c r="F223" s="31"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -10159,7 +10153,7 @@
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
-      <c r="F224" s="32"/>
+      <c r="F224" s="31"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -10193,7 +10187,7 @@
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
-      <c r="F225" s="32"/>
+      <c r="F225" s="31"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -10227,7 +10221,7 @@
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
-      <c r="F226" s="32"/>
+      <c r="F226" s="31"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
@@ -10261,7 +10255,7 @@
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
-      <c r="F227" s="32"/>
+      <c r="F227" s="31"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
@@ -10295,7 +10289,7 @@
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="32"/>
+      <c r="F228" s="31"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -10329,7 +10323,7 @@
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="32"/>
+      <c r="F229" s="31"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -10363,7 +10357,7 @@
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="32"/>
+      <c r="F230" s="31"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -10397,7 +10391,7 @@
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
-      <c r="F231" s="32"/>
+      <c r="F231" s="31"/>
       <c r="G231" s="1"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -10431,7 +10425,7 @@
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
-      <c r="F232" s="32"/>
+      <c r="F232" s="31"/>
       <c r="G232" s="1"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
@@ -10465,7 +10459,7 @@
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-      <c r="F233" s="32"/>
+      <c r="F233" s="31"/>
       <c r="G233" s="1"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
@@ -10499,7 +10493,7 @@
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="32"/>
+      <c r="F234" s="31"/>
       <c r="G234" s="1"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
@@ -10533,7 +10527,7 @@
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="32"/>
+      <c r="F235" s="31"/>
       <c r="G235" s="1"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
@@ -10567,7 +10561,7 @@
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="32"/>
+      <c r="F236" s="31"/>
       <c r="G236" s="1"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
@@ -10601,7 +10595,7 @@
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="32"/>
+      <c r="F237" s="31"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
@@ -10624,12 +10618,12 @@
       <c r="Z237" s="2"/>
     </row>
     <row r="238" spans="1:26" ht="15">
-      <c r="A238" s="19"/>
-      <c r="B238" s="17"/>
-      <c r="C238" s="18"/>
+      <c r="A238" s="18"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="17"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="32"/>
+      <c r="F238" s="31"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
@@ -10652,12 +10646,12 @@
       <c r="Z238" s="2"/>
     </row>
     <row r="239" spans="1:26" ht="15">
-      <c r="A239" s="19"/>
-      <c r="B239" s="17"/>
-      <c r="C239" s="18"/>
+      <c r="A239" s="18"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="17"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="32"/>
+      <c r="F239" s="31"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
@@ -10691,7 +10685,7 @@
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
-      <c r="F240" s="32"/>
+      <c r="F240" s="31"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
@@ -10725,7 +10719,7 @@
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
-      <c r="F241" s="32"/>
+      <c r="F241" s="31"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
@@ -10758,8 +10752,8 @@
         <v>98</v>
       </c>
       <c r="D242" s="2"/>
-      <c r="E242" s="32"/>
-      <c r="F242" s="32"/>
+      <c r="E242" s="31"/>
+      <c r="F242" s="31"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
@@ -10792,7 +10786,7 @@
         <v>403</v>
       </c>
       <c r="D243" s="13"/>
-      <c r="F243" s="32"/>
+      <c r="F243" s="31"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
@@ -11353,7 +11347,7 @@
       <c r="C260" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D260" s="17" t="s">
+      <c r="D260" s="16" t="s">
         <v>243</v>
       </c>
       <c r="E260" s="2"/>
@@ -11380,9 +11374,9 @@
       <c r="Z260" s="2"/>
     </row>
     <row r="261" spans="1:26" ht="15">
-      <c r="A261" s="19"/>
-      <c r="B261" s="17"/>
-      <c r="C261" s="18"/>
+      <c r="A261" s="18"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="17"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -11408,9 +11402,9 @@
       <c r="Z261" s="2"/>
     </row>
     <row r="262" spans="1:26" ht="15">
-      <c r="A262" s="19"/>
-      <c r="B262" s="17"/>
-      <c r="C262" s="18"/>
+      <c r="A262" s="18"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="17"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -11477,7 +11471,7 @@
       <c r="C264" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D264" s="30"/>
+      <c r="D264" s="29"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -11511,7 +11505,7 @@
       <c r="C265" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D265" s="30"/>
+      <c r="D265" s="29"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -11545,7 +11539,7 @@
       <c r="C266" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D266" s="30"/>
+      <c r="D266" s="29"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -11579,7 +11573,7 @@
       <c r="C267" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="D267" s="30"/>
+      <c r="D267" s="29"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -11613,7 +11607,7 @@
       <c r="C268" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D268" s="30"/>
+      <c r="D268" s="29"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -11647,7 +11641,7 @@
       <c r="C269" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="D269" s="30"/>
+      <c r="D269" s="29"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -11681,7 +11675,7 @@
       <c r="C270" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D270" s="30"/>
+      <c r="D270" s="29"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -11715,7 +11709,7 @@
       <c r="C271" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="30"/>
+      <c r="D271" s="29"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -11746,10 +11740,10 @@
       <c r="B272" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="C272" s="28" t="s">
+      <c r="C272" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="D272" s="30"/>
+      <c r="D272" s="29"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -11783,7 +11777,7 @@
       <c r="C273" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="D273" s="30"/>
+      <c r="D273" s="29"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -11817,7 +11811,7 @@
       <c r="C274" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="D274" s="30"/>
+      <c r="D274" s="29"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -11851,7 +11845,7 @@
       <c r="C275" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="D275" s="30"/>
+      <c r="D275" s="29"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -11885,7 +11879,7 @@
       <c r="C276" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="D276" s="30"/>
+      <c r="D276" s="29"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -11919,7 +11913,7 @@
       <c r="C277" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="D277" s="30"/>
+      <c r="D277" s="29"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
@@ -11953,7 +11947,7 @@
       <c r="C278" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="D278" s="30"/>
+      <c r="D278" s="29"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -11987,7 +11981,7 @@
       <c r="C279" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="D279" s="30"/>
+      <c r="D279" s="29"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
@@ -12021,7 +12015,7 @@
       <c r="C280" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D280" s="30"/>
+      <c r="D280" s="29"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -12376,9 +12370,9 @@
       <c r="Z290" s="2"/>
     </row>
     <row r="291" spans="1:26" ht="15">
-      <c r="A291" s="19"/>
-      <c r="B291" s="17"/>
-      <c r="C291" s="18"/>
+      <c r="A291" s="18"/>
+      <c r="B291" s="16"/>
+      <c r="C291" s="17"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
@@ -12403,9 +12397,9 @@
       <c r="Z291" s="2"/>
     </row>
     <row r="292" spans="1:26" ht="15">
-      <c r="A292" s="19"/>
-      <c r="B292" s="17"/>
-      <c r="C292" s="18"/>
+      <c r="A292" s="18"/>
+      <c r="B292" s="16"/>
+      <c r="C292" s="17"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
@@ -12440,7 +12434,7 @@
       <c r="C293" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="D293" s="32"/>
+      <c r="D293" s="31"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -12474,7 +12468,7 @@
       <c r="C294" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="D294" s="32"/>
+      <c r="D294" s="31"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -12508,7 +12502,7 @@
       <c r="C295" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="D295" s="32"/>
+      <c r="D295" s="31"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -12542,7 +12536,7 @@
       <c r="C296" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D296" s="32"/>
+      <c r="D296" s="31"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -12576,7 +12570,7 @@
       <c r="C297" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="D297" s="32"/>
+      <c r="D297" s="31"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
@@ -12610,7 +12604,7 @@
       <c r="C298" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D298" s="32"/>
+      <c r="D298" s="31"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
@@ -12644,7 +12638,7 @@
       <c r="C299" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D299" s="32"/>
+      <c r="D299" s="31"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -12678,7 +12672,7 @@
       <c r="C300" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="D300" s="32"/>
+      <c r="D300" s="31"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -12712,7 +12706,7 @@
       <c r="C301" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="D301" s="32"/>
+      <c r="D301" s="31"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -12746,7 +12740,7 @@
       <c r="C302" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="D302" s="32"/>
+      <c r="D302" s="31"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
@@ -12780,7 +12774,7 @@
       <c r="C303" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="D303" s="32"/>
+      <c r="D303" s="31"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
@@ -12814,7 +12808,7 @@
       <c r="C304" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D304" s="32"/>
+      <c r="D304" s="31"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -12848,7 +12842,7 @@
       <c r="C305" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D305" s="32"/>
+      <c r="D305" s="31"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -12882,7 +12876,7 @@
       <c r="C306" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D306" s="32"/>
+      <c r="D306" s="31"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
@@ -12916,7 +12910,7 @@
       <c r="C307" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="D307" s="32"/>
+      <c r="D307" s="31"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
@@ -12950,7 +12944,7 @@
       <c r="C308" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="D308" s="32"/>
+      <c r="D308" s="31"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -12984,7 +12978,7 @@
       <c r="C309" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D309" s="32"/>
+      <c r="D309" s="31"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
@@ -13012,13 +13006,13 @@
       <c r="A310" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B310" s="34" t="s">
+      <c r="B310" s="33" t="s">
         <v>505</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D310" s="32"/>
+      <c r="D310" s="31"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
@@ -13052,7 +13046,7 @@
       <c r="C311" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="D311" s="32"/>
+      <c r="D311" s="31"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
@@ -13086,7 +13080,7 @@
       <c r="C312" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D312" s="32"/>
+      <c r="D312" s="31"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
@@ -13120,7 +13114,7 @@
       <c r="C313" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="D313" s="32"/>
+      <c r="D313" s="31"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
@@ -13154,7 +13148,7 @@
       <c r="C314" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D314" s="32"/>
+      <c r="D314" s="31"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -13188,7 +13182,7 @@
       <c r="C315" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="D315" s="32"/>
+      <c r="D315" s="31"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
@@ -13222,7 +13216,7 @@
       <c r="C316" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="D316" s="32"/>
+      <c r="D316" s="31"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
@@ -13256,7 +13250,7 @@
       <c r="C317" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D317" s="32"/>
+      <c r="D317" s="31"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
@@ -13290,7 +13284,7 @@
       <c r="C318" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="D318" s="32"/>
+      <c r="D318" s="31"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
@@ -13324,7 +13318,7 @@
       <c r="C319" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="D319" s="32"/>
+      <c r="D319" s="31"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -13358,7 +13352,7 @@
       <c r="C320" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D320" s="32"/>
+      <c r="D320" s="31"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
@@ -13392,7 +13386,7 @@
       <c r="C321" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="D321" s="32"/>
+      <c r="D321" s="31"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -13426,7 +13420,7 @@
       <c r="C322" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D322" s="32"/>
+      <c r="D322" s="31"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -13460,7 +13454,7 @@
       <c r="C323" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D323" s="32"/>
+      <c r="D323" s="31"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
@@ -13494,7 +13488,7 @@
       <c r="C324" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="D324" s="31" t="s">
+      <c r="D324" s="30" t="s">
         <v>243</v>
       </c>
       <c r="E324" s="2"/>
@@ -13530,7 +13524,7 @@
       <c r="C325" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="D325" s="32"/>
+      <c r="D325" s="31"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -13564,7 +13558,7 @@
       <c r="C326" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="D326" s="31" t="s">
+      <c r="D326" s="30" t="s">
         <v>243</v>
       </c>
       <c r="E326" s="2"/>
@@ -13600,7 +13594,7 @@
       <c r="C327" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D327" s="32"/>
+      <c r="D327" s="31"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
@@ -13634,7 +13628,7 @@
       <c r="C328" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D328" s="32"/>
+      <c r="D328" s="31"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
@@ -13668,7 +13662,7 @@
       <c r="C329" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="D329" s="32"/>
+      <c r="D329" s="31"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -13702,7 +13696,7 @@
       <c r="C330" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="D330" s="32"/>
+      <c r="D330" s="31"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -13736,7 +13730,7 @@
       <c r="C331" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="D331" s="32"/>
+      <c r="D331" s="31"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -13770,7 +13764,7 @@
       <c r="C332" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="D332" s="32"/>
+      <c r="D332" s="31"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
@@ -13795,10 +13789,10 @@
       <c r="Z332" s="2"/>
     </row>
     <row r="333" spans="1:26" ht="15">
-      <c r="A333" s="19"/>
-      <c r="B333" s="17"/>
-      <c r="C333" s="18"/>
-      <c r="D333" s="32"/>
+      <c r="A333" s="18"/>
+      <c r="B333" s="16"/>
+      <c r="C333" s="17"/>
+      <c r="D333" s="31"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -13823,9 +13817,9 @@
       <c r="Z333" s="2"/>
     </row>
     <row r="334" spans="1:26" ht="15">
-      <c r="A334" s="19"/>
-      <c r="B334" s="17"/>
-      <c r="C334" s="18"/>
+      <c r="A334" s="18"/>
+      <c r="B334" s="16"/>
+      <c r="C334" s="17"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
@@ -13854,7 +13848,7 @@
       <c r="A335" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B335" s="35" t="s">
+      <c r="B335" s="34" t="s">
         <v>541</v>
       </c>
       <c r="C335" s="13" t="s">
@@ -13888,7 +13882,7 @@
       <c r="A336" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B336" s="35" t="s">
+      <c r="B336" s="34" t="s">
         <v>543</v>
       </c>
       <c r="C336" s="13" t="s">
@@ -13922,7 +13916,7 @@
       <c r="A337" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B337" s="35" t="s">
+      <c r="B337" s="34" t="s">
         <v>545</v>
       </c>
       <c r="C337" s="13" t="s">
@@ -13956,7 +13950,7 @@
       <c r="A338" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B338" s="35" t="s">
+      <c r="B338" s="34" t="s">
         <v>547</v>
       </c>
       <c r="C338" s="13" t="s">
@@ -13990,7 +13984,7 @@
       <c r="A339" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B339" s="35" t="s">
+      <c r="B339" s="34" t="s">
         <v>549</v>
       </c>
       <c r="C339" s="13" t="s">
@@ -14024,7 +14018,7 @@
       <c r="A340" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B340" s="35" t="s">
+      <c r="B340" s="34" t="s">
         <v>551</v>
       </c>
       <c r="C340" s="13" t="s">
@@ -14055,9 +14049,9 @@
       <c r="Z340" s="2"/>
     </row>
     <row r="341" spans="1:26" ht="15">
-      <c r="A341" s="19"/>
-      <c r="B341" s="17"/>
-      <c r="C341" s="18"/>
+      <c r="A341" s="18"/>
+      <c r="B341" s="16"/>
+      <c r="C341" s="17"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
@@ -14083,9 +14077,9 @@
       <c r="Z341" s="2"/>
     </row>
     <row r="342" spans="1:26" ht="15">
-      <c r="A342" s="19"/>
-      <c r="B342" s="17"/>
-      <c r="C342" s="18"/>
+      <c r="A342" s="18"/>
+      <c r="B342" s="16"/>
+      <c r="C342" s="17"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
@@ -14325,7 +14319,7 @@
         <v>561</v>
       </c>
       <c r="D349" s="2"/>
-      <c r="E349" s="32"/>
+      <c r="E349" s="31"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
@@ -14359,7 +14353,7 @@
         <v>385</v>
       </c>
       <c r="D350" s="2"/>
-      <c r="E350" s="32"/>
+      <c r="E350" s="31"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
@@ -14393,7 +14387,7 @@
         <v>54</v>
       </c>
       <c r="D351" s="2"/>
-      <c r="E351" s="32"/>
+      <c r="E351" s="31"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
@@ -15039,7 +15033,7 @@
         <v>596</v>
       </c>
       <c r="D370" s="2"/>
-      <c r="E370" s="32"/>
+      <c r="E370" s="31"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
@@ -15073,7 +15067,7 @@
         <v>598</v>
       </c>
       <c r="D371" s="2"/>
-      <c r="E371" s="32"/>
+      <c r="E371" s="31"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
@@ -15107,7 +15101,7 @@
         <v>596</v>
       </c>
       <c r="D372" s="2"/>
-      <c r="E372" s="32"/>
+      <c r="E372" s="31"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
@@ -15141,7 +15135,7 @@
         <v>601</v>
       </c>
       <c r="D373" s="2"/>
-      <c r="E373" s="32"/>
+      <c r="E373" s="31"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
@@ -15175,7 +15169,7 @@
         <v>320</v>
       </c>
       <c r="D374" s="2"/>
-      <c r="E374" s="32"/>
+      <c r="E374" s="31"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
@@ -15209,7 +15203,7 @@
         <v>604</v>
       </c>
       <c r="D375" s="2"/>
-      <c r="E375" s="32"/>
+      <c r="E375" s="31"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
@@ -15243,7 +15237,7 @@
         <v>606</v>
       </c>
       <c r="D376" s="2"/>
-      <c r="E376" s="32"/>
+      <c r="E376" s="31"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
@@ -15277,7 +15271,7 @@
         <v>608</v>
       </c>
       <c r="D377" s="2"/>
-      <c r="E377" s="32"/>
+      <c r="E377" s="31"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
@@ -15311,7 +15305,7 @@
         <v>109</v>
       </c>
       <c r="D378" s="2"/>
-      <c r="E378" s="32"/>
+      <c r="E378" s="31"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
@@ -15345,7 +15339,7 @@
         <v>611</v>
       </c>
       <c r="D379" s="2"/>
-      <c r="E379" s="32"/>
+      <c r="E379" s="31"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
@@ -15379,7 +15373,7 @@
         <v>612</v>
       </c>
       <c r="D380" s="2"/>
-      <c r="E380" s="32"/>
+      <c r="E380" s="31"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
@@ -15413,7 +15407,7 @@
         <v>81</v>
       </c>
       <c r="D381" s="2"/>
-      <c r="E381" s="32"/>
+      <c r="E381" s="31"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
@@ -15447,7 +15441,7 @@
         <v>615</v>
       </c>
       <c r="D382" s="2"/>
-      <c r="E382" s="32"/>
+      <c r="E382" s="31"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
@@ -15481,7 +15475,7 @@
         <v>616</v>
       </c>
       <c r="D383" s="2"/>
-      <c r="E383" s="32"/>
+      <c r="E383" s="31"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
@@ -15515,7 +15509,7 @@
         <v>385</v>
       </c>
       <c r="D384" s="2"/>
-      <c r="E384" s="32"/>
+      <c r="E384" s="31"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
@@ -15549,7 +15543,7 @@
         <v>516</v>
       </c>
       <c r="D385" s="2"/>
-      <c r="E385" s="32"/>
+      <c r="E385" s="31"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
@@ -15583,7 +15577,7 @@
         <v>620</v>
       </c>
       <c r="D386" s="2"/>
-      <c r="E386" s="32"/>
+      <c r="E386" s="31"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
@@ -15617,7 +15611,7 @@
         <v>385</v>
       </c>
       <c r="D387" s="2"/>
-      <c r="E387" s="32"/>
+      <c r="E387" s="31"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
@@ -15651,7 +15645,7 @@
         <v>623</v>
       </c>
       <c r="D388" s="2"/>
-      <c r="E388" s="32"/>
+      <c r="E388" s="31"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
@@ -15685,7 +15679,7 @@
         <v>62</v>
       </c>
       <c r="D389" s="2"/>
-      <c r="E389" s="32"/>
+      <c r="E389" s="31"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
@@ -15719,7 +15713,7 @@
         <v>320</v>
       </c>
       <c r="D390" s="2"/>
-      <c r="E390" s="32"/>
+      <c r="E390" s="31"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
@@ -15753,7 +15747,7 @@
         <v>320</v>
       </c>
       <c r="D391" s="2"/>
-      <c r="E391" s="32"/>
+      <c r="E391" s="31"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
@@ -15787,7 +15781,7 @@
         <v>627</v>
       </c>
       <c r="D392" s="2"/>
-      <c r="E392" s="32"/>
+      <c r="E392" s="31"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
@@ -15821,7 +15815,7 @@
         <v>362</v>
       </c>
       <c r="D393" s="2"/>
-      <c r="E393" s="32"/>
+      <c r="E393" s="31"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
@@ -15855,7 +15849,7 @@
         <v>197</v>
       </c>
       <c r="D394" s="2"/>
-      <c r="E394" s="32"/>
+      <c r="E394" s="31"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
@@ -15889,7 +15883,7 @@
         <v>453</v>
       </c>
       <c r="D395" s="2"/>
-      <c r="E395" s="32"/>
+      <c r="E395" s="31"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
@@ -15923,7 +15917,7 @@
         <v>632</v>
       </c>
       <c r="D396" s="2"/>
-      <c r="E396" s="32"/>
+      <c r="E396" s="31"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
@@ -15947,9 +15941,9 @@
       <c r="Z396" s="2"/>
     </row>
     <row r="397" spans="1:26" ht="15">
-      <c r="C397" s="18"/>
+      <c r="C397" s="17"/>
       <c r="D397" s="2"/>
-      <c r="E397" s="32"/>
+      <c r="E397" s="31"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
@@ -15973,11 +15967,11 @@
       <c r="Z397" s="2"/>
     </row>
     <row r="398" spans="1:26" ht="15">
-      <c r="A398" s="19"/>
-      <c r="B398" s="17"/>
-      <c r="C398" s="18"/>
+      <c r="A398" s="18"/>
+      <c r="B398" s="16"/>
+      <c r="C398" s="17"/>
       <c r="D398" s="2"/>
-      <c r="E398" s="32"/>
+      <c r="E398" s="31"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
@@ -16004,7 +15998,7 @@
       <c r="A399" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B399" s="35" t="s">
+      <c r="B399" s="34" t="s">
         <v>634</v>
       </c>
       <c r="C399" s="13" t="s">
@@ -16036,7 +16030,7 @@
       <c r="A400" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B400" s="35" t="s">
+      <c r="B400" s="34" t="s">
         <v>636</v>
       </c>
       <c r="C400" s="13" t="s">
@@ -16068,7 +16062,7 @@
       <c r="A401" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B401" s="35" t="s">
+      <c r="B401" s="34" t="s">
         <v>638</v>
       </c>
       <c r="C401" s="13" t="s">
@@ -16100,7 +16094,7 @@
       <c r="A402" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B402" s="35" t="s">
+      <c r="B402" s="34" t="s">
         <v>639</v>
       </c>
       <c r="C402" s="13" t="s">
@@ -16132,7 +16126,7 @@
       <c r="A403" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B403" s="35" t="s">
+      <c r="B403" s="34" t="s">
         <v>640</v>
       </c>
       <c r="C403" s="13" t="s">
@@ -16164,7 +16158,7 @@
       <c r="A404" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B404" s="35" t="s">
+      <c r="B404" s="34" t="s">
         <v>642</v>
       </c>
       <c r="C404" s="13" t="s">
@@ -16196,7 +16190,7 @@
       <c r="A405" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B405" s="35" t="s">
+      <c r="B405" s="34" t="s">
         <v>643</v>
       </c>
       <c r="C405" s="13" t="s">
@@ -16228,7 +16222,7 @@
       <c r="A406" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B406" s="35" t="s">
+      <c r="B406" s="34" t="s">
         <v>644</v>
       </c>
       <c r="C406" s="13" t="s">
@@ -16260,7 +16254,7 @@
       <c r="A407" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B407" s="35" t="s">
+      <c r="B407" s="34" t="s">
         <v>645</v>
       </c>
       <c r="C407" s="13" t="s">
@@ -16292,7 +16286,7 @@
       <c r="A408" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B408" s="35" t="s">
+      <c r="B408" s="34" t="s">
         <v>646</v>
       </c>
       <c r="C408" s="13" t="s">
@@ -16321,9 +16315,9 @@
       <c r="Z408" s="2"/>
     </row>
     <row r="409" spans="1:26" ht="15">
-      <c r="A409" s="19"/>
-      <c r="B409" s="17"/>
-      <c r="C409" s="18"/>
+      <c r="A409" s="18"/>
+      <c r="B409" s="16"/>
+      <c r="C409" s="17"/>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
@@ -16347,9 +16341,9 @@
       <c r="Z409" s="2"/>
     </row>
     <row r="410" spans="1:26" ht="15">
-      <c r="A410" s="19"/>
-      <c r="B410" s="17"/>
-      <c r="C410" s="18"/>
+      <c r="A410" s="18"/>
+      <c r="B410" s="16"/>
+      <c r="C410" s="17"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
@@ -16438,7 +16432,7 @@
       <c r="A413" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="B413" s="34" t="s">
+      <c r="B413" s="33" t="s">
         <v>651</v>
       </c>
       <c r="C413" s="13" t="s">
@@ -16567,9 +16561,9 @@
       <c r="Z416" s="2"/>
     </row>
     <row r="417" spans="1:26" ht="15">
-      <c r="A417" s="16"/>
-      <c r="B417" s="17"/>
-      <c r="C417" s="18"/>
+      <c r="A417" s="15"/>
+      <c r="B417" s="16"/>
+      <c r="C417" s="17"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
@@ -16595,9 +16589,9 @@
       <c r="Z417" s="2"/>
     </row>
     <row r="418" spans="1:26" ht="15">
-      <c r="A418" s="16"/>
-      <c r="B418" s="17"/>
-      <c r="C418" s="36"/>
+      <c r="A418" s="15"/>
+      <c r="B418" s="16"/>
+      <c r="C418" s="35"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
@@ -16623,9 +16617,9 @@
       <c r="Z418" s="2"/>
     </row>
     <row r="419" spans="1:26" ht="15">
-      <c r="A419" s="16"/>
-      <c r="B419" s="17"/>
-      <c r="C419" s="36"/>
+      <c r="A419" s="15"/>
+      <c r="B419" s="16"/>
+      <c r="C419" s="35"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
@@ -16651,9 +16645,9 @@
       <c r="Z419" s="2"/>
     </row>
     <row r="420" spans="1:26" ht="15">
-      <c r="A420" s="16"/>
-      <c r="B420" s="17"/>
-      <c r="C420" s="36"/>
+      <c r="A420" s="15"/>
+      <c r="B420" s="16"/>
+      <c r="C420" s="35"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
@@ -16679,9 +16673,9 @@
       <c r="Z420" s="2"/>
     </row>
     <row r="421" spans="1:26" ht="15">
-      <c r="A421" s="16"/>
-      <c r="B421" s="17"/>
-      <c r="C421" s="36"/>
+      <c r="A421" s="15"/>
+      <c r="B421" s="16"/>
+      <c r="C421" s="35"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
@@ -16707,9 +16701,9 @@
       <c r="Z421" s="2"/>
     </row>
     <row r="422" spans="1:26" ht="15">
-      <c r="A422" s="16"/>
-      <c r="B422" s="17"/>
-      <c r="C422" s="36"/>
+      <c r="A422" s="15"/>
+      <c r="B422" s="16"/>
+      <c r="C422" s="35"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
@@ -16735,9 +16729,9 @@
       <c r="Z422" s="2"/>
     </row>
     <row r="423" spans="1:26" ht="15">
-      <c r="A423" s="16"/>
-      <c r="B423" s="17"/>
-      <c r="C423" s="36"/>
+      <c r="A423" s="15"/>
+      <c r="B423" s="16"/>
+      <c r="C423" s="35"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
@@ -16763,9 +16757,9 @@
       <c r="Z423" s="2"/>
     </row>
     <row r="424" spans="1:26" ht="15">
-      <c r="A424" s="16"/>
-      <c r="B424" s="17"/>
-      <c r="C424" s="36"/>
+      <c r="A424" s="15"/>
+      <c r="B424" s="16"/>
+      <c r="C424" s="35"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
@@ -16791,9 +16785,9 @@
       <c r="Z424" s="2"/>
     </row>
     <row r="425" spans="1:26" ht="15">
-      <c r="A425" s="16"/>
-      <c r="B425" s="17"/>
-      <c r="C425" s="36"/>
+      <c r="A425" s="15"/>
+      <c r="B425" s="16"/>
+      <c r="C425" s="35"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
@@ -16819,9 +16813,9 @@
       <c r="Z425" s="2"/>
     </row>
     <row r="426" spans="1:26" ht="15">
-      <c r="A426" s="16"/>
-      <c r="B426" s="17"/>
-      <c r="C426" s="36"/>
+      <c r="A426" s="15"/>
+      <c r="B426" s="16"/>
+      <c r="C426" s="35"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
@@ -16847,9 +16841,9 @@
       <c r="Z426" s="2"/>
     </row>
     <row r="427" spans="1:26" ht="15">
-      <c r="A427" s="16"/>
-      <c r="B427" s="17"/>
-      <c r="C427" s="36"/>
+      <c r="A427" s="15"/>
+      <c r="B427" s="16"/>
+      <c r="C427" s="35"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
@@ -16875,9 +16869,9 @@
       <c r="Z427" s="2"/>
     </row>
     <row r="428" spans="1:26" ht="15">
-      <c r="A428" s="16"/>
-      <c r="B428" s="17"/>
-      <c r="C428" s="36"/>
+      <c r="A428" s="15"/>
+      <c r="B428" s="16"/>
+      <c r="C428" s="35"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
@@ -16903,9 +16897,9 @@
       <c r="Z428" s="2"/>
     </row>
     <row r="429" spans="1:26" ht="15">
-      <c r="A429" s="16"/>
-      <c r="B429" s="17"/>
-      <c r="C429" s="36"/>
+      <c r="A429" s="15"/>
+      <c r="B429" s="16"/>
+      <c r="C429" s="35"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
@@ -16931,9 +16925,9 @@
       <c r="Z429" s="2"/>
     </row>
     <row r="430" spans="1:26" ht="15">
-      <c r="A430" s="16"/>
-      <c r="B430" s="17"/>
-      <c r="C430" s="36"/>
+      <c r="A430" s="15"/>
+      <c r="B430" s="16"/>
+      <c r="C430" s="35"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
@@ -16959,9 +16953,9 @@
       <c r="Z430" s="2"/>
     </row>
     <row r="431" spans="1:26" ht="15">
-      <c r="A431" s="16"/>
-      <c r="B431" s="17"/>
-      <c r="C431" s="36"/>
+      <c r="A431" s="15"/>
+      <c r="B431" s="16"/>
+      <c r="C431" s="35"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
@@ -16987,9 +16981,9 @@
       <c r="Z431" s="2"/>
     </row>
     <row r="432" spans="1:26" ht="15">
-      <c r="A432" s="16"/>
-      <c r="B432" s="17"/>
-      <c r="C432" s="36"/>
+      <c r="A432" s="15"/>
+      <c r="B432" s="16"/>
+      <c r="C432" s="35"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
@@ -17015,9 +17009,9 @@
       <c r="Z432" s="2"/>
     </row>
     <row r="433" spans="1:26" ht="15">
-      <c r="A433" s="16"/>
-      <c r="B433" s="17"/>
-      <c r="C433" s="36"/>
+      <c r="A433" s="15"/>
+      <c r="B433" s="16"/>
+      <c r="C433" s="35"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
@@ -17043,9 +17037,9 @@
       <c r="Z433" s="2"/>
     </row>
     <row r="434" spans="1:26" ht="15">
-      <c r="A434" s="16"/>
-      <c r="B434" s="17"/>
-      <c r="C434" s="36"/>
+      <c r="A434" s="15"/>
+      <c r="B434" s="16"/>
+      <c r="C434" s="35"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
@@ -17071,9 +17065,9 @@
       <c r="Z434" s="2"/>
     </row>
     <row r="435" spans="1:26" ht="15">
-      <c r="A435" s="16"/>
-      <c r="B435" s="17"/>
-      <c r="C435" s="36"/>
+      <c r="A435" s="15"/>
+      <c r="B435" s="16"/>
+      <c r="C435" s="35"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
@@ -17099,9 +17093,9 @@
       <c r="Z435" s="2"/>
     </row>
     <row r="436" spans="1:26" ht="15">
-      <c r="A436" s="16"/>
-      <c r="B436" s="17"/>
-      <c r="C436" s="36"/>
+      <c r="A436" s="15"/>
+      <c r="B436" s="16"/>
+      <c r="C436" s="35"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
@@ -17127,9 +17121,9 @@
       <c r="Z436" s="2"/>
     </row>
     <row r="437" spans="1:26" ht="15">
-      <c r="A437" s="16"/>
-      <c r="B437" s="17"/>
-      <c r="C437" s="36"/>
+      <c r="A437" s="15"/>
+      <c r="B437" s="16"/>
+      <c r="C437" s="35"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
@@ -17155,9 +17149,9 @@
       <c r="Z437" s="2"/>
     </row>
     <row r="438" spans="1:26" ht="15">
-      <c r="A438" s="16"/>
-      <c r="B438" s="17"/>
-      <c r="C438" s="36"/>
+      <c r="A438" s="15"/>
+      <c r="B438" s="16"/>
+      <c r="C438" s="35"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
@@ -17183,9 +17177,9 @@
       <c r="Z438" s="2"/>
     </row>
     <row r="439" spans="1:26" ht="15">
-      <c r="A439" s="16"/>
-      <c r="B439" s="17"/>
-      <c r="C439" s="36"/>
+      <c r="A439" s="15"/>
+      <c r="B439" s="16"/>
+      <c r="C439" s="35"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
@@ -17211,9 +17205,9 @@
       <c r="Z439" s="2"/>
     </row>
     <row r="440" spans="1:26" ht="15">
-      <c r="A440" s="16"/>
-      <c r="B440" s="17"/>
-      <c r="C440" s="36"/>
+      <c r="A440" s="15"/>
+      <c r="B440" s="16"/>
+      <c r="C440" s="35"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
@@ -17239,9 +17233,9 @@
       <c r="Z440" s="2"/>
     </row>
     <row r="441" spans="1:26" ht="15">
-      <c r="A441" s="16"/>
-      <c r="B441" s="17"/>
-      <c r="C441" s="36"/>
+      <c r="A441" s="15"/>
+      <c r="B441" s="16"/>
+      <c r="C441" s="35"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
@@ -17267,9 +17261,9 @@
       <c r="Z441" s="2"/>
     </row>
     <row r="442" spans="1:26" ht="15">
-      <c r="A442" s="16"/>
-      <c r="B442" s="17"/>
-      <c r="C442" s="36"/>
+      <c r="A442" s="15"/>
+      <c r="B442" s="16"/>
+      <c r="C442" s="35"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
@@ -17295,9 +17289,9 @@
       <c r="Z442" s="2"/>
     </row>
     <row r="443" spans="1:26" ht="15">
-      <c r="A443" s="16"/>
-      <c r="B443" s="17"/>
-      <c r="C443" s="36"/>
+      <c r="A443" s="15"/>
+      <c r="B443" s="16"/>
+      <c r="C443" s="35"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
@@ -17323,9 +17317,9 @@
       <c r="Z443" s="2"/>
     </row>
     <row r="444" spans="1:26" ht="15">
-      <c r="A444" s="16"/>
-      <c r="B444" s="17"/>
-      <c r="C444" s="36"/>
+      <c r="A444" s="15"/>
+      <c r="B444" s="16"/>
+      <c r="C444" s="35"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
@@ -17351,9 +17345,9 @@
       <c r="Z444" s="2"/>
     </row>
     <row r="445" spans="1:26" ht="15">
-      <c r="A445" s="16"/>
-      <c r="B445" s="17"/>
-      <c r="C445" s="36"/>
+      <c r="A445" s="15"/>
+      <c r="B445" s="16"/>
+      <c r="C445" s="35"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
@@ -17379,9 +17373,9 @@
       <c r="Z445" s="2"/>
     </row>
     <row r="446" spans="1:26" ht="15">
-      <c r="A446" s="16"/>
-      <c r="B446" s="17"/>
-      <c r="C446" s="36"/>
+      <c r="A446" s="15"/>
+      <c r="B446" s="16"/>
+      <c r="C446" s="35"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
@@ -17407,9 +17401,9 @@
       <c r="Z446" s="2"/>
     </row>
     <row r="447" spans="1:26" ht="15">
-      <c r="A447" s="16"/>
-      <c r="B447" s="17"/>
-      <c r="C447" s="36"/>
+      <c r="A447" s="15"/>
+      <c r="B447" s="16"/>
+      <c r="C447" s="35"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
@@ -17435,9 +17429,9 @@
       <c r="Z447" s="2"/>
     </row>
     <row r="448" spans="1:26" ht="15">
-      <c r="A448" s="16"/>
-      <c r="B448" s="17"/>
-      <c r="C448" s="36"/>
+      <c r="A448" s="15"/>
+      <c r="B448" s="16"/>
+      <c r="C448" s="35"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
@@ -17463,9 +17457,9 @@
       <c r="Z448" s="2"/>
     </row>
     <row r="449" spans="1:26" ht="15">
-      <c r="A449" s="16"/>
-      <c r="B449" s="17"/>
-      <c r="C449" s="36"/>
+      <c r="A449" s="15"/>
+      <c r="B449" s="16"/>
+      <c r="C449" s="35"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
@@ -17491,9 +17485,9 @@
       <c r="Z449" s="2"/>
     </row>
     <row r="450" spans="1:26" ht="15">
-      <c r="A450" s="16"/>
-      <c r="B450" s="17"/>
-      <c r="C450" s="36"/>
+      <c r="A450" s="15"/>
+      <c r="B450" s="16"/>
+      <c r="C450" s="35"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
@@ -17519,9 +17513,9 @@
       <c r="Z450" s="2"/>
     </row>
     <row r="451" spans="1:26" ht="15">
-      <c r="A451" s="16"/>
-      <c r="B451" s="17"/>
-      <c r="C451" s="36"/>
+      <c r="A451" s="15"/>
+      <c r="B451" s="16"/>
+      <c r="C451" s="35"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
@@ -17547,9 +17541,9 @@
       <c r="Z451" s="2"/>
     </row>
     <row r="452" spans="1:26" ht="15">
-      <c r="A452" s="16"/>
-      <c r="B452" s="17"/>
-      <c r="C452" s="36"/>
+      <c r="A452" s="15"/>
+      <c r="B452" s="16"/>
+      <c r="C452" s="35"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
@@ -17575,9 +17569,9 @@
       <c r="Z452" s="2"/>
     </row>
     <row r="453" spans="1:26" ht="15">
-      <c r="A453" s="16"/>
-      <c r="B453" s="17"/>
-      <c r="C453" s="36"/>
+      <c r="A453" s="15"/>
+      <c r="B453" s="16"/>
+      <c r="C453" s="35"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
@@ -17603,9 +17597,9 @@
       <c r="Z453" s="2"/>
     </row>
     <row r="454" spans="1:26" ht="15">
-      <c r="A454" s="16"/>
-      <c r="B454" s="17"/>
-      <c r="C454" s="36"/>
+      <c r="A454" s="15"/>
+      <c r="B454" s="16"/>
+      <c r="C454" s="35"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
@@ -17631,9 +17625,9 @@
       <c r="Z454" s="2"/>
     </row>
     <row r="455" spans="1:26" ht="15">
-      <c r="A455" s="16"/>
-      <c r="B455" s="17"/>
-      <c r="C455" s="36"/>
+      <c r="A455" s="15"/>
+      <c r="B455" s="16"/>
+      <c r="C455" s="35"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
@@ -17659,9 +17653,9 @@
       <c r="Z455" s="2"/>
     </row>
     <row r="456" spans="1:26" ht="15">
-      <c r="A456" s="16"/>
-      <c r="B456" s="17"/>
-      <c r="C456" s="36"/>
+      <c r="A456" s="15"/>
+      <c r="B456" s="16"/>
+      <c r="C456" s="35"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
@@ -17687,9 +17681,9 @@
       <c r="Z456" s="2"/>
     </row>
     <row r="457" spans="1:26" ht="15">
-      <c r="A457" s="16"/>
-      <c r="B457" s="17"/>
-      <c r="C457" s="36"/>
+      <c r="A457" s="15"/>
+      <c r="B457" s="16"/>
+      <c r="C457" s="35"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
@@ -17715,9 +17709,9 @@
       <c r="Z457" s="2"/>
     </row>
     <row r="458" spans="1:26" ht="15">
-      <c r="A458" s="16"/>
-      <c r="B458" s="17"/>
-      <c r="C458" s="36"/>
+      <c r="A458" s="15"/>
+      <c r="B458" s="16"/>
+      <c r="C458" s="35"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
@@ -17743,9 +17737,9 @@
       <c r="Z458" s="2"/>
     </row>
     <row r="459" spans="1:26" ht="15">
-      <c r="A459" s="16"/>
-      <c r="B459" s="17"/>
-      <c r="C459" s="36"/>
+      <c r="A459" s="15"/>
+      <c r="B459" s="16"/>
+      <c r="C459" s="35"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
@@ -17771,9 +17765,9 @@
       <c r="Z459" s="2"/>
     </row>
     <row r="460" spans="1:26" ht="15">
-      <c r="A460" s="16"/>
-      <c r="B460" s="17"/>
-      <c r="C460" s="36"/>
+      <c r="A460" s="15"/>
+      <c r="B460" s="16"/>
+      <c r="C460" s="35"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
@@ -17799,9 +17793,9 @@
       <c r="Z460" s="2"/>
     </row>
     <row r="461" spans="1:26" ht="15">
-      <c r="A461" s="16"/>
-      <c r="B461" s="17"/>
-      <c r="C461" s="36"/>
+      <c r="A461" s="15"/>
+      <c r="B461" s="16"/>
+      <c r="C461" s="35"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
@@ -17827,9 +17821,9 @@
       <c r="Z461" s="2"/>
     </row>
     <row r="462" spans="1:26" ht="15">
-      <c r="A462" s="16"/>
-      <c r="B462" s="17"/>
-      <c r="C462" s="36"/>
+      <c r="A462" s="15"/>
+      <c r="B462" s="16"/>
+      <c r="C462" s="35"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
@@ -17855,9 +17849,9 @@
       <c r="Z462" s="2"/>
     </row>
     <row r="463" spans="1:26" ht="15">
-      <c r="A463" s="16"/>
-      <c r="B463" s="17"/>
-      <c r="C463" s="36"/>
+      <c r="A463" s="15"/>
+      <c r="B463" s="16"/>
+      <c r="C463" s="35"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
@@ -17883,9 +17877,9 @@
       <c r="Z463" s="2"/>
     </row>
     <row r="464" spans="1:26" ht="15">
-      <c r="A464" s="16"/>
-      <c r="B464" s="17"/>
-      <c r="C464" s="36"/>
+      <c r="A464" s="15"/>
+      <c r="B464" s="16"/>
+      <c r="C464" s="35"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
@@ -17911,9 +17905,9 @@
       <c r="Z464" s="2"/>
     </row>
     <row r="465" spans="1:26" ht="15">
-      <c r="A465" s="16"/>
-      <c r="B465" s="17"/>
-      <c r="C465" s="36"/>
+      <c r="A465" s="15"/>
+      <c r="B465" s="16"/>
+      <c r="C465" s="35"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
@@ -17939,9 +17933,9 @@
       <c r="Z465" s="2"/>
     </row>
     <row r="466" spans="1:26" ht="15">
-      <c r="A466" s="16"/>
-      <c r="B466" s="17"/>
-      <c r="C466" s="36"/>
+      <c r="A466" s="15"/>
+      <c r="B466" s="16"/>
+      <c r="C466" s="35"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
@@ -17967,9 +17961,9 @@
       <c r="Z466" s="2"/>
     </row>
     <row r="467" spans="1:26" ht="15">
-      <c r="A467" s="16"/>
-      <c r="B467" s="17"/>
-      <c r="C467" s="36"/>
+      <c r="A467" s="15"/>
+      <c r="B467" s="16"/>
+      <c r="C467" s="35"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
@@ -17995,9 +17989,9 @@
       <c r="Z467" s="2"/>
     </row>
     <row r="468" spans="1:26" ht="15">
-      <c r="A468" s="16"/>
-      <c r="B468" s="17"/>
-      <c r="C468" s="36"/>
+      <c r="A468" s="15"/>
+      <c r="B468" s="16"/>
+      <c r="C468" s="35"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
@@ -18023,9 +18017,9 @@
       <c r="Z468" s="2"/>
     </row>
     <row r="469" spans="1:26" ht="15">
-      <c r="A469" s="16"/>
-      <c r="B469" s="17"/>
-      <c r="C469" s="36"/>
+      <c r="A469" s="15"/>
+      <c r="B469" s="16"/>
+      <c r="C469" s="35"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
@@ -18051,9 +18045,9 @@
       <c r="Z469" s="2"/>
     </row>
     <row r="470" spans="1:26" ht="15">
-      <c r="A470" s="16"/>
-      <c r="B470" s="17"/>
-      <c r="C470" s="36"/>
+      <c r="A470" s="15"/>
+      <c r="B470" s="16"/>
+      <c r="C470" s="35"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
@@ -18079,9 +18073,9 @@
       <c r="Z470" s="2"/>
     </row>
     <row r="471" spans="1:26" ht="15">
-      <c r="A471" s="16"/>
-      <c r="B471" s="17"/>
-      <c r="C471" s="36"/>
+      <c r="A471" s="15"/>
+      <c r="B471" s="16"/>
+      <c r="C471" s="35"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
@@ -18107,9 +18101,9 @@
       <c r="Z471" s="2"/>
     </row>
     <row r="472" spans="1:26" ht="15">
-      <c r="A472" s="16"/>
-      <c r="B472" s="17"/>
-      <c r="C472" s="36"/>
+      <c r="A472" s="15"/>
+      <c r="B472" s="16"/>
+      <c r="C472" s="35"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
@@ -18135,9 +18129,9 @@
       <c r="Z472" s="2"/>
     </row>
     <row r="473" spans="1:26" ht="15">
-      <c r="A473" s="16"/>
-      <c r="B473" s="17"/>
-      <c r="C473" s="36"/>
+      <c r="A473" s="15"/>
+      <c r="B473" s="16"/>
+      <c r="C473" s="35"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
@@ -18163,9 +18157,9 @@
       <c r="Z473" s="2"/>
     </row>
     <row r="474" spans="1:26" ht="15">
-      <c r="A474" s="16"/>
-      <c r="B474" s="17"/>
-      <c r="C474" s="36"/>
+      <c r="A474" s="15"/>
+      <c r="B474" s="16"/>
+      <c r="C474" s="35"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
@@ -18191,9 +18185,9 @@
       <c r="Z474" s="2"/>
     </row>
     <row r="475" spans="1:26" ht="15">
-      <c r="A475" s="16"/>
-      <c r="B475" s="17"/>
-      <c r="C475" s="36"/>
+      <c r="A475" s="15"/>
+      <c r="B475" s="16"/>
+      <c r="C475" s="35"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
@@ -18219,9 +18213,9 @@
       <c r="Z475" s="2"/>
     </row>
     <row r="476" spans="1:26" ht="15">
-      <c r="A476" s="16"/>
-      <c r="B476" s="17"/>
-      <c r="C476" s="36"/>
+      <c r="A476" s="15"/>
+      <c r="B476" s="16"/>
+      <c r="C476" s="35"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
@@ -18247,9 +18241,9 @@
       <c r="Z476" s="2"/>
     </row>
     <row r="477" spans="1:26" ht="15">
-      <c r="A477" s="16"/>
-      <c r="B477" s="17"/>
-      <c r="C477" s="36"/>
+      <c r="A477" s="15"/>
+      <c r="B477" s="16"/>
+      <c r="C477" s="35"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
@@ -18275,9 +18269,9 @@
       <c r="Z477" s="2"/>
     </row>
     <row r="478" spans="1:26" ht="15">
-      <c r="A478" s="16"/>
-      <c r="B478" s="17"/>
-      <c r="C478" s="36"/>
+      <c r="A478" s="15"/>
+      <c r="B478" s="16"/>
+      <c r="C478" s="35"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
@@ -18303,9 +18297,9 @@
       <c r="Z478" s="2"/>
     </row>
     <row r="479" spans="1:26" ht="15">
-      <c r="A479" s="16"/>
-      <c r="B479" s="17"/>
-      <c r="C479" s="36"/>
+      <c r="A479" s="15"/>
+      <c r="B479" s="16"/>
+      <c r="C479" s="35"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
@@ -18331,9 +18325,9 @@
       <c r="Z479" s="2"/>
     </row>
     <row r="480" spans="1:26" ht="15">
-      <c r="A480" s="16"/>
-      <c r="B480" s="17"/>
-      <c r="C480" s="36"/>
+      <c r="A480" s="15"/>
+      <c r="B480" s="16"/>
+      <c r="C480" s="35"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
@@ -18359,9 +18353,9 @@
       <c r="Z480" s="2"/>
     </row>
     <row r="481" spans="1:26" ht="15">
-      <c r="A481" s="16"/>
-      <c r="B481" s="17"/>
-      <c r="C481" s="36"/>
+      <c r="A481" s="15"/>
+      <c r="B481" s="16"/>
+      <c r="C481" s="35"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
@@ -18387,9 +18381,9 @@
       <c r="Z481" s="2"/>
     </row>
     <row r="482" spans="1:26" ht="15">
-      <c r="A482" s="16"/>
-      <c r="B482" s="17"/>
-      <c r="C482" s="36"/>
+      <c r="A482" s="15"/>
+      <c r="B482" s="16"/>
+      <c r="C482" s="35"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
@@ -18415,9 +18409,9 @@
       <c r="Z482" s="2"/>
     </row>
     <row r="483" spans="1:26" ht="15">
-      <c r="A483" s="16"/>
-      <c r="B483" s="17"/>
-      <c r="C483" s="36"/>
+      <c r="A483" s="15"/>
+      <c r="B483" s="16"/>
+      <c r="C483" s="35"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
@@ -18443,9 +18437,9 @@
       <c r="Z483" s="2"/>
     </row>
     <row r="484" spans="1:26" ht="15">
-      <c r="A484" s="16"/>
-      <c r="B484" s="17"/>
-      <c r="C484" s="36"/>
+      <c r="A484" s="15"/>
+      <c r="B484" s="16"/>
+      <c r="C484" s="35"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
@@ -18471,9 +18465,9 @@
       <c r="Z484" s="2"/>
     </row>
     <row r="485" spans="1:26" ht="15">
-      <c r="A485" s="16"/>
-      <c r="B485" s="17"/>
-      <c r="C485" s="36"/>
+      <c r="A485" s="15"/>
+      <c r="B485" s="16"/>
+      <c r="C485" s="35"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
@@ -18499,9 +18493,9 @@
       <c r="Z485" s="2"/>
     </row>
     <row r="486" spans="1:26" ht="15">
-      <c r="A486" s="16"/>
-      <c r="B486" s="17"/>
-      <c r="C486" s="36"/>
+      <c r="A486" s="15"/>
+      <c r="B486" s="16"/>
+      <c r="C486" s="35"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
@@ -18527,9 +18521,9 @@
       <c r="Z486" s="2"/>
     </row>
     <row r="487" spans="1:26" ht="15">
-      <c r="A487" s="16"/>
-      <c r="B487" s="17"/>
-      <c r="C487" s="36"/>
+      <c r="A487" s="15"/>
+      <c r="B487" s="16"/>
+      <c r="C487" s="35"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
@@ -18555,9 +18549,9 @@
       <c r="Z487" s="2"/>
     </row>
     <row r="488" spans="1:26" ht="15">
-      <c r="A488" s="16"/>
-      <c r="B488" s="17"/>
-      <c r="C488" s="36"/>
+      <c r="A488" s="15"/>
+      <c r="B488" s="16"/>
+      <c r="C488" s="35"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
@@ -18583,9 +18577,9 @@
       <c r="Z488" s="2"/>
     </row>
     <row r="489" spans="1:26" ht="15">
-      <c r="A489" s="16"/>
-      <c r="B489" s="17"/>
-      <c r="C489" s="36"/>
+      <c r="A489" s="15"/>
+      <c r="B489" s="16"/>
+      <c r="C489" s="35"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
@@ -18611,9 +18605,9 @@
       <c r="Z489" s="2"/>
     </row>
     <row r="490" spans="1:26" ht="15">
-      <c r="A490" s="16"/>
-      <c r="B490" s="17"/>
-      <c r="C490" s="36"/>
+      <c r="A490" s="15"/>
+      <c r="B490" s="16"/>
+      <c r="C490" s="35"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
@@ -18639,9 +18633,9 @@
       <c r="Z490" s="2"/>
     </row>
     <row r="491" spans="1:26" ht="15">
-      <c r="A491" s="16"/>
-      <c r="B491" s="17"/>
-      <c r="C491" s="36"/>
+      <c r="A491" s="15"/>
+      <c r="B491" s="16"/>
+      <c r="C491" s="35"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
@@ -18667,9 +18661,9 @@
       <c r="Z491" s="2"/>
     </row>
     <row r="492" spans="1:26" ht="15">
-      <c r="A492" s="16"/>
-      <c r="B492" s="17"/>
-      <c r="C492" s="36"/>
+      <c r="A492" s="15"/>
+      <c r="B492" s="16"/>
+      <c r="C492" s="35"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
@@ -18695,9 +18689,9 @@
       <c r="Z492" s="2"/>
     </row>
     <row r="493" spans="1:26" ht="15">
-      <c r="A493" s="16"/>
-      <c r="B493" s="17"/>
-      <c r="C493" s="36"/>
+      <c r="A493" s="15"/>
+      <c r="B493" s="16"/>
+      <c r="C493" s="35"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
@@ -18723,9 +18717,9 @@
       <c r="Z493" s="2"/>
     </row>
     <row r="494" spans="1:26" ht="15">
-      <c r="A494" s="16"/>
-      <c r="B494" s="17"/>
-      <c r="C494" s="36"/>
+      <c r="A494" s="15"/>
+      <c r="B494" s="16"/>
+      <c r="C494" s="35"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
@@ -18751,9 +18745,9 @@
       <c r="Z494" s="2"/>
     </row>
     <row r="495" spans="1:26" ht="15">
-      <c r="A495" s="16"/>
-      <c r="B495" s="17"/>
-      <c r="C495" s="36"/>
+      <c r="A495" s="15"/>
+      <c r="B495" s="16"/>
+      <c r="C495" s="35"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
@@ -18779,9 +18773,9 @@
       <c r="Z495" s="2"/>
     </row>
     <row r="496" spans="1:26" ht="15">
-      <c r="A496" s="16"/>
-      <c r="B496" s="17"/>
-      <c r="C496" s="36"/>
+      <c r="A496" s="15"/>
+      <c r="B496" s="16"/>
+      <c r="C496" s="35"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
@@ -18807,9 +18801,9 @@
       <c r="Z496" s="2"/>
     </row>
     <row r="497" spans="1:26" ht="15">
-      <c r="A497" s="16"/>
-      <c r="B497" s="17"/>
-      <c r="C497" s="36"/>
+      <c r="A497" s="15"/>
+      <c r="B497" s="16"/>
+      <c r="C497" s="35"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
@@ -18835,9 +18829,9 @@
       <c r="Z497" s="2"/>
     </row>
     <row r="498" spans="1:26" ht="15">
-      <c r="A498" s="16"/>
-      <c r="B498" s="17"/>
-      <c r="C498" s="36"/>
+      <c r="A498" s="15"/>
+      <c r="B498" s="16"/>
+      <c r="C498" s="35"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
@@ -18863,9 +18857,9 @@
       <c r="Z498" s="2"/>
     </row>
     <row r="499" spans="1:26" ht="15">
-      <c r="A499" s="16"/>
-      <c r="B499" s="17"/>
-      <c r="C499" s="36"/>
+      <c r="A499" s="15"/>
+      <c r="B499" s="16"/>
+      <c r="C499" s="35"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
@@ -18891,9 +18885,9 @@
       <c r="Z499" s="2"/>
     </row>
     <row r="500" spans="1:26" ht="15">
-      <c r="A500" s="16"/>
-      <c r="B500" s="17"/>
-      <c r="C500" s="36"/>
+      <c r="A500" s="15"/>
+      <c r="B500" s="16"/>
+      <c r="C500" s="35"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
@@ -18919,9 +18913,9 @@
       <c r="Z500" s="2"/>
     </row>
     <row r="501" spans="1:26" ht="15">
-      <c r="A501" s="16"/>
-      <c r="B501" s="17"/>
-      <c r="C501" s="36"/>
+      <c r="A501" s="15"/>
+      <c r="B501" s="16"/>
+      <c r="C501" s="35"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
@@ -18947,9 +18941,9 @@
       <c r="Z501" s="2"/>
     </row>
     <row r="502" spans="1:26" ht="15">
-      <c r="A502" s="16"/>
-      <c r="B502" s="17"/>
-      <c r="C502" s="36"/>
+      <c r="A502" s="15"/>
+      <c r="B502" s="16"/>
+      <c r="C502" s="35"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
@@ -18975,9 +18969,9 @@
       <c r="Z502" s="2"/>
     </row>
     <row r="503" spans="1:26" ht="15">
-      <c r="A503" s="16"/>
-      <c r="B503" s="17"/>
-      <c r="C503" s="36"/>
+      <c r="A503" s="15"/>
+      <c r="B503" s="16"/>
+      <c r="C503" s="35"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
@@ -19003,9 +18997,9 @@
       <c r="Z503" s="2"/>
     </row>
     <row r="504" spans="1:26" ht="15">
-      <c r="A504" s="16"/>
-      <c r="B504" s="17"/>
-      <c r="C504" s="36"/>
+      <c r="A504" s="15"/>
+      <c r="B504" s="16"/>
+      <c r="C504" s="35"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
@@ -19031,9 +19025,9 @@
       <c r="Z504" s="2"/>
     </row>
     <row r="505" spans="1:26" ht="15">
-      <c r="A505" s="16"/>
-      <c r="B505" s="17"/>
-      <c r="C505" s="36"/>
+      <c r="A505" s="15"/>
+      <c r="B505" s="16"/>
+      <c r="C505" s="35"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
@@ -19059,9 +19053,9 @@
       <c r="Z505" s="2"/>
     </row>
     <row r="506" spans="1:26" ht="15">
-      <c r="A506" s="16"/>
-      <c r="B506" s="17"/>
-      <c r="C506" s="36"/>
+      <c r="A506" s="15"/>
+      <c r="B506" s="16"/>
+      <c r="C506" s="35"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
@@ -19087,9 +19081,9 @@
       <c r="Z506" s="2"/>
     </row>
     <row r="507" spans="1:26" ht="15">
-      <c r="A507" s="16"/>
-      <c r="B507" s="17"/>
-      <c r="C507" s="36"/>
+      <c r="A507" s="15"/>
+      <c r="B507" s="16"/>
+      <c r="C507" s="35"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
@@ -19115,9 +19109,9 @@
       <c r="Z507" s="2"/>
     </row>
     <row r="508" spans="1:26" ht="15">
-      <c r="A508" s="16"/>
-      <c r="B508" s="17"/>
-      <c r="C508" s="36"/>
+      <c r="A508" s="15"/>
+      <c r="B508" s="16"/>
+      <c r="C508" s="35"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
@@ -19143,9 +19137,9 @@
       <c r="Z508" s="2"/>
     </row>
     <row r="509" spans="1:26" ht="15">
-      <c r="A509" s="16"/>
-      <c r="B509" s="17"/>
-      <c r="C509" s="36"/>
+      <c r="A509" s="15"/>
+      <c r="B509" s="16"/>
+      <c r="C509" s="35"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
@@ -19171,9 +19165,9 @@
       <c r="Z509" s="2"/>
     </row>
     <row r="510" spans="1:26" ht="15">
-      <c r="A510" s="16"/>
-      <c r="B510" s="17"/>
-      <c r="C510" s="36"/>
+      <c r="A510" s="15"/>
+      <c r="B510" s="16"/>
+      <c r="C510" s="35"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
@@ -19199,9 +19193,9 @@
       <c r="Z510" s="2"/>
     </row>
     <row r="511" spans="1:26" ht="15">
-      <c r="A511" s="16"/>
-      <c r="B511" s="17"/>
-      <c r="C511" s="36"/>
+      <c r="A511" s="15"/>
+      <c r="B511" s="16"/>
+      <c r="C511" s="35"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
@@ -19227,9 +19221,9 @@
       <c r="Z511" s="2"/>
     </row>
     <row r="512" spans="1:26" ht="15">
-      <c r="A512" s="16"/>
-      <c r="B512" s="17"/>
-      <c r="C512" s="36"/>
+      <c r="A512" s="15"/>
+      <c r="B512" s="16"/>
+      <c r="C512" s="35"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
@@ -19255,9 +19249,9 @@
       <c r="Z512" s="2"/>
     </row>
     <row r="513" spans="1:26" ht="15">
-      <c r="A513" s="16"/>
-      <c r="B513" s="17"/>
-      <c r="C513" s="36"/>
+      <c r="A513" s="15"/>
+      <c r="B513" s="16"/>
+      <c r="C513" s="35"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
@@ -19283,9 +19277,9 @@
       <c r="Z513" s="2"/>
     </row>
     <row r="514" spans="1:26" ht="15">
-      <c r="A514" s="16"/>
-      <c r="B514" s="17"/>
-      <c r="C514" s="36"/>
+      <c r="A514" s="15"/>
+      <c r="B514" s="16"/>
+      <c r="C514" s="35"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
@@ -19311,9 +19305,9 @@
       <c r="Z514" s="2"/>
     </row>
     <row r="515" spans="1:26" ht="15">
-      <c r="A515" s="16"/>
-      <c r="B515" s="17"/>
-      <c r="C515" s="36"/>
+      <c r="A515" s="15"/>
+      <c r="B515" s="16"/>
+      <c r="C515" s="35"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
@@ -19339,9 +19333,9 @@
       <c r="Z515" s="2"/>
     </row>
     <row r="516" spans="1:26" ht="15">
-      <c r="A516" s="16"/>
-      <c r="B516" s="17"/>
-      <c r="C516" s="36"/>
+      <c r="A516" s="15"/>
+      <c r="B516" s="16"/>
+      <c r="C516" s="35"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
@@ -19367,9 +19361,9 @@
       <c r="Z516" s="2"/>
     </row>
     <row r="517" spans="1:26" ht="15">
-      <c r="A517" s="16"/>
-      <c r="B517" s="17"/>
-      <c r="C517" s="36"/>
+      <c r="A517" s="15"/>
+      <c r="B517" s="16"/>
+      <c r="C517" s="35"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
@@ -19395,9 +19389,9 @@
       <c r="Z517" s="2"/>
     </row>
     <row r="518" spans="1:26" ht="15">
-      <c r="A518" s="16"/>
-      <c r="B518" s="17"/>
-      <c r="C518" s="36"/>
+      <c r="A518" s="15"/>
+      <c r="B518" s="16"/>
+      <c r="C518" s="35"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
@@ -19423,9 +19417,9 @@
       <c r="Z518" s="2"/>
     </row>
     <row r="519" spans="1:26" ht="15">
-      <c r="A519" s="16"/>
-      <c r="B519" s="17"/>
-      <c r="C519" s="36"/>
+      <c r="A519" s="15"/>
+      <c r="B519" s="16"/>
+      <c r="C519" s="35"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
@@ -19451,9 +19445,9 @@
       <c r="Z519" s="2"/>
     </row>
     <row r="520" spans="1:26" ht="15">
-      <c r="A520" s="16"/>
-      <c r="B520" s="17"/>
-      <c r="C520" s="36"/>
+      <c r="A520" s="15"/>
+      <c r="B520" s="16"/>
+      <c r="C520" s="35"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
@@ -19479,9 +19473,9 @@
       <c r="Z520" s="2"/>
     </row>
     <row r="521" spans="1:26" ht="15">
-      <c r="A521" s="16"/>
-      <c r="B521" s="17"/>
-      <c r="C521" s="36"/>
+      <c r="A521" s="15"/>
+      <c r="B521" s="16"/>
+      <c r="C521" s="35"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
@@ -19507,9 +19501,9 @@
       <c r="Z521" s="2"/>
     </row>
     <row r="522" spans="1:26" ht="15">
-      <c r="A522" s="16"/>
-      <c r="B522" s="17"/>
-      <c r="C522" s="36"/>
+      <c r="A522" s="15"/>
+      <c r="B522" s="16"/>
+      <c r="C522" s="35"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
@@ -19535,9 +19529,9 @@
       <c r="Z522" s="2"/>
     </row>
     <row r="523" spans="1:26" ht="15">
-      <c r="A523" s="16"/>
-      <c r="B523" s="17"/>
-      <c r="C523" s="36"/>
+      <c r="A523" s="15"/>
+      <c r="B523" s="16"/>
+      <c r="C523" s="35"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
@@ -19563,9 +19557,9 @@
       <c r="Z523" s="2"/>
     </row>
     <row r="524" spans="1:26" ht="15">
-      <c r="A524" s="16"/>
-      <c r="B524" s="17"/>
-      <c r="C524" s="36"/>
+      <c r="A524" s="15"/>
+      <c r="B524" s="16"/>
+      <c r="C524" s="35"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
@@ -19591,9 +19585,9 @@
       <c r="Z524" s="2"/>
     </row>
     <row r="525" spans="1:26" ht="15">
-      <c r="A525" s="16"/>
-      <c r="B525" s="17"/>
-      <c r="C525" s="36"/>
+      <c r="A525" s="15"/>
+      <c r="B525" s="16"/>
+      <c r="C525" s="35"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
@@ -19619,9 +19613,9 @@
       <c r="Z525" s="2"/>
     </row>
     <row r="526" spans="1:26" ht="15">
-      <c r="A526" s="16"/>
-      <c r="B526" s="17"/>
-      <c r="C526" s="36"/>
+      <c r="A526" s="15"/>
+      <c r="B526" s="16"/>
+      <c r="C526" s="35"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
@@ -19647,9 +19641,9 @@
       <c r="Z526" s="2"/>
     </row>
     <row r="527" spans="1:26" ht="15">
-      <c r="A527" s="16"/>
-      <c r="B527" s="17"/>
-      <c r="C527" s="36"/>
+      <c r="A527" s="15"/>
+      <c r="B527" s="16"/>
+      <c r="C527" s="35"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
@@ -19675,9 +19669,9 @@
       <c r="Z527" s="2"/>
     </row>
     <row r="528" spans="1:26" ht="15">
-      <c r="A528" s="16"/>
-      <c r="B528" s="17"/>
-      <c r="C528" s="36"/>
+      <c r="A528" s="15"/>
+      <c r="B528" s="16"/>
+      <c r="C528" s="35"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
@@ -19703,9 +19697,9 @@
       <c r="Z528" s="2"/>
     </row>
     <row r="529" spans="1:26" ht="15">
-      <c r="A529" s="16"/>
-      <c r="B529" s="17"/>
-      <c r="C529" s="36"/>
+      <c r="A529" s="15"/>
+      <c r="B529" s="16"/>
+      <c r="C529" s="35"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
@@ -19731,9 +19725,9 @@
       <c r="Z529" s="2"/>
     </row>
     <row r="530" spans="1:26" ht="15">
-      <c r="A530" s="16"/>
-      <c r="B530" s="17"/>
-      <c r="C530" s="36"/>
+      <c r="A530" s="15"/>
+      <c r="B530" s="16"/>
+      <c r="C530" s="35"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
@@ -19759,9 +19753,9 @@
       <c r="Z530" s="2"/>
     </row>
     <row r="531" spans="1:26" ht="15">
-      <c r="A531" s="16"/>
-      <c r="B531" s="17"/>
-      <c r="C531" s="36"/>
+      <c r="A531" s="15"/>
+      <c r="B531" s="16"/>
+      <c r="C531" s="35"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
@@ -19787,9 +19781,9 @@
       <c r="Z531" s="2"/>
     </row>
     <row r="532" spans="1:26" ht="15">
-      <c r="A532" s="16"/>
-      <c r="B532" s="17"/>
-      <c r="C532" s="36"/>
+      <c r="A532" s="15"/>
+      <c r="B532" s="16"/>
+      <c r="C532" s="35"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
@@ -19815,9 +19809,9 @@
       <c r="Z532" s="2"/>
     </row>
     <row r="533" spans="1:26" ht="15">
-      <c r="A533" s="16"/>
-      <c r="B533" s="17"/>
-      <c r="C533" s="36"/>
+      <c r="A533" s="15"/>
+      <c r="B533" s="16"/>
+      <c r="C533" s="35"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
@@ -19843,9 +19837,9 @@
       <c r="Z533" s="2"/>
     </row>
     <row r="534" spans="1:26" ht="15">
-      <c r="A534" s="16"/>
-      <c r="B534" s="17"/>
-      <c r="C534" s="36"/>
+      <c r="A534" s="15"/>
+      <c r="B534" s="16"/>
+      <c r="C534" s="35"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
@@ -19871,9 +19865,9 @@
       <c r="Z534" s="2"/>
     </row>
     <row r="535" spans="1:26" ht="15">
-      <c r="A535" s="16"/>
-      <c r="B535" s="17"/>
-      <c r="C535" s="36"/>
+      <c r="A535" s="15"/>
+      <c r="B535" s="16"/>
+      <c r="C535" s="35"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
@@ -19899,9 +19893,9 @@
       <c r="Z535" s="2"/>
     </row>
     <row r="536" spans="1:26" ht="15">
-      <c r="A536" s="16"/>
-      <c r="B536" s="17"/>
-      <c r="C536" s="36"/>
+      <c r="A536" s="15"/>
+      <c r="B536" s="16"/>
+      <c r="C536" s="35"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
@@ -19927,9 +19921,9 @@
       <c r="Z536" s="2"/>
     </row>
     <row r="537" spans="1:26" ht="15">
-      <c r="A537" s="16"/>
-      <c r="B537" s="17"/>
-      <c r="C537" s="36"/>
+      <c r="A537" s="15"/>
+      <c r="B537" s="16"/>
+      <c r="C537" s="35"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
@@ -19955,9 +19949,9 @@
       <c r="Z537" s="2"/>
     </row>
     <row r="538" spans="1:26" ht="15">
-      <c r="A538" s="16"/>
-      <c r="B538" s="17"/>
-      <c r="C538" s="36"/>
+      <c r="A538" s="15"/>
+      <c r="B538" s="16"/>
+      <c r="C538" s="35"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
@@ -19983,9 +19977,9 @@
       <c r="Z538" s="2"/>
     </row>
     <row r="539" spans="1:26" ht="15">
-      <c r="A539" s="16"/>
-      <c r="B539" s="17"/>
-      <c r="C539" s="36"/>
+      <c r="A539" s="15"/>
+      <c r="B539" s="16"/>
+      <c r="C539" s="35"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
@@ -20011,9 +20005,9 @@
       <c r="Z539" s="2"/>
     </row>
     <row r="540" spans="1:26" ht="15">
-      <c r="A540" s="16"/>
-      <c r="B540" s="17"/>
-      <c r="C540" s="36"/>
+      <c r="A540" s="15"/>
+      <c r="B540" s="16"/>
+      <c r="C540" s="35"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
@@ -20039,9 +20033,9 @@
       <c r="Z540" s="2"/>
     </row>
     <row r="541" spans="1:26" ht="15">
-      <c r="A541" s="16"/>
-      <c r="B541" s="17"/>
-      <c r="C541" s="36"/>
+      <c r="A541" s="15"/>
+      <c r="B541" s="16"/>
+      <c r="C541" s="35"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
@@ -20067,9 +20061,9 @@
       <c r="Z541" s="2"/>
     </row>
     <row r="542" spans="1:26" ht="15">
-      <c r="A542" s="16"/>
-      <c r="B542" s="17"/>
-      <c r="C542" s="36"/>
+      <c r="A542" s="15"/>
+      <c r="B542" s="16"/>
+      <c r="C542" s="35"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
@@ -20095,9 +20089,9 @@
       <c r="Z542" s="2"/>
     </row>
     <row r="543" spans="1:26" ht="15">
-      <c r="A543" s="16"/>
-      <c r="B543" s="17"/>
-      <c r="C543" s="36"/>
+      <c r="A543" s="15"/>
+      <c r="B543" s="16"/>
+      <c r="C543" s="35"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
@@ -20123,9 +20117,9 @@
       <c r="Z543" s="2"/>
     </row>
     <row r="544" spans="1:26" ht="15">
-      <c r="A544" s="16"/>
-      <c r="B544" s="17"/>
-      <c r="C544" s="36"/>
+      <c r="A544" s="15"/>
+      <c r="B544" s="16"/>
+      <c r="C544" s="35"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
@@ -20151,9 +20145,9 @@
       <c r="Z544" s="2"/>
     </row>
     <row r="545" spans="1:26" ht="15">
-      <c r="A545" s="16"/>
-      <c r="B545" s="17"/>
-      <c r="C545" s="36"/>
+      <c r="A545" s="15"/>
+      <c r="B545" s="16"/>
+      <c r="C545" s="35"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
@@ -20179,9 +20173,9 @@
       <c r="Z545" s="2"/>
     </row>
     <row r="546" spans="1:26" ht="15">
-      <c r="A546" s="16"/>
-      <c r="B546" s="17"/>
-      <c r="C546" s="36"/>
+      <c r="A546" s="15"/>
+      <c r="B546" s="16"/>
+      <c r="C546" s="35"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
@@ -20207,9 +20201,9 @@
       <c r="Z546" s="2"/>
     </row>
     <row r="547" spans="1:26" ht="15">
-      <c r="A547" s="16"/>
-      <c r="B547" s="17"/>
-      <c r="C547" s="36"/>
+      <c r="A547" s="15"/>
+      <c r="B547" s="16"/>
+      <c r="C547" s="35"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
@@ -20235,9 +20229,9 @@
       <c r="Z547" s="2"/>
     </row>
     <row r="548" spans="1:26" ht="15">
-      <c r="A548" s="16"/>
-      <c r="B548" s="17"/>
-      <c r="C548" s="36"/>
+      <c r="A548" s="15"/>
+      <c r="B548" s="16"/>
+      <c r="C548" s="35"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
@@ -20263,9 +20257,9 @@
       <c r="Z548" s="2"/>
     </row>
     <row r="549" spans="1:26" ht="15">
-      <c r="A549" s="16"/>
-      <c r="B549" s="17"/>
-      <c r="C549" s="36"/>
+      <c r="A549" s="15"/>
+      <c r="B549" s="16"/>
+      <c r="C549" s="35"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
@@ -20291,9 +20285,9 @@
       <c r="Z549" s="2"/>
     </row>
     <row r="550" spans="1:26" ht="15">
-      <c r="A550" s="16"/>
-      <c r="B550" s="17"/>
-      <c r="C550" s="36"/>
+      <c r="A550" s="15"/>
+      <c r="B550" s="16"/>
+      <c r="C550" s="35"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
@@ -20319,9 +20313,9 @@
       <c r="Z550" s="2"/>
     </row>
     <row r="551" spans="1:26" ht="15">
-      <c r="A551" s="16"/>
-      <c r="B551" s="17"/>
-      <c r="C551" s="36"/>
+      <c r="A551" s="15"/>
+      <c r="B551" s="16"/>
+      <c r="C551" s="35"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
@@ -20347,9 +20341,9 @@
       <c r="Z551" s="2"/>
     </row>
     <row r="552" spans="1:26" ht="15">
-      <c r="A552" s="16"/>
-      <c r="B552" s="17"/>
-      <c r="C552" s="36"/>
+      <c r="A552" s="15"/>
+      <c r="B552" s="16"/>
+      <c r="C552" s="35"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
@@ -20375,9 +20369,9 @@
       <c r="Z552" s="2"/>
     </row>
     <row r="553" spans="1:26" ht="15">
-      <c r="A553" s="16"/>
-      <c r="B553" s="17"/>
-      <c r="C553" s="36"/>
+      <c r="A553" s="15"/>
+      <c r="B553" s="16"/>
+      <c r="C553" s="35"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
@@ -20403,9 +20397,9 @@
       <c r="Z553" s="2"/>
     </row>
     <row r="554" spans="1:26" ht="15">
-      <c r="A554" s="16"/>
-      <c r="B554" s="17"/>
-      <c r="C554" s="36"/>
+      <c r="A554" s="15"/>
+      <c r="B554" s="16"/>
+      <c r="C554" s="35"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
@@ -20431,9 +20425,9 @@
       <c r="Z554" s="2"/>
     </row>
     <row r="555" spans="1:26" ht="15">
-      <c r="A555" s="16"/>
-      <c r="B555" s="17"/>
-      <c r="C555" s="36"/>
+      <c r="A555" s="15"/>
+      <c r="B555" s="16"/>
+      <c r="C555" s="35"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
@@ -20459,9 +20453,9 @@
       <c r="Z555" s="2"/>
     </row>
     <row r="556" spans="1:26" ht="15">
-      <c r="A556" s="16"/>
-      <c r="B556" s="17"/>
-      <c r="C556" s="36"/>
+      <c r="A556" s="15"/>
+      <c r="B556" s="16"/>
+      <c r="C556" s="35"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
@@ -20487,9 +20481,9 @@
       <c r="Z556" s="2"/>
     </row>
     <row r="557" spans="1:26" ht="15">
-      <c r="A557" s="16"/>
-      <c r="B557" s="17"/>
-      <c r="C557" s="36"/>
+      <c r="A557" s="15"/>
+      <c r="B557" s="16"/>
+      <c r="C557" s="35"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
@@ -20515,9 +20509,9 @@
       <c r="Z557" s="2"/>
     </row>
     <row r="558" spans="1:26" ht="15">
-      <c r="A558" s="16"/>
-      <c r="B558" s="17"/>
-      <c r="C558" s="36"/>
+      <c r="A558" s="15"/>
+      <c r="B558" s="16"/>
+      <c r="C558" s="35"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
@@ -20543,9 +20537,9 @@
       <c r="Z558" s="2"/>
     </row>
     <row r="559" spans="1:26" ht="15">
-      <c r="A559" s="16"/>
-      <c r="B559" s="17"/>
-      <c r="C559" s="36"/>
+      <c r="A559" s="15"/>
+      <c r="B559" s="16"/>
+      <c r="C559" s="35"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
@@ -20571,9 +20565,9 @@
       <c r="Z559" s="2"/>
     </row>
     <row r="560" spans="1:26" ht="15">
-      <c r="A560" s="16"/>
-      <c r="B560" s="17"/>
-      <c r="C560" s="36"/>
+      <c r="A560" s="15"/>
+      <c r="B560" s="16"/>
+      <c r="C560" s="35"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
@@ -20599,9 +20593,9 @@
       <c r="Z560" s="2"/>
     </row>
     <row r="561" spans="1:26" ht="15">
-      <c r="A561" s="16"/>
-      <c r="B561" s="17"/>
-      <c r="C561" s="36"/>
+      <c r="A561" s="15"/>
+      <c r="B561" s="16"/>
+      <c r="C561" s="35"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
@@ -20627,9 +20621,9 @@
       <c r="Z561" s="2"/>
     </row>
     <row r="562" spans="1:26" ht="15">
-      <c r="A562" s="16"/>
-      <c r="B562" s="17"/>
-      <c r="C562" s="36"/>
+      <c r="A562" s="15"/>
+      <c r="B562" s="16"/>
+      <c r="C562" s="35"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
@@ -20655,9 +20649,9 @@
       <c r="Z562" s="2"/>
     </row>
     <row r="563" spans="1:26" ht="15">
-      <c r="A563" s="16"/>
-      <c r="B563" s="17"/>
-      <c r="C563" s="36"/>
+      <c r="A563" s="15"/>
+      <c r="B563" s="16"/>
+      <c r="C563" s="35"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
@@ -20683,9 +20677,9 @@
       <c r="Z563" s="2"/>
     </row>
     <row r="564" spans="1:26" ht="15">
-      <c r="A564" s="16"/>
-      <c r="B564" s="17"/>
-      <c r="C564" s="36"/>
+      <c r="A564" s="15"/>
+      <c r="B564" s="16"/>
+      <c r="C564" s="35"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
@@ -20711,9 +20705,9 @@
       <c r="Z564" s="2"/>
     </row>
     <row r="565" spans="1:26" ht="15">
-      <c r="A565" s="16"/>
-      <c r="B565" s="17"/>
-      <c r="C565" s="36"/>
+      <c r="A565" s="15"/>
+      <c r="B565" s="16"/>
+      <c r="C565" s="35"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
@@ -20739,9 +20733,9 @@
       <c r="Z565" s="2"/>
     </row>
     <row r="566" spans="1:26" ht="15">
-      <c r="A566" s="16"/>
-      <c r="B566" s="17"/>
-      <c r="C566" s="36"/>
+      <c r="A566" s="15"/>
+      <c r="B566" s="16"/>
+      <c r="C566" s="35"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
@@ -20767,9 +20761,9 @@
       <c r="Z566" s="2"/>
     </row>
     <row r="567" spans="1:26" ht="15">
-      <c r="A567" s="16"/>
-      <c r="B567" s="17"/>
-      <c r="C567" s="36"/>
+      <c r="A567" s="15"/>
+      <c r="B567" s="16"/>
+      <c r="C567" s="35"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
@@ -20795,9 +20789,9 @@
       <c r="Z567" s="2"/>
     </row>
     <row r="568" spans="1:26" ht="15">
-      <c r="A568" s="16"/>
-      <c r="B568" s="17"/>
-      <c r="C568" s="36"/>
+      <c r="A568" s="15"/>
+      <c r="B568" s="16"/>
+      <c r="C568" s="35"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
@@ -20823,9 +20817,9 @@
       <c r="Z568" s="2"/>
     </row>
     <row r="569" spans="1:26" ht="15">
-      <c r="A569" s="16"/>
-      <c r="B569" s="17"/>
-      <c r="C569" s="36"/>
+      <c r="A569" s="15"/>
+      <c r="B569" s="16"/>
+      <c r="C569" s="35"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
@@ -20851,9 +20845,9 @@
       <c r="Z569" s="2"/>
     </row>
     <row r="570" spans="1:26" ht="15">
-      <c r="A570" s="16"/>
-      <c r="B570" s="17"/>
-      <c r="C570" s="36"/>
+      <c r="A570" s="15"/>
+      <c r="B570" s="16"/>
+      <c r="C570" s="35"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
@@ -20879,9 +20873,9 @@
       <c r="Z570" s="2"/>
     </row>
     <row r="571" spans="1:26" ht="15">
-      <c r="A571" s="16"/>
-      <c r="B571" s="17"/>
-      <c r="C571" s="36"/>
+      <c r="A571" s="15"/>
+      <c r="B571" s="16"/>
+      <c r="C571" s="35"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
@@ -20907,9 +20901,9 @@
       <c r="Z571" s="2"/>
     </row>
     <row r="572" spans="1:26" ht="15">
-      <c r="A572" s="16"/>
-      <c r="B572" s="17"/>
-      <c r="C572" s="36"/>
+      <c r="A572" s="15"/>
+      <c r="B572" s="16"/>
+      <c r="C572" s="35"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
@@ -20935,9 +20929,9 @@
       <c r="Z572" s="2"/>
     </row>
     <row r="573" spans="1:26" ht="15">
-      <c r="A573" s="16"/>
-      <c r="B573" s="17"/>
-      <c r="C573" s="36"/>
+      <c r="A573" s="15"/>
+      <c r="B573" s="16"/>
+      <c r="C573" s="35"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
@@ -20963,9 +20957,9 @@
       <c r="Z573" s="2"/>
     </row>
     <row r="574" spans="1:26" ht="15">
-      <c r="A574" s="16"/>
-      <c r="B574" s="17"/>
-      <c r="C574" s="36"/>
+      <c r="A574" s="15"/>
+      <c r="B574" s="16"/>
+      <c r="C574" s="35"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
@@ -20991,9 +20985,9 @@
       <c r="Z574" s="2"/>
     </row>
     <row r="575" spans="1:26" ht="15">
-      <c r="A575" s="16"/>
-      <c r="B575" s="17"/>
-      <c r="C575" s="36"/>
+      <c r="A575" s="15"/>
+      <c r="B575" s="16"/>
+      <c r="C575" s="35"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
@@ -21019,9 +21013,9 @@
       <c r="Z575" s="2"/>
     </row>
     <row r="576" spans="1:26" ht="15">
-      <c r="A576" s="16"/>
-      <c r="B576" s="17"/>
-      <c r="C576" s="36"/>
+      <c r="A576" s="15"/>
+      <c r="B576" s="16"/>
+      <c r="C576" s="35"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
@@ -21047,9 +21041,9 @@
       <c r="Z576" s="2"/>
     </row>
     <row r="577" spans="1:26" ht="15">
-      <c r="A577" s="16"/>
-      <c r="B577" s="17"/>
-      <c r="C577" s="36"/>
+      <c r="A577" s="15"/>
+      <c r="B577" s="16"/>
+      <c r="C577" s="35"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
@@ -21075,9 +21069,9 @@
       <c r="Z577" s="2"/>
     </row>
     <row r="578" spans="1:26" ht="15">
-      <c r="A578" s="16"/>
-      <c r="B578" s="17"/>
-      <c r="C578" s="36"/>
+      <c r="A578" s="15"/>
+      <c r="B578" s="16"/>
+      <c r="C578" s="35"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
@@ -21103,9 +21097,9 @@
       <c r="Z578" s="2"/>
     </row>
     <row r="579" spans="1:26" ht="15">
-      <c r="A579" s="16"/>
-      <c r="B579" s="17"/>
-      <c r="C579" s="36"/>
+      <c r="A579" s="15"/>
+      <c r="B579" s="16"/>
+      <c r="C579" s="35"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
@@ -21131,9 +21125,9 @@
       <c r="Z579" s="2"/>
     </row>
     <row r="580" spans="1:26" ht="15">
-      <c r="A580" s="16"/>
-      <c r="B580" s="17"/>
-      <c r="C580" s="36"/>
+      <c r="A580" s="15"/>
+      <c r="B580" s="16"/>
+      <c r="C580" s="35"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
@@ -21159,9 +21153,9 @@
       <c r="Z580" s="2"/>
     </row>
     <row r="581" spans="1:26" ht="15">
-      <c r="A581" s="16"/>
-      <c r="B581" s="17"/>
-      <c r="C581" s="36"/>
+      <c r="A581" s="15"/>
+      <c r="B581" s="16"/>
+      <c r="C581" s="35"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
@@ -21187,9 +21181,9 @@
       <c r="Z581" s="2"/>
     </row>
     <row r="582" spans="1:26" ht="15">
-      <c r="A582" s="16"/>
-      <c r="B582" s="17"/>
-      <c r="C582" s="36"/>
+      <c r="A582" s="15"/>
+      <c r="B582" s="16"/>
+      <c r="C582" s="35"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
@@ -21215,9 +21209,9 @@
       <c r="Z582" s="2"/>
     </row>
     <row r="583" spans="1:26" ht="15">
-      <c r="A583" s="16"/>
-      <c r="B583" s="17"/>
-      <c r="C583" s="36"/>
+      <c r="A583" s="15"/>
+      <c r="B583" s="16"/>
+      <c r="C583" s="35"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
@@ -21243,9 +21237,9 @@
       <c r="Z583" s="2"/>
     </row>
     <row r="584" spans="1:26" ht="15">
-      <c r="A584" s="16"/>
-      <c r="B584" s="17"/>
-      <c r="C584" s="36"/>
+      <c r="A584" s="15"/>
+      <c r="B584" s="16"/>
+      <c r="C584" s="35"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
@@ -21271,9 +21265,9 @@
       <c r="Z584" s="2"/>
     </row>
     <row r="585" spans="1:26" ht="15">
-      <c r="A585" s="16"/>
-      <c r="B585" s="17"/>
-      <c r="C585" s="36"/>
+      <c r="A585" s="15"/>
+      <c r="B585" s="16"/>
+      <c r="C585" s="35"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
@@ -21299,9 +21293,9 @@
       <c r="Z585" s="2"/>
     </row>
     <row r="586" spans="1:26" ht="15">
-      <c r="A586" s="16"/>
-      <c r="B586" s="17"/>
-      <c r="C586" s="36"/>
+      <c r="A586" s="15"/>
+      <c r="B586" s="16"/>
+      <c r="C586" s="35"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
@@ -21327,9 +21321,9 @@
       <c r="Z586" s="2"/>
     </row>
     <row r="587" spans="1:26" ht="15">
-      <c r="A587" s="16"/>
-      <c r="B587" s="17"/>
-      <c r="C587" s="36"/>
+      <c r="A587" s="15"/>
+      <c r="B587" s="16"/>
+      <c r="C587" s="35"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
@@ -21355,9 +21349,9 @@
       <c r="Z587" s="2"/>
     </row>
     <row r="588" spans="1:26" ht="15">
-      <c r="A588" s="16"/>
-      <c r="B588" s="17"/>
-      <c r="C588" s="36"/>
+      <c r="A588" s="15"/>
+      <c r="B588" s="16"/>
+      <c r="C588" s="35"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
@@ -21383,9 +21377,9 @@
       <c r="Z588" s="2"/>
     </row>
     <row r="589" spans="1:26" ht="15">
-      <c r="A589" s="16"/>
-      <c r="B589" s="17"/>
-      <c r="C589" s="36"/>
+      <c r="A589" s="15"/>
+      <c r="B589" s="16"/>
+      <c r="C589" s="35"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
@@ -21411,9 +21405,9 @@
       <c r="Z589" s="2"/>
     </row>
     <row r="590" spans="1:26" ht="15">
-      <c r="A590" s="16"/>
-      <c r="B590" s="17"/>
-      <c r="C590" s="36"/>
+      <c r="A590" s="15"/>
+      <c r="B590" s="16"/>
+      <c r="C590" s="35"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
@@ -21439,9 +21433,9 @@
       <c r="Z590" s="2"/>
     </row>
     <row r="591" spans="1:26" ht="15">
-      <c r="A591" s="16"/>
-      <c r="B591" s="17"/>
-      <c r="C591" s="36"/>
+      <c r="A591" s="15"/>
+      <c r="B591" s="16"/>
+      <c r="C591" s="35"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
@@ -21467,9 +21461,9 @@
       <c r="Z591" s="2"/>
     </row>
     <row r="592" spans="1:26" ht="15">
-      <c r="A592" s="16"/>
-      <c r="B592" s="17"/>
-      <c r="C592" s="36"/>
+      <c r="A592" s="15"/>
+      <c r="B592" s="16"/>
+      <c r="C592" s="35"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
@@ -21495,9 +21489,9 @@
       <c r="Z592" s="2"/>
     </row>
     <row r="593" spans="1:26" ht="15">
-      <c r="A593" s="16"/>
-      <c r="B593" s="17"/>
-      <c r="C593" s="36"/>
+      <c r="A593" s="15"/>
+      <c r="B593" s="16"/>
+      <c r="C593" s="35"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
@@ -21523,9 +21517,9 @@
       <c r="Z593" s="2"/>
     </row>
     <row r="594" spans="1:26" ht="15">
-      <c r="A594" s="16"/>
-      <c r="B594" s="17"/>
-      <c r="C594" s="36"/>
+      <c r="A594" s="15"/>
+      <c r="B594" s="16"/>
+      <c r="C594" s="35"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
@@ -21551,9 +21545,9 @@
       <c r="Z594" s="2"/>
     </row>
     <row r="595" spans="1:26" ht="15">
-      <c r="A595" s="16"/>
-      <c r="B595" s="17"/>
-      <c r="C595" s="36"/>
+      <c r="A595" s="15"/>
+      <c r="B595" s="16"/>
+      <c r="C595" s="35"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
@@ -21579,9 +21573,9 @@
       <c r="Z595" s="2"/>
     </row>
     <row r="596" spans="1:26" ht="15">
-      <c r="A596" s="16"/>
-      <c r="B596" s="17"/>
-      <c r="C596" s="36"/>
+      <c r="A596" s="15"/>
+      <c r="B596" s="16"/>
+      <c r="C596" s="35"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
@@ -21607,9 +21601,9 @@
       <c r="Z596" s="2"/>
     </row>
     <row r="597" spans="1:26" ht="15">
-      <c r="A597" s="16"/>
-      <c r="B597" s="17"/>
-      <c r="C597" s="36"/>
+      <c r="A597" s="15"/>
+      <c r="B597" s="16"/>
+      <c r="C597" s="35"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -21635,9 +21629,9 @@
       <c r="Z597" s="2"/>
     </row>
     <row r="598" spans="1:26" ht="15">
-      <c r="A598" s="16"/>
-      <c r="B598" s="17"/>
-      <c r="C598" s="36"/>
+      <c r="A598" s="15"/>
+      <c r="B598" s="16"/>
+      <c r="C598" s="35"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
@@ -21663,9 +21657,9 @@
       <c r="Z598" s="2"/>
     </row>
     <row r="599" spans="1:26" ht="15">
-      <c r="A599" s="16"/>
-      <c r="B599" s="17"/>
-      <c r="C599" s="36"/>
+      <c r="A599" s="15"/>
+      <c r="B599" s="16"/>
+      <c r="C599" s="35"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
@@ -21691,9 +21685,9 @@
       <c r="Z599" s="2"/>
     </row>
     <row r="600" spans="1:26" ht="15">
-      <c r="A600" s="16"/>
-      <c r="B600" s="17"/>
-      <c r="C600" s="36"/>
+      <c r="A600" s="15"/>
+      <c r="B600" s="16"/>
+      <c r="C600" s="35"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
@@ -21719,9 +21713,9 @@
       <c r="Z600" s="2"/>
     </row>
     <row r="601" spans="1:26" ht="15">
-      <c r="A601" s="16"/>
-      <c r="B601" s="17"/>
-      <c r="C601" s="36"/>
+      <c r="A601" s="15"/>
+      <c r="B601" s="16"/>
+      <c r="C601" s="35"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
@@ -21747,9 +21741,9 @@
       <c r="Z601" s="2"/>
     </row>
     <row r="602" spans="1:26" ht="15">
-      <c r="A602" s="16"/>
-      <c r="B602" s="17"/>
-      <c r="C602" s="36"/>
+      <c r="A602" s="15"/>
+      <c r="B602" s="16"/>
+      <c r="C602" s="35"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
@@ -21775,9 +21769,9 @@
       <c r="Z602" s="2"/>
     </row>
     <row r="603" spans="1:26" ht="15">
-      <c r="A603" s="16"/>
-      <c r="B603" s="17"/>
-      <c r="C603" s="36"/>
+      <c r="A603" s="15"/>
+      <c r="B603" s="16"/>
+      <c r="C603" s="35"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
@@ -21803,9 +21797,9 @@
       <c r="Z603" s="2"/>
     </row>
     <row r="604" spans="1:26" ht="15">
-      <c r="A604" s="16"/>
-      <c r="B604" s="17"/>
-      <c r="C604" s="36"/>
+      <c r="A604" s="15"/>
+      <c r="B604" s="16"/>
+      <c r="C604" s="35"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
@@ -21831,9 +21825,9 @@
       <c r="Z604" s="2"/>
     </row>
     <row r="605" spans="1:26" ht="15">
-      <c r="A605" s="16"/>
-      <c r="B605" s="17"/>
-      <c r="C605" s="36"/>
+      <c r="A605" s="15"/>
+      <c r="B605" s="16"/>
+      <c r="C605" s="35"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
@@ -21859,9 +21853,9 @@
       <c r="Z605" s="2"/>
     </row>
     <row r="606" spans="1:26" ht="15">
-      <c r="A606" s="16"/>
-      <c r="B606" s="17"/>
-      <c r="C606" s="36"/>
+      <c r="A606" s="15"/>
+      <c r="B606" s="16"/>
+      <c r="C606" s="35"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
@@ -21887,9 +21881,9 @@
       <c r="Z606" s="2"/>
     </row>
     <row r="607" spans="1:26" ht="15">
-      <c r="A607" s="16"/>
-      <c r="B607" s="17"/>
-      <c r="C607" s="36"/>
+      <c r="A607" s="15"/>
+      <c r="B607" s="16"/>
+      <c r="C607" s="35"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
@@ -21915,9 +21909,9 @@
       <c r="Z607" s="2"/>
     </row>
     <row r="608" spans="1:26" ht="15">
-      <c r="A608" s="16"/>
-      <c r="B608" s="17"/>
-      <c r="C608" s="36"/>
+      <c r="A608" s="15"/>
+      <c r="B608" s="16"/>
+      <c r="C608" s="35"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
@@ -21943,9 +21937,9 @@
       <c r="Z608" s="2"/>
     </row>
     <row r="609" spans="1:26" ht="15">
-      <c r="A609" s="16"/>
-      <c r="B609" s="17"/>
-      <c r="C609" s="36"/>
+      <c r="A609" s="15"/>
+      <c r="B609" s="16"/>
+      <c r="C609" s="35"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
@@ -21971,9 +21965,9 @@
       <c r="Z609" s="2"/>
     </row>
     <row r="610" spans="1:26" ht="15">
-      <c r="A610" s="16"/>
-      <c r="B610" s="17"/>
-      <c r="C610" s="36"/>
+      <c r="A610" s="15"/>
+      <c r="B610" s="16"/>
+      <c r="C610" s="35"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
@@ -21999,9 +21993,9 @@
       <c r="Z610" s="2"/>
     </row>
     <row r="611" spans="1:26" ht="15">
-      <c r="A611" s="16"/>
-      <c r="B611" s="17"/>
-      <c r="C611" s="36"/>
+      <c r="A611" s="15"/>
+      <c r="B611" s="16"/>
+      <c r="C611" s="35"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
@@ -22027,9 +22021,9 @@
       <c r="Z611" s="2"/>
     </row>
     <row r="612" spans="1:26" ht="15">
-      <c r="A612" s="16"/>
-      <c r="B612" s="17"/>
-      <c r="C612" s="36"/>
+      <c r="A612" s="15"/>
+      <c r="B612" s="16"/>
+      <c r="C612" s="35"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
@@ -22055,9 +22049,9 @@
       <c r="Z612" s="2"/>
     </row>
     <row r="613" spans="1:26" ht="15">
-      <c r="A613" s="16"/>
-      <c r="B613" s="17"/>
-      <c r="C613" s="36"/>
+      <c r="A613" s="15"/>
+      <c r="B613" s="16"/>
+      <c r="C613" s="35"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
@@ -22083,9 +22077,9 @@
       <c r="Z613" s="2"/>
     </row>
     <row r="614" spans="1:26" ht="15">
-      <c r="A614" s="16"/>
-      <c r="B614" s="17"/>
-      <c r="C614" s="36"/>
+      <c r="A614" s="15"/>
+      <c r="B614" s="16"/>
+      <c r="C614" s="35"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
@@ -22111,9 +22105,9 @@
       <c r="Z614" s="2"/>
     </row>
     <row r="615" spans="1:26" ht="15">
-      <c r="A615" s="16"/>
-      <c r="B615" s="17"/>
-      <c r="C615" s="36"/>
+      <c r="A615" s="15"/>
+      <c r="B615" s="16"/>
+      <c r="C615" s="35"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
@@ -22139,9 +22133,9 @@
       <c r="Z615" s="2"/>
     </row>
     <row r="616" spans="1:26" ht="15">
-      <c r="A616" s="16"/>
-      <c r="B616" s="17"/>
-      <c r="C616" s="36"/>
+      <c r="A616" s="15"/>
+      <c r="B616" s="16"/>
+      <c r="C616" s="35"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -22167,9 +22161,9 @@
       <c r="Z616" s="2"/>
     </row>
     <row r="617" spans="1:26" ht="15">
-      <c r="A617" s="16"/>
-      <c r="B617" s="17"/>
-      <c r="C617" s="36"/>
+      <c r="A617" s="15"/>
+      <c r="B617" s="16"/>
+      <c r="C617" s="35"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
@@ -22195,9 +22189,9 @@
       <c r="Z617" s="2"/>
     </row>
     <row r="618" spans="1:26" ht="15">
-      <c r="A618" s="16"/>
-      <c r="B618" s="17"/>
-      <c r="C618" s="36"/>
+      <c r="A618" s="15"/>
+      <c r="B618" s="16"/>
+      <c r="C618" s="35"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
@@ -22223,9 +22217,9 @@
       <c r="Z618" s="2"/>
     </row>
     <row r="619" spans="1:26" ht="15">
-      <c r="A619" s="16"/>
-      <c r="B619" s="17"/>
-      <c r="C619" s="36"/>
+      <c r="A619" s="15"/>
+      <c r="B619" s="16"/>
+      <c r="C619" s="35"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
@@ -22251,9 +22245,9 @@
       <c r="Z619" s="2"/>
     </row>
     <row r="620" spans="1:26" ht="15">
-      <c r="A620" s="16"/>
-      <c r="B620" s="17"/>
-      <c r="C620" s="36"/>
+      <c r="A620" s="15"/>
+      <c r="B620" s="16"/>
+      <c r="C620" s="35"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
@@ -22279,9 +22273,9 @@
       <c r="Z620" s="2"/>
     </row>
     <row r="621" spans="1:26" ht="15">
-      <c r="A621" s="16"/>
-      <c r="B621" s="17"/>
-      <c r="C621" s="36"/>
+      <c r="A621" s="15"/>
+      <c r="B621" s="16"/>
+      <c r="C621" s="35"/>
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
@@ -22307,9 +22301,9 @@
       <c r="Z621" s="2"/>
     </row>
     <row r="622" spans="1:26" ht="15">
-      <c r="A622" s="16"/>
-      <c r="B622" s="17"/>
-      <c r="C622" s="36"/>
+      <c r="A622" s="15"/>
+      <c r="B622" s="16"/>
+      <c r="C622" s="35"/>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
@@ -22335,9 +22329,9 @@
       <c r="Z622" s="2"/>
     </row>
     <row r="623" spans="1:26" ht="15">
-      <c r="A623" s="16"/>
-      <c r="B623" s="17"/>
-      <c r="C623" s="36"/>
+      <c r="A623" s="15"/>
+      <c r="B623" s="16"/>
+      <c r="C623" s="35"/>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
@@ -22363,9 +22357,9 @@
       <c r="Z623" s="2"/>
     </row>
     <row r="624" spans="1:26" ht="15">
-      <c r="A624" s="16"/>
-      <c r="B624" s="17"/>
-      <c r="C624" s="36"/>
+      <c r="A624" s="15"/>
+      <c r="B624" s="16"/>
+      <c r="C624" s="35"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
@@ -22391,9 +22385,9 @@
       <c r="Z624" s="2"/>
     </row>
     <row r="625" spans="1:26" ht="15">
-      <c r="A625" s="16"/>
-      <c r="B625" s="17"/>
-      <c r="C625" s="36"/>
+      <c r="A625" s="15"/>
+      <c r="B625" s="16"/>
+      <c r="C625" s="35"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
@@ -22419,9 +22413,9 @@
       <c r="Z625" s="2"/>
     </row>
     <row r="626" spans="1:26" ht="15">
-      <c r="A626" s="16"/>
-      <c r="B626" s="17"/>
-      <c r="C626" s="36"/>
+      <c r="A626" s="15"/>
+      <c r="B626" s="16"/>
+      <c r="C626" s="35"/>
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
@@ -22447,9 +22441,9 @@
       <c r="Z626" s="2"/>
     </row>
     <row r="627" spans="1:26" ht="15">
-      <c r="A627" s="16"/>
-      <c r="B627" s="17"/>
-      <c r="C627" s="36"/>
+      <c r="A627" s="15"/>
+      <c r="B627" s="16"/>
+      <c r="C627" s="35"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
@@ -22475,9 +22469,9 @@
       <c r="Z627" s="2"/>
     </row>
     <row r="628" spans="1:26" ht="15">
-      <c r="A628" s="16"/>
-      <c r="B628" s="17"/>
-      <c r="C628" s="36"/>
+      <c r="A628" s="15"/>
+      <c r="B628" s="16"/>
+      <c r="C628" s="35"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
@@ -22503,9 +22497,9 @@
       <c r="Z628" s="2"/>
     </row>
     <row r="629" spans="1:26" ht="15">
-      <c r="A629" s="16"/>
-      <c r="B629" s="17"/>
-      <c r="C629" s="36"/>
+      <c r="A629" s="15"/>
+      <c r="B629" s="16"/>
+      <c r="C629" s="35"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
@@ -22531,9 +22525,9 @@
       <c r="Z629" s="2"/>
     </row>
     <row r="630" spans="1:26" ht="15">
-      <c r="A630" s="16"/>
-      <c r="B630" s="17"/>
-      <c r="C630" s="36"/>
+      <c r="A630" s="15"/>
+      <c r="B630" s="16"/>
+      <c r="C630" s="35"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
@@ -22559,9 +22553,9 @@
       <c r="Z630" s="2"/>
     </row>
     <row r="631" spans="1:26" ht="15">
-      <c r="A631" s="16"/>
-      <c r="B631" s="17"/>
-      <c r="C631" s="36"/>
+      <c r="A631" s="15"/>
+      <c r="B631" s="16"/>
+      <c r="C631" s="35"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
@@ -22587,9 +22581,9 @@
       <c r="Z631" s="2"/>
     </row>
     <row r="632" spans="1:26" ht="15">
-      <c r="A632" s="16"/>
-      <c r="B632" s="17"/>
-      <c r="C632" s="36"/>
+      <c r="A632" s="15"/>
+      <c r="B632" s="16"/>
+      <c r="C632" s="35"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
@@ -22615,9 +22609,9 @@
       <c r="Z632" s="2"/>
     </row>
     <row r="633" spans="1:26" ht="15">
-      <c r="A633" s="16"/>
-      <c r="B633" s="17"/>
-      <c r="C633" s="36"/>
+      <c r="A633" s="15"/>
+      <c r="B633" s="16"/>
+      <c r="C633" s="35"/>
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
@@ -22643,9 +22637,9 @@
       <c r="Z633" s="2"/>
     </row>
     <row r="634" spans="1:26" ht="15">
-      <c r="A634" s="16"/>
-      <c r="B634" s="17"/>
-      <c r="C634" s="36"/>
+      <c r="A634" s="15"/>
+      <c r="B634" s="16"/>
+      <c r="C634" s="35"/>
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
@@ -22671,9 +22665,9 @@
       <c r="Z634" s="2"/>
     </row>
     <row r="635" spans="1:26" ht="15">
-      <c r="A635" s="16"/>
-      <c r="B635" s="17"/>
-      <c r="C635" s="36"/>
+      <c r="A635" s="15"/>
+      <c r="B635" s="16"/>
+      <c r="C635" s="35"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -22699,9 +22693,9 @@
       <c r="Z635" s="2"/>
     </row>
     <row r="636" spans="1:26" ht="15">
-      <c r="A636" s="16"/>
-      <c r="B636" s="17"/>
-      <c r="C636" s="36"/>
+      <c r="A636" s="15"/>
+      <c r="B636" s="16"/>
+      <c r="C636" s="35"/>
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
@@ -22727,9 +22721,9 @@
       <c r="Z636" s="2"/>
     </row>
     <row r="637" spans="1:26" ht="15">
-      <c r="A637" s="16"/>
-      <c r="B637" s="17"/>
-      <c r="C637" s="36"/>
+      <c r="A637" s="15"/>
+      <c r="B637" s="16"/>
+      <c r="C637" s="35"/>
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
@@ -22755,9 +22749,9 @@
       <c r="Z637" s="2"/>
     </row>
     <row r="638" spans="1:26" ht="15">
-      <c r="A638" s="16"/>
-      <c r="B638" s="17"/>
-      <c r="C638" s="36"/>
+      <c r="A638" s="15"/>
+      <c r="B638" s="16"/>
+      <c r="C638" s="35"/>
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
@@ -22783,9 +22777,9 @@
       <c r="Z638" s="2"/>
     </row>
     <row r="639" spans="1:26" ht="15">
-      <c r="A639" s="16"/>
-      <c r="B639" s="17"/>
-      <c r="C639" s="36"/>
+      <c r="A639" s="15"/>
+      <c r="B639" s="16"/>
+      <c r="C639" s="35"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
@@ -22811,9 +22805,9 @@
       <c r="Z639" s="2"/>
     </row>
     <row r="640" spans="1:26" ht="15">
-      <c r="A640" s="16"/>
-      <c r="B640" s="17"/>
-      <c r="C640" s="36"/>
+      <c r="A640" s="15"/>
+      <c r="B640" s="16"/>
+      <c r="C640" s="35"/>
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
@@ -22839,9 +22833,9 @@
       <c r="Z640" s="2"/>
     </row>
     <row r="641" spans="1:26" ht="15">
-      <c r="A641" s="16"/>
-      <c r="B641" s="17"/>
-      <c r="C641" s="36"/>
+      <c r="A641" s="15"/>
+      <c r="B641" s="16"/>
+      <c r="C641" s="35"/>
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
@@ -22867,9 +22861,9 @@
       <c r="Z641" s="2"/>
     </row>
     <row r="642" spans="1:26" ht="15">
-      <c r="A642" s="16"/>
-      <c r="B642" s="17"/>
-      <c r="C642" s="36"/>
+      <c r="A642" s="15"/>
+      <c r="B642" s="16"/>
+      <c r="C642" s="35"/>
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
@@ -22895,9 +22889,9 @@
       <c r="Z642" s="2"/>
     </row>
     <row r="643" spans="1:26" ht="15">
-      <c r="A643" s="16"/>
-      <c r="B643" s="17"/>
-      <c r="C643" s="36"/>
+      <c r="A643" s="15"/>
+      <c r="B643" s="16"/>
+      <c r="C643" s="35"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
@@ -22923,9 +22917,9 @@
       <c r="Z643" s="2"/>
     </row>
     <row r="644" spans="1:26" ht="15">
-      <c r="A644" s="16"/>
-      <c r="B644" s="17"/>
-      <c r="C644" s="36"/>
+      <c r="A644" s="15"/>
+      <c r="B644" s="16"/>
+      <c r="C644" s="35"/>
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
@@ -22951,9 +22945,9 @@
       <c r="Z644" s="2"/>
     </row>
     <row r="645" spans="1:26" ht="15">
-      <c r="A645" s="16"/>
-      <c r="B645" s="17"/>
-      <c r="C645" s="36"/>
+      <c r="A645" s="15"/>
+      <c r="B645" s="16"/>
+      <c r="C645" s="35"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
@@ -22979,9 +22973,9 @@
       <c r="Z645" s="2"/>
     </row>
     <row r="646" spans="1:26" ht="15">
-      <c r="A646" s="16"/>
-      <c r="B646" s="17"/>
-      <c r="C646" s="36"/>
+      <c r="A646" s="15"/>
+      <c r="B646" s="16"/>
+      <c r="C646" s="35"/>
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
@@ -23007,9 +23001,9 @@
       <c r="Z646" s="2"/>
     </row>
     <row r="647" spans="1:26" ht="15">
-      <c r="A647" s="16"/>
-      <c r="B647" s="17"/>
-      <c r="C647" s="36"/>
+      <c r="A647" s="15"/>
+      <c r="B647" s="16"/>
+      <c r="C647" s="35"/>
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
@@ -23035,9 +23029,9 @@
       <c r="Z647" s="2"/>
     </row>
     <row r="648" spans="1:26" ht="15">
-      <c r="A648" s="16"/>
-      <c r="B648" s="17"/>
-      <c r="C648" s="36"/>
+      <c r="A648" s="15"/>
+      <c r="B648" s="16"/>
+      <c r="C648" s="35"/>
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
@@ -23063,9 +23057,9 @@
       <c r="Z648" s="2"/>
     </row>
     <row r="649" spans="1:26" ht="15">
-      <c r="A649" s="16"/>
-      <c r="B649" s="17"/>
-      <c r="C649" s="36"/>
+      <c r="A649" s="15"/>
+      <c r="B649" s="16"/>
+      <c r="C649" s="35"/>
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
@@ -23091,9 +23085,9 @@
       <c r="Z649" s="2"/>
     </row>
     <row r="650" spans="1:26" ht="15">
-      <c r="A650" s="16"/>
-      <c r="B650" s="17"/>
-      <c r="C650" s="36"/>
+      <c r="A650" s="15"/>
+      <c r="B650" s="16"/>
+      <c r="C650" s="35"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
@@ -23119,9 +23113,9 @@
       <c r="Z650" s="2"/>
     </row>
     <row r="651" spans="1:26" ht="15">
-      <c r="A651" s="16"/>
-      <c r="B651" s="17"/>
-      <c r="C651" s="36"/>
+      <c r="A651" s="15"/>
+      <c r="B651" s="16"/>
+      <c r="C651" s="35"/>
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
@@ -23147,9 +23141,9 @@
       <c r="Z651" s="2"/>
     </row>
     <row r="652" spans="1:26" ht="15">
-      <c r="A652" s="16"/>
-      <c r="B652" s="17"/>
-      <c r="C652" s="36"/>
+      <c r="A652" s="15"/>
+      <c r="B652" s="16"/>
+      <c r="C652" s="35"/>
       <c r="D652" s="2"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
@@ -23175,9 +23169,9 @@
       <c r="Z652" s="2"/>
     </row>
     <row r="653" spans="1:26" ht="15">
-      <c r="A653" s="16"/>
-      <c r="B653" s="17"/>
-      <c r="C653" s="36"/>
+      <c r="A653" s="15"/>
+      <c r="B653" s="16"/>
+      <c r="C653" s="35"/>
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
@@ -23203,9 +23197,9 @@
       <c r="Z653" s="2"/>
     </row>
     <row r="654" spans="1:26" ht="15">
-      <c r="A654" s="16"/>
-      <c r="B654" s="17"/>
-      <c r="C654" s="36"/>
+      <c r="A654" s="15"/>
+      <c r="B654" s="16"/>
+      <c r="C654" s="35"/>
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
@@ -23231,9 +23225,9 @@
       <c r="Z654" s="2"/>
     </row>
     <row r="655" spans="1:26" ht="15">
-      <c r="A655" s="16"/>
-      <c r="B655" s="17"/>
-      <c r="C655" s="36"/>
+      <c r="A655" s="15"/>
+      <c r="B655" s="16"/>
+      <c r="C655" s="35"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -23259,9 +23253,9 @@
       <c r="Z655" s="2"/>
     </row>
     <row r="656" spans="1:26" ht="15">
-      <c r="A656" s="16"/>
-      <c r="B656" s="17"/>
-      <c r="C656" s="36"/>
+      <c r="A656" s="15"/>
+      <c r="B656" s="16"/>
+      <c r="C656" s="35"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
@@ -23287,9 +23281,9 @@
       <c r="Z656" s="2"/>
     </row>
     <row r="657" spans="1:26" ht="15">
-      <c r="A657" s="16"/>
-      <c r="B657" s="17"/>
-      <c r="C657" s="36"/>
+      <c r="A657" s="15"/>
+      <c r="B657" s="16"/>
+      <c r="C657" s="35"/>
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
@@ -23315,9 +23309,9 @@
       <c r="Z657" s="2"/>
     </row>
     <row r="658" spans="1:26" ht="15">
-      <c r="A658" s="16"/>
-      <c r="B658" s="17"/>
-      <c r="C658" s="36"/>
+      <c r="A658" s="15"/>
+      <c r="B658" s="16"/>
+      <c r="C658" s="35"/>
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
@@ -23343,9 +23337,9 @@
       <c r="Z658" s="2"/>
     </row>
     <row r="659" spans="1:26" ht="15">
-      <c r="A659" s="16"/>
-      <c r="B659" s="17"/>
-      <c r="C659" s="36"/>
+      <c r="A659" s="15"/>
+      <c r="B659" s="16"/>
+      <c r="C659" s="35"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
@@ -23371,9 +23365,9 @@
       <c r="Z659" s="2"/>
     </row>
     <row r="660" spans="1:26" ht="15">
-      <c r="A660" s="16"/>
-      <c r="B660" s="17"/>
-      <c r="C660" s="36"/>
+      <c r="A660" s="15"/>
+      <c r="B660" s="16"/>
+      <c r="C660" s="35"/>
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
@@ -23399,9 +23393,9 @@
       <c r="Z660" s="2"/>
     </row>
     <row r="661" spans="1:26" ht="15">
-      <c r="A661" s="16"/>
-      <c r="B661" s="17"/>
-      <c r="C661" s="36"/>
+      <c r="A661" s="15"/>
+      <c r="B661" s="16"/>
+      <c r="C661" s="35"/>
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
@@ -23427,9 +23421,9 @@
       <c r="Z661" s="2"/>
     </row>
     <row r="662" spans="1:26" ht="15">
-      <c r="A662" s="16"/>
-      <c r="B662" s="17"/>
-      <c r="C662" s="36"/>
+      <c r="A662" s="15"/>
+      <c r="B662" s="16"/>
+      <c r="C662" s="35"/>
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
@@ -23455,9 +23449,9 @@
       <c r="Z662" s="2"/>
     </row>
     <row r="663" spans="1:26" ht="15">
-      <c r="A663" s="16"/>
-      <c r="B663" s="17"/>
-      <c r="C663" s="36"/>
+      <c r="A663" s="15"/>
+      <c r="B663" s="16"/>
+      <c r="C663" s="35"/>
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
@@ -23483,9 +23477,9 @@
       <c r="Z663" s="2"/>
     </row>
     <row r="664" spans="1:26" ht="15">
-      <c r="A664" s="16"/>
-      <c r="B664" s="17"/>
-      <c r="C664" s="36"/>
+      <c r="A664" s="15"/>
+      <c r="B664" s="16"/>
+      <c r="C664" s="35"/>
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
@@ -23511,9 +23505,9 @@
       <c r="Z664" s="2"/>
     </row>
     <row r="665" spans="1:26" ht="15">
-      <c r="A665" s="16"/>
-      <c r="B665" s="17"/>
-      <c r="C665" s="36"/>
+      <c r="A665" s="15"/>
+      <c r="B665" s="16"/>
+      <c r="C665" s="35"/>
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
@@ -23539,9 +23533,9 @@
       <c r="Z665" s="2"/>
     </row>
     <row r="666" spans="1:26" ht="15">
-      <c r="A666" s="16"/>
-      <c r="B666" s="17"/>
-      <c r="C666" s="36"/>
+      <c r="A666" s="15"/>
+      <c r="B666" s="16"/>
+      <c r="C666" s="35"/>
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
@@ -23567,9 +23561,9 @@
       <c r="Z666" s="2"/>
     </row>
     <row r="667" spans="1:26" ht="15">
-      <c r="A667" s="16"/>
-      <c r="B667" s="17"/>
-      <c r="C667" s="36"/>
+      <c r="A667" s="15"/>
+      <c r="B667" s="16"/>
+      <c r="C667" s="35"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
@@ -23595,9 +23589,9 @@
       <c r="Z667" s="2"/>
     </row>
     <row r="668" spans="1:26" ht="15">
-      <c r="A668" s="16"/>
-      <c r="B668" s="17"/>
-      <c r="C668" s="36"/>
+      <c r="A668" s="15"/>
+      <c r="B668" s="16"/>
+      <c r="C668" s="35"/>
       <c r="D668" s="2"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
@@ -23623,9 +23617,9 @@
       <c r="Z668" s="2"/>
     </row>
     <row r="669" spans="1:26" ht="15">
-      <c r="A669" s="16"/>
-      <c r="B669" s="17"/>
-      <c r="C669" s="36"/>
+      <c r="A669" s="15"/>
+      <c r="B669" s="16"/>
+      <c r="C669" s="35"/>
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
@@ -23651,9 +23645,9 @@
       <c r="Z669" s="2"/>
     </row>
     <row r="670" spans="1:26" ht="15">
-      <c r="A670" s="16"/>
-      <c r="B670" s="17"/>
-      <c r="C670" s="36"/>
+      <c r="A670" s="15"/>
+      <c r="B670" s="16"/>
+      <c r="C670" s="35"/>
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
@@ -23679,9 +23673,9 @@
       <c r="Z670" s="2"/>
     </row>
     <row r="671" spans="1:26" ht="15">
-      <c r="A671" s="16"/>
-      <c r="B671" s="17"/>
-      <c r="C671" s="36"/>
+      <c r="A671" s="15"/>
+      <c r="B671" s="16"/>
+      <c r="C671" s="35"/>
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
@@ -23707,9 +23701,9 @@
       <c r="Z671" s="2"/>
     </row>
     <row r="672" spans="1:26" ht="15">
-      <c r="A672" s="16"/>
-      <c r="B672" s="17"/>
-      <c r="C672" s="36"/>
+      <c r="A672" s="15"/>
+      <c r="B672" s="16"/>
+      <c r="C672" s="35"/>
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
@@ -23735,9 +23729,9 @@
       <c r="Z672" s="2"/>
     </row>
     <row r="673" spans="1:26" ht="15">
-      <c r="A673" s="16"/>
-      <c r="B673" s="17"/>
-      <c r="C673" s="36"/>
+      <c r="A673" s="15"/>
+      <c r="B673" s="16"/>
+      <c r="C673" s="35"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -23763,9 +23757,9 @@
       <c r="Z673" s="2"/>
     </row>
     <row r="674" spans="1:26" ht="15">
-      <c r="A674" s="16"/>
-      <c r="B674" s="17"/>
-      <c r="C674" s="36"/>
+      <c r="A674" s="15"/>
+      <c r="B674" s="16"/>
+      <c r="C674" s="35"/>
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
@@ -23791,9 +23785,9 @@
       <c r="Z674" s="2"/>
     </row>
     <row r="675" spans="1:26" ht="15">
-      <c r="A675" s="16"/>
-      <c r="B675" s="17"/>
-      <c r="C675" s="36"/>
+      <c r="A675" s="15"/>
+      <c r="B675" s="16"/>
+      <c r="C675" s="35"/>
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
@@ -23819,9 +23813,9 @@
       <c r="Z675" s="2"/>
     </row>
     <row r="676" spans="1:26" ht="15">
-      <c r="A676" s="16"/>
-      <c r="B676" s="17"/>
-      <c r="C676" s="36"/>
+      <c r="A676" s="15"/>
+      <c r="B676" s="16"/>
+      <c r="C676" s="35"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
@@ -23847,9 +23841,9 @@
       <c r="Z676" s="2"/>
     </row>
     <row r="677" spans="1:26" ht="15">
-      <c r="A677" s="16"/>
-      <c r="B677" s="17"/>
-      <c r="C677" s="36"/>
+      <c r="A677" s="15"/>
+      <c r="B677" s="16"/>
+      <c r="C677" s="35"/>
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
@@ -23875,9 +23869,9 @@
       <c r="Z677" s="2"/>
     </row>
     <row r="678" spans="1:26" ht="15">
-      <c r="A678" s="16"/>
-      <c r="B678" s="17"/>
-      <c r="C678" s="36"/>
+      <c r="A678" s="15"/>
+      <c r="B678" s="16"/>
+      <c r="C678" s="35"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
@@ -23903,9 +23897,9 @@
       <c r="Z678" s="2"/>
     </row>
     <row r="679" spans="1:26" ht="15">
-      <c r="A679" s="16"/>
-      <c r="B679" s="17"/>
-      <c r="C679" s="36"/>
+      <c r="A679" s="15"/>
+      <c r="B679" s="16"/>
+      <c r="C679" s="35"/>
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
@@ -23931,9 +23925,9 @@
       <c r="Z679" s="2"/>
     </row>
     <row r="680" spans="1:26" ht="15">
-      <c r="A680" s="16"/>
-      <c r="B680" s="17"/>
-      <c r="C680" s="36"/>
+      <c r="A680" s="15"/>
+      <c r="B680" s="16"/>
+      <c r="C680" s="35"/>
       <c r="D680" s="2"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
@@ -23959,9 +23953,9 @@
       <c r="Z680" s="2"/>
     </row>
     <row r="681" spans="1:26" ht="15">
-      <c r="A681" s="16"/>
-      <c r="B681" s="17"/>
-      <c r="C681" s="36"/>
+      <c r="A681" s="15"/>
+      <c r="B681" s="16"/>
+      <c r="C681" s="35"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
@@ -23987,9 +23981,9 @@
       <c r="Z681" s="2"/>
     </row>
     <row r="682" spans="1:26" ht="15">
-      <c r="A682" s="16"/>
-      <c r="B682" s="17"/>
-      <c r="C682" s="36"/>
+      <c r="A682" s="15"/>
+      <c r="B682" s="16"/>
+      <c r="C682" s="35"/>
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
@@ -24015,9 +24009,9 @@
       <c r="Z682" s="2"/>
     </row>
     <row r="683" spans="1:26" ht="15">
-      <c r="A683" s="16"/>
-      <c r="B683" s="17"/>
-      <c r="C683" s="36"/>
+      <c r="A683" s="15"/>
+      <c r="B683" s="16"/>
+      <c r="C683" s="35"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
@@ -24043,9 +24037,9 @@
       <c r="Z683" s="2"/>
     </row>
     <row r="684" spans="1:26" ht="15">
-      <c r="A684" s="16"/>
-      <c r="B684" s="17"/>
-      <c r="C684" s="36"/>
+      <c r="A684" s="15"/>
+      <c r="B684" s="16"/>
+      <c r="C684" s="35"/>
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
@@ -24071,9 +24065,9 @@
       <c r="Z684" s="2"/>
     </row>
     <row r="685" spans="1:26" ht="15">
-      <c r="A685" s="16"/>
-      <c r="B685" s="17"/>
-      <c r="C685" s="36"/>
+      <c r="A685" s="15"/>
+      <c r="B685" s="16"/>
+      <c r="C685" s="35"/>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
@@ -24099,9 +24093,9 @@
       <c r="Z685" s="2"/>
     </row>
     <row r="686" spans="1:26" ht="15">
-      <c r="A686" s="16"/>
-      <c r="B686" s="17"/>
-      <c r="C686" s="36"/>
+      <c r="A686" s="15"/>
+      <c r="B686" s="16"/>
+      <c r="C686" s="35"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
@@ -24127,9 +24121,9 @@
       <c r="Z686" s="2"/>
     </row>
     <row r="687" spans="1:26" ht="15">
-      <c r="A687" s="16"/>
-      <c r="B687" s="17"/>
-      <c r="C687" s="36"/>
+      <c r="A687" s="15"/>
+      <c r="B687" s="16"/>
+      <c r="C687" s="35"/>
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
@@ -24155,9 +24149,9 @@
       <c r="Z687" s="2"/>
     </row>
     <row r="688" spans="1:26" ht="15">
-      <c r="A688" s="16"/>
-      <c r="B688" s="17"/>
-      <c r="C688" s="36"/>
+      <c r="A688" s="15"/>
+      <c r="B688" s="16"/>
+      <c r="C688" s="35"/>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
@@ -24183,9 +24177,9 @@
       <c r="Z688" s="2"/>
     </row>
     <row r="689" spans="1:26" ht="15">
-      <c r="A689" s="16"/>
-      <c r="B689" s="17"/>
-      <c r="C689" s="36"/>
+      <c r="A689" s="15"/>
+      <c r="B689" s="16"/>
+      <c r="C689" s="35"/>
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
@@ -24211,9 +24205,9 @@
       <c r="Z689" s="2"/>
     </row>
     <row r="690" spans="1:26" ht="15">
-      <c r="A690" s="16"/>
-      <c r="B690" s="17"/>
-      <c r="C690" s="36"/>
+      <c r="A690" s="15"/>
+      <c r="B690" s="16"/>
+      <c r="C690" s="35"/>
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
@@ -24239,9 +24233,9 @@
       <c r="Z690" s="2"/>
     </row>
     <row r="691" spans="1:26" ht="15">
-      <c r="A691" s="16"/>
-      <c r="B691" s="17"/>
-      <c r="C691" s="36"/>
+      <c r="A691" s="15"/>
+      <c r="B691" s="16"/>
+      <c r="C691" s="35"/>
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
@@ -24267,9 +24261,9 @@
       <c r="Z691" s="2"/>
     </row>
     <row r="692" spans="1:26" ht="15">
-      <c r="A692" s="16"/>
-      <c r="B692" s="17"/>
-      <c r="C692" s="36"/>
+      <c r="A692" s="15"/>
+      <c r="B692" s="16"/>
+      <c r="C692" s="35"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -24295,9 +24289,9 @@
       <c r="Z692" s="2"/>
     </row>
     <row r="693" spans="1:26" ht="15">
-      <c r="A693" s="16"/>
-      <c r="B693" s="17"/>
-      <c r="C693" s="36"/>
+      <c r="A693" s="15"/>
+      <c r="B693" s="16"/>
+      <c r="C693" s="35"/>
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
@@ -24323,9 +24317,9 @@
       <c r="Z693" s="2"/>
     </row>
     <row r="694" spans="1:26" ht="15">
-      <c r="A694" s="16"/>
-      <c r="B694" s="17"/>
-      <c r="C694" s="36"/>
+      <c r="A694" s="15"/>
+      <c r="B694" s="16"/>
+      <c r="C694" s="35"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
@@ -24351,9 +24345,9 @@
       <c r="Z694" s="2"/>
     </row>
     <row r="695" spans="1:26" ht="15">
-      <c r="A695" s="16"/>
-      <c r="B695" s="17"/>
-      <c r="C695" s="36"/>
+      <c r="A695" s="15"/>
+      <c r="B695" s="16"/>
+      <c r="C695" s="35"/>
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
@@ -24379,9 +24373,9 @@
       <c r="Z695" s="2"/>
     </row>
     <row r="696" spans="1:26" ht="15">
-      <c r="A696" s="16"/>
-      <c r="B696" s="17"/>
-      <c r="C696" s="36"/>
+      <c r="A696" s="15"/>
+      <c r="B696" s="16"/>
+      <c r="C696" s="35"/>
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
@@ -24407,9 +24401,9 @@
       <c r="Z696" s="2"/>
     </row>
     <row r="697" spans="1:26" ht="15">
-      <c r="A697" s="16"/>
-      <c r="B697" s="17"/>
-      <c r="C697" s="36"/>
+      <c r="A697" s="15"/>
+      <c r="B697" s="16"/>
+      <c r="C697" s="35"/>
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
@@ -24435,9 +24429,9 @@
       <c r="Z697" s="2"/>
     </row>
     <row r="698" spans="1:26" ht="15">
-      <c r="A698" s="16"/>
-      <c r="B698" s="17"/>
-      <c r="C698" s="36"/>
+      <c r="A698" s="15"/>
+      <c r="B698" s="16"/>
+      <c r="C698" s="35"/>
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
@@ -24463,9 +24457,9 @@
       <c r="Z698" s="2"/>
     </row>
     <row r="699" spans="1:26" ht="15">
-      <c r="A699" s="16"/>
-      <c r="B699" s="17"/>
-      <c r="C699" s="36"/>
+      <c r="A699" s="15"/>
+      <c r="B699" s="16"/>
+      <c r="C699" s="35"/>
       <c r="D699" s="2"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
@@ -24491,9 +24485,9 @@
       <c r="Z699" s="2"/>
     </row>
     <row r="700" spans="1:26" ht="15">
-      <c r="A700" s="16"/>
-      <c r="B700" s="17"/>
-      <c r="C700" s="36"/>
+      <c r="A700" s="15"/>
+      <c r="B700" s="16"/>
+      <c r="C700" s="35"/>
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
@@ -24519,9 +24513,9 @@
       <c r="Z700" s="2"/>
     </row>
     <row r="701" spans="1:26" ht="15">
-      <c r="A701" s="16"/>
-      <c r="B701" s="17"/>
-      <c r="C701" s="36"/>
+      <c r="A701" s="15"/>
+      <c r="B701" s="16"/>
+      <c r="C701" s="35"/>
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
@@ -24547,9 +24541,9 @@
       <c r="Z701" s="2"/>
     </row>
     <row r="702" spans="1:26" ht="15">
-      <c r="A702" s="16"/>
-      <c r="B702" s="17"/>
-      <c r="C702" s="36"/>
+      <c r="A702" s="15"/>
+      <c r="B702" s="16"/>
+      <c r="C702" s="35"/>
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
@@ -24575,9 +24569,9 @@
       <c r="Z702" s="2"/>
     </row>
     <row r="703" spans="1:26" ht="15">
-      <c r="A703" s="16"/>
-      <c r="B703" s="17"/>
-      <c r="C703" s="36"/>
+      <c r="A703" s="15"/>
+      <c r="B703" s="16"/>
+      <c r="C703" s="35"/>
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
@@ -24603,9 +24597,9 @@
       <c r="Z703" s="2"/>
     </row>
     <row r="704" spans="1:26" ht="15">
-      <c r="A704" s="16"/>
-      <c r="B704" s="17"/>
-      <c r="C704" s="36"/>
+      <c r="A704" s="15"/>
+      <c r="B704" s="16"/>
+      <c r="C704" s="35"/>
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
@@ -24631,9 +24625,9 @@
       <c r="Z704" s="2"/>
     </row>
     <row r="705" spans="1:26" ht="15">
-      <c r="A705" s="16"/>
-      <c r="B705" s="17"/>
-      <c r="C705" s="36"/>
+      <c r="A705" s="15"/>
+      <c r="B705" s="16"/>
+      <c r="C705" s="35"/>
       <c r="D705" s="2"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
@@ -24659,9 +24653,9 @@
       <c r="Z705" s="2"/>
     </row>
     <row r="706" spans="1:26" ht="15">
-      <c r="A706" s="16"/>
-      <c r="B706" s="17"/>
-      <c r="C706" s="36"/>
+      <c r="A706" s="15"/>
+      <c r="B706" s="16"/>
+      <c r="C706" s="35"/>
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
@@ -24687,9 +24681,9 @@
       <c r="Z706" s="2"/>
     </row>
     <row r="707" spans="1:26" ht="15">
-      <c r="A707" s="16"/>
-      <c r="B707" s="17"/>
-      <c r="C707" s="36"/>
+      <c r="A707" s="15"/>
+      <c r="B707" s="16"/>
+      <c r="C707" s="35"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
@@ -24715,9 +24709,9 @@
       <c r="Z707" s="2"/>
     </row>
     <row r="708" spans="1:26" ht="15">
-      <c r="A708" s="16"/>
-      <c r="B708" s="17"/>
-      <c r="C708" s="36"/>
+      <c r="A708" s="15"/>
+      <c r="B708" s="16"/>
+      <c r="C708" s="35"/>
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
@@ -24743,9 +24737,9 @@
       <c r="Z708" s="2"/>
     </row>
     <row r="709" spans="1:26" ht="15">
-      <c r="A709" s="16"/>
-      <c r="B709" s="17"/>
-      <c r="C709" s="36"/>
+      <c r="A709" s="15"/>
+      <c r="B709" s="16"/>
+      <c r="C709" s="35"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
@@ -24771,9 +24765,9 @@
       <c r="Z709" s="2"/>
     </row>
     <row r="710" spans="1:26" ht="15">
-      <c r="A710" s="16"/>
-      <c r="B710" s="17"/>
-      <c r="C710" s="36"/>
+      <c r="A710" s="15"/>
+      <c r="B710" s="16"/>
+      <c r="C710" s="35"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -24799,9 +24793,9 @@
       <c r="Z710" s="2"/>
     </row>
     <row r="711" spans="1:26" ht="15">
-      <c r="A711" s="16"/>
-      <c r="B711" s="17"/>
-      <c r="C711" s="36"/>
+      <c r="A711" s="15"/>
+      <c r="B711" s="16"/>
+      <c r="C711" s="35"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
@@ -24827,9 +24821,9 @@
       <c r="Z711" s="2"/>
     </row>
     <row r="712" spans="1:26" ht="15">
-      <c r="A712" s="16"/>
-      <c r="B712" s="17"/>
-      <c r="C712" s="36"/>
+      <c r="A712" s="15"/>
+      <c r="B712" s="16"/>
+      <c r="C712" s="35"/>
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
@@ -24855,9 +24849,9 @@
       <c r="Z712" s="2"/>
     </row>
     <row r="713" spans="1:26" ht="15">
-      <c r="A713" s="16"/>
-      <c r="B713" s="17"/>
-      <c r="C713" s="36"/>
+      <c r="A713" s="15"/>
+      <c r="B713" s="16"/>
+      <c r="C713" s="35"/>
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
@@ -24883,9 +24877,9 @@
       <c r="Z713" s="2"/>
     </row>
     <row r="714" spans="1:26" ht="15">
-      <c r="A714" s="16"/>
-      <c r="B714" s="17"/>
-      <c r="C714" s="36"/>
+      <c r="A714" s="15"/>
+      <c r="B714" s="16"/>
+      <c r="C714" s="35"/>
       <c r="D714" s="2"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
@@ -24911,9 +24905,9 @@
       <c r="Z714" s="2"/>
     </row>
     <row r="715" spans="1:26" ht="15">
-      <c r="A715" s="16"/>
-      <c r="B715" s="17"/>
-      <c r="C715" s="36"/>
+      <c r="A715" s="15"/>
+      <c r="B715" s="16"/>
+      <c r="C715" s="35"/>
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
@@ -24939,9 +24933,9 @@
       <c r="Z715" s="2"/>
     </row>
     <row r="716" spans="1:26" ht="15">
-      <c r="A716" s="16"/>
-      <c r="B716" s="17"/>
-      <c r="C716" s="36"/>
+      <c r="A716" s="15"/>
+      <c r="B716" s="16"/>
+      <c r="C716" s="35"/>
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
@@ -24967,9 +24961,9 @@
       <c r="Z716" s="2"/>
     </row>
     <row r="717" spans="1:26" ht="15">
-      <c r="A717" s="16"/>
-      <c r="B717" s="17"/>
-      <c r="C717" s="36"/>
+      <c r="A717" s="15"/>
+      <c r="B717" s="16"/>
+      <c r="C717" s="35"/>
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
@@ -24995,9 +24989,9 @@
       <c r="Z717" s="2"/>
     </row>
     <row r="718" spans="1:26" ht="15">
-      <c r="A718" s="16"/>
-      <c r="B718" s="17"/>
-      <c r="C718" s="36"/>
+      <c r="A718" s="15"/>
+      <c r="B718" s="16"/>
+      <c r="C718" s="35"/>
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
@@ -25023,9 +25017,9 @@
       <c r="Z718" s="2"/>
     </row>
     <row r="719" spans="1:26" ht="15">
-      <c r="A719" s="16"/>
-      <c r="B719" s="17"/>
-      <c r="C719" s="36"/>
+      <c r="A719" s="15"/>
+      <c r="B719" s="16"/>
+      <c r="C719" s="35"/>
       <c r="D719" s="2"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
@@ -25051,9 +25045,9 @@
       <c r="Z719" s="2"/>
     </row>
     <row r="720" spans="1:26" ht="15">
-      <c r="A720" s="16"/>
-      <c r="B720" s="17"/>
-      <c r="C720" s="36"/>
+      <c r="A720" s="15"/>
+      <c r="B720" s="16"/>
+      <c r="C720" s="35"/>
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
@@ -25079,9 +25073,9 @@
       <c r="Z720" s="2"/>
     </row>
     <row r="721" spans="1:26" ht="15">
-      <c r="A721" s="16"/>
-      <c r="B721" s="17"/>
-      <c r="C721" s="36"/>
+      <c r="A721" s="15"/>
+      <c r="B721" s="16"/>
+      <c r="C721" s="35"/>
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
@@ -25107,9 +25101,9 @@
       <c r="Z721" s="2"/>
     </row>
     <row r="722" spans="1:26" ht="15">
-      <c r="A722" s="16"/>
-      <c r="B722" s="17"/>
-      <c r="C722" s="36"/>
+      <c r="A722" s="15"/>
+      <c r="B722" s="16"/>
+      <c r="C722" s="35"/>
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
@@ -25135,9 +25129,9 @@
       <c r="Z722" s="2"/>
     </row>
     <row r="723" spans="1:26" ht="15">
-      <c r="A723" s="16"/>
-      <c r="B723" s="17"/>
-      <c r="C723" s="36"/>
+      <c r="A723" s="15"/>
+      <c r="B723" s="16"/>
+      <c r="C723" s="35"/>
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
@@ -25163,9 +25157,9 @@
       <c r="Z723" s="2"/>
     </row>
     <row r="724" spans="1:26" ht="15">
-      <c r="A724" s="16"/>
-      <c r="B724" s="17"/>
-      <c r="C724" s="36"/>
+      <c r="A724" s="15"/>
+      <c r="B724" s="16"/>
+      <c r="C724" s="35"/>
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
@@ -25191,9 +25185,9 @@
       <c r="Z724" s="2"/>
     </row>
     <row r="725" spans="1:26" ht="15">
-      <c r="A725" s="16"/>
-      <c r="B725" s="17"/>
-      <c r="C725" s="36"/>
+      <c r="A725" s="15"/>
+      <c r="B725" s="16"/>
+      <c r="C725" s="35"/>
       <c r="D725" s="2"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
@@ -25219,9 +25213,9 @@
       <c r="Z725" s="2"/>
     </row>
     <row r="726" spans="1:26" ht="15">
-      <c r="A726" s="16"/>
-      <c r="B726" s="17"/>
-      <c r="C726" s="36"/>
+      <c r="A726" s="15"/>
+      <c r="B726" s="16"/>
+      <c r="C726" s="35"/>
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
@@ -25247,9 +25241,9 @@
       <c r="Z726" s="2"/>
     </row>
     <row r="727" spans="1:26" ht="15">
-      <c r="A727" s="16"/>
-      <c r="B727" s="17"/>
-      <c r="C727" s="36"/>
+      <c r="A727" s="15"/>
+      <c r="B727" s="16"/>
+      <c r="C727" s="35"/>
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
@@ -25275,9 +25269,9 @@
       <c r="Z727" s="2"/>
     </row>
     <row r="728" spans="1:26" ht="15">
-      <c r="A728" s="16"/>
-      <c r="B728" s="17"/>
-      <c r="C728" s="36"/>
+      <c r="A728" s="15"/>
+      <c r="B728" s="16"/>
+      <c r="C728" s="35"/>
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
@@ -25303,9 +25297,9 @@
       <c r="Z728" s="2"/>
     </row>
     <row r="729" spans="1:26" ht="15">
-      <c r="A729" s="16"/>
-      <c r="B729" s="17"/>
-      <c r="C729" s="36"/>
+      <c r="A729" s="15"/>
+      <c r="B729" s="16"/>
+      <c r="C729" s="35"/>
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
@@ -25331,9 +25325,9 @@
       <c r="Z729" s="2"/>
     </row>
     <row r="730" spans="1:26" ht="15">
-      <c r="A730" s="16"/>
-      <c r="B730" s="17"/>
-      <c r="C730" s="36"/>
+      <c r="A730" s="15"/>
+      <c r="B730" s="16"/>
+      <c r="C730" s="35"/>
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
@@ -25359,9 +25353,9 @@
       <c r="Z730" s="2"/>
     </row>
     <row r="731" spans="1:26" ht="15">
-      <c r="A731" s="16"/>
-      <c r="B731" s="17"/>
-      <c r="C731" s="36"/>
+      <c r="A731" s="15"/>
+      <c r="B731" s="16"/>
+      <c r="C731" s="35"/>
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
@@ -25387,9 +25381,9 @@
       <c r="Z731" s="2"/>
     </row>
     <row r="732" spans="1:26" ht="15">
-      <c r="A732" s="16"/>
-      <c r="B732" s="17"/>
-      <c r="C732" s="36"/>
+      <c r="A732" s="15"/>
+      <c r="B732" s="16"/>
+      <c r="C732" s="35"/>
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
@@ -25415,9 +25409,9 @@
       <c r="Z732" s="2"/>
     </row>
     <row r="733" spans="1:26" ht="15">
-      <c r="A733" s="16"/>
-      <c r="B733" s="17"/>
-      <c r="C733" s="36"/>
+      <c r="A733" s="15"/>
+      <c r="B733" s="16"/>
+      <c r="C733" s="35"/>
       <c r="D733" s="2"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
@@ -25443,9 +25437,9 @@
       <c r="Z733" s="2"/>
     </row>
     <row r="734" spans="1:26" ht="15">
-      <c r="A734" s="16"/>
-      <c r="B734" s="17"/>
-      <c r="C734" s="36"/>
+      <c r="A734" s="15"/>
+      <c r="B734" s="16"/>
+      <c r="C734" s="35"/>
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
@@ -25471,9 +25465,9 @@
       <c r="Z734" s="2"/>
     </row>
     <row r="735" spans="1:26" ht="15">
-      <c r="A735" s="16"/>
-      <c r="B735" s="17"/>
-      <c r="C735" s="36"/>
+      <c r="A735" s="15"/>
+      <c r="B735" s="16"/>
+      <c r="C735" s="35"/>
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
@@ -25499,9 +25493,9 @@
       <c r="Z735" s="2"/>
     </row>
     <row r="736" spans="1:26" ht="15">
-      <c r="A736" s="16"/>
-      <c r="B736" s="17"/>
-      <c r="C736" s="36"/>
+      <c r="A736" s="15"/>
+      <c r="B736" s="16"/>
+      <c r="C736" s="35"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -25527,9 +25521,9 @@
       <c r="Z736" s="2"/>
     </row>
     <row r="737" spans="1:26" ht="15">
-      <c r="A737" s="16"/>
-      <c r="B737" s="17"/>
-      <c r="C737" s="36"/>
+      <c r="A737" s="15"/>
+      <c r="B737" s="16"/>
+      <c r="C737" s="35"/>
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
@@ -25555,9 +25549,9 @@
       <c r="Z737" s="2"/>
     </row>
     <row r="738" spans="1:26" ht="15">
-      <c r="A738" s="16"/>
-      <c r="B738" s="17"/>
-      <c r="C738" s="36"/>
+      <c r="A738" s="15"/>
+      <c r="B738" s="16"/>
+      <c r="C738" s="35"/>
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
@@ -25583,9 +25577,9 @@
       <c r="Z738" s="2"/>
     </row>
     <row r="739" spans="1:26" ht="15">
-      <c r="A739" s="16"/>
-      <c r="B739" s="17"/>
-      <c r="C739" s="36"/>
+      <c r="A739" s="15"/>
+      <c r="B739" s="16"/>
+      <c r="C739" s="35"/>
       <c r="D739" s="2"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
@@ -25611,9 +25605,9 @@
       <c r="Z739" s="2"/>
     </row>
     <row r="740" spans="1:26" ht="15">
-      <c r="A740" s="16"/>
-      <c r="B740" s="17"/>
-      <c r="C740" s="36"/>
+      <c r="A740" s="15"/>
+      <c r="B740" s="16"/>
+      <c r="C740" s="35"/>
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
@@ -25639,9 +25633,9 @@
       <c r="Z740" s="2"/>
     </row>
     <row r="741" spans="1:26" ht="15">
-      <c r="A741" s="16"/>
-      <c r="B741" s="17"/>
-      <c r="C741" s="36"/>
+      <c r="A741" s="15"/>
+      <c r="B741" s="16"/>
+      <c r="C741" s="35"/>
       <c r="D741" s="2"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
@@ -25667,9 +25661,9 @@
       <c r="Z741" s="2"/>
     </row>
     <row r="742" spans="1:26" ht="15">
-      <c r="A742" s="16"/>
-      <c r="B742" s="17"/>
-      <c r="C742" s="36"/>
+      <c r="A742" s="15"/>
+      <c r="B742" s="16"/>
+      <c r="C742" s="35"/>
       <c r="D742" s="2"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
@@ -25695,9 +25689,9 @@
       <c r="Z742" s="2"/>
     </row>
     <row r="743" spans="1:26" ht="15">
-      <c r="A743" s="16"/>
-      <c r="B743" s="17"/>
-      <c r="C743" s="36"/>
+      <c r="A743" s="15"/>
+      <c r="B743" s="16"/>
+      <c r="C743" s="35"/>
       <c r="D743" s="2"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
@@ -25723,9 +25717,9 @@
       <c r="Z743" s="2"/>
     </row>
     <row r="744" spans="1:26" ht="15">
-      <c r="A744" s="16"/>
-      <c r="B744" s="17"/>
-      <c r="C744" s="36"/>
+      <c r="A744" s="15"/>
+      <c r="B744" s="16"/>
+      <c r="C744" s="35"/>
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
@@ -25751,9 +25745,9 @@
       <c r="Z744" s="2"/>
     </row>
     <row r="745" spans="1:26" ht="15">
-      <c r="A745" s="16"/>
-      <c r="B745" s="17"/>
-      <c r="C745" s="36"/>
+      <c r="A745" s="15"/>
+      <c r="B745" s="16"/>
+      <c r="C745" s="35"/>
       <c r="D745" s="2"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
@@ -25779,9 +25773,9 @@
       <c r="Z745" s="2"/>
     </row>
     <row r="746" spans="1:26" ht="15">
-      <c r="A746" s="16"/>
-      <c r="B746" s="17"/>
-      <c r="C746" s="36"/>
+      <c r="A746" s="15"/>
+      <c r="B746" s="16"/>
+      <c r="C746" s="35"/>
       <c r="D746" s="2"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
@@ -25807,9 +25801,9 @@
       <c r="Z746" s="2"/>
     </row>
     <row r="747" spans="1:26" ht="15">
-      <c r="A747" s="16"/>
-      <c r="B747" s="17"/>
-      <c r="C747" s="36"/>
+      <c r="A747" s="15"/>
+      <c r="B747" s="16"/>
+      <c r="C747" s="35"/>
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
@@ -25835,9 +25829,9 @@
       <c r="Z747" s="2"/>
     </row>
     <row r="748" spans="1:26" ht="15">
-      <c r="A748" s="16"/>
-      <c r="B748" s="17"/>
-      <c r="C748" s="36"/>
+      <c r="A748" s="15"/>
+      <c r="B748" s="16"/>
+      <c r="C748" s="35"/>
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
@@ -25863,9 +25857,9 @@
       <c r="Z748" s="2"/>
     </row>
     <row r="749" spans="1:26" ht="15">
-      <c r="A749" s="16"/>
-      <c r="B749" s="17"/>
-      <c r="C749" s="36"/>
+      <c r="A749" s="15"/>
+      <c r="B749" s="16"/>
+      <c r="C749" s="35"/>
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
@@ -25891,9 +25885,9 @@
       <c r="Z749" s="2"/>
     </row>
     <row r="750" spans="1:26" ht="15">
-      <c r="A750" s="16"/>
-      <c r="B750" s="17"/>
-      <c r="C750" s="36"/>
+      <c r="A750" s="15"/>
+      <c r="B750" s="16"/>
+      <c r="C750" s="35"/>
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
@@ -25919,9 +25913,9 @@
       <c r="Z750" s="2"/>
     </row>
     <row r="751" spans="1:26" ht="15">
-      <c r="A751" s="16"/>
-      <c r="B751" s="17"/>
-      <c r="C751" s="36"/>
+      <c r="A751" s="15"/>
+      <c r="B751" s="16"/>
+      <c r="C751" s="35"/>
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
@@ -25947,9 +25941,9 @@
       <c r="Z751" s="2"/>
     </row>
     <row r="752" spans="1:26" ht="15">
-      <c r="A752" s="16"/>
-      <c r="B752" s="17"/>
-      <c r="C752" s="36"/>
+      <c r="A752" s="15"/>
+      <c r="B752" s="16"/>
+      <c r="C752" s="35"/>
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
@@ -25975,9 +25969,9 @@
       <c r="Z752" s="2"/>
     </row>
     <row r="753" spans="1:26" ht="15">
-      <c r="A753" s="16"/>
-      <c r="B753" s="17"/>
-      <c r="C753" s="36"/>
+      <c r="A753" s="15"/>
+      <c r="B753" s="16"/>
+      <c r="C753" s="35"/>
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
@@ -26003,9 +25997,9 @@
       <c r="Z753" s="2"/>
     </row>
     <row r="754" spans="1:26" ht="15">
-      <c r="A754" s="16"/>
-      <c r="B754" s="17"/>
-      <c r="C754" s="36"/>
+      <c r="A754" s="15"/>
+      <c r="B754" s="16"/>
+      <c r="C754" s="35"/>
       <c r="D754" s="2"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
@@ -26031,9 +26025,9 @@
       <c r="Z754" s="2"/>
     </row>
     <row r="755" spans="1:26" ht="15">
-      <c r="A755" s="16"/>
-      <c r="B755" s="17"/>
-      <c r="C755" s="36"/>
+      <c r="A755" s="15"/>
+      <c r="B755" s="16"/>
+      <c r="C755" s="35"/>
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
@@ -26059,9 +26053,9 @@
       <c r="Z755" s="2"/>
     </row>
     <row r="756" spans="1:26" ht="15">
-      <c r="A756" s="16"/>
-      <c r="B756" s="17"/>
-      <c r="C756" s="36"/>
+      <c r="A756" s="15"/>
+      <c r="B756" s="16"/>
+      <c r="C756" s="35"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -26087,9 +26081,9 @@
       <c r="Z756" s="2"/>
     </row>
     <row r="757" spans="1:26" ht="15">
-      <c r="A757" s="16"/>
-      <c r="B757" s="17"/>
-      <c r="C757" s="36"/>
+      <c r="A757" s="15"/>
+      <c r="B757" s="16"/>
+      <c r="C757" s="35"/>
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
@@ -26115,9 +26109,9 @@
       <c r="Z757" s="2"/>
     </row>
     <row r="758" spans="1:26" ht="15">
-      <c r="A758" s="16"/>
-      <c r="B758" s="17"/>
-      <c r="C758" s="36"/>
+      <c r="A758" s="15"/>
+      <c r="B758" s="16"/>
+      <c r="C758" s="35"/>
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
@@ -26143,9 +26137,9 @@
       <c r="Z758" s="2"/>
     </row>
     <row r="759" spans="1:26" ht="15">
-      <c r="A759" s="16"/>
-      <c r="B759" s="17"/>
-      <c r="C759" s="36"/>
+      <c r="A759" s="15"/>
+      <c r="B759" s="16"/>
+      <c r="C759" s="35"/>
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
@@ -26171,9 +26165,9 @@
       <c r="Z759" s="2"/>
     </row>
     <row r="760" spans="1:26" ht="15">
-      <c r="A760" s="16"/>
-      <c r="B760" s="17"/>
-      <c r="C760" s="36"/>
+      <c r="A760" s="15"/>
+      <c r="B760" s="16"/>
+      <c r="C760" s="35"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
@@ -26199,9 +26193,9 @@
       <c r="Z760" s="2"/>
     </row>
     <row r="761" spans="1:26" ht="15">
-      <c r="A761" s="16"/>
-      <c r="B761" s="17"/>
-      <c r="C761" s="36"/>
+      <c r="A761" s="15"/>
+      <c r="B761" s="16"/>
+      <c r="C761" s="35"/>
       <c r="D761" s="2"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
@@ -26227,9 +26221,9 @@
       <c r="Z761" s="2"/>
     </row>
     <row r="762" spans="1:26" ht="15">
-      <c r="A762" s="16"/>
-      <c r="B762" s="17"/>
-      <c r="C762" s="36"/>
+      <c r="A762" s="15"/>
+      <c r="B762" s="16"/>
+      <c r="C762" s="35"/>
       <c r="D762" s="2"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
@@ -26255,9 +26249,9 @@
       <c r="Z762" s="2"/>
     </row>
     <row r="763" spans="1:26" ht="15">
-      <c r="A763" s="16"/>
-      <c r="B763" s="17"/>
-      <c r="C763" s="36"/>
+      <c r="A763" s="15"/>
+      <c r="B763" s="16"/>
+      <c r="C763" s="35"/>
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
@@ -26283,9 +26277,9 @@
       <c r="Z763" s="2"/>
     </row>
     <row r="764" spans="1:26" ht="15">
-      <c r="A764" s="16"/>
-      <c r="B764" s="17"/>
-      <c r="C764" s="36"/>
+      <c r="A764" s="15"/>
+      <c r="B764" s="16"/>
+      <c r="C764" s="35"/>
       <c r="D764" s="2"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
@@ -26311,9 +26305,9 @@
       <c r="Z764" s="2"/>
     </row>
     <row r="765" spans="1:26" ht="15">
-      <c r="A765" s="16"/>
-      <c r="B765" s="17"/>
-      <c r="C765" s="36"/>
+      <c r="A765" s="15"/>
+      <c r="B765" s="16"/>
+      <c r="C765" s="35"/>
       <c r="D765" s="2"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
@@ -26339,9 +26333,9 @@
       <c r="Z765" s="2"/>
     </row>
     <row r="766" spans="1:26" ht="15">
-      <c r="A766" s="16"/>
-      <c r="B766" s="17"/>
-      <c r="C766" s="36"/>
+      <c r="A766" s="15"/>
+      <c r="B766" s="16"/>
+      <c r="C766" s="35"/>
       <c r="D766" s="2"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
@@ -26367,9 +26361,9 @@
       <c r="Z766" s="2"/>
     </row>
     <row r="767" spans="1:26" ht="15">
-      <c r="A767" s="16"/>
-      <c r="B767" s="17"/>
-      <c r="C767" s="36"/>
+      <c r="A767" s="15"/>
+      <c r="B767" s="16"/>
+      <c r="C767" s="35"/>
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
@@ -26395,9 +26389,9 @@
       <c r="Z767" s="2"/>
     </row>
     <row r="768" spans="1:26" ht="15">
-      <c r="A768" s="16"/>
-      <c r="B768" s="17"/>
-      <c r="C768" s="36"/>
+      <c r="A768" s="15"/>
+      <c r="B768" s="16"/>
+      <c r="C768" s="35"/>
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
@@ -26423,9 +26417,9 @@
       <c r="Z768" s="2"/>
     </row>
     <row r="769" spans="1:26" ht="15">
-      <c r="A769" s="16"/>
-      <c r="B769" s="17"/>
-      <c r="C769" s="36"/>
+      <c r="A769" s="15"/>
+      <c r="B769" s="16"/>
+      <c r="C769" s="35"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
@@ -26451,9 +26445,9 @@
       <c r="Z769" s="2"/>
     </row>
     <row r="770" spans="1:26" ht="15">
-      <c r="A770" s="16"/>
-      <c r="B770" s="17"/>
-      <c r="C770" s="36"/>
+      <c r="A770" s="15"/>
+      <c r="B770" s="16"/>
+      <c r="C770" s="35"/>
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
@@ -26479,9 +26473,9 @@
       <c r="Z770" s="2"/>
     </row>
     <row r="771" spans="1:26" ht="15">
-      <c r="A771" s="16"/>
-      <c r="B771" s="17"/>
-      <c r="C771" s="36"/>
+      <c r="A771" s="15"/>
+      <c r="B771" s="16"/>
+      <c r="C771" s="35"/>
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
@@ -26507,9 +26501,9 @@
       <c r="Z771" s="2"/>
     </row>
     <row r="772" spans="1:26" ht="15">
-      <c r="A772" s="16"/>
-      <c r="B772" s="17"/>
-      <c r="C772" s="36"/>
+      <c r="A772" s="15"/>
+      <c r="B772" s="16"/>
+      <c r="C772" s="35"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
@@ -26535,9 +26529,9 @@
       <c r="Z772" s="2"/>
     </row>
     <row r="773" spans="1:26" ht="15">
-      <c r="A773" s="16"/>
-      <c r="B773" s="17"/>
-      <c r="C773" s="36"/>
+      <c r="A773" s="15"/>
+      <c r="B773" s="16"/>
+      <c r="C773" s="35"/>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
@@ -26563,9 +26557,9 @@
       <c r="Z773" s="2"/>
     </row>
     <row r="774" spans="1:26" ht="15">
-      <c r="A774" s="16"/>
-      <c r="B774" s="17"/>
-      <c r="C774" s="36"/>
+      <c r="A774" s="15"/>
+      <c r="B774" s="16"/>
+      <c r="C774" s="35"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
@@ -26591,9 +26585,9 @@
       <c r="Z774" s="2"/>
     </row>
     <row r="775" spans="1:26" ht="15">
-      <c r="A775" s="16"/>
-      <c r="B775" s="17"/>
-      <c r="C775" s="36"/>
+      <c r="A775" s="15"/>
+      <c r="B775" s="16"/>
+      <c r="C775" s="35"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
@@ -26619,9 +26613,9 @@
       <c r="Z775" s="2"/>
     </row>
     <row r="776" spans="1:26" ht="15">
-      <c r="A776" s="16"/>
-      <c r="B776" s="17"/>
-      <c r="C776" s="36"/>
+      <c r="A776" s="15"/>
+      <c r="B776" s="16"/>
+      <c r="C776" s="35"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
@@ -26647,9 +26641,9 @@
       <c r="Z776" s="2"/>
     </row>
     <row r="777" spans="1:26" ht="15">
-      <c r="A777" s="16"/>
-      <c r="B777" s="17"/>
-      <c r="C777" s="36"/>
+      <c r="A777" s="15"/>
+      <c r="B777" s="16"/>
+      <c r="C777" s="35"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
@@ -26675,9 +26669,9 @@
       <c r="Z777" s="2"/>
     </row>
     <row r="778" spans="1:26" ht="15">
-      <c r="A778" s="16"/>
-      <c r="B778" s="17"/>
-      <c r="C778" s="36"/>
+      <c r="A778" s="15"/>
+      <c r="B778" s="16"/>
+      <c r="C778" s="35"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
@@ -26703,9 +26697,9 @@
       <c r="Z778" s="2"/>
     </row>
     <row r="779" spans="1:26" ht="15">
-      <c r="A779" s="16"/>
-      <c r="B779" s="17"/>
-      <c r="C779" s="36"/>
+      <c r="A779" s="15"/>
+      <c r="B779" s="16"/>
+      <c r="C779" s="35"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -26731,9 +26725,9 @@
       <c r="Z779" s="2"/>
     </row>
     <row r="780" spans="1:26" ht="15">
-      <c r="A780" s="16"/>
-      <c r="B780" s="17"/>
-      <c r="C780" s="36"/>
+      <c r="A780" s="15"/>
+      <c r="B780" s="16"/>
+      <c r="C780" s="35"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
@@ -26759,9 +26753,9 @@
       <c r="Z780" s="2"/>
     </row>
     <row r="781" spans="1:26" ht="15">
-      <c r="A781" s="16"/>
-      <c r="B781" s="17"/>
-      <c r="C781" s="36"/>
+      <c r="A781" s="15"/>
+      <c r="B781" s="16"/>
+      <c r="C781" s="35"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
@@ -26787,9 +26781,9 @@
       <c r="Z781" s="2"/>
     </row>
     <row r="782" spans="1:26" ht="15">
-      <c r="A782" s="16"/>
-      <c r="B782" s="17"/>
-      <c r="C782" s="36"/>
+      <c r="A782" s="15"/>
+      <c r="B782" s="16"/>
+      <c r="C782" s="35"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
@@ -26815,9 +26809,9 @@
       <c r="Z782" s="2"/>
     </row>
     <row r="783" spans="1:26" ht="15">
-      <c r="A783" s="16"/>
-      <c r="B783" s="17"/>
-      <c r="C783" s="36"/>
+      <c r="A783" s="15"/>
+      <c r="B783" s="16"/>
+      <c r="C783" s="35"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
@@ -26843,9 +26837,9 @@
       <c r="Z783" s="2"/>
     </row>
     <row r="784" spans="1:26" ht="15">
-      <c r="A784" s="16"/>
-      <c r="B784" s="17"/>
-      <c r="C784" s="36"/>
+      <c r="A784" s="15"/>
+      <c r="B784" s="16"/>
+      <c r="C784" s="35"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
@@ -26871,9 +26865,9 @@
       <c r="Z784" s="2"/>
     </row>
     <row r="785" spans="1:26" ht="15">
-      <c r="A785" s="16"/>
-      <c r="B785" s="17"/>
-      <c r="C785" s="36"/>
+      <c r="A785" s="15"/>
+      <c r="B785" s="16"/>
+      <c r="C785" s="35"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
@@ -26899,9 +26893,9 @@
       <c r="Z785" s="2"/>
     </row>
     <row r="786" spans="1:26" ht="15">
-      <c r="A786" s="16"/>
-      <c r="B786" s="17"/>
-      <c r="C786" s="36"/>
+      <c r="A786" s="15"/>
+      <c r="B786" s="16"/>
+      <c r="C786" s="35"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
@@ -26927,9 +26921,9 @@
       <c r="Z786" s="2"/>
     </row>
     <row r="787" spans="1:26" ht="15">
-      <c r="A787" s="16"/>
-      <c r="B787" s="17"/>
-      <c r="C787" s="36"/>
+      <c r="A787" s="15"/>
+      <c r="B787" s="16"/>
+      <c r="C787" s="35"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
@@ -26955,9 +26949,9 @@
       <c r="Z787" s="2"/>
     </row>
     <row r="788" spans="1:26" ht="15">
-      <c r="A788" s="16"/>
-      <c r="B788" s="17"/>
-      <c r="C788" s="36"/>
+      <c r="A788" s="15"/>
+      <c r="B788" s="16"/>
+      <c r="C788" s="35"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
@@ -26983,9 +26977,9 @@
       <c r="Z788" s="2"/>
     </row>
     <row r="789" spans="1:26" ht="15">
-      <c r="A789" s="16"/>
-      <c r="B789" s="17"/>
-      <c r="C789" s="36"/>
+      <c r="A789" s="15"/>
+      <c r="B789" s="16"/>
+      <c r="C789" s="35"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
@@ -27011,9 +27005,9 @@
       <c r="Z789" s="2"/>
     </row>
     <row r="790" spans="1:26" ht="15">
-      <c r="A790" s="16"/>
-      <c r="B790" s="17"/>
-      <c r="C790" s="36"/>
+      <c r="A790" s="15"/>
+      <c r="B790" s="16"/>
+      <c r="C790" s="35"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
@@ -27039,9 +27033,9 @@
       <c r="Z790" s="2"/>
     </row>
     <row r="791" spans="1:26" ht="15">
-      <c r="A791" s="16"/>
-      <c r="B791" s="17"/>
-      <c r="C791" s="36"/>
+      <c r="A791" s="15"/>
+      <c r="B791" s="16"/>
+      <c r="C791" s="35"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
@@ -27067,9 +27061,9 @@
       <c r="Z791" s="2"/>
     </row>
     <row r="792" spans="1:26" ht="15">
-      <c r="A792" s="16"/>
-      <c r="B792" s="17"/>
-      <c r="C792" s="36"/>
+      <c r="A792" s="15"/>
+      <c r="B792" s="16"/>
+      <c r="C792" s="35"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
@@ -27095,9 +27089,9 @@
       <c r="Z792" s="2"/>
     </row>
     <row r="793" spans="1:26" ht="15">
-      <c r="A793" s="16"/>
-      <c r="B793" s="17"/>
-      <c r="C793" s="36"/>
+      <c r="A793" s="15"/>
+      <c r="B793" s="16"/>
+      <c r="C793" s="35"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
@@ -27123,9 +27117,9 @@
       <c r="Z793" s="2"/>
     </row>
     <row r="794" spans="1:26" ht="15">
-      <c r="A794" s="16"/>
-      <c r="B794" s="17"/>
-      <c r="C794" s="36"/>
+      <c r="A794" s="15"/>
+      <c r="B794" s="16"/>
+      <c r="C794" s="35"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
@@ -27151,9 +27145,9 @@
       <c r="Z794" s="2"/>
     </row>
     <row r="795" spans="1:26" ht="15">
-      <c r="A795" s="16"/>
-      <c r="B795" s="17"/>
-      <c r="C795" s="36"/>
+      <c r="A795" s="15"/>
+      <c r="B795" s="16"/>
+      <c r="C795" s="35"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
@@ -27179,9 +27173,9 @@
       <c r="Z795" s="2"/>
     </row>
     <row r="796" spans="1:26" ht="15">
-      <c r="A796" s="16"/>
-      <c r="B796" s="17"/>
-      <c r="C796" s="36"/>
+      <c r="A796" s="15"/>
+      <c r="B796" s="16"/>
+      <c r="C796" s="35"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
@@ -27207,9 +27201,9 @@
       <c r="Z796" s="2"/>
     </row>
     <row r="797" spans="1:26" ht="15">
-      <c r="A797" s="16"/>
-      <c r="B797" s="17"/>
-      <c r="C797" s="36"/>
+      <c r="A797" s="15"/>
+      <c r="B797" s="16"/>
+      <c r="C797" s="35"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
@@ -27235,9 +27229,9 @@
       <c r="Z797" s="2"/>
     </row>
     <row r="798" spans="1:26" ht="15">
-      <c r="A798" s="16"/>
-      <c r="B798" s="17"/>
-      <c r="C798" s="36"/>
+      <c r="A798" s="15"/>
+      <c r="B798" s="16"/>
+      <c r="C798" s="35"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
@@ -27263,9 +27257,9 @@
       <c r="Z798" s="2"/>
     </row>
     <row r="799" spans="1:26" ht="15">
-      <c r="A799" s="16"/>
-      <c r="B799" s="17"/>
-      <c r="C799" s="36"/>
+      <c r="A799" s="15"/>
+      <c r="B799" s="16"/>
+      <c r="C799" s="35"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
@@ -27291,9 +27285,9 @@
       <c r="Z799" s="2"/>
     </row>
     <row r="800" spans="1:26" ht="15">
-      <c r="A800" s="16"/>
-      <c r="B800" s="17"/>
-      <c r="C800" s="36"/>
+      <c r="A800" s="15"/>
+      <c r="B800" s="16"/>
+      <c r="C800" s="35"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
@@ -27319,9 +27313,9 @@
       <c r="Z800" s="2"/>
     </row>
     <row r="801" spans="1:26" ht="15">
-      <c r="A801" s="16"/>
-      <c r="B801" s="17"/>
-      <c r="C801" s="36"/>
+      <c r="A801" s="15"/>
+      <c r="B801" s="16"/>
+      <c r="C801" s="35"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
@@ -27347,9 +27341,9 @@
       <c r="Z801" s="2"/>
     </row>
     <row r="802" spans="1:26" ht="15">
-      <c r="A802" s="16"/>
-      <c r="B802" s="17"/>
-      <c r="C802" s="36"/>
+      <c r="A802" s="15"/>
+      <c r="B802" s="16"/>
+      <c r="C802" s="35"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -27375,9 +27369,9 @@
       <c r="Z802" s="2"/>
     </row>
     <row r="803" spans="1:26" ht="15">
-      <c r="A803" s="16"/>
-      <c r="B803" s="17"/>
-      <c r="C803" s="36"/>
+      <c r="A803" s="15"/>
+      <c r="B803" s="16"/>
+      <c r="C803" s="35"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
@@ -27403,9 +27397,9 @@
       <c r="Z803" s="2"/>
     </row>
     <row r="804" spans="1:26" ht="15">
-      <c r="A804" s="16"/>
-      <c r="B804" s="17"/>
-      <c r="C804" s="36"/>
+      <c r="A804" s="15"/>
+      <c r="B804" s="16"/>
+      <c r="C804" s="35"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
@@ -27431,9 +27425,9 @@
       <c r="Z804" s="2"/>
     </row>
     <row r="805" spans="1:26" ht="15">
-      <c r="A805" s="16"/>
-      <c r="B805" s="17"/>
-      <c r="C805" s="36"/>
+      <c r="A805" s="15"/>
+      <c r="B805" s="16"/>
+      <c r="C805" s="35"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
@@ -27459,9 +27453,9 @@
       <c r="Z805" s="2"/>
     </row>
     <row r="806" spans="1:26" ht="15">
-      <c r="A806" s="16"/>
-      <c r="B806" s="17"/>
-      <c r="C806" s="36"/>
+      <c r="A806" s="15"/>
+      <c r="B806" s="16"/>
+      <c r="C806" s="35"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
@@ -27487,9 +27481,9 @@
       <c r="Z806" s="2"/>
     </row>
     <row r="807" spans="1:26" ht="15">
-      <c r="A807" s="16"/>
-      <c r="B807" s="17"/>
-      <c r="C807" s="36"/>
+      <c r="A807" s="15"/>
+      <c r="B807" s="16"/>
+      <c r="C807" s="35"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
@@ -27515,9 +27509,9 @@
       <c r="Z807" s="2"/>
     </row>
     <row r="808" spans="1:26" ht="15">
-      <c r="A808" s="16"/>
-      <c r="B808" s="17"/>
-      <c r="C808" s="36"/>
+      <c r="A808" s="15"/>
+      <c r="B808" s="16"/>
+      <c r="C808" s="35"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
@@ -27543,9 +27537,9 @@
       <c r="Z808" s="2"/>
     </row>
     <row r="809" spans="1:26" ht="15">
-      <c r="A809" s="16"/>
-      <c r="B809" s="17"/>
-      <c r="C809" s="36"/>
+      <c r="A809" s="15"/>
+      <c r="B809" s="16"/>
+      <c r="C809" s="35"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
@@ -27571,9 +27565,9 @@
       <c r="Z809" s="2"/>
     </row>
     <row r="810" spans="1:26" ht="15">
-      <c r="A810" s="16"/>
-      <c r="B810" s="17"/>
-      <c r="C810" s="36"/>
+      <c r="A810" s="15"/>
+      <c r="B810" s="16"/>
+      <c r="C810" s="35"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
@@ -27599,9 +27593,9 @@
       <c r="Z810" s="2"/>
     </row>
     <row r="811" spans="1:26" ht="15">
-      <c r="A811" s="16"/>
-      <c r="B811" s="17"/>
-      <c r="C811" s="36"/>
+      <c r="A811" s="15"/>
+      <c r="B811" s="16"/>
+      <c r="C811" s="35"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
@@ -27627,9 +27621,9 @@
       <c r="Z811" s="2"/>
     </row>
     <row r="812" spans="1:26" ht="15">
-      <c r="A812" s="16"/>
-      <c r="B812" s="17"/>
-      <c r="C812" s="36"/>
+      <c r="A812" s="15"/>
+      <c r="B812" s="16"/>
+      <c r="C812" s="35"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
@@ -27655,9 +27649,9 @@
       <c r="Z812" s="2"/>
     </row>
     <row r="813" spans="1:26" ht="15">
-      <c r="A813" s="16"/>
-      <c r="B813" s="17"/>
-      <c r="C813" s="36"/>
+      <c r="A813" s="15"/>
+      <c r="B813" s="16"/>
+      <c r="C813" s="35"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
@@ -27683,9 +27677,9 @@
       <c r="Z813" s="2"/>
     </row>
     <row r="814" spans="1:26" ht="15">
-      <c r="A814" s="16"/>
-      <c r="B814" s="17"/>
-      <c r="C814" s="36"/>
+      <c r="A814" s="15"/>
+      <c r="B814" s="16"/>
+      <c r="C814" s="35"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
@@ -27711,9 +27705,9 @@
       <c r="Z814" s="2"/>
     </row>
     <row r="815" spans="1:26" ht="15">
-      <c r="A815" s="16"/>
-      <c r="B815" s="17"/>
-      <c r="C815" s="36"/>
+      <c r="A815" s="15"/>
+      <c r="B815" s="16"/>
+      <c r="C815" s="35"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
@@ -27739,9 +27733,9 @@
       <c r="Z815" s="2"/>
     </row>
     <row r="816" spans="1:26" ht="15">
-      <c r="A816" s="16"/>
-      <c r="B816" s="17"/>
-      <c r="C816" s="36"/>
+      <c r="A816" s="15"/>
+      <c r="B816" s="16"/>
+      <c r="C816" s="35"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
@@ -27767,9 +27761,9 @@
       <c r="Z816" s="2"/>
     </row>
     <row r="817" spans="1:26" ht="15">
-      <c r="A817" s="16"/>
-      <c r="B817" s="17"/>
-      <c r="C817" s="36"/>
+      <c r="A817" s="15"/>
+      <c r="B817" s="16"/>
+      <c r="C817" s="35"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
@@ -27795,9 +27789,9 @@
       <c r="Z817" s="2"/>
     </row>
     <row r="818" spans="1:26" ht="15">
-      <c r="A818" s="16"/>
-      <c r="B818" s="17"/>
-      <c r="C818" s="36"/>
+      <c r="A818" s="15"/>
+      <c r="B818" s="16"/>
+      <c r="C818" s="35"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
@@ -27823,9 +27817,9 @@
       <c r="Z818" s="2"/>
     </row>
     <row r="819" spans="1:26" ht="15">
-      <c r="A819" s="16"/>
-      <c r="B819" s="17"/>
-      <c r="C819" s="36"/>
+      <c r="A819" s="15"/>
+      <c r="B819" s="16"/>
+      <c r="C819" s="35"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
@@ -27851,9 +27845,9 @@
       <c r="Z819" s="2"/>
     </row>
     <row r="820" spans="1:26" ht="15">
-      <c r="A820" s="16"/>
-      <c r="B820" s="17"/>
-      <c r="C820" s="36"/>
+      <c r="A820" s="15"/>
+      <c r="B820" s="16"/>
+      <c r="C820" s="35"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
@@ -27879,9 +27873,9 @@
       <c r="Z820" s="2"/>
     </row>
     <row r="821" spans="1:26" ht="15">
-      <c r="A821" s="16"/>
-      <c r="B821" s="17"/>
-      <c r="C821" s="36"/>
+      <c r="A821" s="15"/>
+      <c r="B821" s="16"/>
+      <c r="C821" s="35"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
@@ -27907,9 +27901,9 @@
       <c r="Z821" s="2"/>
     </row>
     <row r="822" spans="1:26" ht="15">
-      <c r="A822" s="16"/>
-      <c r="B822" s="17"/>
-      <c r="C822" s="36"/>
+      <c r="A822" s="15"/>
+      <c r="B822" s="16"/>
+      <c r="C822" s="35"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
@@ -27935,9 +27929,9 @@
       <c r="Z822" s="2"/>
     </row>
     <row r="823" spans="1:26" ht="15">
-      <c r="A823" s="16"/>
-      <c r="B823" s="17"/>
-      <c r="C823" s="36"/>
+      <c r="A823" s="15"/>
+      <c r="B823" s="16"/>
+      <c r="C823" s="35"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
@@ -27963,9 +27957,9 @@
       <c r="Z823" s="2"/>
     </row>
     <row r="824" spans="1:26" ht="15">
-      <c r="A824" s="16"/>
-      <c r="B824" s="17"/>
-      <c r="C824" s="36"/>
+      <c r="A824" s="15"/>
+      <c r="B824" s="16"/>
+      <c r="C824" s="35"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -27991,9 +27985,9 @@
       <c r="Z824" s="2"/>
     </row>
     <row r="825" spans="1:26" ht="15">
-      <c r="A825" s="16"/>
-      <c r="B825" s="17"/>
-      <c r="C825" s="36"/>
+      <c r="A825" s="15"/>
+      <c r="B825" s="16"/>
+      <c r="C825" s="35"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
@@ -28019,9 +28013,9 @@
       <c r="Z825" s="2"/>
     </row>
     <row r="826" spans="1:26" ht="15">
-      <c r="A826" s="16"/>
-      <c r="B826" s="17"/>
-      <c r="C826" s="36"/>
+      <c r="A826" s="15"/>
+      <c r="B826" s="16"/>
+      <c r="C826" s="35"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
@@ -28047,9 +28041,9 @@
       <c r="Z826" s="2"/>
     </row>
     <row r="827" spans="1:26" ht="15">
-      <c r="A827" s="16"/>
-      <c r="B827" s="17"/>
-      <c r="C827" s="36"/>
+      <c r="A827" s="15"/>
+      <c r="B827" s="16"/>
+      <c r="C827" s="35"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
@@ -28075,9 +28069,9 @@
       <c r="Z827" s="2"/>
     </row>
     <row r="828" spans="1:26" ht="15">
-      <c r="A828" s="16"/>
-      <c r="B828" s="17"/>
-      <c r="C828" s="36"/>
+      <c r="A828" s="15"/>
+      <c r="B828" s="16"/>
+      <c r="C828" s="35"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
@@ -28103,9 +28097,9 @@
       <c r="Z828" s="2"/>
     </row>
     <row r="829" spans="1:26" ht="15">
-      <c r="A829" s="16"/>
-      <c r="B829" s="17"/>
-      <c r="C829" s="36"/>
+      <c r="A829" s="15"/>
+      <c r="B829" s="16"/>
+      <c r="C829" s="35"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
@@ -28131,9 +28125,9 @@
       <c r="Z829" s="2"/>
     </row>
     <row r="830" spans="1:26" ht="15">
-      <c r="A830" s="16"/>
-      <c r="B830" s="17"/>
-      <c r="C830" s="36"/>
+      <c r="A830" s="15"/>
+      <c r="B830" s="16"/>
+      <c r="C830" s="35"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
       <c r="F830" s="2"/>
@@ -28159,9 +28153,9 @@
       <c r="Z830" s="2"/>
     </row>
     <row r="831" spans="1:26" ht="15">
-      <c r="A831" s="16"/>
-      <c r="B831" s="17"/>
-      <c r="C831" s="36"/>
+      <c r="A831" s="15"/>
+      <c r="B831" s="16"/>
+      <c r="C831" s="35"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
       <c r="F831" s="2"/>
@@ -28187,9 +28181,9 @@
       <c r="Z831" s="2"/>
     </row>
     <row r="832" spans="1:26" ht="15">
-      <c r="A832" s="16"/>
-      <c r="B832" s="17"/>
-      <c r="C832" s="36"/>
+      <c r="A832" s="15"/>
+      <c r="B832" s="16"/>
+      <c r="C832" s="35"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
@@ -28215,9 +28209,9 @@
       <c r="Z832" s="2"/>
     </row>
     <row r="833" spans="1:26" ht="15">
-      <c r="A833" s="16"/>
-      <c r="B833" s="17"/>
-      <c r="C833" s="36"/>
+      <c r="A833" s="15"/>
+      <c r="B833" s="16"/>
+      <c r="C833" s="35"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
@@ -28243,9 +28237,9 @@
       <c r="Z833" s="2"/>
     </row>
     <row r="834" spans="1:26" ht="15">
-      <c r="A834" s="16"/>
-      <c r="B834" s="17"/>
-      <c r="C834" s="36"/>
+      <c r="A834" s="15"/>
+      <c r="B834" s="16"/>
+      <c r="C834" s="35"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
       <c r="F834" s="2"/>
@@ -28271,9 +28265,9 @@
       <c r="Z834" s="2"/>
     </row>
     <row r="835" spans="1:26" ht="15">
-      <c r="A835" s="16"/>
-      <c r="B835" s="17"/>
-      <c r="C835" s="36"/>
+      <c r="A835" s="15"/>
+      <c r="B835" s="16"/>
+      <c r="C835" s="35"/>
       <c r="D835" s="2"/>
       <c r="E835" s="2"/>
       <c r="F835" s="2"/>
@@ -28299,9 +28293,9 @@
       <c r="Z835" s="2"/>
     </row>
     <row r="836" spans="1:26" ht="15">
-      <c r="A836" s="16"/>
-      <c r="B836" s="17"/>
-      <c r="C836" s="36"/>
+      <c r="A836" s="15"/>
+      <c r="B836" s="16"/>
+      <c r="C836" s="35"/>
       <c r="D836" s="2"/>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
@@ -28327,9 +28321,9 @@
       <c r="Z836" s="2"/>
     </row>
     <row r="837" spans="1:26" ht="15">
-      <c r="A837" s="16"/>
-      <c r="B837" s="17"/>
-      <c r="C837" s="36"/>
+      <c r="A837" s="15"/>
+      <c r="B837" s="16"/>
+      <c r="C837" s="35"/>
       <c r="D837" s="2"/>
       <c r="E837" s="2"/>
       <c r="F837" s="2"/>
@@ -28355,9 +28349,9 @@
       <c r="Z837" s="2"/>
     </row>
     <row r="838" spans="1:26" ht="15">
-      <c r="A838" s="16"/>
-      <c r="B838" s="17"/>
-      <c r="C838" s="36"/>
+      <c r="A838" s="15"/>
+      <c r="B838" s="16"/>
+      <c r="C838" s="35"/>
       <c r="D838" s="2"/>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
@@ -28383,9 +28377,9 @@
       <c r="Z838" s="2"/>
     </row>
     <row r="839" spans="1:26" ht="15">
-      <c r="A839" s="16"/>
-      <c r="B839" s="17"/>
-      <c r="C839" s="36"/>
+      <c r="A839" s="15"/>
+      <c r="B839" s="16"/>
+      <c r="C839" s="35"/>
       <c r="D839" s="2"/>
       <c r="E839" s="2"/>
       <c r="F839" s="2"/>
@@ -28411,9 +28405,9 @@
       <c r="Z839" s="2"/>
     </row>
     <row r="840" spans="1:26" ht="15">
-      <c r="A840" s="16"/>
-      <c r="B840" s="17"/>
-      <c r="C840" s="36"/>
+      <c r="A840" s="15"/>
+      <c r="B840" s="16"/>
+      <c r="C840" s="35"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
       <c r="F840" s="2"/>
@@ -28439,9 +28433,9 @@
       <c r="Z840" s="2"/>
     </row>
     <row r="841" spans="1:26" ht="15">
-      <c r="A841" s="16"/>
-      <c r="B841" s="17"/>
-      <c r="C841" s="36"/>
+      <c r="A841" s="15"/>
+      <c r="B841" s="16"/>
+      <c r="C841" s="35"/>
       <c r="D841" s="2"/>
       <c r="E841" s="2"/>
       <c r="F841" s="2"/>
@@ -28467,9 +28461,9 @@
       <c r="Z841" s="2"/>
     </row>
     <row r="842" spans="1:26" ht="15">
-      <c r="A842" s="16"/>
-      <c r="B842" s="17"/>
-      <c r="C842" s="36"/>
+      <c r="A842" s="15"/>
+      <c r="B842" s="16"/>
+      <c r="C842" s="35"/>
       <c r="D842" s="2"/>
       <c r="E842" s="2"/>
       <c r="F842" s="2"/>
@@ -28495,9 +28489,9 @@
       <c r="Z842" s="2"/>
     </row>
     <row r="843" spans="1:26" ht="15">
-      <c r="A843" s="16"/>
-      <c r="B843" s="17"/>
-      <c r="C843" s="36"/>
+      <c r="A843" s="15"/>
+      <c r="B843" s="16"/>
+      <c r="C843" s="35"/>
       <c r="D843" s="2"/>
       <c r="E843" s="2"/>
       <c r="F843" s="2"/>
@@ -28523,9 +28517,9 @@
       <c r="Z843" s="2"/>
     </row>
     <row r="844" spans="1:26" ht="15">
-      <c r="A844" s="16"/>
-      <c r="B844" s="17"/>
-      <c r="C844" s="36"/>
+      <c r="A844" s="15"/>
+      <c r="B844" s="16"/>
+      <c r="C844" s="35"/>
       <c r="D844" s="2"/>
       <c r="E844" s="2"/>
       <c r="F844" s="2"/>
@@ -28551,9 +28545,9 @@
       <c r="Z844" s="2"/>
     </row>
     <row r="845" spans="1:26" ht="15">
-      <c r="A845" s="16"/>
-      <c r="B845" s="17"/>
-      <c r="C845" s="36"/>
+      <c r="A845" s="15"/>
+      <c r="B845" s="16"/>
+      <c r="C845" s="35"/>
       <c r="D845" s="2"/>
       <c r="E845" s="2"/>
       <c r="F845" s="2"/>
@@ -28579,9 +28573,9 @@
       <c r="Z845" s="2"/>
     </row>
     <row r="846" spans="1:26" ht="15">
-      <c r="A846" s="16"/>
-      <c r="B846" s="17"/>
-      <c r="C846" s="36"/>
+      <c r="A846" s="15"/>
+      <c r="B846" s="16"/>
+      <c r="C846" s="35"/>
       <c r="D846" s="2"/>
       <c r="E846" s="2"/>
       <c r="F846" s="2"/>
@@ -28607,9 +28601,9 @@
       <c r="Z846" s="2"/>
     </row>
     <row r="847" spans="1:26" ht="15">
-      <c r="A847" s="16"/>
-      <c r="B847" s="17"/>
-      <c r="C847" s="36"/>
+      <c r="A847" s="15"/>
+      <c r="B847" s="16"/>
+      <c r="C847" s="35"/>
       <c r="D847" s="2"/>
       <c r="E847" s="2"/>
       <c r="F847" s="2"/>
@@ -28635,9 +28629,9 @@
       <c r="Z847" s="2"/>
     </row>
     <row r="848" spans="1:26" ht="15">
-      <c r="A848" s="16"/>
-      <c r="B848" s="17"/>
-      <c r="C848" s="36"/>
+      <c r="A848" s="15"/>
+      <c r="B848" s="16"/>
+      <c r="C848" s="35"/>
       <c r="D848" s="2"/>
       <c r="E848" s="2"/>
       <c r="F848" s="2"/>
@@ -28663,9 +28657,9 @@
       <c r="Z848" s="2"/>
     </row>
     <row r="849" spans="1:26" ht="15">
-      <c r="A849" s="16"/>
-      <c r="B849" s="17"/>
-      <c r="C849" s="36"/>
+      <c r="A849" s="15"/>
+      <c r="B849" s="16"/>
+      <c r="C849" s="35"/>
       <c r="D849" s="2"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -28691,9 +28685,9 @@
       <c r="Z849" s="2"/>
     </row>
     <row r="850" spans="1:26" ht="15">
-      <c r="A850" s="16"/>
-      <c r="B850" s="17"/>
-      <c r="C850" s="36"/>
+      <c r="A850" s="15"/>
+      <c r="B850" s="16"/>
+      <c r="C850" s="35"/>
       <c r="D850" s="2"/>
       <c r="E850" s="2"/>
       <c r="F850" s="2"/>
@@ -28719,9 +28713,9 @@
       <c r="Z850" s="2"/>
     </row>
     <row r="851" spans="1:26" ht="15">
-      <c r="A851" s="16"/>
-      <c r="B851" s="17"/>
-      <c r="C851" s="36"/>
+      <c r="A851" s="15"/>
+      <c r="B851" s="16"/>
+      <c r="C851" s="35"/>
       <c r="D851" s="2"/>
       <c r="E851" s="2"/>
       <c r="F851" s="2"/>
@@ -28747,9 +28741,9 @@
       <c r="Z851" s="2"/>
     </row>
     <row r="852" spans="1:26" ht="15">
-      <c r="A852" s="16"/>
-      <c r="B852" s="17"/>
-      <c r="C852" s="36"/>
+      <c r="A852" s="15"/>
+      <c r="B852" s="16"/>
+      <c r="C852" s="35"/>
       <c r="D852" s="2"/>
       <c r="E852" s="2"/>
       <c r="F852" s="2"/>
@@ -28775,9 +28769,9 @@
       <c r="Z852" s="2"/>
     </row>
     <row r="853" spans="1:26" ht="15">
-      <c r="A853" s="16"/>
-      <c r="B853" s="17"/>
-      <c r="C853" s="36"/>
+      <c r="A853" s="15"/>
+      <c r="B853" s="16"/>
+      <c r="C853" s="35"/>
       <c r="D853" s="2"/>
       <c r="E853" s="2"/>
       <c r="F853" s="2"/>
@@ -28803,9 +28797,9 @@
       <c r="Z853" s="2"/>
     </row>
     <row r="854" spans="1:26" ht="15">
-      <c r="A854" s="16"/>
-      <c r="B854" s="17"/>
-      <c r="C854" s="36"/>
+      <c r="A854" s="15"/>
+      <c r="B854" s="16"/>
+      <c r="C854" s="35"/>
       <c r="D854" s="2"/>
       <c r="E854" s="2"/>
       <c r="F854" s="2"/>
@@ -28831,9 +28825,9 @@
       <c r="Z854" s="2"/>
     </row>
     <row r="855" spans="1:26" ht="15">
-      <c r="A855" s="16"/>
-      <c r="B855" s="17"/>
-      <c r="C855" s="36"/>
+      <c r="A855" s="15"/>
+      <c r="B855" s="16"/>
+      <c r="C855" s="35"/>
       <c r="D855" s="2"/>
       <c r="E855" s="2"/>
       <c r="F855" s="2"/>
@@ -28859,9 +28853,9 @@
       <c r="Z855" s="2"/>
     </row>
     <row r="856" spans="1:26" ht="15">
-      <c r="A856" s="16"/>
-      <c r="B856" s="17"/>
-      <c r="C856" s="36"/>
+      <c r="A856" s="15"/>
+      <c r="B856" s="16"/>
+      <c r="C856" s="35"/>
       <c r="D856" s="2"/>
       <c r="E856" s="2"/>
       <c r="F856" s="2"/>
@@ -28887,9 +28881,9 @@
       <c r="Z856" s="2"/>
     </row>
     <row r="857" spans="1:26" ht="15">
-      <c r="A857" s="16"/>
-      <c r="B857" s="17"/>
-      <c r="C857" s="36"/>
+      <c r="A857" s="15"/>
+      <c r="B857" s="16"/>
+      <c r="C857" s="35"/>
       <c r="D857" s="2"/>
       <c r="E857" s="2"/>
       <c r="F857" s="2"/>
@@ -28915,9 +28909,9 @@
       <c r="Z857" s="2"/>
     </row>
     <row r="858" spans="1:26" ht="15">
-      <c r="A858" s="16"/>
-      <c r="B858" s="17"/>
-      <c r="C858" s="36"/>
+      <c r="A858" s="15"/>
+      <c r="B858" s="16"/>
+      <c r="C858" s="35"/>
       <c r="D858" s="2"/>
       <c r="E858" s="2"/>
       <c r="F858" s="2"/>
@@ -28943,9 +28937,9 @@
       <c r="Z858" s="2"/>
     </row>
     <row r="859" spans="1:26" ht="15">
-      <c r="A859" s="16"/>
-      <c r="B859" s="17"/>
-      <c r="C859" s="36"/>
+      <c r="A859" s="15"/>
+      <c r="B859" s="16"/>
+      <c r="C859" s="35"/>
       <c r="D859" s="2"/>
       <c r="E859" s="2"/>
       <c r="F859" s="2"/>
@@ -28971,9 +28965,9 @@
       <c r="Z859" s="2"/>
     </row>
     <row r="860" spans="1:26" ht="15">
-      <c r="A860" s="16"/>
-      <c r="B860" s="17"/>
-      <c r="C860" s="36"/>
+      <c r="A860" s="15"/>
+      <c r="B860" s="16"/>
+      <c r="C860" s="35"/>
       <c r="D860" s="2"/>
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
@@ -28999,9 +28993,9 @@
       <c r="Z860" s="2"/>
     </row>
     <row r="861" spans="1:26" ht="15">
-      <c r="A861" s="16"/>
-      <c r="B861" s="17"/>
-      <c r="C861" s="36"/>
+      <c r="A861" s="15"/>
+      <c r="B861" s="16"/>
+      <c r="C861" s="35"/>
       <c r="D861" s="2"/>
       <c r="E861" s="2"/>
       <c r="F861" s="2"/>
@@ -29027,9 +29021,9 @@
       <c r="Z861" s="2"/>
     </row>
     <row r="862" spans="1:26" ht="15">
-      <c r="A862" s="16"/>
-      <c r="B862" s="17"/>
-      <c r="C862" s="36"/>
+      <c r="A862" s="15"/>
+      <c r="B862" s="16"/>
+      <c r="C862" s="35"/>
       <c r="D862" s="2"/>
       <c r="E862" s="2"/>
       <c r="F862" s="2"/>
@@ -29055,9 +29049,9 @@
       <c r="Z862" s="2"/>
     </row>
     <row r="863" spans="1:26" ht="15">
-      <c r="A863" s="16"/>
-      <c r="B863" s="17"/>
-      <c r="C863" s="36"/>
+      <c r="A863" s="15"/>
+      <c r="B863" s="16"/>
+      <c r="C863" s="35"/>
       <c r="D863" s="2"/>
       <c r="E863" s="2"/>
       <c r="F863" s="2"/>
@@ -29083,9 +29077,9 @@
       <c r="Z863" s="2"/>
     </row>
     <row r="864" spans="1:26" ht="15">
-      <c r="A864" s="16"/>
-      <c r="B864" s="17"/>
-      <c r="C864" s="36"/>
+      <c r="A864" s="15"/>
+      <c r="B864" s="16"/>
+      <c r="C864" s="35"/>
       <c r="D864" s="2"/>
       <c r="E864" s="2"/>
       <c r="F864" s="2"/>
@@ -29111,9 +29105,9 @@
       <c r="Z864" s="2"/>
     </row>
     <row r="865" spans="1:26" ht="15">
-      <c r="A865" s="16"/>
-      <c r="B865" s="17"/>
-      <c r="C865" s="36"/>
+      <c r="A865" s="15"/>
+      <c r="B865" s="16"/>
+      <c r="C865" s="35"/>
       <c r="D865" s="2"/>
       <c r="E865" s="2"/>
       <c r="F865" s="2"/>
@@ -29139,9 +29133,9 @@
       <c r="Z865" s="2"/>
     </row>
     <row r="866" spans="1:26" ht="15">
-      <c r="A866" s="16"/>
-      <c r="B866" s="17"/>
-      <c r="C866" s="36"/>
+      <c r="A866" s="15"/>
+      <c r="B866" s="16"/>
+      <c r="C866" s="35"/>
       <c r="D866" s="2"/>
       <c r="E866" s="2"/>
       <c r="F866" s="2"/>
@@ -29167,9 +29161,9 @@
       <c r="Z866" s="2"/>
     </row>
     <row r="867" spans="1:26" ht="15">
-      <c r="A867" s="16"/>
-      <c r="B867" s="17"/>
-      <c r="C867" s="36"/>
+      <c r="A867" s="15"/>
+      <c r="B867" s="16"/>
+      <c r="C867" s="35"/>
       <c r="D867" s="2"/>
       <c r="E867" s="2"/>
       <c r="F867" s="2"/>
@@ -29195,9 +29189,9 @@
       <c r="Z867" s="2"/>
     </row>
     <row r="868" spans="1:26" ht="15">
-      <c r="A868" s="16"/>
-      <c r="B868" s="17"/>
-      <c r="C868" s="36"/>
+      <c r="A868" s="15"/>
+      <c r="B868" s="16"/>
+      <c r="C868" s="35"/>
       <c r="D868" s="2"/>
       <c r="E868" s="2"/>
       <c r="F868" s="2"/>
@@ -29223,9 +29217,9 @@
       <c r="Z868" s="2"/>
     </row>
     <row r="869" spans="1:26" ht="15">
-      <c r="A869" s="16"/>
-      <c r="B869" s="17"/>
-      <c r="C869" s="36"/>
+      <c r="A869" s="15"/>
+      <c r="B869" s="16"/>
+      <c r="C869" s="35"/>
       <c r="D869" s="2"/>
       <c r="E869" s="2"/>
       <c r="F869" s="2"/>
@@ -29251,9 +29245,9 @@
       <c r="Z869" s="2"/>
     </row>
     <row r="870" spans="1:26" ht="15">
-      <c r="A870" s="16"/>
-      <c r="B870" s="17"/>
-      <c r="C870" s="36"/>
+      <c r="A870" s="15"/>
+      <c r="B870" s="16"/>
+      <c r="C870" s="35"/>
       <c r="D870" s="2"/>
       <c r="E870" s="2"/>
       <c r="F870" s="2"/>
@@ -29279,9 +29273,9 @@
       <c r="Z870" s="2"/>
     </row>
     <row r="871" spans="1:26" ht="15">
-      <c r="A871" s="16"/>
-      <c r="B871" s="17"/>
-      <c r="C871" s="36"/>
+      <c r="A871" s="15"/>
+      <c r="B871" s="16"/>
+      <c r="C871" s="35"/>
       <c r="D871" s="2"/>
       <c r="E871" s="2"/>
       <c r="F871" s="2"/>
@@ -29307,9 +29301,9 @@
       <c r="Z871" s="2"/>
     </row>
     <row r="872" spans="1:26" ht="15">
-      <c r="A872" s="16"/>
-      <c r="B872" s="17"/>
-      <c r="C872" s="36"/>
+      <c r="A872" s="15"/>
+      <c r="B872" s="16"/>
+      <c r="C872" s="35"/>
       <c r="D872" s="2"/>
       <c r="E872" s="2"/>
       <c r="F872" s="2"/>
@@ -29335,9 +29329,9 @@
       <c r="Z872" s="2"/>
     </row>
     <row r="873" spans="1:26" ht="15">
-      <c r="A873" s="16"/>
-      <c r="B873" s="17"/>
-      <c r="C873" s="36"/>
+      <c r="A873" s="15"/>
+      <c r="B873" s="16"/>
+      <c r="C873" s="35"/>
       <c r="D873" s="2"/>
       <c r="E873" s="2"/>
       <c r="F873" s="2"/>
@@ -29363,9 +29357,9 @@
       <c r="Z873" s="2"/>
     </row>
     <row r="874" spans="1:26" ht="15">
-      <c r="A874" s="16"/>
-      <c r="B874" s="17"/>
-      <c r="C874" s="36"/>
+      <c r="A874" s="15"/>
+      <c r="B874" s="16"/>
+      <c r="C874" s="35"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -29391,9 +29385,9 @@
       <c r="Z874" s="2"/>
     </row>
     <row r="875" spans="1:26" ht="15">
-      <c r="A875" s="16"/>
-      <c r="B875" s="17"/>
-      <c r="C875" s="36"/>
+      <c r="A875" s="15"/>
+      <c r="B875" s="16"/>
+      <c r="C875" s="35"/>
       <c r="D875" s="2"/>
       <c r="E875" s="2"/>
       <c r="F875" s="2"/>
@@ -29419,9 +29413,9 @@
       <c r="Z875" s="2"/>
     </row>
     <row r="876" spans="1:26" ht="15">
-      <c r="A876" s="16"/>
-      <c r="B876" s="17"/>
-      <c r="C876" s="36"/>
+      <c r="A876" s="15"/>
+      <c r="B876" s="16"/>
+      <c r="C876" s="35"/>
       <c r="D876" s="2"/>
       <c r="E876" s="2"/>
       <c r="F876" s="2"/>
@@ -29447,9 +29441,9 @@
       <c r="Z876" s="2"/>
     </row>
     <row r="877" spans="1:26" ht="15">
-      <c r="A877" s="16"/>
-      <c r="B877" s="17"/>
-      <c r="C877" s="36"/>
+      <c r="A877" s="15"/>
+      <c r="B877" s="16"/>
+      <c r="C877" s="35"/>
       <c r="D877" s="2"/>
       <c r="E877" s="2"/>
       <c r="F877" s="2"/>
@@ -29475,9 +29469,9 @@
       <c r="Z877" s="2"/>
     </row>
     <row r="878" spans="1:26" ht="15">
-      <c r="A878" s="16"/>
-      <c r="B878" s="17"/>
-      <c r="C878" s="36"/>
+      <c r="A878" s="15"/>
+      <c r="B878" s="16"/>
+      <c r="C878" s="35"/>
       <c r="D878" s="2"/>
       <c r="E878" s="2"/>
       <c r="F878" s="2"/>
@@ -29503,9 +29497,9 @@
       <c r="Z878" s="2"/>
     </row>
     <row r="879" spans="1:26" ht="15">
-      <c r="A879" s="16"/>
-      <c r="B879" s="17"/>
-      <c r="C879" s="36"/>
+      <c r="A879" s="15"/>
+      <c r="B879" s="16"/>
+      <c r="C879" s="35"/>
       <c r="D879" s="2"/>
       <c r="E879" s="2"/>
       <c r="F879" s="2"/>
@@ -29531,9 +29525,9 @@
       <c r="Z879" s="2"/>
     </row>
     <row r="880" spans="1:26" ht="15">
-      <c r="A880" s="16"/>
-      <c r="B880" s="17"/>
-      <c r="C880" s="36"/>
+      <c r="A880" s="15"/>
+      <c r="B880" s="16"/>
+      <c r="C880" s="35"/>
       <c r="D880" s="2"/>
       <c r="E880" s="2"/>
       <c r="F880" s="2"/>
@@ -29559,9 +29553,9 @@
       <c r="Z880" s="2"/>
     </row>
     <row r="881" spans="1:26" ht="15">
-      <c r="A881" s="16"/>
-      <c r="B881" s="17"/>
-      <c r="C881" s="36"/>
+      <c r="A881" s="15"/>
+      <c r="B881" s="16"/>
+      <c r="C881" s="35"/>
       <c r="D881" s="2"/>
       <c r="E881" s="2"/>
       <c r="F881" s="2"/>
@@ -29587,9 +29581,9 @@
       <c r="Z881" s="2"/>
     </row>
     <row r="882" spans="1:26" ht="15">
-      <c r="A882" s="16"/>
-      <c r="B882" s="17"/>
-      <c r="C882" s="36"/>
+      <c r="A882" s="15"/>
+      <c r="B882" s="16"/>
+      <c r="C882" s="35"/>
       <c r="D882" s="2"/>
       <c r="E882" s="2"/>
       <c r="F882" s="2"/>
@@ -29615,9 +29609,9 @@
       <c r="Z882" s="2"/>
     </row>
     <row r="883" spans="1:26" ht="15">
-      <c r="A883" s="16"/>
-      <c r="B883" s="17"/>
-      <c r="C883" s="36"/>
+      <c r="A883" s="15"/>
+      <c r="B883" s="16"/>
+      <c r="C883" s="35"/>
       <c r="D883" s="2"/>
       <c r="E883" s="2"/>
       <c r="F883" s="2"/>
@@ -29643,9 +29637,9 @@
       <c r="Z883" s="2"/>
     </row>
     <row r="884" spans="1:26" ht="15">
-      <c r="A884" s="16"/>
-      <c r="B884" s="17"/>
-      <c r="C884" s="36"/>
+      <c r="A884" s="15"/>
+      <c r="B884" s="16"/>
+      <c r="C884" s="35"/>
       <c r="D884" s="2"/>
       <c r="E884" s="2"/>
       <c r="F884" s="2"/>
@@ -29671,9 +29665,9 @@
       <c r="Z884" s="2"/>
     </row>
     <row r="885" spans="1:26" ht="15">
-      <c r="A885" s="16"/>
-      <c r="B885" s="17"/>
-      <c r="C885" s="36"/>
+      <c r="A885" s="15"/>
+      <c r="B885" s="16"/>
+      <c r="C885" s="35"/>
       <c r="D885" s="2"/>
       <c r="E885" s="2"/>
       <c r="F885" s="2"/>
@@ -29699,9 +29693,9 @@
       <c r="Z885" s="2"/>
     </row>
     <row r="886" spans="1:26" ht="15">
-      <c r="A886" s="16"/>
-      <c r="B886" s="17"/>
-      <c r="C886" s="36"/>
+      <c r="A886" s="15"/>
+      <c r="B886" s="16"/>
+      <c r="C886" s="35"/>
       <c r="D886" s="2"/>
       <c r="E886" s="2"/>
       <c r="F886" s="2"/>
@@ -29727,9 +29721,9 @@
       <c r="Z886" s="2"/>
     </row>
     <row r="887" spans="1:26" ht="15">
-      <c r="A887" s="16"/>
-      <c r="B887" s="17"/>
-      <c r="C887" s="36"/>
+      <c r="A887" s="15"/>
+      <c r="B887" s="16"/>
+      <c r="C887" s="35"/>
       <c r="D887" s="2"/>
       <c r="E887" s="2"/>
       <c r="F887" s="2"/>
@@ -29755,9 +29749,9 @@
       <c r="Z887" s="2"/>
     </row>
     <row r="888" spans="1:26" ht="15">
-      <c r="A888" s="16"/>
-      <c r="B888" s="17"/>
-      <c r="C888" s="36"/>
+      <c r="A888" s="15"/>
+      <c r="B888" s="16"/>
+      <c r="C888" s="35"/>
       <c r="D888" s="2"/>
       <c r="E888" s="2"/>
       <c r="F888" s="2"/>
@@ -29783,9 +29777,9 @@
       <c r="Z888" s="2"/>
     </row>
     <row r="889" spans="1:26" ht="15">
-      <c r="A889" s="16"/>
-      <c r="B889" s="17"/>
-      <c r="C889" s="36"/>
+      <c r="A889" s="15"/>
+      <c r="B889" s="16"/>
+      <c r="C889" s="35"/>
       <c r="D889" s="2"/>
       <c r="E889" s="2"/>
       <c r="F889" s="2"/>
@@ -29811,9 +29805,9 @@
       <c r="Z889" s="2"/>
     </row>
     <row r="890" spans="1:26" ht="15">
-      <c r="A890" s="16"/>
-      <c r="B890" s="17"/>
-      <c r="C890" s="36"/>
+      <c r="A890" s="15"/>
+      <c r="B890" s="16"/>
+      <c r="C890" s="35"/>
       <c r="D890" s="2"/>
       <c r="E890" s="2"/>
       <c r="F890" s="2"/>
@@ -29839,9 +29833,9 @@
       <c r="Z890" s="2"/>
     </row>
     <row r="891" spans="1:26" ht="15">
-      <c r="A891" s="16"/>
-      <c r="B891" s="17"/>
-      <c r="C891" s="36"/>
+      <c r="A891" s="15"/>
+      <c r="B891" s="16"/>
+      <c r="C891" s="35"/>
       <c r="D891" s="2"/>
       <c r="E891" s="2"/>
       <c r="F891" s="2"/>
@@ -29867,9 +29861,9 @@
       <c r="Z891" s="2"/>
     </row>
     <row r="892" spans="1:26" ht="15">
-      <c r="A892" s="16"/>
-      <c r="B892" s="17"/>
-      <c r="C892" s="36"/>
+      <c r="A892" s="15"/>
+      <c r="B892" s="16"/>
+      <c r="C892" s="35"/>
       <c r="D892" s="2"/>
       <c r="E892" s="2"/>
       <c r="F892" s="2"/>
@@ -29895,9 +29889,9 @@
       <c r="Z892" s="2"/>
     </row>
     <row r="893" spans="1:26" ht="15">
-      <c r="A893" s="16"/>
-      <c r="B893" s="17"/>
-      <c r="C893" s="36"/>
+      <c r="A893" s="15"/>
+      <c r="B893" s="16"/>
+      <c r="C893" s="35"/>
       <c r="D893" s="2"/>
       <c r="E893" s="2"/>
       <c r="F893" s="2"/>
@@ -29923,9 +29917,9 @@
       <c r="Z893" s="2"/>
     </row>
     <row r="894" spans="1:26" ht="15">
-      <c r="A894" s="16"/>
-      <c r="B894" s="17"/>
-      <c r="C894" s="36"/>
+      <c r="A894" s="15"/>
+      <c r="B894" s="16"/>
+      <c r="C894" s="35"/>
       <c r="D894" s="2"/>
       <c r="E894" s="2"/>
       <c r="F894" s="2"/>
@@ -29951,9 +29945,9 @@
       <c r="Z894" s="2"/>
     </row>
     <row r="895" spans="1:26" ht="15">
-      <c r="A895" s="16"/>
-      <c r="B895" s="17"/>
-      <c r="C895" s="36"/>
+      <c r="A895" s="15"/>
+      <c r="B895" s="16"/>
+      <c r="C895" s="35"/>
       <c r="D895" s="2"/>
       <c r="E895" s="2"/>
       <c r="F895" s="2"/>
@@ -29979,9 +29973,9 @@
       <c r="Z895" s="2"/>
     </row>
     <row r="896" spans="1:26" ht="15">
-      <c r="A896" s="16"/>
-      <c r="B896" s="17"/>
-      <c r="C896" s="36"/>
+      <c r="A896" s="15"/>
+      <c r="B896" s="16"/>
+      <c r="C896" s="35"/>
       <c r="D896" s="2"/>
       <c r="E896" s="2"/>
       <c r="F896" s="2"/>
@@ -30007,9 +30001,9 @@
       <c r="Z896" s="2"/>
     </row>
     <row r="897" spans="1:26" ht="15">
-      <c r="A897" s="16"/>
-      <c r="B897" s="17"/>
-      <c r="C897" s="36"/>
+      <c r="A897" s="15"/>
+      <c r="B897" s="16"/>
+      <c r="C897" s="35"/>
       <c r="D897" s="2"/>
       <c r="E897" s="2"/>
       <c r="F897" s="2"/>
@@ -30035,9 +30029,9 @@
       <c r="Z897" s="2"/>
     </row>
     <row r="898" spans="1:26" ht="15">
-      <c r="A898" s="16"/>
-      <c r="B898" s="17"/>
-      <c r="C898" s="36"/>
+      <c r="A898" s="15"/>
+      <c r="B898" s="16"/>
+      <c r="C898" s="35"/>
       <c r="D898" s="2"/>
       <c r="E898" s="2"/>
       <c r="F898" s="2"/>
@@ -30063,9 +30057,9 @@
       <c r="Z898" s="2"/>
     </row>
     <row r="899" spans="1:26" ht="15">
-      <c r="A899" s="16"/>
-      <c r="B899" s="17"/>
-      <c r="C899" s="36"/>
+      <c r="A899" s="15"/>
+      <c r="B899" s="16"/>
+      <c r="C899" s="35"/>
       <c r="D899" s="2"/>
       <c r="E899" s="2"/>
       <c r="F899" s="2"/>
@@ -30091,9 +30085,9 @@
       <c r="Z899" s="2"/>
     </row>
     <row r="900" spans="1:26" ht="15">
-      <c r="A900" s="16"/>
-      <c r="B900" s="17"/>
-      <c r="C900" s="36"/>
+      <c r="A900" s="15"/>
+      <c r="B900" s="16"/>
+      <c r="C900" s="35"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -30119,9 +30113,9 @@
       <c r="Z900" s="2"/>
     </row>
     <row r="901" spans="1:26" ht="15">
-      <c r="A901" s="16"/>
-      <c r="B901" s="17"/>
-      <c r="C901" s="36"/>
+      <c r="A901" s="15"/>
+      <c r="B901" s="16"/>
+      <c r="C901" s="35"/>
       <c r="D901" s="2"/>
       <c r="E901" s="2"/>
       <c r="F901" s="2"/>
@@ -30147,9 +30141,9 @@
       <c r="Z901" s="2"/>
     </row>
     <row r="902" spans="1:26" ht="15">
-      <c r="A902" s="16"/>
-      <c r="B902" s="17"/>
-      <c r="C902" s="36"/>
+      <c r="A902" s="15"/>
+      <c r="B902" s="16"/>
+      <c r="C902" s="35"/>
       <c r="D902" s="2"/>
       <c r="E902" s="2"/>
       <c r="F902" s="2"/>
@@ -30175,9 +30169,9 @@
       <c r="Z902" s="2"/>
     </row>
     <row r="903" spans="1:26" ht="15">
-      <c r="A903" s="16"/>
-      <c r="B903" s="17"/>
-      <c r="C903" s="36"/>
+      <c r="A903" s="15"/>
+      <c r="B903" s="16"/>
+      <c r="C903" s="35"/>
       <c r="D903" s="2"/>
       <c r="E903" s="2"/>
       <c r="F903" s="2"/>
@@ -30203,9 +30197,9 @@
       <c r="Z903" s="2"/>
     </row>
     <row r="904" spans="1:26" ht="15">
-      <c r="A904" s="16"/>
-      <c r="B904" s="17"/>
-      <c r="C904" s="36"/>
+      <c r="A904" s="15"/>
+      <c r="B904" s="16"/>
+      <c r="C904" s="35"/>
       <c r="D904" s="2"/>
       <c r="E904" s="2"/>
       <c r="F904" s="2"/>
@@ -30231,9 +30225,9 @@
       <c r="Z904" s="2"/>
     </row>
     <row r="905" spans="1:26" ht="15">
-      <c r="A905" s="16"/>
-      <c r="B905" s="17"/>
-      <c r="C905" s="36"/>
+      <c r="A905" s="15"/>
+      <c r="B905" s="16"/>
+      <c r="C905" s="35"/>
       <c r="D905" s="2"/>
       <c r="E905" s="2"/>
       <c r="F905" s="2"/>
@@ -30259,9 +30253,9 @@
       <c r="Z905" s="2"/>
     </row>
     <row r="906" spans="1:26" ht="15">
-      <c r="A906" s="16"/>
-      <c r="B906" s="17"/>
-      <c r="C906" s="36"/>
+      <c r="A906" s="15"/>
+      <c r="B906" s="16"/>
+      <c r="C906" s="35"/>
       <c r="D906" s="2"/>
       <c r="E906" s="2"/>
       <c r="F906" s="2"/>
@@ -30287,9 +30281,9 @@
       <c r="Z906" s="2"/>
     </row>
     <row r="907" spans="1:26" ht="15">
-      <c r="A907" s="16"/>
-      <c r="B907" s="17"/>
-      <c r="C907" s="36"/>
+      <c r="A907" s="15"/>
+      <c r="B907" s="16"/>
+      <c r="C907" s="35"/>
       <c r="D907" s="2"/>
       <c r="E907" s="2"/>
       <c r="F907" s="2"/>
@@ -30315,9 +30309,9 @@
       <c r="Z907" s="2"/>
     </row>
     <row r="908" spans="1:26" ht="15">
-      <c r="A908" s="16"/>
-      <c r="B908" s="17"/>
-      <c r="C908" s="36"/>
+      <c r="A908" s="15"/>
+      <c r="B908" s="16"/>
+      <c r="C908" s="35"/>
       <c r="D908" s="2"/>
       <c r="E908" s="2"/>
       <c r="F908" s="2"/>
@@ -30343,9 +30337,9 @@
       <c r="Z908" s="2"/>
     </row>
     <row r="909" spans="1:26" ht="15">
-      <c r="A909" s="16"/>
-      <c r="B909" s="17"/>
-      <c r="C909" s="36"/>
+      <c r="A909" s="15"/>
+      <c r="B909" s="16"/>
+      <c r="C909" s="35"/>
       <c r="D909" s="2"/>
       <c r="E909" s="2"/>
       <c r="F909" s="2"/>
@@ -30371,9 +30365,9 @@
       <c r="Z909" s="2"/>
     </row>
     <row r="910" spans="1:26" ht="15">
-      <c r="A910" s="16"/>
-      <c r="B910" s="17"/>
-      <c r="C910" s="36"/>
+      <c r="A910" s="15"/>
+      <c r="B910" s="16"/>
+      <c r="C910" s="35"/>
       <c r="D910" s="2"/>
       <c r="E910" s="2"/>
       <c r="F910" s="2"/>
@@ -30399,9 +30393,9 @@
       <c r="Z910" s="2"/>
     </row>
     <row r="911" spans="1:26" ht="15">
-      <c r="A911" s="16"/>
-      <c r="B911" s="17"/>
-      <c r="C911" s="36"/>
+      <c r="A911" s="15"/>
+      <c r="B911" s="16"/>
+      <c r="C911" s="35"/>
       <c r="D911" s="2"/>
       <c r="E911" s="2"/>
       <c r="F911" s="2"/>
@@ -30427,9 +30421,9 @@
       <c r="Z911" s="2"/>
     </row>
     <row r="912" spans="1:26" ht="15">
-      <c r="A912" s="16"/>
-      <c r="B912" s="17"/>
-      <c r="C912" s="36"/>
+      <c r="A912" s="15"/>
+      <c r="B912" s="16"/>
+      <c r="C912" s="35"/>
       <c r="D912" s="2"/>
       <c r="E912" s="2"/>
       <c r="F912" s="2"/>
@@ -30455,9 +30449,9 @@
       <c r="Z912" s="2"/>
     </row>
     <row r="913" spans="1:26" ht="15">
-      <c r="A913" s="16"/>
-      <c r="B913" s="17"/>
-      <c r="C913" s="36"/>
+      <c r="A913" s="15"/>
+      <c r="B913" s="16"/>
+      <c r="C913" s="35"/>
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
       <c r="F913" s="2"/>
@@ -30483,9 +30477,9 @@
       <c r="Z913" s="2"/>
     </row>
     <row r="914" spans="1:26" ht="15">
-      <c r="A914" s="16"/>
-      <c r="B914" s="17"/>
-      <c r="C914" s="36"/>
+      <c r="A914" s="15"/>
+      <c r="B914" s="16"/>
+      <c r="C914" s="35"/>
       <c r="D914" s="2"/>
       <c r="E914" s="2"/>
       <c r="F914" s="2"/>
@@ -30511,9 +30505,9 @@
       <c r="Z914" s="2"/>
     </row>
     <row r="915" spans="1:26" ht="15">
-      <c r="A915" s="16"/>
-      <c r="B915" s="17"/>
-      <c r="C915" s="36"/>
+      <c r="A915" s="15"/>
+      <c r="B915" s="16"/>
+      <c r="C915" s="35"/>
       <c r="D915" s="2"/>
       <c r="E915" s="2"/>
       <c r="F915" s="2"/>
@@ -30539,9 +30533,9 @@
       <c r="Z915" s="2"/>
     </row>
     <row r="916" spans="1:26" ht="15">
-      <c r="A916" s="16"/>
-      <c r="B916" s="17"/>
-      <c r="C916" s="36"/>
+      <c r="A916" s="15"/>
+      <c r="B916" s="16"/>
+      <c r="C916" s="35"/>
       <c r="D916" s="2"/>
       <c r="E916" s="2"/>
       <c r="F916" s="2"/>
@@ -30567,9 +30561,9 @@
       <c r="Z916" s="2"/>
     </row>
     <row r="917" spans="1:26" ht="15">
-      <c r="A917" s="16"/>
-      <c r="B917" s="17"/>
-      <c r="C917" s="36"/>
+      <c r="A917" s="15"/>
+      <c r="B917" s="16"/>
+      <c r="C917" s="35"/>
       <c r="D917" s="2"/>
       <c r="E917" s="2"/>
       <c r="F917" s="2"/>
@@ -30595,9 +30589,9 @@
       <c r="Z917" s="2"/>
     </row>
     <row r="918" spans="1:26" ht="15">
-      <c r="A918" s="16"/>
-      <c r="B918" s="17"/>
-      <c r="C918" s="36"/>
+      <c r="A918" s="15"/>
+      <c r="B918" s="16"/>
+      <c r="C918" s="35"/>
       <c r="D918" s="2"/>
       <c r="E918" s="2"/>
       <c r="F918" s="2"/>
@@ -30623,9 +30617,9 @@
       <c r="Z918" s="2"/>
     </row>
     <row r="919" spans="1:26" ht="15">
-      <c r="A919" s="16"/>
-      <c r="B919" s="17"/>
-      <c r="C919" s="36"/>
+      <c r="A919" s="15"/>
+      <c r="B919" s="16"/>
+      <c r="C919" s="35"/>
       <c r="D919" s="2"/>
       <c r="E919" s="2"/>
       <c r="F919" s="2"/>
@@ -31076,28 +31070,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" ht="13.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>
@@ -31137,13 +31131,13 @@
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>659</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>13</v>
       </c>
     </row>
@@ -31154,63 +31148,63 @@
       <c r="B12" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>667</v>
       </c>
     </row>
@@ -31218,7 +31212,7 @@
       <c r="A24" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>668</v>
       </c>
     </row>
@@ -31226,16 +31220,16 @@
       <c r="A25" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="38"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:2" ht="15.6">
@@ -31250,7 +31244,7 @@
       <c r="A29" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>671</v>
       </c>
     </row>
@@ -31266,7 +31260,7 @@
       <c r="A31" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>673</v>
       </c>
     </row>
@@ -31279,11 +31273,11 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6">
-      <c r="A33" s="38"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:2" ht="15.6">
-      <c r="A34" s="38"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" ht="15.6">
@@ -31335,7 +31329,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6">
-      <c r="A44" s="38"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" ht="15.6">
@@ -31355,11 +31349,11 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6">
-      <c r="A47" s="38"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2" ht="15.6">
-      <c r="A48" s="38"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" ht="15.6">
@@ -31371,11 +31365,11 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6">
-      <c r="A50" s="38"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="14"/>
     </row>
     <row r="51" spans="1:2" ht="15.6">
-      <c r="A51" s="38"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:2" ht="15.6">
@@ -31419,11 +31413,11 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6">
-      <c r="A57" s="38"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:2" ht="15.6">
-      <c r="A58" s="38"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:2" ht="15.6">
@@ -31451,11 +31445,11 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6">
-      <c r="A62" s="38"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="12"/>
     </row>
     <row r="63" spans="1:2" ht="15.6">
-      <c r="A63" s="38"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="12"/>
     </row>
     <row r="64" spans="1:2" ht="15.6">

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{0E431290-4785-4511-9786-B81085FD917A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{0E431290-4785-4511-9786-B81085FD917A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2532,6 +2532,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2541,9 +2544,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2766,8 +2766,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2780,11 +2780,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2810,11 +2810,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2839,9 +2839,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2869,9 +2869,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2965,7 +2965,7 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -2999,7 +2999,7 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3612,7 +3612,7 @@
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -3646,7 +3646,7 @@
       <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -3680,7 +3680,7 @@
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -30646,21 +30646,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0E431290-4785-4511-9786-B81085FD917A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332"/>
+      <autoFilter ref="A11:C37"/>
+    </customSheetView>
+    <customSheetView guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37"/>
     </customSheetView>
     <customSheetView guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A11:D37"/>
     </customSheetView>
-    <customSheetView guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37"/>
-    </customSheetView>
-    <customSheetView guid="{0E431290-4785-4511-9786-B81085FD917A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37"/>
+      <autoFilter ref="A293:C332"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31070,28 +31070,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" ht="13.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{0E431290-4785-4511-9786-B81085FD917A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{0E431290-4785-4511-9786-B81085FD917A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2767,7 +2767,7 @@
   <dimension ref="A1:Z919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3716,7 +3716,7 @@
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -3750,7 +3750,7 @@
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -30646,21 +30646,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0E431290-4785-4511-9786-B81085FD917A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37"/>
+      <autoFilter ref="A293:C332"/>
+    </customSheetView>
+    <customSheetView guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37"/>
     </customSheetView>
     <customSheetView guid="{FA1CE57A-5361-48D1-AAD5-49F720EED3DD}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A11:D37"/>
     </customSheetView>
-    <customSheetView guid="{A150FFA4-B1A7-4468-9522-35601C6ECEF2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0E431290-4785-4511-9786-B81085FD917A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37"/>
-    </customSheetView>
-    <customSheetView guid="{D59B4A60-C855-42E5-AA10-B92E162D34EA}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332"/>
+      <autoFilter ref="A11:C37"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
